--- a/bookDB2.xlsx
+++ b/bookDB2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sme13\OneDrive\바탕 화면\dev\real-dnb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F505AE-F3CE-482E-BD88-99FE0787FE6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5927E6-FBA0-435E-B92E-98C9728386BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4490" yWindow="1800" windowWidth="14400" windowHeight="7360" xr2:uid="{509E9B0D-9459-46C0-BD3F-1330B5019B57}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{509E9B0D-9459-46C0-BD3F-1330B5019B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>여행</t>
   </si>
   <si>
-    <t>서울특별시 마포구 동교로 194 (동교동, 혜원빌딩)</t>
-  </si>
-  <si>
     <t>02-325-1984</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t>고메북스</t>
   </si>
   <si>
-    <t>경기도 고양시 일산서구 중앙로 1470 (주엽동 , 문촌마을 복합상가) B동 128호</t>
-  </si>
-  <si>
     <t>010-9248-8296</t>
   </si>
   <si>
@@ -384,9 +378,6 @@
     <t>ghostbooksinfo@gmail.com</t>
   </si>
   <si>
-    <t>Mon-Sun 13:00 ~ 20:00;(둘째, 넷째 주 화요일 휴무)</t>
-  </si>
-  <si>
     <t>예술서점;북카페;독립출판물서점;그림책</t>
   </si>
   <si>
@@ -666,9 +657,6 @@
     <t>그건그렇고</t>
   </si>
   <si>
-    <t>제주특별자치도 서귀포시 예래로68번길 11-8 (상예동, 마담제게스트하우스)</t>
-  </si>
-  <si>
     <t>010-7191-8780</t>
   </si>
   <si>
@@ -693,9 +681,6 @@
     <t>그래서책방</t>
   </si>
   <si>
-    <t>서울특별시 중구 동호로37길 20 (주교동, 방산종합시장) A동 2층 132호</t>
-  </si>
-  <si>
     <t>010-6224-5321</t>
   </si>
   <si>
@@ -891,9 +876,6 @@
     <t>공씨책방 성수점</t>
   </si>
   <si>
-    <t>서울특별시 성동구 광나루로 130 (성수동1가, 서울숲IT캐슬) 1층</t>
-  </si>
-  <si>
     <t>02-336-3058</t>
   </si>
   <si>
@@ -936,18 +918,12 @@
     <t>kim19party</t>
   </si>
   <si>
-    <t>Everyday 13:00 ~ 21:00;수요일 휴무</t>
-  </si>
-  <si>
     <t>음악서점;헌책방</t>
   </si>
   <si>
     <t>그림책 오올</t>
   </si>
   <si>
-    <t>서울특별시 강동구 양재대로97길 53-4 (성내동, 다원캐스빌) 1층</t>
-  </si>
-  <si>
     <t>02-488-5578</t>
   </si>
   <si>
@@ -972,9 +948,6 @@
     <t>글벗서점</t>
   </si>
   <si>
-    <t>서울특별시 마포구 신촌로 48 (동교동, 지하-1-2층)</t>
-  </si>
-  <si>
     <t>02-333-1382</t>
   </si>
   <si>
@@ -1050,9 +1023,6 @@
     <t>꽃길책길</t>
   </si>
   <si>
-    <t>경기도 수원시 영통구 매영로 10 (매탄동, 삼성2차아파트 상가동) 210호</t>
-  </si>
-  <si>
     <t>031-217-4657</t>
   </si>
   <si>
@@ -1071,9 +1041,6 @@
     <t>꽃피는책</t>
   </si>
   <si>
-    <t>서울특별시 양천구 목동중앙북로16길 58 (목동, 목동상가주택)</t>
-  </si>
-  <si>
     <t>010-2284-0858</t>
   </si>
   <si>
@@ -1095,9 +1062,6 @@
     <t>꿈꾸는별책방 광명점</t>
   </si>
   <si>
-    <t>경기도 광명시 광명로 855-1  (광명동) 101호</t>
-  </si>
-  <si>
     <t>02-2612-9188</t>
   </si>
   <si>
@@ -1131,9 +1095,6 @@
     <t>꿈꾸는책방</t>
   </si>
   <si>
-    <t>충청북도 청주시 상당구 중고개로 255 (금천동, 102호)</t>
-  </si>
-  <si>
     <t>043-222-5050</t>
   </si>
   <si>
@@ -1194,9 +1155,6 @@
     <t>나락서점</t>
   </si>
   <si>
-    <t>부산광역시 남구 전포대로110번길 8 (문현동, 삼영건구) 지하 1층</t>
-  </si>
-  <si>
     <t>010-5219-8406</t>
   </si>
   <si>
@@ -1221,9 +1179,6 @@
     <t>나무아래책방</t>
   </si>
   <si>
-    <t>경기도 수원시 영통구 에듀타운로 101 (이의동, 에듀하임오피스텔) 108동 B103호</t>
-  </si>
-  <si>
     <t>010-8581-7652</t>
   </si>
   <si>
@@ -1338,9 +1293,6 @@
     <t>노른자</t>
   </si>
   <si>
-    <t>서울특별시 영등포구 문래로4길 6 (문래동6가, 현대2차상가 1층)</t>
-  </si>
-  <si>
     <t>02-3667-6254</t>
   </si>
   <si>
@@ -1434,9 +1386,6 @@
     <t>다락</t>
   </si>
   <si>
-    <t>경기도 화성시 향남읍 발안양감로 193 (하길리, 에코프라자) 3층</t>
-  </si>
-  <si>
     <t>031-353-4368</t>
   </si>
   <si>
@@ -1665,9 +1614,6 @@
     <t>닻프레스 다크룸</t>
   </si>
   <si>
-    <t>서울특별시 광진구 아차산로 471 (구의동, CSPLAZA) 지하1층</t>
-  </si>
-  <si>
     <t>02-447-2581</t>
   </si>
   <si>
@@ -1938,9 +1884,6 @@
     <t>동네책방</t>
   </si>
   <si>
-    <t>서울특별시 동대문구 안암로6길 19 (용두동, 용두동집) 1층</t>
-  </si>
-  <si>
     <t>010-5745-0208</t>
   </si>
   <si>
@@ -2271,9 +2214,6 @@
     <t>러브앤프리</t>
   </si>
   <si>
-    <t>광주광역시 남구 천변좌로418번길 17  (양림동)</t>
-  </si>
-  <si>
     <t>010-8610-2012</t>
   </si>
   <si>
@@ -2292,9 +2232,6 @@
     <t>리지블루스</t>
   </si>
   <si>
-    <t>경기도 수원시 영통구 매탄로160번길 15 (매탄동) 1층</t>
-  </si>
-  <si>
     <t>010-4212-0330</t>
   </si>
   <si>
@@ -2421,9 +2358,6 @@
     <t>썬앤북스</t>
   </si>
   <si>
-    <t>제주특별자치도 제주시 인다6길 11 (아라일동, 1층)</t>
-  </si>
-  <si>
     <t>064-901-9014</t>
   </si>
   <si>
@@ -2514,9 +2448,6 @@
     <t>a_dok_bang</t>
   </si>
   <si>
-    <t>Mon-Fri 09:00 ~ 20:00;Sat10:00 ~ 15:00</t>
-  </si>
-  <si>
     <t>독립출판물서점;심리;여행;숍인숍</t>
   </si>
   <si>
@@ -2571,9 +2502,6 @@
     <t>아크앤북 성수점</t>
   </si>
   <si>
-    <t>서울특별시 성동구 성수이로14길 14 (성수동2가, 성수연방) 나동 2층 201호</t>
-  </si>
-  <si>
     <t>070-8822-2406</t>
   </si>
   <si>
@@ -2721,9 +2649,6 @@
     <t>앨리스의 별별책방</t>
   </si>
   <si>
-    <t>충청북도 청주시 흥덕구 짐대로42번길 26 (복대동, 102호)</t>
-  </si>
-  <si>
     <t>010-6567-7578</t>
   </si>
   <si>
@@ -2766,9 +2691,6 @@
     <t>어쩌다산책</t>
   </si>
   <si>
-    <t>서울특별시 종로구 동숭길 101 (동숭동, 현대엘리베이터) 지하 1층</t>
-  </si>
-  <si>
     <t>02-747-7147</t>
   </si>
   <si>
@@ -2874,9 +2796,6 @@
     <t>서울특별시 관악구 행운1길 70 (봉천동) 1호</t>
   </si>
   <si>
-    <t>0507-1301-4257</t>
-  </si>
-  <si>
     <t>https://linktr.ee/emptyfolders</t>
   </si>
   <si>
@@ -2898,17 +2817,9 @@
     <t>여우책방</t>
   </si>
   <si>
-    <t>경기도 과천시 별양상가1로 37 (별양동, 신라상가 B1)</t>
-  </si>
-  <si>
     <t>02-504-2578</t>
   </si>
   <si>
-    <t xml:space="preserve">
-www.facebook.com/YWbooks
-</t>
-  </si>
-  <si>
     <t>ywbooks</t>
   </si>
   <si>
@@ -2945,9 +2856,6 @@
     <t>서울특별시 관악구 봉천로 401-1 (봉천동) 2층</t>
   </si>
   <si>
-    <t>0507-1412-7914</t>
-  </si>
-  <si>
     <t>https://smartstore.naver.com/traveltown_book</t>
   </si>
   <si>
@@ -2996,9 +2904,6 @@
     <t>여행콘텐츠라운지 늘</t>
   </si>
   <si>
-    <t>서울특별시 영등포구 선유로55길 11 (양평동4가 ) 1층</t>
-  </si>
-  <si>
     <t>070-4035-5487</t>
   </si>
   <si>
@@ -3068,12 +2973,6 @@
     <t>연지책방</t>
   </si>
   <si>
-    <t>광주광역시 북구 우치로 178 (용봉동, 1층)</t>
-  </si>
-  <si>
-    <t>0507-1300-7982</t>
-  </si>
-  <si>
     <t>https://yjbookstore.com/</t>
   </si>
   <si>
@@ -3164,9 +3063,6 @@
     <t>오! 나의 책방</t>
   </si>
   <si>
-    <t>서울특별시 성동구 마장로 137 (상왕십리동, 텐즈힐 2층 160호)</t>
-  </si>
-  <si>
     <t>02-305-9762</t>
   </si>
   <si>
@@ -3206,9 +3102,6 @@
     <t>오늘의산책</t>
   </si>
   <si>
-    <t>부산광역시 영도구 와치로51번길 2 (청학동) 신기산업 잡화점 내</t>
-  </si>
-  <si>
     <t>https://blog.naver.com/stillwalking702</t>
   </si>
   <si>
@@ -3311,9 +3204,6 @@
     <t>오키로북스</t>
   </si>
   <si>
-    <t>경기도 부천시 경인로 211-1 (심곡본동, 2층-3층)</t>
-  </si>
-  <si>
     <t>010-4907-1870</t>
   </si>
   <si>
@@ -3407,9 +3297,6 @@
     <t>올오어낫싱</t>
   </si>
   <si>
-    <t>서울특별시 금천구 독산로 188 (독산동, 1층)</t>
-  </si>
-  <si>
     <t>02-867-7595</t>
   </si>
   <si>
@@ -3473,9 +3360,6 @@
     <t>perfectdays_sokcho</t>
   </si>
   <si>
-    <t>Everyday  10:00 ~ 21:00</t>
-  </si>
-  <si>
     <t>북스테이;북카페;복합문화공간;토스트;휴식</t>
   </si>
   <si>
@@ -3494,9 +3378,6 @@
     <t>bookstaywoogong</t>
   </si>
   <si>
-    <t>Tue-Sun 10:30 ~ 18:00</t>
-  </si>
-  <si>
     <t>북스테이;시;공방</t>
   </si>
   <si>
@@ -3578,9 +3459,6 @@
     <t>우분투북스</t>
   </si>
   <si>
-    <t>대전광역시 유성구 어은로51번길 53 (어은동, 1층)</t>
-  </si>
-  <si>
     <t>070-7840-1559</t>
   </si>
   <si>
@@ -3671,9 +3549,6 @@
     <t>서울특별시 종로구 창경궁로 271-1 (혜화동)</t>
   </si>
   <si>
-    <t>0507-1409-6015</t>
-  </si>
-  <si>
     <t>https://linktr.ee/witncynical</t>
   </si>
   <si>
@@ -3695,9 +3570,6 @@
     <t>유어마인드</t>
   </si>
   <si>
-    <t>서울특별시 서대문구 연희로11라길 10-6 (연희동, 2층 우측)</t>
-  </si>
-  <si>
     <t>070-8821-8990</t>
   </si>
   <si>
@@ -3875,9 +3747,6 @@
     <t>인디고서원</t>
   </si>
   <si>
-    <t>부산광역시 수영구 수영로408번길 28 (남천동, 인디고서원)</t>
-  </si>
-  <si>
     <t>051-628-2897</t>
   </si>
   <si>
@@ -3950,9 +3819,6 @@
     <t>인생서점</t>
   </si>
   <si>
-    <t>경기도 의정부시 송현로82번길 85 (민락동, 101호)</t>
-  </si>
-  <si>
     <t>031-852-0410</t>
   </si>
   <si>
@@ -3971,9 +3837,6 @@
     <t>일공공 연신내역점</t>
   </si>
   <si>
-    <t>서울특별시 은평구 통일로 833-6 (대조동, 대덕타워 지하 1층)</t>
-  </si>
-  <si>
     <t>02-355-1231</t>
   </si>
   <si>
@@ -3998,12 +3861,6 @@
     <t>일단불온</t>
   </si>
   <si>
-    <t>서울특별시 영등포구 당산로18길 16-1 (당산동1가 ) 1층</t>
-  </si>
-  <si>
-    <t>0507-1324-1802</t>
-  </si>
-  <si>
     <t>https://brunch.co.kr/@lshts0802</t>
   </si>
   <si>
@@ -4112,9 +3969,6 @@
     <t>제로헌드레드</t>
   </si>
   <si>
-    <t>서울특별시 마포구 망원로2길 19 (망원동, 호강주택 상가 1층 3호 공간비생산 내)</t>
-  </si>
-  <si>
     <t>010-5651-1324</t>
   </si>
   <si>
@@ -4169,9 +4023,6 @@
     <t>7458891@naver.com</t>
   </si>
   <si>
-    <t>Mon-Tue &amp; Thu-Sun 11:00 ~ 18:00</t>
-  </si>
-  <si>
     <t>인문사회과학서점;강아지;가정식서점</t>
   </si>
   <si>
@@ -4202,9 +4053,6 @@
     <t>조은이책</t>
   </si>
   <si>
-    <t>서울특별시 마포구 월드컵북로27길 6 (성산동) 200-39 1층</t>
-  </si>
-  <si>
     <t>070-7617-6949</t>
   </si>
   <si>
@@ -4259,9 +4107,6 @@
     <t>uni-verse@wereadmagazine.com</t>
   </si>
   <si>
-    <t>Tue-Sat 12:00 ~ 22:00;Sat 12:00 ~ 22:00;Sun 12:00 ~ 20:00</t>
-  </si>
-  <si>
     <t>해외출판물서점;잡지</t>
   </si>
   <si>
@@ -4316,9 +4161,6 @@
     <t>지구별서점</t>
   </si>
   <si>
-    <t>전라남도 목포시 수문로 63 (남교동 ) 1층</t>
-  </si>
-  <si>
     <t>010-5499-3511</t>
   </si>
   <si>
@@ -4415,9 +4257,6 @@
     <t>진부책방스튜디오</t>
   </si>
   <si>
-    <t>서울특별시 마포구 동교로25길 70  (연남동, 서강빌딩)</t>
-  </si>
-  <si>
     <t>070-5142-1600</t>
   </si>
   <si>
@@ -4439,9 +4278,6 @@
     <t>차방책방</t>
   </si>
   <si>
-    <t>대구광역시 중구 경상감영길 60  (종로1가, 중부경찰서 앞)</t>
-  </si>
-  <si>
     <t>053-353-4878</t>
   </si>
   <si>
@@ -4478,18 +4314,12 @@
     <t>epilog9@naver.com</t>
   </si>
   <si>
-    <t>Mon-Fri 13:00 ~ 22:00, Sat 10:00 ~ 17:00</t>
-  </si>
-  <si>
     <t>북카페;독서모임</t>
   </si>
   <si>
     <t>책과생활</t>
   </si>
   <si>
-    <t>광주광역시 동구 제봉로82번길 13-11 (서석동, 2층)</t>
-  </si>
-  <si>
     <t>070-8639-9231</t>
   </si>
   <si>
@@ -4502,9 +4332,6 @@
     <t>chaekand@gmail.com</t>
   </si>
   <si>
-    <t>Mon-Sat 12:00 ~ 21:00;Sun 13:00 ~ 19:00</t>
-  </si>
-  <si>
     <t>예술서점;인문사회과학서점;독립출판물서점;자연;다양한프로그램</t>
   </si>
   <si>
@@ -4586,15 +4413,9 @@
     <t>Tue-Sat 19:00 ~ 01:30</t>
   </si>
   <si>
-    <t>술;바;책추천;술;음악</t>
-  </si>
-  <si>
     <t>책발전소 광교</t>
   </si>
   <si>
-    <t>경기도 수원시 영통구 광교호수공원로 80 (원천동, 광교아이파크) B동 1층 117호, 118호</t>
-  </si>
-  <si>
     <t>031-548-4522</t>
   </si>
   <si>
@@ -4647,9 +4468,6 @@
   </si>
   <si>
     <t>책방 너머</t>
-  </si>
-  <si>
-    <t>부산광역시 강서구 신호산단1로 101 (신호동, 부산신호사랑으로부영5차)  101 상가동 103호</t>
   </si>
   <si>
     <t>010-6711-6063</t>
@@ -4702,6 +4520,241 @@
   </si>
   <si>
     <t>예술서점;북카페;책추천;전시공연;독립출판물서점;포스터;술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.facebook.com/Ywbooks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon-Fri 13:00 ~ 22:00;Sat 10:00 ~ 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tue-Sat 12:00 ~ 22:00;Sun 12:00 ~ 20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술;바;책추천;음악;심야서점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thu-Tue 11:00 ~ 18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon-Sun 13:00 ~ 20:00;둘째, 넷째 주 화요일 휴무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thu-Tue 13:00 ~ 21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon-Fri 09:00 ~ 20:00;Sat 10:00 ~ 15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everyday 10:00 ~ 21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tue-Sun 10:30 ~ 18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon-Sat 12:00 ~ 21:00;Sun 13:00 ~ 19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 마포구 동교로 194 (동교동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 고양시 일산서구 중앙로 1470 (주엽동) B동 128호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주특별자치도 서귀포시 예래로68번길 11-8 (상예동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 중구 동호로37길 20 (주교동) A동 2층 132호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 성동구 광나루로 130 (성수동1가) 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 강동구 양재대로97길 53-4 (성내동) 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 마포구 신촌로 48 (동교동) 지하~2층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 수원시 영통구 매영로 10 (매탄동) 210호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 양천구 목동중앙북로16길 58 (목동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청북도 청주시 상당구 중고개로 255 (금천동) 102호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시 남구 전포대로110번길 8 (문현동) 지하 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 수원시 영통구 에듀타운로 101 (이의동) 108동 B103호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 영등포구 문래로4길 6 (문래동6가) 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 화성시 향남읍 발안양감로 193 (하길리) 3층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 광진구 아차산로 471 (구의동) 지하1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 동대문구 안암로6길 19 (용두동) 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 종로구 동숭길 101 (동숭동) 지하 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청북도 청주시 흥덕구 짐대로42번길 26 (복대동) 102호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 성동구 성수이로14길 14 (성수동2가) 나동 2층 201호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 성동구 마장로 137 (상왕십리동) 텐즈힐 2층 160호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 부천시 경인로 211-1 (심곡본동) 2층-3층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전광역시 유성구 어은로51번길 53 (어은동) 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 서대문구 연희로11라길 10-6 (연희동) 2층 우측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 수원시 영통구 광교호수공원로 80 (원천동, 광교아이파크) B동 117호, 118호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시 강서구 신호산단1로 101 (신호동) 상가동 103호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 마포구 망원로2길 19 (망원동) 호강주택 상가 1층 3호 공간비생산 내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9136-4257</t>
+  </si>
+  <si>
+    <t>010-8820-7914</t>
+  </si>
+  <si>
+    <t>070-7760-7982</t>
+  </si>
+  <si>
+    <t>010-9034-6015</t>
+  </si>
+  <si>
+    <t>010-5095-1802</t>
+  </si>
+  <si>
+    <t>부산광역시 영도구 와치로51번길 2 (청학동) 신기산업 내 잡화점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 금천구 독산로 188 (독산동) 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시 북구 우치로 178 (용봉동) 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 영등포구 당산로18길 16-1 (당산동1가) 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 은평구 통일로 833-6 (대조동) 지하 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 마포구 월드컵북로27길 6 (성산동) 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라남도 목포시 수문로 63 (남교동) 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시 동구 제봉로82번길 13-11 (서석동) 2층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 의정부시 송현로82번길 85 (민락동) 101호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시 수영구 수영로408번길 28 (남천동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주특별자치도 제주시 인다6길 11 (아라일동) 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 과천시 별양상가1로 37 (별양동) B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 영등포구 선유로55길 11 (양평동4가) 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 광명시 광명로 855-1 (광명동) 101호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시 남구 천변좌로418번길 17 (양림동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 수원시 영통구 매탄로160번길 15 (매탄동) 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 마포구 동교로25길 70 (연남동, 서강빌딩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구광역시 중구 경상감영길 60 (종로1가, 중부경찰서 앞)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4709,7 +4762,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4749,6 +4802,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4767,17 +4829,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -4788,9 +4850,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5104,43 +5170,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0123434E-4507-4409-A143-CCD2072D0150}">
   <dimension ref="A1:M205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="I170" sqref="I170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="27.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="136.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="83.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1545</v>
+      <c r="A1" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1485</v>
       </c>
       <c r="E1" t="s">
-        <v>1546</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1547</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1548</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1549</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1550</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="2"/>
-      <c r="M1" s="4"/>
+        <v>1486</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
@@ -5205,5220 +5281,5223 @@
         <v>1984</v>
       </c>
       <c r="B4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>49</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>55</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>56</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>58</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>64</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>65</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>66</v>
-      </c>
-      <c r="I9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>69</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>71</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>72</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>73</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>74</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>75</v>
-      </c>
-      <c r="I10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
         <v>77</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>79</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>80</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>81</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>82</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>83</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>84</v>
-      </c>
-      <c r="I11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
         <v>86</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>88</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>89</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>90</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>91</v>
-      </c>
-      <c r="I12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
         <v>93</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>94</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>95</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>96</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>97</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>98</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>99</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>100</v>
-      </c>
-      <c r="I13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C14" t="s">
         <v>102</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>104</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>105</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>106</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
         <v>107</v>
-      </c>
-      <c r="H14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
         <v>110</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>111</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>112</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>113</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>114</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I15" t="s">
         <v>115</v>
-      </c>
-      <c r="G15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
         <v>119</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>120</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G16" t="s">
         <v>121</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H16" t="s">
         <v>122</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" t="s">
         <v>123</v>
-      </c>
-      <c r="G16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" t="s">
         <v>127</v>
       </c>
-      <c r="B17" t="s">
+      <c r="F17" t="s">
         <v>128</v>
       </c>
-      <c r="C17" t="s">
+      <c r="H17" t="s">
         <v>129</v>
       </c>
-      <c r="D17" t="s">
+      <c r="I17" t="s">
         <v>130</v>
-      </c>
-      <c r="F17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
         <v>134</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>135</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>136</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G18" t="s">
         <v>137</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>138</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>139</v>
-      </c>
-      <c r="G18" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" t="s">
-        <v>141</v>
-      </c>
-      <c r="I18" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" t="s">
         <v>136</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>137</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" t="s">
         <v>139</v>
-      </c>
-      <c r="G19" t="s">
-        <v>140</v>
-      </c>
-      <c r="H19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I19" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" t="s">
         <v>146</v>
       </c>
-      <c r="B20" t="s">
+      <c r="H20" t="s">
         <v>147</v>
       </c>
-      <c r="C20" t="s">
+      <c r="I20" t="s">
         <v>148</v>
-      </c>
-      <c r="F20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H20" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" t="s">
         <v>152</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>153</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
         <v>154</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
         <v>155</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>156</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>157</v>
-      </c>
-      <c r="G21" t="s">
-        <v>158</v>
-      </c>
-      <c r="H21" t="s">
-        <v>159</v>
-      </c>
-      <c r="I21" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" t="s">
         <v>161</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
         <v>162</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
         <v>163</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G22" t="s">
         <v>164</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>165</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
         <v>166</v>
-      </c>
-      <c r="G22" t="s">
-        <v>167</v>
-      </c>
-      <c r="H22" t="s">
-        <v>168</v>
-      </c>
-      <c r="I22" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" t="s">
         <v>170</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F23" t="s">
         <v>171</v>
       </c>
-      <c r="C23" t="s">
+      <c r="H23" t="s">
         <v>172</v>
       </c>
-      <c r="E23" t="s">
+      <c r="I23" t="s">
         <v>173</v>
-      </c>
-      <c r="F23" t="s">
-        <v>174</v>
-      </c>
-      <c r="H23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I23" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" t="s">
         <v>177</v>
       </c>
-      <c r="B24" t="s">
+      <c r="E24" t="s">
         <v>178</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" t="s">
         <v>179</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
         <v>180</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>181</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
         <v>182</v>
-      </c>
-      <c r="G24" t="s">
-        <v>183</v>
-      </c>
-      <c r="H24" t="s">
-        <v>184</v>
-      </c>
-      <c r="I24" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" t="s">
         <v>186</v>
       </c>
-      <c r="B25" t="s">
+      <c r="E25" t="s">
         <v>187</v>
       </c>
-      <c r="C25" t="s">
+      <c r="F25" t="s">
         <v>188</v>
       </c>
-      <c r="D25" t="s">
+      <c r="G25" t="s">
         <v>189</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>190</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
         <v>191</v>
-      </c>
-      <c r="G25" t="s">
-        <v>192</v>
-      </c>
-      <c r="H25" t="s">
-        <v>193</v>
-      </c>
-      <c r="I25" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" t="s">
         <v>195</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
         <v>196</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F26" t="s">
         <v>197</v>
       </c>
-      <c r="D26" t="s">
+      <c r="G26" t="s">
         <v>198</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>199</v>
       </c>
-      <c r="F26" t="s">
+      <c r="I26" t="s">
         <v>200</v>
-      </c>
-      <c r="G26" t="s">
-        <v>201</v>
-      </c>
-      <c r="H26" t="s">
-        <v>202</v>
-      </c>
-      <c r="I26" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" t="s">
         <v>204</v>
       </c>
-      <c r="B27" t="s">
+      <c r="H27" t="s">
         <v>205</v>
       </c>
-      <c r="C27" t="s">
+      <c r="I27" t="s">
         <v>206</v>
-      </c>
-      <c r="F27" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27" t="s">
-        <v>208</v>
-      </c>
-      <c r="I27" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" t="s">
         <v>210</v>
       </c>
-      <c r="B28" t="s">
+      <c r="F28" t="s">
         <v>211</v>
       </c>
-      <c r="C28" t="s">
+      <c r="G28" t="s">
         <v>212</v>
       </c>
-      <c r="D28" t="s">
+      <c r="H28" t="s">
         <v>213</v>
       </c>
-      <c r="E28" t="s">
+      <c r="I28" t="s">
         <v>214</v>
-      </c>
-      <c r="F28" t="s">
-        <v>215</v>
-      </c>
-      <c r="G28" t="s">
-        <v>216</v>
-      </c>
-      <c r="H28" t="s">
-        <v>217</v>
-      </c>
-      <c r="I28" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" t="s">
         <v>219</v>
       </c>
-      <c r="B29" t="s">
+      <c r="G29" t="s">
         <v>220</v>
       </c>
-      <c r="C29" t="s">
+      <c r="H29" t="s">
         <v>221</v>
       </c>
-      <c r="D29" t="s">
+      <c r="I29" t="s">
         <v>222</v>
-      </c>
-      <c r="E29" t="s">
-        <v>223</v>
-      </c>
-      <c r="F29" t="s">
-        <v>224</v>
-      </c>
-      <c r="G29" t="s">
-        <v>225</v>
-      </c>
-      <c r="H29" t="s">
-        <v>226</v>
-      </c>
-      <c r="I29" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30" t="s">
+        <v>227</v>
+      </c>
+      <c r="F30" t="s">
         <v>228</v>
       </c>
-      <c r="B30" t="s">
+      <c r="H30" t="s">
         <v>229</v>
       </c>
-      <c r="C30" t="s">
+      <c r="I30" t="s">
         <v>230</v>
-      </c>
-      <c r="D30" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" t="s">
-        <v>232</v>
-      </c>
-      <c r="F30" t="s">
-        <v>233</v>
-      </c>
-      <c r="H30" t="s">
-        <v>234</v>
-      </c>
-      <c r="I30" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" t="s">
+        <v>233</v>
+      </c>
+      <c r="F31" t="s">
+        <v>234</v>
+      </c>
+      <c r="H31" t="s">
+        <v>235</v>
+      </c>
+      <c r="I31" t="s">
         <v>236</v>
-      </c>
-      <c r="B31" t="s">
-        <v>237</v>
-      </c>
-      <c r="C31" t="s">
-        <v>238</v>
-      </c>
-      <c r="F31" t="s">
-        <v>239</v>
-      </c>
-      <c r="H31" t="s">
-        <v>240</v>
-      </c>
-      <c r="I31" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" t="s">
+        <v>240</v>
+      </c>
+      <c r="E32" t="s">
+        <v>241</v>
+      </c>
+      <c r="F32" t="s">
         <v>242</v>
       </c>
-      <c r="B32" t="s">
+      <c r="H32" t="s">
         <v>243</v>
       </c>
-      <c r="C32" t="s">
+      <c r="I32" t="s">
         <v>244</v>
-      </c>
-      <c r="D32" t="s">
-        <v>245</v>
-      </c>
-      <c r="E32" t="s">
-        <v>246</v>
-      </c>
-      <c r="F32" t="s">
-        <v>247</v>
-      </c>
-      <c r="H32" t="s">
-        <v>248</v>
-      </c>
-      <c r="I32" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33" t="s">
+        <v>248</v>
+      </c>
+      <c r="F33" t="s">
+        <v>249</v>
+      </c>
+      <c r="H33" t="s">
         <v>250</v>
       </c>
-      <c r="B33" t="s">
+      <c r="I33" t="s">
         <v>251</v>
-      </c>
-      <c r="C33" t="s">
-        <v>252</v>
-      </c>
-      <c r="D33" t="s">
-        <v>253</v>
-      </c>
-      <c r="F33" t="s">
-        <v>254</v>
-      </c>
-      <c r="H33" t="s">
-        <v>255</v>
-      </c>
-      <c r="I33" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" t="s">
+        <v>254</v>
+      </c>
+      <c r="D34" t="s">
+        <v>255</v>
+      </c>
+      <c r="E34" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" t="s">
         <v>257</v>
       </c>
-      <c r="B34" t="s">
+      <c r="H34" t="s">
         <v>258</v>
       </c>
-      <c r="C34" t="s">
+      <c r="I34" t="s">
         <v>259</v>
-      </c>
-      <c r="D34" t="s">
-        <v>260</v>
-      </c>
-      <c r="E34" t="s">
-        <v>261</v>
-      </c>
-      <c r="F34" t="s">
-        <v>262</v>
-      </c>
-      <c r="H34" t="s">
-        <v>263</v>
-      </c>
-      <c r="I34" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B35" t="s">
+        <v>261</v>
+      </c>
+      <c r="C35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" t="s">
+        <v>264</v>
+      </c>
+      <c r="F35" t="s">
         <v>265</v>
       </c>
-      <c r="B35" t="s">
+      <c r="G35" t="s">
         <v>266</v>
       </c>
-      <c r="C35" t="s">
+      <c r="H35" t="s">
         <v>267</v>
       </c>
-      <c r="D35" t="s">
+      <c r="I35" t="s">
         <v>268</v>
-      </c>
-      <c r="E35" t="s">
-        <v>269</v>
-      </c>
-      <c r="F35" t="s">
-        <v>270</v>
-      </c>
-      <c r="G35" t="s">
-        <v>271</v>
-      </c>
-      <c r="H35" t="s">
-        <v>272</v>
-      </c>
-      <c r="I35" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F36" t="s">
         <v>274</v>
       </c>
-      <c r="B36" t="s">
+      <c r="H36" t="s">
         <v>275</v>
       </c>
-      <c r="C36" t="s">
+      <c r="I36" t="s">
         <v>276</v>
-      </c>
-      <c r="D36" t="s">
-        <v>277</v>
-      </c>
-      <c r="E36" t="s">
-        <v>278</v>
-      </c>
-      <c r="F36" t="s">
-        <v>279</v>
-      </c>
-      <c r="H36" t="s">
-        <v>280</v>
-      </c>
-      <c r="I36" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C37" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F37" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H37" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I37" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
+        <v>280</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C38" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" t="s">
+        <v>282</v>
+      </c>
+      <c r="E38" t="s">
+        <v>283</v>
+      </c>
+      <c r="H38" t="s">
+        <v>284</v>
+      </c>
+      <c r="I38" t="s">
         <v>285</v>
-      </c>
-      <c r="B38" t="s">
-        <v>286</v>
-      </c>
-      <c r="C38" t="s">
-        <v>287</v>
-      </c>
-      <c r="D38" t="s">
-        <v>288</v>
-      </c>
-      <c r="E38" t="s">
-        <v>289</v>
-      </c>
-      <c r="H38" t="s">
-        <v>290</v>
-      </c>
-      <c r="I38" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C39" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D39" t="s">
+        <v>282</v>
+      </c>
+      <c r="E39" t="s">
         <v>288</v>
       </c>
-      <c r="E39" t="s">
-        <v>294</v>
-      </c>
       <c r="H39" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="I39" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
+        <v>289</v>
+      </c>
+      <c r="B40" t="s">
+        <v>290</v>
+      </c>
+      <c r="C40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D40" t="s">
+        <v>292</v>
+      </c>
+      <c r="E40" t="s">
+        <v>293</v>
+      </c>
+      <c r="F40" t="s">
+        <v>294</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1499</v>
+      </c>
+      <c r="I40" t="s">
         <v>295</v>
-      </c>
-      <c r="B40" t="s">
-        <v>296</v>
-      </c>
-      <c r="C40" t="s">
-        <v>297</v>
-      </c>
-      <c r="D40" t="s">
-        <v>298</v>
-      </c>
-      <c r="E40" t="s">
-        <v>299</v>
-      </c>
-      <c r="F40" t="s">
-        <v>300</v>
-      </c>
-      <c r="H40" t="s">
-        <v>301</v>
-      </c>
-      <c r="I40" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
+        <v>296</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C41" t="s">
+        <v>297</v>
+      </c>
+      <c r="D41" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" t="s">
+        <v>299</v>
+      </c>
+      <c r="F41" t="s">
+        <v>300</v>
+      </c>
+      <c r="G41" t="s">
+        <v>301</v>
+      </c>
+      <c r="H41" t="s">
+        <v>302</v>
+      </c>
+      <c r="I41" t="s">
         <v>303</v>
-      </c>
-      <c r="B41" t="s">
-        <v>304</v>
-      </c>
-      <c r="C41" t="s">
-        <v>305</v>
-      </c>
-      <c r="D41" t="s">
-        <v>306</v>
-      </c>
-      <c r="E41" t="s">
-        <v>307</v>
-      </c>
-      <c r="F41" t="s">
-        <v>308</v>
-      </c>
-      <c r="G41" t="s">
-        <v>309</v>
-      </c>
-      <c r="H41" t="s">
-        <v>310</v>
-      </c>
-      <c r="I41" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s">
-        <v>313</v>
+        <v>1510</v>
       </c>
       <c r="C42" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D42" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H42" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I42" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C43" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D43" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E43" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F43" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="H43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I43" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C44" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D44" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="H44" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="I44" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B45" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C45" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D45" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E45" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F45" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G45" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H45" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="I45" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s">
-        <v>339</v>
+        <v>1511</v>
       </c>
       <c r="C46" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E46" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F46" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H46" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I46" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s">
-        <v>346</v>
+        <v>1512</v>
       </c>
       <c r="C47" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D47" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F47" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G47" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H47" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="I47" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s">
-        <v>354</v>
+        <v>1548</v>
       </c>
       <c r="C48" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D48" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E48" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F48" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G48" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H48" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I48" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C49" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D49" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F49" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G49" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H49" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="I49" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B50" t="s">
-        <v>366</v>
+        <v>1513</v>
       </c>
       <c r="C50" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D50" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F50" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="H50" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="I50" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C51" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="D51" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F51" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="G51" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="H51" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="I51" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C52" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="D52" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="G52" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="H52" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="I52" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s">
-        <v>387</v>
+        <v>1514</v>
       </c>
       <c r="C53" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="D53" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="E53" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="F53" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="G53" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="H53" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="I53" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s">
-        <v>396</v>
+        <v>1515</v>
       </c>
       <c r="C54" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D54" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E54" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="F54" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G54" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="H54" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="I54" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B55" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C55" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="D55" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="E55" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="F55" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="H55" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="I55" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C56" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D56" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="E56" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="F56" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="G56" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H56" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="I56" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="C57" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D57" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="H57" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="I57" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="C58" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="D58" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="F58" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="G58" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="H58" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="I58" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s">
-        <v>435</v>
+        <v>1516</v>
       </c>
       <c r="C59" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="D59" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="F59" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="H59" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="I59" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="B60" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="C60" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="D60" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E60" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="F60" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G60" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="H60" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="I60" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="C61" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="D61" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="F61" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="H61" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="I61" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="B62" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="C62" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="D62" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="E62" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="F62" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="G62" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="H62" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="I62" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B63" t="s">
-        <v>467</v>
+        <v>1517</v>
       </c>
       <c r="C63" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="D63" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="E63" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="F63" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="G63" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="H63" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="I63" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="B64" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C64" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D64" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="E64" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="F64" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="G64" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="H64" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="I64" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="B65" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="C65" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="D65" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="E65" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="F65" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="G65" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="H65" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I65" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="B66" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="C66" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="D66" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="E66" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="F66" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="H66" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="I66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="B67" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="C67" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="D67" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="F67" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="H67" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="I67" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="B68" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="C68" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="E68" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="F68" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="G68" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="H68" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="I68" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="B69" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="C69" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="D69" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="E69" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="F69" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="H69" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="I69" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="B70" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="C70" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="D70" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="E70" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="F70" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="G70" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="H70" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="I70" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="B71" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="C71" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="D71" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="E71" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="F71" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="G71" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="H71" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="I71" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="B72" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="C72" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="E72" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="F72" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="G72" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="H72" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="I72" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="B73" t="s">
-        <v>544</v>
+        <v>1518</v>
       </c>
       <c r="C73" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="D73" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="E73" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="F73" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="G73" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="H73" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="I73" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="B74" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="C74" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="D74" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="E74" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="F74" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="G74" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="H74" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="I74" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="B75" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="C75" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="D75" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="E75" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="F75" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="H75" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="I75" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="B76" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="C76" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="D76" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="E76" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="F76" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="G76" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="H76" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="I76" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="B77" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="C77" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="D77" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="E77" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="F77" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="G77" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="H77" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="I77" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="B78" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="C78" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="D78" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="E78" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="F78" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="G78" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="H78" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="I78" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="B79" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="C79" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="D79" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="E79" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="F79" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H79" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="I79" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="B80" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="C80" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="D80" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="E80" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="F80" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="H80" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="I80" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="B81" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="C81" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="D81" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="F81" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="G81" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="H81" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="I81" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="B82" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="C82" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="D82" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="E82" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="F82" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="H82" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="I82" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="B83" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="C83" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="D83" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="E83" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="F83" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="H83" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="I83" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="B84" t="s">
-        <v>635</v>
+        <v>1519</v>
       </c>
       <c r="C84" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="D84" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="E84" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="F84" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="H84" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="I84" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="B85" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="C85" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="D85" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="F85" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="H85" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="I85" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="B86" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="C86" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="D86" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="E86" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="F86" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="H86" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="I86" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="B87" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="C87" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="D87" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="E87" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="F87" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="H87" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="I87" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="B88" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="C88" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="D88" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="E88" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="H88" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="I88" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="B89" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="C89" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="E89" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="F89" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="G89" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="H89" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="I89" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="B90" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="C90" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="E90" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="F90" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="G90" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="H90" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="I90" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="B91" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="C91" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="D91" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="F91" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="H91" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I91" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="B92" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="C92" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="D92" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="E92" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="F92" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="H92" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="I92" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="B93" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="C93" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="D93" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="E93" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="F93" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="H93" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="I93" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="B94" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="C94" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="D94" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="E94" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="F94" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="G94" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="H94" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="I94" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="B95" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="C95" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="D95" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="F95" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="G95" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="H95" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="I95" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="B96" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="C96" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="E96" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="F96" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="H96" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="I96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="B97" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="C97" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="D97" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="G97" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="H97" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="I97" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
       <c r="B98" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
       <c r="C98" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
       <c r="D98" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="E98" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="F98" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="H98" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="I98" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="B99" t="s">
-        <v>746</v>
+        <v>1549</v>
       </c>
       <c r="C99" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="D99" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="F99" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="G99" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="H99" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="I99" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="B100" t="s">
-        <v>753</v>
+        <v>1550</v>
       </c>
       <c r="C100" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="D100" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="E100" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="F100" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="G100" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="H100" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="I100" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="B101" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="C101" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="D101" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="E101" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="F101" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="G101" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="H101" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="I101" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="B102" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="C102" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="D102" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="F102" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="G102" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
       <c r="H102" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="I102" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="B103" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="C103" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="D103" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="E103" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="F103" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="G103" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="H103" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="I103" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="B104" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="C104" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="D104" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="F104" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="G104" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
       <c r="H104" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="I104" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
       <c r="B105" t="s">
-        <v>796</v>
+        <v>1545</v>
       </c>
       <c r="C105" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
       <c r="F105" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
       <c r="H105" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="I105" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="B106" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
       <c r="C106" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="D106" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="E106" t="s">
-        <v>804</v>
+        <v>782</v>
       </c>
       <c r="F106" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="G106" t="s">
-        <v>806</v>
+        <v>784</v>
       </c>
       <c r="H106" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="I106" t="s">
-        <v>807</v>
+        <v>785</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
       <c r="B107" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
       <c r="C107" t="s">
-        <v>810</v>
+        <v>788</v>
       </c>
       <c r="F107" t="s">
-        <v>811</v>
+        <v>789</v>
       </c>
       <c r="H107" t="s">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="I107" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="B108" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
       <c r="C108" t="s">
-        <v>816</v>
+        <v>794</v>
       </c>
       <c r="D108" t="s">
-        <v>817</v>
+        <v>795</v>
       </c>
       <c r="E108" t="s">
-        <v>818</v>
+        <v>796</v>
       </c>
       <c r="F108" t="s">
-        <v>819</v>
+        <v>797</v>
       </c>
       <c r="G108" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
       <c r="H108" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="I108" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>822</v>
+        <v>800</v>
       </c>
       <c r="B109" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
       <c r="C109" t="s">
-        <v>824</v>
+        <v>802</v>
       </c>
       <c r="E109" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="F109" t="s">
-        <v>826</v>
+        <v>804</v>
       </c>
       <c r="H109" t="s">
-        <v>827</v>
+        <v>1500</v>
       </c>
       <c r="I109" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
       <c r="B110" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="C110" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="D110" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="E110" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="F110" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="G110" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="H110" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="I110" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="B111" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="C111" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
       <c r="D111" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="E111" t="s">
-        <v>842</v>
+        <v>819</v>
       </c>
       <c r="F111" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
       <c r="H111" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="I111" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
       <c r="B112" t="s">
-        <v>846</v>
+        <v>1522</v>
       </c>
       <c r="C112" t="s">
-        <v>847</v>
+        <v>823</v>
       </c>
       <c r="D112" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="E112" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="F112" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
       <c r="H112" t="s">
-        <v>849</v>
+        <v>825</v>
       </c>
       <c r="I112" t="s">
-        <v>850</v>
+        <v>826</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>851</v>
+        <v>827</v>
       </c>
       <c r="B113" t="s">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="C113" t="s">
-        <v>853</v>
+        <v>829</v>
       </c>
       <c r="D113" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="E113" t="s">
-        <v>854</v>
+        <v>830</v>
       </c>
       <c r="F113" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
       <c r="H113" t="s">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="I113" t="s">
-        <v>856</v>
+        <v>832</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>857</v>
+        <v>833</v>
       </c>
       <c r="B114" t="s">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="C114" t="s">
-        <v>859</v>
+        <v>835</v>
       </c>
       <c r="D114" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="F114" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
       <c r="H114" t="s">
-        <v>860</v>
+        <v>836</v>
       </c>
       <c r="I114" t="s">
-        <v>861</v>
+        <v>837</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>862</v>
+        <v>838</v>
       </c>
       <c r="B115" t="s">
-        <v>863</v>
+        <v>839</v>
       </c>
       <c r="C115" t="s">
-        <v>864</v>
+        <v>840</v>
       </c>
       <c r="D115" t="s">
-        <v>865</v>
+        <v>841</v>
       </c>
       <c r="E115" t="s">
-        <v>866</v>
+        <v>842</v>
       </c>
       <c r="F115" t="s">
-        <v>867</v>
+        <v>843</v>
       </c>
       <c r="G115" t="s">
-        <v>868</v>
+        <v>844</v>
       </c>
       <c r="H115" t="s">
-        <v>869</v>
+        <v>845</v>
       </c>
       <c r="I115" t="s">
-        <v>870</v>
+        <v>846</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>871</v>
+        <v>847</v>
       </c>
       <c r="B116" t="s">
-        <v>872</v>
+        <v>848</v>
       </c>
       <c r="C116" t="s">
-        <v>873</v>
+        <v>849</v>
       </c>
       <c r="D116" t="s">
-        <v>874</v>
+        <v>850</v>
       </c>
       <c r="E116" t="s">
-        <v>875</v>
+        <v>851</v>
       </c>
       <c r="F116" t="s">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="H116" t="s">
-        <v>877</v>
+        <v>853</v>
       </c>
       <c r="I116" t="s">
-        <v>878</v>
+        <v>854</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>879</v>
+        <v>855</v>
       </c>
       <c r="B117" t="s">
-        <v>880</v>
+        <v>856</v>
       </c>
       <c r="C117" t="s">
-        <v>881</v>
+        <v>857</v>
       </c>
       <c r="D117" t="s">
-        <v>882</v>
+        <v>858</v>
       </c>
       <c r="E117" t="s">
-        <v>883</v>
+        <v>859</v>
       </c>
       <c r="F117" t="s">
-        <v>884</v>
+        <v>860</v>
       </c>
       <c r="G117" t="s">
-        <v>885</v>
+        <v>861</v>
       </c>
       <c r="H117" t="s">
-        <v>886</v>
+        <v>862</v>
       </c>
       <c r="I117" t="s">
-        <v>887</v>
+        <v>863</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>888</v>
+        <v>864</v>
       </c>
       <c r="B118" t="s">
-        <v>889</v>
+        <v>865</v>
       </c>
       <c r="C118" t="s">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="D118" t="s">
-        <v>891</v>
+        <v>867</v>
       </c>
       <c r="F118" t="s">
-        <v>892</v>
+        <v>868</v>
       </c>
       <c r="H118" t="s">
-        <v>893</v>
+        <v>869</v>
       </c>
       <c r="I118" t="s">
-        <v>894</v>
+        <v>870</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>895</v>
+        <v>871</v>
       </c>
       <c r="B119" t="s">
-        <v>896</v>
+        <v>1521</v>
       </c>
       <c r="C119" t="s">
-        <v>897</v>
+        <v>872</v>
       </c>
       <c r="D119" t="s">
-        <v>898</v>
+        <v>873</v>
       </c>
       <c r="E119" t="s">
-        <v>899</v>
+        <v>874</v>
       </c>
       <c r="F119" t="s">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="H119" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="I119" t="s">
-        <v>902</v>
+        <v>877</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>903</v>
+        <v>878</v>
       </c>
       <c r="B120" t="s">
-        <v>904</v>
+        <v>879</v>
       </c>
       <c r="C120" t="s">
-        <v>905</v>
+        <v>880</v>
       </c>
       <c r="E120" t="s">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="F120" t="s">
-        <v>907</v>
+        <v>882</v>
       </c>
       <c r="H120" t="s">
-        <v>908</v>
+        <v>883</v>
       </c>
       <c r="I120" t="s">
-        <v>909</v>
+        <v>884</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>910</v>
+        <v>885</v>
       </c>
       <c r="B121" t="s">
-        <v>911</v>
+        <v>1520</v>
       </c>
       <c r="C121" t="s">
-        <v>912</v>
+        <v>886</v>
       </c>
       <c r="E121" t="s">
-        <v>913</v>
+        <v>887</v>
       </c>
       <c r="F121" t="s">
-        <v>914</v>
+        <v>888</v>
       </c>
       <c r="H121" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="I121" t="s">
-        <v>915</v>
+        <v>889</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>916</v>
+        <v>890</v>
       </c>
       <c r="B122" t="s">
-        <v>917</v>
+        <v>891</v>
       </c>
       <c r="C122" t="s">
-        <v>918</v>
+        <v>892</v>
       </c>
       <c r="E122" t="s">
-        <v>919</v>
+        <v>893</v>
       </c>
       <c r="F122" t="s">
-        <v>920</v>
+        <v>894</v>
       </c>
       <c r="H122" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="I122" t="s">
-        <v>921</v>
+        <v>895</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>922</v>
+        <v>896</v>
       </c>
       <c r="B123" t="s">
-        <v>923</v>
+        <v>897</v>
       </c>
       <c r="C123" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
       <c r="D123" t="s">
-        <v>925</v>
+        <v>899</v>
       </c>
       <c r="E123" t="s">
-        <v>926</v>
+        <v>900</v>
       </c>
       <c r="F123" t="s">
-        <v>927</v>
+        <v>901</v>
       </c>
       <c r="G123" t="s">
-        <v>928</v>
+        <v>902</v>
       </c>
       <c r="H123" t="s">
-        <v>929</v>
+        <v>903</v>
       </c>
       <c r="I123" t="s">
-        <v>930</v>
+        <v>904</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>931</v>
+        <v>905</v>
       </c>
       <c r="B124" t="s">
-        <v>932</v>
+        <v>906</v>
       </c>
       <c r="E124" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="F124" t="s">
-        <v>934</v>
+        <v>908</v>
       </c>
       <c r="G124" t="s">
-        <v>935</v>
+        <v>909</v>
       </c>
       <c r="H124" t="s">
-        <v>936</v>
+        <v>910</v>
       </c>
       <c r="I124" t="s">
-        <v>937</v>
+        <v>911</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>938</v>
+        <v>912</v>
       </c>
       <c r="B125" t="s">
-        <v>939</v>
+        <v>913</v>
       </c>
       <c r="C125" t="s">
-        <v>940</v>
+        <v>914</v>
       </c>
       <c r="D125" t="s">
-        <v>941</v>
+        <v>915</v>
       </c>
       <c r="E125" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="F125" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="G125" t="s">
-        <v>944</v>
+        <v>918</v>
       </c>
       <c r="H125" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="I125" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>945</v>
+        <v>919</v>
       </c>
       <c r="B126" t="s">
-        <v>946</v>
+        <v>920</v>
       </c>
       <c r="C126" t="s">
-        <v>947</v>
+        <v>1530</v>
       </c>
       <c r="D126" t="s">
-        <v>948</v>
+        <v>921</v>
       </c>
       <c r="E126" t="s">
-        <v>949</v>
+        <v>922</v>
       </c>
       <c r="F126" t="s">
-        <v>950</v>
+        <v>923</v>
       </c>
       <c r="G126" t="s">
-        <v>951</v>
+        <v>924</v>
       </c>
       <c r="H126" t="s">
-        <v>952</v>
+        <v>925</v>
       </c>
       <c r="I126" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="119">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>954</v>
+        <v>927</v>
       </c>
       <c r="B127" t="s">
-        <v>955</v>
+        <v>1546</v>
       </c>
       <c r="C127" t="s">
-        <v>956</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>957</v>
+        <v>928</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>1493</v>
       </c>
       <c r="F127" t="s">
-        <v>958</v>
+        <v>929</v>
       </c>
       <c r="H127" t="s">
-        <v>959</v>
+        <v>930</v>
       </c>
       <c r="I127" t="s">
-        <v>960</v>
+        <v>931</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>961</v>
+        <v>932</v>
       </c>
       <c r="B128" t="s">
-        <v>962</v>
+        <v>933</v>
       </c>
       <c r="C128" t="s">
-        <v>963</v>
+        <v>934</v>
       </c>
       <c r="E128" t="s">
-        <v>964</v>
+        <v>935</v>
       </c>
       <c r="F128" t="s">
-        <v>965</v>
+        <v>936</v>
       </c>
       <c r="H128" t="s">
-        <v>966</v>
+        <v>937</v>
       </c>
       <c r="I128" t="s">
-        <v>967</v>
+        <v>938</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>968</v>
+        <v>939</v>
       </c>
       <c r="B129" t="s">
-        <v>969</v>
+        <v>940</v>
       </c>
       <c r="C129" t="s">
-        <v>970</v>
+        <v>1531</v>
       </c>
       <c r="D129" t="s">
-        <v>971</v>
+        <v>941</v>
       </c>
       <c r="E129" t="s">
-        <v>972</v>
+        <v>942</v>
       </c>
       <c r="F129" t="s">
-        <v>973</v>
+        <v>943</v>
       </c>
       <c r="G129" t="s">
-        <v>974</v>
+        <v>944</v>
       </c>
       <c r="H129" t="s">
-        <v>975</v>
+        <v>945</v>
       </c>
       <c r="I129" t="s">
-        <v>976</v>
+        <v>946</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>977</v>
+        <v>947</v>
       </c>
       <c r="B130" t="s">
-        <v>978</v>
+        <v>948</v>
       </c>
       <c r="C130" t="s">
-        <v>979</v>
+        <v>949</v>
       </c>
       <c r="D130" t="s">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="E130" t="s">
-        <v>981</v>
+        <v>951</v>
       </c>
       <c r="F130" t="s">
-        <v>982</v>
+        <v>952</v>
       </c>
       <c r="G130" t="s">
-        <v>983</v>
+        <v>953</v>
       </c>
       <c r="H130" t="s">
-        <v>984</v>
+        <v>954</v>
       </c>
       <c r="I130" t="s">
-        <v>985</v>
+        <v>955</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>986</v>
+        <v>956</v>
       </c>
       <c r="B131" t="s">
-        <v>987</v>
+        <v>1547</v>
       </c>
       <c r="C131" t="s">
-        <v>988</v>
+        <v>957</v>
       </c>
       <c r="D131" t="s">
-        <v>989</v>
+        <v>958</v>
       </c>
       <c r="E131" t="s">
-        <v>990</v>
+        <v>959</v>
       </c>
       <c r="F131" t="s">
-        <v>991</v>
+        <v>960</v>
       </c>
       <c r="G131" t="s">
-        <v>992</v>
+        <v>961</v>
       </c>
       <c r="H131" t="s">
-        <v>993</v>
+        <v>962</v>
       </c>
       <c r="I131" t="s">
-        <v>994</v>
+        <v>963</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>995</v>
+        <v>964</v>
       </c>
       <c r="B132" t="s">
-        <v>996</v>
+        <v>965</v>
       </c>
       <c r="C132" t="s">
-        <v>997</v>
+        <v>966</v>
       </c>
       <c r="D132" t="s">
-        <v>998</v>
+        <v>967</v>
       </c>
       <c r="E132" t="s">
-        <v>999</v>
+        <v>968</v>
       </c>
       <c r="F132" t="s">
-        <v>1000</v>
+        <v>969</v>
       </c>
       <c r="H132" t="s">
-        <v>1001</v>
+        <v>970</v>
       </c>
       <c r="I132" t="s">
-        <v>1002</v>
+        <v>971</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>1003</v>
+        <v>972</v>
       </c>
       <c r="B133" t="s">
-        <v>1004</v>
+        <v>973</v>
       </c>
       <c r="C133" t="s">
-        <v>1005</v>
+        <v>974</v>
       </c>
       <c r="F133" t="s">
-        <v>1006</v>
+        <v>975</v>
       </c>
       <c r="G133" t="s">
-        <v>1007</v>
+        <v>976</v>
       </c>
       <c r="H133" t="s">
-        <v>1008</v>
+        <v>977</v>
       </c>
       <c r="I133" t="s">
-        <v>1009</v>
+        <v>978</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>1010</v>
+        <v>979</v>
       </c>
       <c r="B134" t="s">
-        <v>1011</v>
+        <v>1537</v>
       </c>
       <c r="C134" t="s">
-        <v>1012</v>
+        <v>1532</v>
       </c>
       <c r="D134" t="s">
-        <v>1013</v>
+        <v>980</v>
       </c>
       <c r="F134" t="s">
-        <v>1014</v>
+        <v>981</v>
       </c>
       <c r="G134" t="s">
-        <v>1015</v>
+        <v>982</v>
       </c>
       <c r="H134" t="s">
-        <v>1016</v>
+        <v>983</v>
       </c>
       <c r="I134" t="s">
-        <v>1017</v>
+        <v>984</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>1018</v>
+        <v>985</v>
       </c>
       <c r="B135" t="s">
-        <v>1019</v>
+        <v>986</v>
       </c>
       <c r="C135" t="s">
-        <v>1020</v>
+        <v>987</v>
       </c>
       <c r="E135" t="s">
-        <v>1021</v>
+        <v>988</v>
       </c>
       <c r="F135" t="s">
-        <v>1022</v>
+        <v>989</v>
       </c>
       <c r="H135" t="s">
-        <v>1023</v>
+        <v>990</v>
       </c>
       <c r="I135" t="s">
-        <v>1024</v>
+        <v>991</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="B136" t="s">
-        <v>1026</v>
+        <v>993</v>
       </c>
       <c r="C136" t="s">
-        <v>1027</v>
+        <v>994</v>
       </c>
       <c r="D136" t="s">
-        <v>1028</v>
+        <v>995</v>
       </c>
       <c r="F136" t="s">
-        <v>1029</v>
+        <v>996</v>
       </c>
       <c r="G136" t="s">
-        <v>1030</v>
+        <v>997</v>
       </c>
       <c r="H136" t="s">
-        <v>1031</v>
+        <v>998</v>
       </c>
       <c r="I136" t="s">
-        <v>1032</v>
+        <v>999</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="B137" t="s">
-        <v>1034</v>
+        <v>1001</v>
       </c>
       <c r="C137" t="s">
-        <v>1035</v>
+        <v>1002</v>
       </c>
       <c r="D137" t="s">
-        <v>1036</v>
+        <v>1003</v>
       </c>
       <c r="E137" t="s">
-        <v>1037</v>
+        <v>1004</v>
       </c>
       <c r="F137" t="s">
-        <v>1038</v>
+        <v>1005</v>
       </c>
       <c r="G137" t="s">
-        <v>1039</v>
+        <v>1006</v>
       </c>
       <c r="H137" t="s">
-        <v>1040</v>
+        <v>1007</v>
       </c>
       <c r="I137" t="s">
-        <v>1041</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>1042</v>
+        <v>1009</v>
       </c>
       <c r="B138" t="s">
-        <v>1043</v>
+        <v>1523</v>
       </c>
       <c r="C138" t="s">
-        <v>1044</v>
+        <v>1010</v>
       </c>
       <c r="D138" t="s">
-        <v>1045</v>
+        <v>1011</v>
       </c>
       <c r="F138" t="s">
-        <v>1046</v>
+        <v>1012</v>
       </c>
       <c r="H138" t="s">
-        <v>1047</v>
+        <v>1013</v>
       </c>
       <c r="I138" t="s">
-        <v>1048</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>1049</v>
+        <v>1015</v>
       </c>
       <c r="B139" t="s">
-        <v>1050</v>
+        <v>1016</v>
       </c>
       <c r="C139" t="s">
-        <v>1051</v>
+        <v>1017</v>
       </c>
       <c r="E139" t="s">
-        <v>1052</v>
+        <v>1018</v>
       </c>
       <c r="F139" t="s">
-        <v>1053</v>
+        <v>1019</v>
       </c>
       <c r="H139" t="s">
-        <v>1054</v>
+        <v>1020</v>
       </c>
       <c r="I139" t="s">
-        <v>1055</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>1056</v>
+        <v>1022</v>
       </c>
       <c r="B140" t="s">
-        <v>1057</v>
+        <v>1535</v>
       </c>
       <c r="D140" t="s">
-        <v>1058</v>
+        <v>1023</v>
       </c>
       <c r="E140" t="s">
-        <v>1059</v>
+        <v>1024</v>
       </c>
       <c r="F140" t="s">
-        <v>1060</v>
+        <v>1025</v>
       </c>
       <c r="H140" t="s">
-        <v>1061</v>
+        <v>1026</v>
       </c>
       <c r="I140" t="s">
-        <v>1062</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>1063</v>
+        <v>1028</v>
       </c>
       <c r="B141" t="s">
-        <v>1064</v>
+        <v>1029</v>
       </c>
       <c r="C141" t="s">
-        <v>1065</v>
+        <v>1030</v>
       </c>
       <c r="E141" t="s">
-        <v>1066</v>
+        <v>1031</v>
       </c>
       <c r="H141" t="s">
-        <v>1067</v>
+        <v>1032</v>
       </c>
       <c r="I141" t="s">
-        <v>1068</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>1069</v>
+        <v>1034</v>
       </c>
       <c r="B142" t="s">
-        <v>1070</v>
+        <v>1035</v>
       </c>
       <c r="C142" t="s">
-        <v>1071</v>
+        <v>1036</v>
       </c>
       <c r="D142" t="s">
-        <v>1072</v>
+        <v>1037</v>
       </c>
       <c r="F142" t="s">
-        <v>1073</v>
+        <v>1038</v>
       </c>
       <c r="G142" t="s">
-        <v>1074</v>
+        <v>1039</v>
       </c>
       <c r="H142" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="I142" t="s">
-        <v>1075</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>1076</v>
+        <v>1041</v>
       </c>
       <c r="B143" t="s">
-        <v>1077</v>
+        <v>1042</v>
       </c>
       <c r="C143" t="s">
-        <v>1078</v>
+        <v>1043</v>
       </c>
       <c r="E143" t="s">
-        <v>1079</v>
+        <v>1044</v>
       </c>
       <c r="F143" t="s">
-        <v>1080</v>
+        <v>1045</v>
       </c>
       <c r="H143" t="s">
-        <v>1081</v>
+        <v>1046</v>
       </c>
       <c r="I143" t="s">
-        <v>1082</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>1083</v>
+        <v>1048</v>
       </c>
       <c r="B144" t="s">
-        <v>1084</v>
+        <v>1049</v>
       </c>
       <c r="C144" t="s">
-        <v>1085</v>
+        <v>1050</v>
       </c>
       <c r="D144" t="s">
-        <v>1086</v>
+        <v>1051</v>
       </c>
       <c r="E144" t="s">
-        <v>1087</v>
+        <v>1052</v>
       </c>
       <c r="F144" t="s">
-        <v>1088</v>
+        <v>1053</v>
       </c>
       <c r="H144" t="s">
-        <v>1089</v>
+        <v>1054</v>
       </c>
       <c r="I144" t="s">
-        <v>1090</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>1091</v>
+        <v>1056</v>
       </c>
       <c r="B145" t="s">
-        <v>1092</v>
+        <v>1524</v>
       </c>
       <c r="C145" t="s">
-        <v>1093</v>
+        <v>1057</v>
       </c>
       <c r="D145" t="s">
-        <v>1094</v>
+        <v>1058</v>
       </c>
       <c r="F145" t="s">
-        <v>1095</v>
+        <v>1059</v>
       </c>
       <c r="G145" t="s">
-        <v>1096</v>
+        <v>1060</v>
       </c>
       <c r="H145" t="s">
-        <v>1097</v>
+        <v>1061</v>
       </c>
       <c r="I145" t="s">
-        <v>1098</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>1099</v>
+        <v>1063</v>
       </c>
       <c r="B146" t="s">
-        <v>1100</v>
+        <v>1064</v>
       </c>
       <c r="D146" t="s">
-        <v>1101</v>
+        <v>1065</v>
       </c>
       <c r="E146" t="s">
-        <v>1102</v>
+        <v>1066</v>
       </c>
       <c r="F146" t="s">
-        <v>1103</v>
+        <v>1067</v>
       </c>
       <c r="G146" t="s">
-        <v>1104</v>
+        <v>1068</v>
       </c>
       <c r="H146" t="s">
-        <v>1105</v>
+        <v>1069</v>
       </c>
       <c r="I146" t="s">
-        <v>1106</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>1107</v>
+        <v>1071</v>
       </c>
       <c r="B147" t="s">
-        <v>1108</v>
+        <v>1072</v>
       </c>
       <c r="C147" t="s">
-        <v>1109</v>
+        <v>1073</v>
       </c>
       <c r="D147" t="s">
-        <v>1110</v>
+        <v>1074</v>
       </c>
       <c r="F147" t="s">
-        <v>1111</v>
+        <v>1075</v>
       </c>
       <c r="G147" t="s">
-        <v>1112</v>
+        <v>1076</v>
       </c>
       <c r="H147" t="s">
-        <v>1113</v>
+        <v>1077</v>
       </c>
       <c r="I147" t="s">
-        <v>1114</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>1115</v>
+        <v>1079</v>
       </c>
       <c r="B148" t="s">
-        <v>1116</v>
+        <v>1080</v>
       </c>
       <c r="C148" t="s">
-        <v>1117</v>
+        <v>1081</v>
       </c>
       <c r="D148" t="s">
-        <v>1118</v>
+        <v>1082</v>
       </c>
       <c r="F148" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="G148" t="s">
-        <v>1120</v>
+        <v>1084</v>
       </c>
       <c r="H148" t="s">
-        <v>1121</v>
+        <v>1085</v>
       </c>
       <c r="I148" t="s">
-        <v>1122</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>1123</v>
+        <v>1087</v>
       </c>
       <c r="B149" t="s">
-        <v>1124</v>
+        <v>1536</v>
       </c>
       <c r="C149" t="s">
-        <v>1125</v>
+        <v>1088</v>
       </c>
       <c r="D149" t="s">
-        <v>1126</v>
+        <v>1089</v>
       </c>
       <c r="E149" t="s">
-        <v>1127</v>
+        <v>1090</v>
       </c>
       <c r="F149" t="s">
-        <v>1128</v>
+        <v>1091</v>
       </c>
       <c r="G149" t="s">
-        <v>1129</v>
+        <v>1092</v>
       </c>
       <c r="H149" t="s">
-        <v>1130</v>
+        <v>1093</v>
       </c>
       <c r="I149" t="s">
-        <v>1131</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>1132</v>
+        <v>1095</v>
       </c>
       <c r="B150" t="s">
-        <v>1133</v>
+        <v>1096</v>
       </c>
       <c r="C150" t="s">
-        <v>1134</v>
+        <v>1097</v>
       </c>
       <c r="D150" t="s">
-        <v>1135</v>
+        <v>1098</v>
       </c>
       <c r="F150" t="s">
-        <v>1136</v>
+        <v>1099</v>
       </c>
       <c r="G150" t="s">
-        <v>1137</v>
+        <v>1100</v>
       </c>
       <c r="H150" t="s">
-        <v>1138</v>
+        <v>1101</v>
       </c>
       <c r="I150" t="s">
-        <v>1139</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>1140</v>
+        <v>1103</v>
       </c>
       <c r="B151" t="s">
-        <v>1141</v>
+        <v>1104</v>
       </c>
       <c r="C151" t="s">
-        <v>1142</v>
+        <v>1105</v>
       </c>
       <c r="D151" t="s">
-        <v>1143</v>
+        <v>1106</v>
       </c>
       <c r="E151" t="s">
-        <v>1144</v>
+        <v>1107</v>
       </c>
       <c r="F151" t="s">
-        <v>1145</v>
+        <v>1108</v>
       </c>
       <c r="H151" t="s">
-        <v>1146</v>
+        <v>1501</v>
       </c>
       <c r="I151" t="s">
-        <v>1147</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>1148</v>
+        <v>1110</v>
       </c>
       <c r="B152" t="s">
-        <v>1149</v>
+        <v>1111</v>
       </c>
       <c r="C152" t="s">
-        <v>1150</v>
+        <v>1112</v>
       </c>
       <c r="D152" t="s">
-        <v>1151</v>
+        <v>1113</v>
       </c>
       <c r="F152" t="s">
-        <v>1152</v>
+        <v>1114</v>
       </c>
       <c r="H152" t="s">
-        <v>1153</v>
+        <v>1502</v>
       </c>
       <c r="I152" t="s">
-        <v>1154</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>1155</v>
+        <v>1116</v>
       </c>
       <c r="B153" t="s">
-        <v>1156</v>
+        <v>1117</v>
       </c>
       <c r="C153" t="s">
-        <v>1157</v>
+        <v>1118</v>
       </c>
       <c r="D153" t="s">
-        <v>1158</v>
+        <v>1119</v>
       </c>
       <c r="F153" t="s">
-        <v>1159</v>
+        <v>1120</v>
       </c>
       <c r="G153" t="s">
-        <v>1160</v>
+        <v>1121</v>
       </c>
       <c r="H153" t="s">
-        <v>1161</v>
+        <v>1122</v>
       </c>
       <c r="I153" t="s">
-        <v>1162</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="B154" t="s">
-        <v>1164</v>
+        <v>1125</v>
       </c>
       <c r="C154" t="s">
-        <v>1165</v>
+        <v>1126</v>
       </c>
       <c r="H154" t="s">
-        <v>1166</v>
+        <v>1127</v>
       </c>
       <c r="I154" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>1167</v>
+        <v>1128</v>
       </c>
       <c r="B155" t="s">
-        <v>1168</v>
+        <v>1129</v>
       </c>
       <c r="C155" t="s">
-        <v>1169</v>
+        <v>1130</v>
       </c>
       <c r="E155" t="s">
-        <v>1170</v>
+        <v>1131</v>
       </c>
       <c r="F155" t="s">
-        <v>1171</v>
+        <v>1132</v>
       </c>
       <c r="H155" t="s">
-        <v>1172</v>
+        <v>1133</v>
       </c>
       <c r="I155" t="s">
-        <v>1173</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>1174</v>
+        <v>1135</v>
       </c>
       <c r="B156" t="s">
-        <v>1175</v>
+        <v>1136</v>
       </c>
       <c r="C156" t="s">
-        <v>1176</v>
+        <v>1137</v>
       </c>
       <c r="D156" t="s">
-        <v>1177</v>
+        <v>1138</v>
       </c>
       <c r="H156" t="s">
-        <v>1178</v>
+        <v>1139</v>
       </c>
       <c r="I156" t="s">
-        <v>1179</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>1180</v>
+        <v>1141</v>
       </c>
       <c r="B157" t="s">
-        <v>1181</v>
+        <v>1525</v>
       </c>
       <c r="C157" t="s">
-        <v>1182</v>
+        <v>1142</v>
       </c>
       <c r="D157" t="s">
-        <v>1183</v>
+        <v>1143</v>
       </c>
       <c r="E157" t="s">
-        <v>1184</v>
+        <v>1144</v>
       </c>
       <c r="F157" t="s">
-        <v>1185</v>
+        <v>1145</v>
       </c>
       <c r="H157" t="s">
-        <v>1186</v>
+        <v>1146</v>
       </c>
       <c r="I157" t="s">
-        <v>1187</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>1188</v>
+        <v>1148</v>
       </c>
       <c r="B158" t="s">
-        <v>1189</v>
+        <v>1149</v>
       </c>
       <c r="C158" t="s">
-        <v>1190</v>
+        <v>1150</v>
       </c>
       <c r="D158" t="s">
-        <v>1191</v>
+        <v>1151</v>
       </c>
       <c r="E158" t="s">
-        <v>1192</v>
+        <v>1152</v>
       </c>
       <c r="F158" t="s">
-        <v>1193</v>
+        <v>1153</v>
       </c>
       <c r="G158" t="s">
-        <v>1194</v>
+        <v>1154</v>
       </c>
       <c r="H158" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="I158" t="s">
-        <v>1195</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>1196</v>
+        <v>1156</v>
       </c>
       <c r="B159" t="s">
-        <v>1197</v>
+        <v>1157</v>
       </c>
       <c r="C159" t="s">
-        <v>1198</v>
+        <v>1158</v>
       </c>
       <c r="D159" t="s">
-        <v>1199</v>
+        <v>1159</v>
       </c>
       <c r="E159" t="s">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="H159" t="s">
-        <v>1201</v>
+        <v>1161</v>
       </c>
       <c r="I159" t="s">
-        <v>1202</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>1203</v>
+        <v>1163</v>
       </c>
       <c r="B160" t="s">
-        <v>1204</v>
+        <v>1164</v>
       </c>
       <c r="C160" t="s">
-        <v>1205</v>
+        <v>1165</v>
       </c>
       <c r="D160" t="s">
-        <v>1206</v>
+        <v>1166</v>
       </c>
       <c r="F160" t="s">
-        <v>1207</v>
+        <v>1167</v>
       </c>
       <c r="H160" t="s">
-        <v>1208</v>
+        <v>1168</v>
       </c>
       <c r="I160" t="s">
-        <v>1209</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>1210</v>
+        <v>1170</v>
       </c>
       <c r="B161" t="s">
-        <v>1211</v>
+        <v>1171</v>
       </c>
       <c r="C161" t="s">
-        <v>1212</v>
+        <v>1533</v>
       </c>
       <c r="D161" t="s">
-        <v>1213</v>
+        <v>1172</v>
       </c>
       <c r="E161" t="s">
-        <v>1214</v>
+        <v>1173</v>
       </c>
       <c r="F161" t="s">
-        <v>1215</v>
+        <v>1174</v>
       </c>
       <c r="G161" t="s">
-        <v>1216</v>
+        <v>1175</v>
       </c>
       <c r="H161" t="s">
-        <v>1217</v>
+        <v>1176</v>
       </c>
       <c r="I161" t="s">
-        <v>1218</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>1219</v>
+        <v>1178</v>
       </c>
       <c r="B162" t="s">
-        <v>1220</v>
+        <v>1526</v>
       </c>
       <c r="C162" t="s">
-        <v>1221</v>
+        <v>1179</v>
       </c>
       <c r="D162" t="s">
-        <v>1222</v>
+        <v>1180</v>
       </c>
       <c r="E162" t="s">
-        <v>1223</v>
+        <v>1181</v>
       </c>
       <c r="F162" t="s">
-        <v>1224</v>
+        <v>1182</v>
       </c>
       <c r="G162" t="s">
-        <v>1225</v>
+        <v>1183</v>
       </c>
       <c r="H162" t="s">
-        <v>1121</v>
+        <v>1085</v>
       </c>
       <c r="I162" t="s">
-        <v>1226</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>1227</v>
+        <v>1185</v>
       </c>
       <c r="B163" t="s">
-        <v>1228</v>
+        <v>1186</v>
       </c>
       <c r="C163" t="s">
-        <v>1229</v>
+        <v>1187</v>
       </c>
       <c r="D163" t="s">
-        <v>1230</v>
+        <v>1188</v>
       </c>
       <c r="F163" t="s">
-        <v>1231</v>
+        <v>1189</v>
       </c>
       <c r="H163" t="s">
-        <v>1008</v>
+        <v>977</v>
       </c>
       <c r="I163" t="s">
-        <v>1232</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>1233</v>
+        <v>1191</v>
       </c>
       <c r="B164" t="s">
-        <v>1234</v>
+        <v>1192</v>
       </c>
       <c r="C164" t="s">
-        <v>1235</v>
+        <v>1193</v>
       </c>
       <c r="D164" t="s">
-        <v>1236</v>
+        <v>1194</v>
       </c>
       <c r="F164" t="s">
-        <v>1237</v>
+        <v>1195</v>
       </c>
       <c r="G164" t="s">
-        <v>1238</v>
+        <v>1196</v>
       </c>
       <c r="H164" t="s">
-        <v>1239</v>
+        <v>1197</v>
       </c>
       <c r="I164" t="s">
-        <v>1240</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>1241</v>
+        <v>1199</v>
       </c>
       <c r="B165" t="s">
-        <v>1242</v>
+        <v>1200</v>
       </c>
       <c r="C165" t="s">
-        <v>1243</v>
+        <v>1201</v>
       </c>
       <c r="D165" t="s">
-        <v>1244</v>
+        <v>1202</v>
       </c>
       <c r="E165" t="s">
-        <v>1245</v>
+        <v>1203</v>
       </c>
       <c r="F165" t="s">
-        <v>1246</v>
+        <v>1204</v>
       </c>
       <c r="H165" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I165" t="s">
-        <v>1247</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>1248</v>
+        <v>1206</v>
       </c>
       <c r="B166" t="s">
-        <v>1249</v>
+        <v>1207</v>
       </c>
       <c r="C166" t="s">
-        <v>1250</v>
+        <v>1208</v>
       </c>
       <c r="D166" t="s">
-        <v>1251</v>
+        <v>1209</v>
       </c>
       <c r="E166" t="s">
-        <v>1252</v>
+        <v>1210</v>
       </c>
       <c r="F166" t="s">
-        <v>1253</v>
+        <v>1211</v>
       </c>
       <c r="G166" t="s">
-        <v>1254</v>
+        <v>1212</v>
       </c>
       <c r="H166" t="s">
-        <v>1255</v>
+        <v>1213</v>
       </c>
       <c r="I166" t="s">
-        <v>1256</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>1257</v>
+        <v>1215</v>
       </c>
       <c r="B167" t="s">
-        <v>1258</v>
+        <v>1216</v>
       </c>
       <c r="C167" t="s">
-        <v>1259</v>
+        <v>1217</v>
       </c>
       <c r="D167" t="s">
-        <v>1260</v>
+        <v>1218</v>
       </c>
       <c r="E167" t="s">
-        <v>1261</v>
+        <v>1219</v>
       </c>
       <c r="F167" t="s">
-        <v>1262</v>
+        <v>1220</v>
       </c>
       <c r="G167" t="s">
-        <v>1263</v>
+        <v>1221</v>
       </c>
       <c r="H167" t="s">
-        <v>1264</v>
+        <v>1222</v>
       </c>
       <c r="I167" t="s">
-        <v>1265</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>1266</v>
+        <v>1224</v>
       </c>
       <c r="B168" t="s">
-        <v>1267</v>
+        <v>1225</v>
       </c>
       <c r="C168" t="s">
-        <v>1268</v>
+        <v>1226</v>
       </c>
       <c r="D168" t="s">
-        <v>1260</v>
+        <v>1218</v>
       </c>
       <c r="E168" t="s">
-        <v>1269</v>
+        <v>1227</v>
       </c>
       <c r="F168" t="s">
-        <v>1270</v>
+        <v>1228</v>
       </c>
       <c r="G168" t="s">
-        <v>1263</v>
+        <v>1221</v>
       </c>
       <c r="I168" t="s">
-        <v>1271</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>1272</v>
+        <v>1230</v>
       </c>
       <c r="B169" t="s">
-        <v>1273</v>
+        <v>1231</v>
       </c>
       <c r="C169" t="s">
-        <v>1274</v>
+        <v>1232</v>
       </c>
       <c r="E169" t="s">
-        <v>1275</v>
+        <v>1233</v>
       </c>
       <c r="F169" t="s">
-        <v>1276</v>
+        <v>1234</v>
       </c>
       <c r="G169" t="s">
-        <v>1277</v>
+        <v>1235</v>
       </c>
       <c r="H169" t="s">
-        <v>1278</v>
+        <v>1236</v>
       </c>
       <c r="I169" t="s">
-        <v>1552</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>1279</v>
+        <v>1237</v>
       </c>
       <c r="B170" t="s">
-        <v>1280</v>
+        <v>1544</v>
       </c>
       <c r="C170" t="s">
-        <v>1281</v>
+        <v>1238</v>
       </c>
       <c r="D170" t="s">
-        <v>1282</v>
+        <v>1239</v>
       </c>
       <c r="E170" t="s">
-        <v>1283</v>
+        <v>1240</v>
       </c>
       <c r="F170" t="s">
-        <v>1284</v>
+        <v>1241</v>
       </c>
       <c r="G170" t="s">
-        <v>1285</v>
+        <v>1242</v>
       </c>
       <c r="H170" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="I170" t="s">
-        <v>1286</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>1287</v>
+        <v>1244</v>
       </c>
       <c r="B171" t="s">
-        <v>1288</v>
+        <v>1245</v>
       </c>
       <c r="C171" t="s">
-        <v>1289</v>
+        <v>1246</v>
       </c>
       <c r="D171" t="s">
-        <v>1290</v>
+        <v>1247</v>
       </c>
       <c r="E171" t="s">
-        <v>1291</v>
+        <v>1248</v>
       </c>
       <c r="F171" t="s">
-        <v>1292</v>
+        <v>1249</v>
       </c>
       <c r="H171" t="s">
-        <v>1293</v>
+        <v>1250</v>
       </c>
       <c r="I171" t="s">
-        <v>1294</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>1295</v>
+        <v>1252</v>
       </c>
       <c r="B172" t="s">
-        <v>1296</v>
+        <v>1253</v>
       </c>
       <c r="C172" t="s">
-        <v>1297</v>
+        <v>1254</v>
       </c>
       <c r="D172" t="s">
-        <v>1298</v>
+        <v>1255</v>
       </c>
       <c r="E172" t="s">
-        <v>1299</v>
+        <v>1256</v>
       </c>
       <c r="F172" t="s">
-        <v>1300</v>
+        <v>1257</v>
       </c>
       <c r="G172" t="s">
-        <v>1301</v>
+        <v>1258</v>
       </c>
       <c r="H172" t="s">
-        <v>1302</v>
+        <v>1259</v>
       </c>
       <c r="I172" t="s">
-        <v>1303</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>1304</v>
+        <v>1261</v>
       </c>
       <c r="B173" t="s">
-        <v>1305</v>
+        <v>1543</v>
       </c>
       <c r="C173" t="s">
-        <v>1306</v>
+        <v>1262</v>
       </c>
       <c r="D173" t="s">
-        <v>1307</v>
+        <v>1263</v>
       </c>
       <c r="F173" t="s">
-        <v>1308</v>
+        <v>1264</v>
       </c>
       <c r="H173" t="s">
-        <v>1309</v>
+        <v>1265</v>
       </c>
       <c r="I173" t="s">
-        <v>1310</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>1311</v>
+        <v>1267</v>
       </c>
       <c r="B174" t="s">
-        <v>1312</v>
+        <v>1539</v>
       </c>
       <c r="C174" t="s">
-        <v>1313</v>
+        <v>1268</v>
       </c>
       <c r="D174" t="s">
-        <v>1314</v>
+        <v>1269</v>
       </c>
       <c r="F174" t="s">
-        <v>1315</v>
+        <v>1270</v>
       </c>
       <c r="H174" t="s">
-        <v>1316</v>
+        <v>1271</v>
       </c>
       <c r="I174" t="s">
-        <v>1317</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>1318</v>
+        <v>1273</v>
       </c>
       <c r="B175" t="s">
-        <v>1319</v>
+        <v>1274</v>
       </c>
       <c r="C175" t="s">
-        <v>1313</v>
+        <v>1268</v>
       </c>
       <c r="D175" t="s">
-        <v>1314</v>
+        <v>1269</v>
       </c>
       <c r="F175" t="s">
-        <v>1315</v>
+        <v>1270</v>
       </c>
       <c r="H175" t="s">
-        <v>1316</v>
+        <v>1271</v>
       </c>
       <c r="I175" t="s">
-        <v>1317</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>1320</v>
+        <v>1275</v>
       </c>
       <c r="B176" t="s">
-        <v>1321</v>
+        <v>1538</v>
       </c>
       <c r="C176" t="s">
-        <v>1322</v>
+        <v>1534</v>
       </c>
       <c r="D176" t="s">
-        <v>1323</v>
+        <v>1276</v>
       </c>
       <c r="E176" t="s">
-        <v>1324</v>
+        <v>1277</v>
       </c>
       <c r="F176" t="s">
-        <v>1325</v>
+        <v>1278</v>
       </c>
       <c r="G176" t="s">
-        <v>1326</v>
+        <v>1279</v>
       </c>
       <c r="H176" t="s">
-        <v>1327</v>
+        <v>1280</v>
       </c>
       <c r="I176" t="s">
-        <v>1328</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>1329</v>
+        <v>1282</v>
       </c>
       <c r="B177" t="s">
-        <v>1330</v>
+        <v>1283</v>
       </c>
       <c r="C177" t="s">
-        <v>1331</v>
+        <v>1284</v>
       </c>
       <c r="D177" t="s">
-        <v>1332</v>
+        <v>1285</v>
       </c>
       <c r="F177" t="s">
-        <v>1333</v>
+        <v>1286</v>
       </c>
       <c r="G177" t="s">
-        <v>1334</v>
+        <v>1287</v>
       </c>
       <c r="H177" t="s">
-        <v>1335</v>
+        <v>1288</v>
       </c>
       <c r="I177" t="s">
-        <v>1336</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>1337</v>
+        <v>1290</v>
       </c>
       <c r="B178" t="s">
-        <v>1338</v>
+        <v>1291</v>
       </c>
       <c r="C178" t="s">
-        <v>1339</v>
+        <v>1292</v>
       </c>
       <c r="D178" t="s">
-        <v>1340</v>
+        <v>1293</v>
       </c>
       <c r="E178" t="s">
-        <v>1341</v>
+        <v>1294</v>
       </c>
       <c r="F178" t="s">
-        <v>1342</v>
+        <v>1295</v>
       </c>
       <c r="H178" t="s">
-        <v>1343</v>
+        <v>1296</v>
       </c>
       <c r="I178" t="s">
-        <v>1344</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>1345</v>
+        <v>1298</v>
       </c>
       <c r="B179" t="s">
-        <v>1346</v>
+        <v>1299</v>
       </c>
       <c r="C179" t="s">
-        <v>1347</v>
+        <v>1300</v>
       </c>
       <c r="F179" t="s">
-        <v>1348</v>
+        <v>1301</v>
       </c>
       <c r="H179" t="s">
-        <v>1349</v>
+        <v>1302</v>
       </c>
       <c r="I179" t="s">
-        <v>1350</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>1351</v>
+        <v>1304</v>
       </c>
       <c r="B180" t="s">
-        <v>1352</v>
+        <v>1305</v>
       </c>
       <c r="C180" t="s">
-        <v>1353</v>
+        <v>1306</v>
       </c>
       <c r="D180" t="s">
-        <v>1354</v>
+        <v>1307</v>
       </c>
       <c r="F180" t="s">
-        <v>1355</v>
+        <v>1308</v>
       </c>
       <c r="H180" t="s">
-        <v>1356</v>
+        <v>1309</v>
       </c>
       <c r="I180" t="s">
-        <v>1357</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>1358</v>
+        <v>1311</v>
       </c>
       <c r="B181" t="s">
-        <v>1359</v>
+        <v>1529</v>
       </c>
       <c r="C181" t="s">
-        <v>1360</v>
+        <v>1312</v>
       </c>
       <c r="D181" t="s">
-        <v>1361</v>
+        <v>1313</v>
       </c>
       <c r="E181" t="s">
-        <v>1362</v>
+        <v>1314</v>
       </c>
       <c r="F181" t="s">
-        <v>1363</v>
+        <v>1315</v>
       </c>
       <c r="H181" t="s">
-        <v>1327</v>
+        <v>1280</v>
       </c>
       <c r="I181" t="s">
-        <v>1364</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>1365</v>
+        <v>1317</v>
       </c>
       <c r="B182" t="s">
-        <v>1366</v>
+        <v>1318</v>
       </c>
       <c r="C182" t="s">
-        <v>1367</v>
+        <v>1319</v>
       </c>
       <c r="E182" t="s">
-        <v>1368</v>
+        <v>1320</v>
       </c>
       <c r="F182" t="s">
-        <v>1369</v>
+        <v>1321</v>
       </c>
       <c r="H182" t="s">
-        <v>1370</v>
+        <v>1322</v>
       </c>
       <c r="I182" t="s">
-        <v>1371</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>1372</v>
+        <v>1324</v>
       </c>
       <c r="B183" t="s">
-        <v>1373</v>
+        <v>1325</v>
       </c>
       <c r="C183" t="s">
-        <v>1374</v>
+        <v>1326</v>
       </c>
       <c r="E183" t="s">
-        <v>1375</v>
+        <v>1327</v>
       </c>
       <c r="F183" t="s">
-        <v>1376</v>
+        <v>1328</v>
       </c>
       <c r="G183" t="s">
-        <v>1377</v>
+        <v>1329</v>
       </c>
       <c r="H183" t="s">
-        <v>1378</v>
+        <v>1497</v>
       </c>
       <c r="I183" t="s">
-        <v>1379</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>1380</v>
+        <v>1331</v>
       </c>
       <c r="B184" t="s">
-        <v>1381</v>
+        <v>1332</v>
       </c>
       <c r="C184" t="s">
-        <v>1382</v>
+        <v>1333</v>
       </c>
       <c r="D184" t="s">
-        <v>1383</v>
+        <v>1334</v>
       </c>
       <c r="E184" t="s">
-        <v>1384</v>
+        <v>1335</v>
       </c>
       <c r="F184" t="s">
-        <v>1385</v>
+        <v>1336</v>
       </c>
       <c r="G184" t="s">
-        <v>1386</v>
+        <v>1337</v>
       </c>
       <c r="H184" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="I184" t="s">
-        <v>1387</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>1388</v>
+        <v>1339</v>
       </c>
       <c r="B185" t="s">
-        <v>1389</v>
+        <v>1540</v>
       </c>
       <c r="C185" t="s">
-        <v>1390</v>
+        <v>1340</v>
       </c>
       <c r="D185" t="s">
-        <v>1391</v>
+        <v>1341</v>
       </c>
       <c r="E185" t="s">
-        <v>1392</v>
+        <v>1342</v>
       </c>
       <c r="F185" t="s">
-        <v>1393</v>
+        <v>1343</v>
       </c>
       <c r="G185" t="s">
-        <v>1394</v>
+        <v>1344</v>
       </c>
       <c r="H185" t="s">
-        <v>1395</v>
+        <v>1345</v>
       </c>
       <c r="I185" t="s">
-        <v>1396</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>1397</v>
+        <v>1347</v>
       </c>
       <c r="B186" t="s">
-        <v>1398</v>
+        <v>1348</v>
       </c>
       <c r="C186" t="s">
-        <v>1399</v>
+        <v>1349</v>
       </c>
       <c r="D186" t="s">
-        <v>1400</v>
+        <v>1350</v>
       </c>
       <c r="H186" t="s">
-        <v>1401</v>
+        <v>1351</v>
       </c>
       <c r="I186" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>1402</v>
+        <v>1352</v>
       </c>
       <c r="B187" t="s">
-        <v>1403</v>
+        <v>1353</v>
       </c>
       <c r="C187" t="s">
-        <v>1404</v>
+        <v>1354</v>
       </c>
       <c r="D187" t="s">
-        <v>1405</v>
+        <v>1355</v>
       </c>
       <c r="F187" t="s">
-        <v>1406</v>
+        <v>1356</v>
       </c>
       <c r="G187" t="s">
-        <v>1407</v>
+        <v>1357</v>
       </c>
       <c r="H187" t="s">
-        <v>1408</v>
+        <v>1495</v>
       </c>
       <c r="I187" t="s">
-        <v>1409</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>1410</v>
+        <v>1359</v>
       </c>
       <c r="B188" t="s">
-        <v>1411</v>
+        <v>1360</v>
       </c>
       <c r="C188" t="s">
-        <v>1412</v>
+        <v>1361</v>
       </c>
       <c r="D188" t="s">
-        <v>1413</v>
+        <v>1362</v>
       </c>
       <c r="E188" t="s">
-        <v>1414</v>
+        <v>1363</v>
       </c>
       <c r="F188" t="s">
-        <v>1415</v>
+        <v>1364</v>
       </c>
       <c r="G188" t="s">
-        <v>1416</v>
+        <v>1365</v>
       </c>
       <c r="H188" t="s">
-        <v>1417</v>
+        <v>1366</v>
       </c>
       <c r="I188" t="s">
-        <v>1418</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>1419</v>
+        <v>1368</v>
       </c>
       <c r="B189" t="s">
-        <v>1420</v>
+        <v>1369</v>
       </c>
       <c r="E189" t="s">
-        <v>1421</v>
+        <v>1370</v>
       </c>
       <c r="F189" t="s">
-        <v>1422</v>
+        <v>1371</v>
       </c>
       <c r="G189" t="s">
-        <v>1423</v>
+        <v>1372</v>
       </c>
       <c r="H189" t="s">
-        <v>1424</v>
+        <v>1373</v>
       </c>
       <c r="I189" t="s">
-        <v>1425</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>1426</v>
+        <v>1375</v>
       </c>
       <c r="B190" t="s">
-        <v>1427</v>
+        <v>1541</v>
       </c>
       <c r="C190" t="s">
-        <v>1428</v>
+        <v>1376</v>
       </c>
       <c r="E190" t="s">
-        <v>1429</v>
+        <v>1377</v>
       </c>
       <c r="F190" t="s">
-        <v>1430</v>
+        <v>1378</v>
       </c>
       <c r="G190" t="s">
-        <v>1431</v>
+        <v>1379</v>
       </c>
       <c r="H190" t="s">
-        <v>1432</v>
+        <v>1380</v>
       </c>
       <c r="I190" t="s">
-        <v>1433</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>1434</v>
+        <v>1382</v>
       </c>
       <c r="B191" t="s">
-        <v>1435</v>
+        <v>1383</v>
       </c>
       <c r="C191" t="s">
-        <v>1436</v>
+        <v>1384</v>
       </c>
       <c r="E191" t="s">
-        <v>1437</v>
+        <v>1385</v>
       </c>
       <c r="F191" t="s">
-        <v>1438</v>
+        <v>1386</v>
       </c>
       <c r="G191" t="s">
-        <v>1439</v>
+        <v>1387</v>
       </c>
       <c r="H191" t="s">
-        <v>1440</v>
+        <v>1388</v>
       </c>
       <c r="I191" t="s">
-        <v>1441</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>1442</v>
+        <v>1390</v>
       </c>
       <c r="B192" t="s">
-        <v>1443</v>
+        <v>1391</v>
       </c>
       <c r="C192" t="s">
-        <v>1444</v>
+        <v>1392</v>
       </c>
       <c r="D192" t="s">
-        <v>1445</v>
+        <v>1393</v>
       </c>
       <c r="E192" t="s">
-        <v>1446</v>
+        <v>1394</v>
       </c>
       <c r="F192" t="s">
-        <v>1447</v>
+        <v>1395</v>
       </c>
       <c r="G192" t="s">
-        <v>1448</v>
+        <v>1396</v>
       </c>
       <c r="H192" t="s">
-        <v>1449</v>
+        <v>1397</v>
       </c>
       <c r="I192" t="s">
-        <v>1450</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>1451</v>
+        <v>1399</v>
       </c>
       <c r="B193" t="s">
-        <v>1452</v>
+        <v>1400</v>
       </c>
       <c r="C193" t="s">
-        <v>1453</v>
+        <v>1401</v>
       </c>
       <c r="D193" t="s">
-        <v>1454</v>
+        <v>1402</v>
       </c>
       <c r="E193" t="s">
-        <v>1455</v>
+        <v>1403</v>
       </c>
       <c r="F193" t="s">
-        <v>1456</v>
+        <v>1404</v>
       </c>
       <c r="H193" t="s">
-        <v>1457</v>
+        <v>1405</v>
       </c>
       <c r="I193" t="s">
-        <v>1458</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>1459</v>
+        <v>1407</v>
       </c>
       <c r="B194" t="s">
-        <v>1460</v>
+        <v>1551</v>
       </c>
       <c r="C194" t="s">
-        <v>1461</v>
+        <v>1408</v>
       </c>
       <c r="D194" t="s">
-        <v>1462</v>
+        <v>1409</v>
       </c>
       <c r="F194" t="s">
-        <v>1463</v>
+        <v>1410</v>
       </c>
       <c r="G194" t="s">
-        <v>1464</v>
+        <v>1411</v>
       </c>
       <c r="H194" t="s">
-        <v>1465</v>
+        <v>1412</v>
       </c>
       <c r="I194" t="s">
-        <v>1466</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>1467</v>
+        <v>1414</v>
       </c>
       <c r="B195" t="s">
-        <v>1468</v>
+        <v>1552</v>
       </c>
       <c r="C195" t="s">
-        <v>1469</v>
+        <v>1415</v>
       </c>
       <c r="D195" t="s">
-        <v>1470</v>
+        <v>1416</v>
       </c>
       <c r="F195" t="s">
-        <v>1471</v>
+        <v>1417</v>
       </c>
       <c r="H195" t="s">
-        <v>1472</v>
+        <v>1418</v>
       </c>
       <c r="I195" t="s">
-        <v>1473</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>1474</v>
+        <v>1420</v>
       </c>
       <c r="B196" t="s">
-        <v>1475</v>
+        <v>1421</v>
       </c>
       <c r="C196" t="s">
-        <v>1476</v>
+        <v>1422</v>
       </c>
       <c r="D196" t="s">
-        <v>1477</v>
+        <v>1423</v>
       </c>
       <c r="E196" t="s">
-        <v>1478</v>
+        <v>1424</v>
       </c>
       <c r="F196" t="s">
-        <v>1479</v>
+        <v>1425</v>
       </c>
       <c r="G196" t="s">
-        <v>1480</v>
+        <v>1426</v>
       </c>
       <c r="H196" t="s">
-        <v>1481</v>
+        <v>1494</v>
       </c>
       <c r="I196" t="s">
-        <v>1482</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>1483</v>
+        <v>1428</v>
       </c>
       <c r="B197" t="s">
-        <v>1484</v>
+        <v>1542</v>
       </c>
       <c r="C197" t="s">
-        <v>1485</v>
+        <v>1429</v>
       </c>
       <c r="D197" t="s">
-        <v>1486</v>
+        <v>1430</v>
       </c>
       <c r="F197" t="s">
-        <v>1487</v>
+        <v>1431</v>
       </c>
       <c r="G197" t="s">
-        <v>1488</v>
+        <v>1432</v>
       </c>
       <c r="H197" t="s">
-        <v>1489</v>
+        <v>1503</v>
       </c>
       <c r="I197" t="s">
-        <v>1490</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>1491</v>
+        <v>1434</v>
       </c>
       <c r="B198" t="s">
-        <v>1492</v>
+        <v>1435</v>
       </c>
       <c r="C198" t="s">
-        <v>1493</v>
+        <v>1436</v>
       </c>
       <c r="D198" t="s">
-        <v>1494</v>
+        <v>1437</v>
       </c>
       <c r="H198" t="s">
-        <v>1495</v>
+        <v>1438</v>
       </c>
       <c r="I198" t="s">
-        <v>1496</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>1497</v>
+        <v>1440</v>
       </c>
       <c r="B199" t="s">
-        <v>1498</v>
+        <v>1441</v>
       </c>
       <c r="C199" t="s">
-        <v>1499</v>
+        <v>1442</v>
       </c>
       <c r="D199" t="s">
-        <v>1500</v>
+        <v>1443</v>
       </c>
       <c r="E199" t="s">
-        <v>1501</v>
+        <v>1444</v>
       </c>
       <c r="H199" t="s">
-        <v>1502</v>
+        <v>1445</v>
       </c>
       <c r="I199" t="s">
-        <v>1551</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>1503</v>
+        <v>1446</v>
       </c>
       <c r="B200" t="s">
-        <v>1504</v>
+        <v>1447</v>
       </c>
       <c r="C200" t="s">
-        <v>1505</v>
+        <v>1448</v>
       </c>
       <c r="D200" t="s">
-        <v>1506</v>
+        <v>1449</v>
       </c>
       <c r="F200" t="s">
-        <v>1507</v>
+        <v>1450</v>
       </c>
       <c r="H200" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="I200" t="s">
-        <v>1508</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>1509</v>
+        <v>1452</v>
       </c>
       <c r="B201" t="s">
-        <v>1510</v>
+        <v>1453</v>
       </c>
       <c r="C201" t="s">
-        <v>1511</v>
+        <v>1454</v>
       </c>
       <c r="D201" t="s">
-        <v>1512</v>
+        <v>1455</v>
       </c>
       <c r="E201" t="s">
-        <v>1513</v>
+        <v>1456</v>
       </c>
       <c r="F201" t="s">
-        <v>1514</v>
+        <v>1457</v>
       </c>
       <c r="G201" t="s">
-        <v>1515</v>
+        <v>1458</v>
       </c>
       <c r="H201" t="s">
-        <v>1516</v>
+        <v>1459</v>
       </c>
       <c r="I201" t="s">
-        <v>1517</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>1518</v>
+        <v>1460</v>
       </c>
       <c r="B202" t="s">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="C202" t="s">
-        <v>1520</v>
+        <v>1461</v>
       </c>
       <c r="D202" t="s">
-        <v>1521</v>
+        <v>1462</v>
       </c>
       <c r="E202" t="s">
-        <v>1522</v>
+        <v>1463</v>
       </c>
       <c r="F202" t="s">
-        <v>1523</v>
+        <v>1464</v>
       </c>
       <c r="G202" t="s">
-        <v>1524</v>
+        <v>1465</v>
       </c>
       <c r="H202" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="I202" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>1525</v>
+        <v>1466</v>
       </c>
       <c r="B203" t="s">
-        <v>1526</v>
+        <v>1467</v>
       </c>
       <c r="D203" t="s">
-        <v>1521</v>
+        <v>1462</v>
       </c>
       <c r="F203" t="s">
-        <v>1527</v>
+        <v>1468</v>
       </c>
       <c r="G203" t="s">
-        <v>1528</v>
+        <v>1469</v>
       </c>
       <c r="H203" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="I203" t="s">
-        <v>1529</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>1530</v>
+        <v>1471</v>
       </c>
       <c r="B204" t="s">
-        <v>1531</v>
+        <v>1472</v>
       </c>
       <c r="C204" t="s">
-        <v>1532</v>
+        <v>1473</v>
       </c>
       <c r="D204" t="s">
-        <v>1533</v>
+        <v>1474</v>
       </c>
       <c r="E204" t="s">
-        <v>1534</v>
+        <v>1475</v>
       </c>
       <c r="F204" t="s">
-        <v>1535</v>
+        <v>1476</v>
       </c>
       <c r="H204" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="I204" t="s">
-        <v>1536</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>1537</v>
+        <v>1478</v>
       </c>
       <c r="B205" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="C205" t="s">
-        <v>1539</v>
+        <v>1479</v>
       </c>
       <c r="E205" t="s">
-        <v>1540</v>
+        <v>1480</v>
       </c>
       <c r="F205" t="s">
-        <v>1541</v>
+        <v>1481</v>
       </c>
       <c r="H205" t="s">
-        <v>893</v>
+        <v>869</v>
       </c>
       <c r="I205" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D127" r:id="rId1" xr:uid="{5491B045-83A2-448B-B1E8-273B456F564F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/bookDB2.xlsx
+++ b/bookDB2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sme13\OneDrive\바탕 화면\dev\real-dnb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5927E6-FBA0-435E-B92E-98C9728386BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DA55D3-426D-4722-B756-77ABF98C1EF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{509E9B0D-9459-46C0-BD3F-1330B5019B57}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Tue-Fri 11:00 ~ 19:30;Sat 12:00 ~ 18:00</t>
   </si>
   <si>
-    <t>음악서점;음반점</t>
-  </si>
-  <si>
     <t>세컨드페이지북스</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>Tue-Sat 11:00 ~ 21:00</t>
   </si>
   <si>
-    <t>만화서점;그림책</t>
-  </si>
-  <si>
     <t>가일서가</t>
   </si>
   <si>
@@ -378,9 +372,6 @@
     <t>ghostbooksinfo@gmail.com</t>
   </si>
   <si>
-    <t>예술서점;북카페;독립출판물서점;그림책</t>
-  </si>
-  <si>
     <t>고양이서점</t>
   </si>
   <si>
@@ -552,9 +543,6 @@
     <t>Tue-Sun 12:00 ~ 19:00</t>
   </si>
   <si>
-    <t>예술서점;북카페;협동조합서점;인문사회과학서점;독립출판물서점;헌책방</t>
-  </si>
-  <si>
     <t>공상온도</t>
   </si>
   <si>
@@ -579,9 +567,6 @@
     <t>Sun-Thu 12:00 ~ 23:00;Fri-Sat 12:00 ~ 24:00</t>
   </si>
   <si>
-    <t>예술서점;북카페;복합문화공간;전시공연;독립출판물서점</t>
-  </si>
-  <si>
     <t>과학책방 갈다</t>
   </si>
   <si>
@@ -633,9 +618,6 @@
     <t>Tue &amp; Thu 19:00 ~ 22:00;Wed &amp; Fri-Sun 12:00 ~ 22:00</t>
   </si>
   <si>
-    <t>술;예술서점;북카페;커뮤니티;독립출판물서점;영화</t>
-  </si>
-  <si>
     <t>구모북카페 &amp; 구름책방</t>
   </si>
   <si>
@@ -918,9 +900,6 @@
     <t>kim19party</t>
   </si>
   <si>
-    <t>음악서점;헌책방</t>
-  </si>
-  <si>
     <t>그림책 오올</t>
   </si>
   <si>
@@ -1353,9 +1332,6 @@
     <t>Wed-Sat 14:00 ~ 20:00;Sun 14:00 ~ 18:00</t>
   </si>
   <si>
-    <t>예술서점;인문사회과학서점;책추천</t>
-  </si>
-  <si>
     <t>다다르다</t>
   </si>
   <si>
@@ -1632,9 +1608,6 @@
     <t>Mon-Fri 10:00 ~ 18:00</t>
   </si>
   <si>
-    <t>예술서점;전시공연;해외출판물서점;사진책</t>
-  </si>
-  <si>
     <t>대륙서점</t>
   </si>
   <si>
@@ -1710,9 +1683,6 @@
     <t>Tue-Sun 11:00 ~ 19:00</t>
   </si>
   <si>
-    <t>예술서점;전시공연;해외출판물서점;독립출판물서점;사진책</t>
-  </si>
-  <si>
     <t>더북소사이어티</t>
   </si>
   <si>
@@ -1737,9 +1707,6 @@
     <t>Tue-Sun 13:00 ~ 19:00</t>
   </si>
   <si>
-    <t>예술서점;독립출판물서점</t>
-  </si>
-  <si>
     <t>더폴락</t>
   </si>
   <si>
@@ -1944,9 +1911,6 @@
     <t>Mon-Fri 11:11 ~ 20:20</t>
   </si>
   <si>
-    <t>술;북카페;인문사회과학서점;음악서점;소설전문서점;여행</t>
-  </si>
-  <si>
     <t>동네책방 숨</t>
   </si>
   <si>
@@ -2301,9 +2265,6 @@
     <t>Tue-Sun 13:00 ~ 22:00</t>
   </si>
   <si>
-    <t>시;북카페;예술서점</t>
-  </si>
-  <si>
     <t>심가네박씨</t>
   </si>
   <si>
@@ -2328,9 +2289,6 @@
     <t>Mon-Sat 10:30 ~ 20:00;Breaktime 13:00 ~ 14:00</t>
   </si>
   <si>
-    <t>예술서점;여행;인문학서점</t>
-  </si>
-  <si>
     <t>심지</t>
   </si>
   <si>
@@ -2352,9 +2310,6 @@
     <t>Mon-Sat 10:00 ~ 18:00</t>
   </si>
   <si>
-    <t>예술서점;해외출판물서점;건축</t>
-  </si>
-  <si>
     <t>썬앤북스</t>
   </si>
   <si>
@@ -2364,9 +2319,6 @@
     <t>son_and_books</t>
   </si>
   <si>
-    <t>예술서점;북카페;해외출판물서점;그림책;여행</t>
-  </si>
-  <si>
     <t>아무책방</t>
   </si>
   <si>
@@ -2496,9 +2448,6 @@
     <t>arc.n.book_official</t>
   </si>
   <si>
-    <t>빵집;북카페;북카페;복합문화공간;종합서점;책추천;디저트;전시공연;해외출판물서점;잡화점;식당</t>
-  </si>
-  <si>
     <t>아크앤북 성수점</t>
   </si>
   <si>
@@ -2766,9 +2715,6 @@
     <t>Fri-Sun 13:00 ~ 18:00</t>
   </si>
   <si>
-    <t>예술서점;북카페;전시공연;숍인숍;헌책방</t>
-  </si>
-  <si>
     <t>에이커북스토어</t>
   </si>
   <si>
@@ -2967,9 +2913,6 @@
     <t>Mon-Wed &amp; Fri-Sun 12:00 ~ 22:00</t>
   </si>
   <si>
-    <t>북카페;조용한;북북카페</t>
-  </si>
-  <si>
     <t>연지책방</t>
   </si>
   <si>
@@ -3030,9 +2973,6 @@
     <t>Tue-Sun 13:00 ~ 21:00, Mon 예약 Only</t>
   </si>
   <si>
-    <t>예술서점;해외출판물서점;그림책</t>
-  </si>
-  <si>
     <t>옛따책방</t>
   </si>
   <si>
@@ -3057,9 +2997,6 @@
     <t>Everyday 10:30 ~ 23:00</t>
   </si>
   <si>
-    <t>북카페;북카페;커뮤니티;책추천;유튜브</t>
-  </si>
-  <si>
     <t>오! 나의 책방</t>
   </si>
   <si>
@@ -3132,9 +3069,6 @@
     <t>Tue-Sun 10:30 ~ 20:00</t>
   </si>
   <si>
-    <t>북스테이;만화서점;그림책;헌책방;북카페</t>
-  </si>
-  <si>
     <t>오래된서점</t>
   </si>
   <si>
@@ -3174,9 +3108,6 @@
     <t>Tue-Sun 11:00 ~ 22:00</t>
   </si>
   <si>
-    <t>북스테이;북카페;북카페;북북카페</t>
-  </si>
-  <si>
     <t>오월의푸른하늘</t>
   </si>
   <si>
@@ -3243,9 +3174,6 @@
     <t>Tue-Sat, opening hour is random</t>
   </si>
   <si>
-    <t>예술서점;독립출판물서점;포스터;잡화점</t>
-  </si>
-  <si>
     <t>온고당서점</t>
   </si>
   <si>
@@ -3267,9 +3195,6 @@
     <t>Mon-Sat 11:00 ~ 21:00</t>
   </si>
   <si>
-    <t>해외출판물서점;패션;자동차;요리;인테리어;예술서점;건축;잡지</t>
-  </si>
-  <si>
     <t>온다책방</t>
   </si>
   <si>
@@ -3519,9 +3444,6 @@
     <t>Everyday 10:00 ~ 23:00</t>
   </si>
   <si>
-    <t>북카페;북북카페</t>
-  </si>
-  <si>
     <t>월곶동책한송이</t>
   </si>
   <si>
@@ -3702,9 +3624,6 @@
     <t>Wed-Sun 12:00 ~ 21:00</t>
   </si>
   <si>
-    <t>북카페;심리서점;실험서점;질문서점;독서모임</t>
-  </si>
-  <si>
     <t>인공위성 광주</t>
   </si>
   <si>
@@ -3720,9 +3639,6 @@
     <t>2lookbookgj</t>
   </si>
   <si>
-    <t>심리서점;실험서점;질문서점;독서모임;독립작가</t>
-  </si>
-  <si>
     <t>인덱스</t>
   </si>
   <si>
@@ -3786,9 +3702,6 @@
     <t>Wed-Sun 13:00 ~ 22:00</t>
   </si>
   <si>
-    <t>북카페;독서모임;해외출판물서점;중고도서;다양한프로그램</t>
-  </si>
-  <si>
     <t>인디문학1호점</t>
   </si>
   <si>
@@ -3849,9 +3762,6 @@
     <t>Everyday 00:00 ~ 24:00</t>
   </si>
   <si>
-    <t>북카페;IT전문서점;스터디북카페;북북카페</t>
-  </si>
-  <si>
     <t>일공공 구산역점</t>
   </si>
   <si>
@@ -3900,9 +3810,6 @@
     <t>Mon-Fri 10:30 ~ 17:00</t>
   </si>
   <si>
-    <t>책처방;북카페;책추천;복합문화공간;인문사회과학서점;심리서점;다양한프로그램</t>
-  </si>
-  <si>
     <t>자상한시간</t>
   </si>
   <si>
@@ -4227,9 +4134,6 @@
     <t>Tue-Sat 15:00 ~ 22:00</t>
   </si>
   <si>
-    <t>책처방;북카페;심리서점;책추천;잡화점</t>
-  </si>
-  <si>
     <t>지식을담다</t>
   </si>
   <si>
@@ -4272,9 +4176,6 @@
     <t>Mon-Sun 12:00 ~ 21:00</t>
   </si>
   <si>
-    <t>전시공연;문학서점;음악서점;예술;낭독회</t>
-  </si>
-  <si>
     <t>차방책방</t>
   </si>
   <si>
@@ -4332,9 +4233,6 @@
     <t>chaekand@gmail.com</t>
   </si>
   <si>
-    <t>예술서점;인문사회과학서점;독립출판물서점;자연;다양한프로그램</t>
-  </si>
-  <si>
     <t>책과아이들</t>
   </si>
   <si>
@@ -4384,9 +4282,6 @@
   </si>
   <si>
     <t>bookyard131</t>
-  </si>
-  <si>
-    <t>자연;가정식책방;북카페</t>
   </si>
   <si>
     <t>책바</t>
@@ -4519,10 +4414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예술서점;북카페;책추천;전시공연;독립출판물서점;포스터;술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>www.facebook.com/Ywbooks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4755,6 +4646,124 @@
   </si>
   <si>
     <t>대구광역시 중구 경상감영길 60 (종로1가, 중부경찰서 앞)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연;가정식서점;북카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북카페;조용한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북스테이;북카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북카페;독서모임;해외출판물서점;헌책방;다양한프로그램</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT전문서점;스터디카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵집;북카페;복합문화공간;종합서점;책추천;디저트;전시공연;해외출판물서점;잡화점;식당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북카페;커뮤니티;책추천;유튜브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예술;북카페;독립출판물서점;그림책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술;예술;북카페;커뮤니티;독립출판물서점;영화</t>
+  </si>
+  <si>
+    <t>예술;인문사회과학서점;책추천</t>
+  </si>
+  <si>
+    <t>예술;전시공연;해외출판물서점;사진책</t>
+  </si>
+  <si>
+    <t>예술;전시공연;해외출판물서점;독립출판물서점;사진책</t>
+  </si>
+  <si>
+    <t>예술;독립출판물서점</t>
+  </si>
+  <si>
+    <t>시;북카페;예술</t>
+  </si>
+  <si>
+    <t>예술;여행;인문학서점</t>
+  </si>
+  <si>
+    <t>예술;해외출판물서점;건축</t>
+  </si>
+  <si>
+    <t>예술;북카페;해외출판물서점;그림책;여행</t>
+  </si>
+  <si>
+    <t>예술;북카페;전시공연;숍인숍;헌책방</t>
+  </si>
+  <si>
+    <t>예술;해외출판물서점;그림책</t>
+  </si>
+  <si>
+    <t>예술;독립출판물서점;포스터;잡화점</t>
+  </si>
+  <si>
+    <t>해외출판물서점;패션;자동차;요리;인테리어;예술;건축;잡지</t>
+  </si>
+  <si>
+    <t>예술;북카페;책추천;전시공연;독립출판물서점;포스터;술</t>
+  </si>
+  <si>
+    <t>예술;인문사회과학서점;독립출판물서점;자연;다양한프로그램</t>
+  </si>
+  <si>
+    <t>예술;북카페;협동조합서점;인문사회과학서점;독립출판물서점;헌책방</t>
+  </si>
+  <si>
+    <t>예술;북카페;복합문화공간;전시공연;독립출판물서점</t>
+  </si>
+  <si>
+    <t>만화;그림책</t>
+  </si>
+  <si>
+    <t>북스테이;만화;그림책;헌책방;북카페</t>
+  </si>
+  <si>
+    <t>심리;실험서점;질문서점;독서모임;독립작가</t>
+  </si>
+  <si>
+    <t>책처방;북카페;책추천;복합문화공간;인문사회과학서점;심리;다양한프로그램</t>
+  </si>
+  <si>
+    <t>책처방;북카페;심리;책추천;잡화점</t>
+  </si>
+  <si>
+    <t>북카페;심리;실험서점;질문서점;독서모임</t>
+  </si>
+  <si>
+    <t>음악;헌책방</t>
+  </si>
+  <si>
+    <t>술;북카페;인문사회과학서점;음악;소설전문서점;여행</t>
+  </si>
+  <si>
+    <t>전시공연;문학서점;음악;예술;낭독회</t>
+  </si>
+  <si>
+    <t>음악;음반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5170,8 +5179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0123434E-4507-4409-A143-CCD2072D0150}">
   <dimension ref="A1:M205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -5188,31 +5197,31 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>1482</v>
+        <v>1447</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1483</v>
+        <v>1448</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1484</v>
+        <v>1449</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1485</v>
+        <v>1450</v>
       </c>
       <c r="E1" t="s">
-        <v>1486</v>
+        <v>1451</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1487</v>
+        <v>1452</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1488</v>
+        <v>1453</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1489</v>
+        <v>1454</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1490</v>
+        <v>1455</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="1"/>
@@ -5244,36 +5253,36 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5281,5215 +5290,5215 @@
         <v>1984</v>
       </c>
       <c r="B4" t="s">
-        <v>1504</v>
+        <v>1468</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>62</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>63</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>69</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>70</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>71</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>72</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>73</v>
-      </c>
-      <c r="H10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
         <v>76</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>77</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>78</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>79</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>80</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>81</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
         <v>85</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>86</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>87</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
         <v>88</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>89</v>
-      </c>
-      <c r="H12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
         <v>92</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>93</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>94</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>95</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>96</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>97</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>98</v>
-      </c>
-      <c r="H13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
         <v>101</v>
       </c>
-      <c r="B14" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>102</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>103</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>104</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
         <v>105</v>
-      </c>
-      <c r="H14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
         <v>108</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>110</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>111</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>112</v>
       </c>
-      <c r="F15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" t="s">
-        <v>114</v>
-      </c>
       <c r="H15" t="s">
-        <v>1498</v>
+        <v>1462</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>117</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G16" t="s">
         <v>118</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H16" t="s">
         <v>119</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" t="s">
         <v>120</v>
-      </c>
-      <c r="G16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" t="s">
         <v>124</v>
       </c>
-      <c r="B17" t="s">
+      <c r="F17" t="s">
         <v>125</v>
       </c>
-      <c r="C17" t="s">
+      <c r="H17" t="s">
         <v>126</v>
       </c>
-      <c r="D17" t="s">
+      <c r="I17" t="s">
         <v>127</v>
-      </c>
-      <c r="F17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
         <v>131</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>132</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>133</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G18" t="s">
         <v>134</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>135</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>136</v>
-      </c>
-      <c r="G18" t="s">
-        <v>137</v>
-      </c>
-      <c r="H18" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
         <v>133</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>134</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" t="s">
         <v>143</v>
       </c>
-      <c r="B20" t="s">
+      <c r="H20" t="s">
         <v>144</v>
       </c>
-      <c r="C20" t="s">
+      <c r="I20" t="s">
         <v>145</v>
-      </c>
-      <c r="F20" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" t="s">
-        <v>147</v>
-      </c>
-      <c r="I20" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" t="s">
         <v>149</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>150</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
         <v>151</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
         <v>152</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>153</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>154</v>
-      </c>
-      <c r="G21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H21" t="s">
-        <v>156</v>
-      </c>
-      <c r="I21" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" t="s">
         <v>158</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
         <v>159</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
         <v>160</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G22" t="s">
         <v>161</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>162</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
         <v>163</v>
-      </c>
-      <c r="G22" t="s">
-        <v>164</v>
-      </c>
-      <c r="H22" t="s">
-        <v>165</v>
-      </c>
-      <c r="I22" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" t="s">
         <v>167</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F23" t="s">
         <v>168</v>
       </c>
-      <c r="C23" t="s">
+      <c r="H23" t="s">
         <v>169</v>
       </c>
-      <c r="E23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" t="s">
-        <v>172</v>
-      </c>
       <c r="I23" t="s">
-        <v>173</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" t="s">
         <v>174</v>
       </c>
-      <c r="B24" t="s">
+      <c r="F24" t="s">
         <v>175</v>
       </c>
-      <c r="C24" t="s">
+      <c r="G24" t="s">
         <v>176</v>
       </c>
-      <c r="D24" t="s">
+      <c r="H24" t="s">
         <v>177</v>
       </c>
-      <c r="E24" t="s">
-        <v>178</v>
-      </c>
-      <c r="F24" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" t="s">
-        <v>180</v>
-      </c>
-      <c r="H24" t="s">
-        <v>181</v>
-      </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" t="s">
         <v>183</v>
       </c>
-      <c r="B25" t="s">
+      <c r="G25" t="s">
         <v>184</v>
       </c>
-      <c r="C25" t="s">
+      <c r="H25" t="s">
         <v>185</v>
       </c>
-      <c r="D25" t="s">
+      <c r="I25" t="s">
         <v>186</v>
-      </c>
-      <c r="E25" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H25" t="s">
-        <v>190</v>
-      </c>
-      <c r="I25" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" t="s">
         <v>192</v>
       </c>
-      <c r="B26" t="s">
+      <c r="G26" t="s">
         <v>193</v>
       </c>
-      <c r="C26" t="s">
+      <c r="H26" t="s">
         <v>194</v>
       </c>
-      <c r="D26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" t="s">
-        <v>196</v>
-      </c>
-      <c r="F26" t="s">
-        <v>197</v>
-      </c>
-      <c r="G26" t="s">
-        <v>198</v>
-      </c>
-      <c r="H26" t="s">
-        <v>199</v>
-      </c>
       <c r="I26" t="s">
-        <v>200</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H27" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I27" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" t="s">
+        <v>206</v>
+      </c>
+      <c r="H28" t="s">
         <v>207</v>
       </c>
-      <c r="B28" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="I28" t="s">
         <v>208</v>
-      </c>
-      <c r="D28" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" t="s">
-        <v>212</v>
-      </c>
-      <c r="H28" t="s">
-        <v>213</v>
-      </c>
-      <c r="I28" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" t="s">
+        <v>214</v>
+      </c>
+      <c r="H29" t="s">
         <v>215</v>
       </c>
-      <c r="B29" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="I29" t="s">
         <v>216</v>
-      </c>
-      <c r="D29" t="s">
-        <v>217</v>
-      </c>
-      <c r="E29" t="s">
-        <v>218</v>
-      </c>
-      <c r="F29" t="s">
-        <v>219</v>
-      </c>
-      <c r="G29" t="s">
-        <v>220</v>
-      </c>
-      <c r="H29" t="s">
-        <v>221</v>
-      </c>
-      <c r="I29" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" t="s">
+        <v>222</v>
+      </c>
+      <c r="H30" t="s">
         <v>223</v>
       </c>
-      <c r="B30" t="s">
+      <c r="I30" t="s">
         <v>224</v>
-      </c>
-      <c r="C30" t="s">
-        <v>225</v>
-      </c>
-      <c r="D30" t="s">
-        <v>226</v>
-      </c>
-      <c r="E30" t="s">
-        <v>227</v>
-      </c>
-      <c r="F30" t="s">
-        <v>228</v>
-      </c>
-      <c r="H30" t="s">
-        <v>229</v>
-      </c>
-      <c r="I30" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B31" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F31" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H31" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I31" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" t="s">
+        <v>235</v>
+      </c>
+      <c r="F32" t="s">
+        <v>236</v>
+      </c>
+      <c r="H32" t="s">
         <v>237</v>
       </c>
-      <c r="B32" t="s">
+      <c r="I32" t="s">
         <v>238</v>
-      </c>
-      <c r="C32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D32" t="s">
-        <v>240</v>
-      </c>
-      <c r="E32" t="s">
-        <v>241</v>
-      </c>
-      <c r="F32" t="s">
-        <v>242</v>
-      </c>
-      <c r="H32" t="s">
-        <v>243</v>
-      </c>
-      <c r="I32" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" t="s">
+        <v>241</v>
+      </c>
+      <c r="D33" t="s">
+        <v>242</v>
+      </c>
+      <c r="F33" t="s">
+        <v>243</v>
+      </c>
+      <c r="H33" t="s">
+        <v>244</v>
+      </c>
+      <c r="I33" t="s">
         <v>245</v>
-      </c>
-      <c r="B33" t="s">
-        <v>246</v>
-      </c>
-      <c r="C33" t="s">
-        <v>247</v>
-      </c>
-      <c r="D33" t="s">
-        <v>248</v>
-      </c>
-      <c r="F33" t="s">
-        <v>249</v>
-      </c>
-      <c r="H33" t="s">
-        <v>250</v>
-      </c>
-      <c r="I33" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" t="s">
+        <v>251</v>
+      </c>
+      <c r="H34" t="s">
         <v>252</v>
       </c>
-      <c r="B34" t="s">
+      <c r="I34" t="s">
         <v>253</v>
-      </c>
-      <c r="C34" t="s">
-        <v>254</v>
-      </c>
-      <c r="D34" t="s">
-        <v>255</v>
-      </c>
-      <c r="E34" t="s">
-        <v>256</v>
-      </c>
-      <c r="F34" t="s">
-        <v>257</v>
-      </c>
-      <c r="H34" t="s">
-        <v>258</v>
-      </c>
-      <c r="I34" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" t="s">
+        <v>258</v>
+      </c>
+      <c r="F35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" t="s">
         <v>260</v>
       </c>
-      <c r="B35" t="s">
+      <c r="H35" t="s">
         <v>261</v>
       </c>
-      <c r="C35" t="s">
+      <c r="I35" t="s">
         <v>262</v>
-      </c>
-      <c r="D35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E35" t="s">
-        <v>264</v>
-      </c>
-      <c r="F35" t="s">
-        <v>265</v>
-      </c>
-      <c r="G35" t="s">
-        <v>266</v>
-      </c>
-      <c r="H35" t="s">
-        <v>267</v>
-      </c>
-      <c r="I35" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" t="s">
+        <v>268</v>
+      </c>
+      <c r="H36" t="s">
         <v>269</v>
       </c>
-      <c r="B36" t="s">
+      <c r="I36" t="s">
         <v>270</v>
-      </c>
-      <c r="C36" t="s">
-        <v>271</v>
-      </c>
-      <c r="D36" t="s">
-        <v>272</v>
-      </c>
-      <c r="E36" t="s">
-        <v>273</v>
-      </c>
-      <c r="F36" t="s">
-        <v>274</v>
-      </c>
-      <c r="H36" t="s">
-        <v>275</v>
-      </c>
-      <c r="I36" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C37" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D37" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F37" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H37" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="I37" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s">
-        <v>1508</v>
+        <v>1472</v>
       </c>
       <c r="C38" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D38" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E38" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H38" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I38" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C39" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D39" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" t="s">
         <v>282</v>
       </c>
-      <c r="E39" t="s">
-        <v>288</v>
-      </c>
       <c r="H39" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I39" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B40" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C40" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D40" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E40" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F40" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H40" t="s">
-        <v>1499</v>
+        <v>1463</v>
       </c>
       <c r="I40" t="s">
-        <v>295</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
+        <v>289</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C41" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" t="s">
+        <v>291</v>
+      </c>
+      <c r="E41" t="s">
+        <v>292</v>
+      </c>
+      <c r="F41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" t="s">
+        <v>294</v>
+      </c>
+      <c r="H41" t="s">
+        <v>295</v>
+      </c>
+      <c r="I41" t="s">
         <v>296</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C41" t="s">
-        <v>297</v>
-      </c>
-      <c r="D41" t="s">
-        <v>298</v>
-      </c>
-      <c r="E41" t="s">
-        <v>299</v>
-      </c>
-      <c r="F41" t="s">
-        <v>300</v>
-      </c>
-      <c r="G41" t="s">
-        <v>301</v>
-      </c>
-      <c r="H41" t="s">
-        <v>302</v>
-      </c>
-      <c r="I41" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s">
-        <v>1510</v>
+        <v>1474</v>
       </c>
       <c r="C42" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D42" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H42" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I42" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C43" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D43" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E43" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F43" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I43" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C44" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D44" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H44" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I44" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
+        <v>314</v>
+      </c>
+      <c r="B45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" t="s">
+        <v>317</v>
+      </c>
+      <c r="E45" t="s">
+        <v>318</v>
+      </c>
+      <c r="F45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G45" t="s">
+        <v>320</v>
+      </c>
+      <c r="H45" t="s">
         <v>321</v>
       </c>
-      <c r="B45" t="s">
-        <v>322</v>
-      </c>
-      <c r="C45" t="s">
-        <v>323</v>
-      </c>
-      <c r="D45" t="s">
-        <v>324</v>
-      </c>
-      <c r="E45" t="s">
-        <v>325</v>
-      </c>
-      <c r="F45" t="s">
-        <v>326</v>
-      </c>
-      <c r="G45" t="s">
-        <v>327</v>
-      </c>
-      <c r="H45" t="s">
-        <v>328</v>
-      </c>
       <c r="I45" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s">
-        <v>1511</v>
+        <v>1475</v>
       </c>
       <c r="C46" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E46" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F46" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H46" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I46" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s">
-        <v>1512</v>
+        <v>1476</v>
       </c>
       <c r="C47" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D47" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F47" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G47" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H47" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="I47" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C48" t="s">
+        <v>336</v>
+      </c>
+      <c r="D48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E48" t="s">
+        <v>338</v>
+      </c>
+      <c r="F48" t="s">
+        <v>339</v>
+      </c>
+      <c r="G48" t="s">
+        <v>340</v>
+      </c>
+      <c r="H48" t="s">
+        <v>341</v>
+      </c>
+      <c r="I48" t="s">
         <v>342</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C48" t="s">
-        <v>343</v>
-      </c>
-      <c r="D48" t="s">
-        <v>344</v>
-      </c>
-      <c r="E48" t="s">
-        <v>345</v>
-      </c>
-      <c r="F48" t="s">
-        <v>346</v>
-      </c>
-      <c r="G48" t="s">
-        <v>347</v>
-      </c>
-      <c r="H48" t="s">
-        <v>348</v>
-      </c>
-      <c r="I48" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C49" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D49" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F49" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G49" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H49" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="I49" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B50" t="s">
-        <v>1513</v>
+        <v>1477</v>
       </c>
       <c r="C50" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D50" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F50" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H50" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="I50" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
+        <v>352</v>
+      </c>
+      <c r="B51" t="s">
+        <v>353</v>
+      </c>
+      <c r="C51" t="s">
+        <v>354</v>
+      </c>
+      <c r="D51" t="s">
+        <v>355</v>
+      </c>
+      <c r="F51" t="s">
+        <v>356</v>
+      </c>
+      <c r="G51" t="s">
+        <v>357</v>
+      </c>
+      <c r="H51" t="s">
+        <v>358</v>
+      </c>
+      <c r="I51" t="s">
         <v>359</v>
-      </c>
-      <c r="B51" t="s">
-        <v>360</v>
-      </c>
-      <c r="C51" t="s">
-        <v>361</v>
-      </c>
-      <c r="D51" t="s">
-        <v>362</v>
-      </c>
-      <c r="F51" t="s">
-        <v>363</v>
-      </c>
-      <c r="G51" t="s">
-        <v>364</v>
-      </c>
-      <c r="H51" t="s">
-        <v>365</v>
-      </c>
-      <c r="I51" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C52" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D52" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G52" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H52" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="I52" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
+        <v>366</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C53" t="s">
+        <v>367</v>
+      </c>
+      <c r="D53" t="s">
+        <v>368</v>
+      </c>
+      <c r="E53" t="s">
+        <v>369</v>
+      </c>
+      <c r="F53" t="s">
+        <v>370</v>
+      </c>
+      <c r="G53" t="s">
+        <v>371</v>
+      </c>
+      <c r="H53" t="s">
+        <v>372</v>
+      </c>
+      <c r="I53" t="s">
         <v>373</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C53" t="s">
-        <v>374</v>
-      </c>
-      <c r="D53" t="s">
-        <v>375</v>
-      </c>
-      <c r="E53" t="s">
-        <v>376</v>
-      </c>
-      <c r="F53" t="s">
-        <v>377</v>
-      </c>
-      <c r="G53" t="s">
-        <v>378</v>
-      </c>
-      <c r="H53" t="s">
-        <v>379</v>
-      </c>
-      <c r="I53" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
+        <v>374</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C54" t="s">
+        <v>375</v>
+      </c>
+      <c r="D54" t="s">
+        <v>376</v>
+      </c>
+      <c r="E54" t="s">
+        <v>377</v>
+      </c>
+      <c r="F54" t="s">
+        <v>378</v>
+      </c>
+      <c r="G54" t="s">
+        <v>379</v>
+      </c>
+      <c r="H54" t="s">
+        <v>380</v>
+      </c>
+      <c r="I54" t="s">
         <v>381</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C54" t="s">
-        <v>382</v>
-      </c>
-      <c r="D54" t="s">
-        <v>383</v>
-      </c>
-      <c r="E54" t="s">
-        <v>384</v>
-      </c>
-      <c r="F54" t="s">
-        <v>385</v>
-      </c>
-      <c r="G54" t="s">
-        <v>386</v>
-      </c>
-      <c r="H54" t="s">
-        <v>387</v>
-      </c>
-      <c r="I54" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
+        <v>382</v>
+      </c>
+      <c r="B55" t="s">
+        <v>383</v>
+      </c>
+      <c r="C55" t="s">
+        <v>384</v>
+      </c>
+      <c r="D55" t="s">
+        <v>385</v>
+      </c>
+      <c r="E55" t="s">
+        <v>386</v>
+      </c>
+      <c r="F55" t="s">
+        <v>387</v>
+      </c>
+      <c r="H55" t="s">
+        <v>388</v>
+      </c>
+      <c r="I55" t="s">
         <v>389</v>
-      </c>
-      <c r="B55" t="s">
-        <v>390</v>
-      </c>
-      <c r="C55" t="s">
-        <v>391</v>
-      </c>
-      <c r="D55" t="s">
-        <v>392</v>
-      </c>
-      <c r="E55" t="s">
-        <v>393</v>
-      </c>
-      <c r="F55" t="s">
-        <v>394</v>
-      </c>
-      <c r="H55" t="s">
-        <v>395</v>
-      </c>
-      <c r="I55" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
+        <v>390</v>
+      </c>
+      <c r="B56" t="s">
+        <v>391</v>
+      </c>
+      <c r="C56" t="s">
+        <v>392</v>
+      </c>
+      <c r="D56" t="s">
+        <v>393</v>
+      </c>
+      <c r="E56" t="s">
+        <v>394</v>
+      </c>
+      <c r="F56" t="s">
+        <v>395</v>
+      </c>
+      <c r="G56" t="s">
+        <v>396</v>
+      </c>
+      <c r="H56" t="s">
         <v>397</v>
       </c>
-      <c r="B56" t="s">
+      <c r="I56" t="s">
         <v>398</v>
-      </c>
-      <c r="C56" t="s">
-        <v>399</v>
-      </c>
-      <c r="D56" t="s">
-        <v>400</v>
-      </c>
-      <c r="E56" t="s">
-        <v>401</v>
-      </c>
-      <c r="F56" t="s">
-        <v>402</v>
-      </c>
-      <c r="G56" t="s">
-        <v>403</v>
-      </c>
-      <c r="H56" t="s">
-        <v>404</v>
-      </c>
-      <c r="I56" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B57" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C57" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D57" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="H57" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="I57" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C58" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D58" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F58" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G58" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H58" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="I58" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B59" t="s">
-        <v>1516</v>
+        <v>1480</v>
       </c>
       <c r="C59" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D59" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F59" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H59" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="I59" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
+        <v>418</v>
+      </c>
+      <c r="B60" t="s">
+        <v>419</v>
+      </c>
+      <c r="C60" t="s">
+        <v>420</v>
+      </c>
+      <c r="D60" t="s">
+        <v>421</v>
+      </c>
+      <c r="E60" t="s">
+        <v>422</v>
+      </c>
+      <c r="F60" t="s">
+        <v>423</v>
+      </c>
+      <c r="G60" t="s">
+        <v>424</v>
+      </c>
+      <c r="H60" t="s">
         <v>425</v>
       </c>
-      <c r="B60" t="s">
+      <c r="I60" t="s">
         <v>426</v>
-      </c>
-      <c r="C60" t="s">
-        <v>427</v>
-      </c>
-      <c r="D60" t="s">
-        <v>428</v>
-      </c>
-      <c r="E60" t="s">
-        <v>429</v>
-      </c>
-      <c r="F60" t="s">
-        <v>430</v>
-      </c>
-      <c r="G60" t="s">
-        <v>431</v>
-      </c>
-      <c r="H60" t="s">
-        <v>432</v>
-      </c>
-      <c r="I60" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C61" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D61" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F61" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="H61" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="I61" t="s">
-        <v>440</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
+        <v>433</v>
+      </c>
+      <c r="B62" t="s">
+        <v>434</v>
+      </c>
+      <c r="C62" t="s">
+        <v>435</v>
+      </c>
+      <c r="D62" t="s">
+        <v>436</v>
+      </c>
+      <c r="E62" t="s">
+        <v>437</v>
+      </c>
+      <c r="F62" t="s">
+        <v>438</v>
+      </c>
+      <c r="G62" t="s">
+        <v>439</v>
+      </c>
+      <c r="H62" t="s">
+        <v>440</v>
+      </c>
+      <c r="I62" t="s">
         <v>441</v>
-      </c>
-      <c r="B62" t="s">
-        <v>442</v>
-      </c>
-      <c r="C62" t="s">
-        <v>443</v>
-      </c>
-      <c r="D62" t="s">
-        <v>444</v>
-      </c>
-      <c r="E62" t="s">
-        <v>445</v>
-      </c>
-      <c r="F62" t="s">
-        <v>446</v>
-      </c>
-      <c r="G62" t="s">
-        <v>447</v>
-      </c>
-      <c r="H62" t="s">
-        <v>448</v>
-      </c>
-      <c r="I62" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B63" t="s">
-        <v>1517</v>
+        <v>1481</v>
       </c>
       <c r="C63" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D63" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E63" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F63" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G63" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="H63" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="I63" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
+        <v>450</v>
+      </c>
+      <c r="B64" t="s">
+        <v>451</v>
+      </c>
+      <c r="C64" t="s">
+        <v>452</v>
+      </c>
+      <c r="D64" t="s">
+        <v>453</v>
+      </c>
+      <c r="E64" t="s">
+        <v>454</v>
+      </c>
+      <c r="F64" t="s">
+        <v>455</v>
+      </c>
+      <c r="G64" t="s">
+        <v>456</v>
+      </c>
+      <c r="H64" t="s">
+        <v>457</v>
+      </c>
+      <c r="I64" t="s">
         <v>458</v>
-      </c>
-      <c r="B64" t="s">
-        <v>459</v>
-      </c>
-      <c r="C64" t="s">
-        <v>460</v>
-      </c>
-      <c r="D64" t="s">
-        <v>461</v>
-      </c>
-      <c r="E64" t="s">
-        <v>462</v>
-      </c>
-      <c r="F64" t="s">
-        <v>463</v>
-      </c>
-      <c r="G64" t="s">
-        <v>464</v>
-      </c>
-      <c r="H64" t="s">
-        <v>465</v>
-      </c>
-      <c r="I64" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B65" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C65" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D65" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E65" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F65" t="s">
+        <v>455</v>
+      </c>
+      <c r="G65" t="s">
+        <v>456</v>
+      </c>
+      <c r="H65" t="s">
         <v>463</v>
       </c>
-      <c r="G65" t="s">
-        <v>464</v>
-      </c>
-      <c r="H65" t="s">
-        <v>471</v>
-      </c>
       <c r="I65" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B66" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C66" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D66" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E66" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F66" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="H66" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="I66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B67" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C67" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D67" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F67" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H67" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="I67" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B68" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C68" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E68" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F68" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G68" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H68" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="I68" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B69" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C69" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D69" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E69" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F69" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="H69" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="I69" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
+        <v>493</v>
+      </c>
+      <c r="B70" t="s">
+        <v>494</v>
+      </c>
+      <c r="C70" t="s">
+        <v>495</v>
+      </c>
+      <c r="D70" t="s">
+        <v>496</v>
+      </c>
+      <c r="E70" t="s">
+        <v>497</v>
+      </c>
+      <c r="F70" t="s">
+        <v>498</v>
+      </c>
+      <c r="G70" t="s">
+        <v>499</v>
+      </c>
+      <c r="H70" t="s">
+        <v>500</v>
+      </c>
+      <c r="I70" t="s">
         <v>501</v>
-      </c>
-      <c r="B70" t="s">
-        <v>502</v>
-      </c>
-      <c r="C70" t="s">
-        <v>503</v>
-      </c>
-      <c r="D70" t="s">
-        <v>504</v>
-      </c>
-      <c r="E70" t="s">
-        <v>505</v>
-      </c>
-      <c r="F70" t="s">
-        <v>506</v>
-      </c>
-      <c r="G70" t="s">
-        <v>507</v>
-      </c>
-      <c r="H70" t="s">
-        <v>508</v>
-      </c>
-      <c r="I70" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
+        <v>502</v>
+      </c>
+      <c r="B71" t="s">
+        <v>503</v>
+      </c>
+      <c r="C71" t="s">
+        <v>504</v>
+      </c>
+      <c r="D71" t="s">
+        <v>505</v>
+      </c>
+      <c r="E71" t="s">
+        <v>506</v>
+      </c>
+      <c r="F71" t="s">
+        <v>507</v>
+      </c>
+      <c r="G71" t="s">
+        <v>508</v>
+      </c>
+      <c r="H71" t="s">
+        <v>509</v>
+      </c>
+      <c r="I71" t="s">
         <v>510</v>
-      </c>
-      <c r="B71" t="s">
-        <v>511</v>
-      </c>
-      <c r="C71" t="s">
-        <v>512</v>
-      </c>
-      <c r="D71" t="s">
-        <v>513</v>
-      </c>
-      <c r="E71" t="s">
-        <v>514</v>
-      </c>
-      <c r="F71" t="s">
-        <v>515</v>
-      </c>
-      <c r="G71" t="s">
-        <v>516</v>
-      </c>
-      <c r="H71" t="s">
-        <v>517</v>
-      </c>
-      <c r="I71" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B72" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C72" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E72" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F72" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="G72" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="H72" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="I72" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B73" t="s">
-        <v>1518</v>
+        <v>1482</v>
       </c>
       <c r="C73" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D73" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="E73" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F73" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G73" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H73" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="I73" t="s">
-        <v>533</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B74" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C74" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D74" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="E74" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="F74" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="G74" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="H74" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="I74" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B75" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C75" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D75" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="E75" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F75" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="H75" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="I75" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B76" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C76" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="D76" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="E76" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F76" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G76" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="H76" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="I76" t="s">
-        <v>559</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B77" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C77" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D77" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="E77" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="F77" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="G77" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="H77" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="I77" t="s">
-        <v>568</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B78" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="C78" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D78" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="E78" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="F78" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G78" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="H78" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="I78" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B79" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="C79" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D79" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="E79" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="F79" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="H79" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="I79" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="B80" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="C80" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="D80" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="E80" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="F80" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="H80" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="I80" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="B81" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="C81" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="D81" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="F81" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G81" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="H81" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="I81" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="B82" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="C82" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="D82" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="E82" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F82" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="H82" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="I82" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="B83" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="C83" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="D83" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="E83" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="F83" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="H83" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="I83" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="B84" t="s">
-        <v>1519</v>
+        <v>1483</v>
       </c>
       <c r="C84" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="D84" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="E84" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="F84" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="H84" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="I84" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="B85" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="C85" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="D85" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="F85" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="H85" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="I85" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="B86" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="C86" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="D86" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="E86" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="F86" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="H86" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="I86" t="s">
-        <v>637</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="B87" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="C87" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="D87" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="E87" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="F87" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="H87" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="I87" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B88" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="C88" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="D88" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="E88" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="H88" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="I88" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="B89" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="C89" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="E89" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="F89" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="G89" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="H89" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="I89" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="B90" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="C90" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="E90" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="F90" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="G90" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="H90" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="I90" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="B91" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C91" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="D91" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="F91" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="H91" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I91" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="B92" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C92" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="D92" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="E92" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="F92" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="H92" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="I92" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="B93" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="C93" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="D93" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="E93" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="F93" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="H93" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="I93" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="B94" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="C94" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="D94" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="E94" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="F94" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="G94" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="H94" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="I94" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B95" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="C95" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="D95" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="F95" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="G95" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="H95" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="I95" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="B96" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C96" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="E96" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="F96" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="H96" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="I96" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="B97" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C97" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="D97" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="G97" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="H97" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="I97" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="B98" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="C98" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="D98" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="E98" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="F98" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="H98" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="I98" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="B99" t="s">
-        <v>1549</v>
+        <v>1513</v>
       </c>
       <c r="C99" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="D99" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="F99" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="G99" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="H99" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="I99" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="B100" t="s">
-        <v>1550</v>
+        <v>1514</v>
       </c>
       <c r="C100" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="D100" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="E100" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="F100" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="G100" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="H100" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="I100" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="B101" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="C101" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="D101" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="E101" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="F101" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="G101" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="H101" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="I101" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="B102" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="C102" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="D102" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="F102" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="G102" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="H102" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="I102" t="s">
-        <v>756</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="B103" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="C103" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="D103" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="E103" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="F103" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="G103" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="H103" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="I103" t="s">
-        <v>765</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="B104" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="C104" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="D104" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="F104" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="G104" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H104" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="I104" t="s">
-        <v>773</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="B105" t="s">
-        <v>1545</v>
+        <v>1509</v>
       </c>
       <c r="C105" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="F105" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="H105" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="I105" t="s">
-        <v>777</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="B106" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="C106" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="D106" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="E106" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="F106" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="G106" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="H106" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="I106" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="B107" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="C107" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="F107" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="H107" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="I107" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="B108" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="C108" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="D108" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="E108" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="F108" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="G108" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="H108" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="I108" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="B109" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="C109" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="E109" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="F109" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="H109" t="s">
-        <v>1500</v>
+        <v>1464</v>
       </c>
       <c r="I109" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="B110" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="C110" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D110" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="E110" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="F110" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="G110" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="H110" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="I110" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="B111" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="C111" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="D111" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="E111" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="F111" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="H111" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="I111" t="s">
-        <v>821</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="B112" t="s">
-        <v>1522</v>
+        <v>1486</v>
       </c>
       <c r="C112" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="D112" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="E112" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="F112" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="H112" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="I112" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="B113" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="C113" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="D113" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="E113" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="F113" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="H113" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="I113" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
       <c r="B114" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="C114" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="D114" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="F114" t="s">
+        <v>804</v>
+      </c>
+      <c r="H114" t="s">
+        <v>819</v>
+      </c>
+      <c r="I114" t="s">
         <v>820</v>
-      </c>
-      <c r="H114" t="s">
-        <v>836</v>
-      </c>
-      <c r="I114" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="B115" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="C115" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="D115" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="E115" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="F115" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="G115" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
       <c r="H115" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="I115" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
       <c r="B116" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
       <c r="C116" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
       <c r="D116" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="E116" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
       <c r="F116" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
       <c r="H116" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="I116" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="B117" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
       <c r="C117" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
       <c r="D117" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="E117" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
       <c r="F117" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="G117" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
       <c r="H117" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
       <c r="I117" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="B118" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="C118" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="D118" t="s">
-        <v>867</v>
+        <v>850</v>
       </c>
       <c r="F118" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
       <c r="H118" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="I118" t="s">
-        <v>870</v>
+        <v>853</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>871</v>
+        <v>854</v>
       </c>
       <c r="B119" t="s">
-        <v>1521</v>
+        <v>1485</v>
       </c>
       <c r="C119" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="D119" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
       <c r="E119" t="s">
-        <v>874</v>
+        <v>857</v>
       </c>
       <c r="F119" t="s">
-        <v>875</v>
+        <v>858</v>
       </c>
       <c r="H119" t="s">
-        <v>876</v>
+        <v>859</v>
       </c>
       <c r="I119" t="s">
-        <v>877</v>
+        <v>860</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>878</v>
+        <v>861</v>
       </c>
       <c r="B120" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
       <c r="C120" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
       <c r="E120" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="F120" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
       <c r="H120" t="s">
-        <v>883</v>
+        <v>866</v>
       </c>
       <c r="I120" t="s">
-        <v>884</v>
+        <v>867</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>885</v>
+        <v>868</v>
       </c>
       <c r="B121" t="s">
-        <v>1520</v>
+        <v>1484</v>
       </c>
       <c r="C121" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="E121" t="s">
-        <v>887</v>
+        <v>870</v>
       </c>
       <c r="F121" t="s">
-        <v>888</v>
+        <v>871</v>
       </c>
       <c r="H121" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="I121" t="s">
-        <v>889</v>
+        <v>872</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>890</v>
+        <v>873</v>
       </c>
       <c r="B122" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
       <c r="C122" t="s">
-        <v>892</v>
+        <v>875</v>
       </c>
       <c r="E122" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
       <c r="F122" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="H122" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="I122" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="B123" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
       <c r="C123" t="s">
-        <v>898</v>
+        <v>881</v>
       </c>
       <c r="D123" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="E123" t="s">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="F123" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="G123" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="H123" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
       <c r="I123" t="s">
-        <v>904</v>
+        <v>887</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>905</v>
+        <v>888</v>
       </c>
       <c r="B124" t="s">
-        <v>906</v>
+        <v>889</v>
       </c>
       <c r="E124" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="F124" t="s">
-        <v>908</v>
+        <v>891</v>
       </c>
       <c r="G124" t="s">
-        <v>909</v>
+        <v>892</v>
       </c>
       <c r="H124" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="I124" t="s">
-        <v>911</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>912</v>
+        <v>894</v>
       </c>
       <c r="B125" t="s">
-        <v>913</v>
+        <v>895</v>
       </c>
       <c r="C125" t="s">
-        <v>914</v>
+        <v>896</v>
       </c>
       <c r="D125" t="s">
-        <v>915</v>
+        <v>897</v>
       </c>
       <c r="E125" t="s">
-        <v>916</v>
+        <v>898</v>
       </c>
       <c r="F125" t="s">
-        <v>917</v>
+        <v>899</v>
       </c>
       <c r="G125" t="s">
-        <v>918</v>
+        <v>900</v>
       </c>
       <c r="H125" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="I125" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>919</v>
+        <v>901</v>
       </c>
       <c r="B126" t="s">
-        <v>920</v>
+        <v>902</v>
       </c>
       <c r="C126" t="s">
-        <v>1530</v>
+        <v>1494</v>
       </c>
       <c r="D126" t="s">
-        <v>921</v>
+        <v>903</v>
       </c>
       <c r="E126" t="s">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="F126" t="s">
-        <v>923</v>
+        <v>905</v>
       </c>
       <c r="G126" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="H126" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
       <c r="I126" t="s">
-        <v>926</v>
+        <v>908</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>927</v>
+        <v>909</v>
       </c>
       <c r="B127" t="s">
-        <v>1546</v>
+        <v>1510</v>
       </c>
       <c r="C127" t="s">
-        <v>928</v>
+        <v>910</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1493</v>
+        <v>1457</v>
       </c>
       <c r="F127" t="s">
-        <v>929</v>
+        <v>911</v>
       </c>
       <c r="H127" t="s">
-        <v>930</v>
+        <v>912</v>
       </c>
       <c r="I127" t="s">
-        <v>931</v>
+        <v>913</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>932</v>
+        <v>914</v>
       </c>
       <c r="B128" t="s">
-        <v>933</v>
+        <v>915</v>
       </c>
       <c r="C128" t="s">
-        <v>934</v>
+        <v>916</v>
       </c>
       <c r="E128" t="s">
-        <v>935</v>
+        <v>917</v>
       </c>
       <c r="F128" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
       <c r="H128" t="s">
-        <v>937</v>
+        <v>919</v>
       </c>
       <c r="I128" t="s">
-        <v>938</v>
+        <v>920</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>939</v>
+        <v>921</v>
       </c>
       <c r="B129" t="s">
-        <v>940</v>
+        <v>922</v>
       </c>
       <c r="C129" t="s">
-        <v>1531</v>
+        <v>1495</v>
       </c>
       <c r="D129" t="s">
-        <v>941</v>
+        <v>923</v>
       </c>
       <c r="E129" t="s">
-        <v>942</v>
+        <v>924</v>
       </c>
       <c r="F129" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="G129" t="s">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="H129" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
       <c r="I129" t="s">
-        <v>946</v>
+        <v>928</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>947</v>
+        <v>929</v>
       </c>
       <c r="B130" t="s">
-        <v>948</v>
+        <v>930</v>
       </c>
       <c r="C130" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="D130" t="s">
-        <v>950</v>
+        <v>932</v>
       </c>
       <c r="E130" t="s">
-        <v>951</v>
+        <v>933</v>
       </c>
       <c r="F130" t="s">
-        <v>952</v>
+        <v>934</v>
       </c>
       <c r="G130" t="s">
-        <v>953</v>
+        <v>935</v>
       </c>
       <c r="H130" t="s">
-        <v>954</v>
+        <v>936</v>
       </c>
       <c r="I130" t="s">
-        <v>955</v>
+        <v>937</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>956</v>
+        <v>938</v>
       </c>
       <c r="B131" t="s">
-        <v>1547</v>
+        <v>1511</v>
       </c>
       <c r="C131" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="D131" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="E131" t="s">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="F131" t="s">
-        <v>960</v>
+        <v>942</v>
       </c>
       <c r="G131" t="s">
-        <v>961</v>
+        <v>943</v>
       </c>
       <c r="H131" t="s">
-        <v>962</v>
+        <v>944</v>
       </c>
       <c r="I131" t="s">
-        <v>963</v>
+        <v>945</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>964</v>
+        <v>946</v>
       </c>
       <c r="B132" t="s">
-        <v>965</v>
+        <v>947</v>
       </c>
       <c r="C132" t="s">
-        <v>966</v>
+        <v>948</v>
       </c>
       <c r="D132" t="s">
-        <v>967</v>
+        <v>949</v>
       </c>
       <c r="E132" t="s">
-        <v>968</v>
+        <v>950</v>
       </c>
       <c r="F132" t="s">
-        <v>969</v>
+        <v>951</v>
       </c>
       <c r="H132" t="s">
-        <v>970</v>
+        <v>952</v>
       </c>
       <c r="I132" t="s">
-        <v>971</v>
+        <v>953</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>972</v>
+        <v>954</v>
       </c>
       <c r="B133" t="s">
-        <v>973</v>
+        <v>955</v>
       </c>
       <c r="C133" t="s">
-        <v>974</v>
+        <v>956</v>
       </c>
       <c r="F133" t="s">
-        <v>975</v>
+        <v>957</v>
       </c>
       <c r="G133" t="s">
-        <v>976</v>
+        <v>958</v>
       </c>
       <c r="H133" t="s">
-        <v>977</v>
+        <v>959</v>
       </c>
       <c r="I133" t="s">
-        <v>978</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>979</v>
+        <v>960</v>
       </c>
       <c r="B134" t="s">
-        <v>1537</v>
+        <v>1501</v>
       </c>
       <c r="C134" t="s">
-        <v>1532</v>
+        <v>1496</v>
       </c>
       <c r="D134" t="s">
-        <v>980</v>
+        <v>961</v>
       </c>
       <c r="F134" t="s">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="G134" t="s">
-        <v>982</v>
+        <v>963</v>
       </c>
       <c r="H134" t="s">
-        <v>983</v>
+        <v>964</v>
       </c>
       <c r="I134" t="s">
-        <v>984</v>
+        <v>965</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>985</v>
+        <v>966</v>
       </c>
       <c r="B135" t="s">
-        <v>986</v>
+        <v>967</v>
       </c>
       <c r="C135" t="s">
-        <v>987</v>
+        <v>968</v>
       </c>
       <c r="E135" t="s">
-        <v>988</v>
+        <v>969</v>
       </c>
       <c r="F135" t="s">
-        <v>989</v>
+        <v>970</v>
       </c>
       <c r="H135" t="s">
-        <v>990</v>
+        <v>971</v>
       </c>
       <c r="I135" t="s">
-        <v>991</v>
+        <v>972</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
       <c r="B136" t="s">
-        <v>993</v>
+        <v>974</v>
       </c>
       <c r="C136" t="s">
-        <v>994</v>
+        <v>975</v>
       </c>
       <c r="D136" t="s">
-        <v>995</v>
+        <v>976</v>
       </c>
       <c r="F136" t="s">
-        <v>996</v>
+        <v>977</v>
       </c>
       <c r="G136" t="s">
-        <v>997</v>
+        <v>978</v>
       </c>
       <c r="H136" t="s">
-        <v>998</v>
+        <v>979</v>
       </c>
       <c r="I136" t="s">
-        <v>999</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="B137" t="s">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C137" t="s">
-        <v>1002</v>
+        <v>982</v>
       </c>
       <c r="D137" t="s">
-        <v>1003</v>
+        <v>983</v>
       </c>
       <c r="E137" t="s">
-        <v>1004</v>
+        <v>984</v>
       </c>
       <c r="F137" t="s">
-        <v>1005</v>
+        <v>985</v>
       </c>
       <c r="G137" t="s">
-        <v>1006</v>
+        <v>986</v>
       </c>
       <c r="H137" t="s">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="I137" t="s">
-        <v>1008</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>1009</v>
+        <v>988</v>
       </c>
       <c r="B138" t="s">
-        <v>1523</v>
+        <v>1487</v>
       </c>
       <c r="C138" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
       <c r="D138" t="s">
-        <v>1011</v>
+        <v>990</v>
       </c>
       <c r="F138" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="H138" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="I138" t="s">
-        <v>1014</v>
+        <v>993</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="B139" t="s">
-        <v>1016</v>
+        <v>995</v>
       </c>
       <c r="C139" t="s">
-        <v>1017</v>
+        <v>996</v>
       </c>
       <c r="E139" t="s">
-        <v>1018</v>
+        <v>997</v>
       </c>
       <c r="F139" t="s">
-        <v>1019</v>
+        <v>998</v>
       </c>
       <c r="H139" t="s">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="I139" t="s">
-        <v>1021</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>1022</v>
+        <v>1001</v>
       </c>
       <c r="B140" t="s">
-        <v>1535</v>
+        <v>1499</v>
       </c>
       <c r="D140" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="E140" t="s">
-        <v>1024</v>
+        <v>1003</v>
       </c>
       <c r="F140" t="s">
-        <v>1025</v>
+        <v>1004</v>
       </c>
       <c r="H140" t="s">
-        <v>1026</v>
+        <v>1005</v>
       </c>
       <c r="I140" t="s">
-        <v>1027</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>1028</v>
+        <v>1007</v>
       </c>
       <c r="B141" t="s">
-        <v>1029</v>
+        <v>1008</v>
       </c>
       <c r="C141" t="s">
-        <v>1030</v>
+        <v>1009</v>
       </c>
       <c r="E141" t="s">
-        <v>1031</v>
+        <v>1010</v>
       </c>
       <c r="H141" t="s">
-        <v>1032</v>
+        <v>1011</v>
       </c>
       <c r="I141" t="s">
-        <v>1033</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>1034</v>
+        <v>1012</v>
       </c>
       <c r="B142" t="s">
-        <v>1035</v>
+        <v>1013</v>
       </c>
       <c r="C142" t="s">
-        <v>1036</v>
+        <v>1014</v>
       </c>
       <c r="D142" t="s">
-        <v>1037</v>
+        <v>1015</v>
       </c>
       <c r="F142" t="s">
-        <v>1038</v>
+        <v>1016</v>
       </c>
       <c r="G142" t="s">
-        <v>1039</v>
+        <v>1017</v>
       </c>
       <c r="H142" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="I142" t="s">
-        <v>1040</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="B143" t="s">
-        <v>1042</v>
+        <v>1020</v>
       </c>
       <c r="C143" t="s">
-        <v>1043</v>
+        <v>1021</v>
       </c>
       <c r="E143" t="s">
-        <v>1044</v>
+        <v>1022</v>
       </c>
       <c r="F143" t="s">
-        <v>1045</v>
+        <v>1023</v>
       </c>
       <c r="H143" t="s">
-        <v>1046</v>
+        <v>1024</v>
       </c>
       <c r="I143" t="s">
-        <v>1047</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>1048</v>
+        <v>1025</v>
       </c>
       <c r="B144" t="s">
-        <v>1049</v>
+        <v>1026</v>
       </c>
       <c r="C144" t="s">
-        <v>1050</v>
+        <v>1027</v>
       </c>
       <c r="D144" t="s">
-        <v>1051</v>
+        <v>1028</v>
       </c>
       <c r="E144" t="s">
-        <v>1052</v>
+        <v>1029</v>
       </c>
       <c r="F144" t="s">
-        <v>1053</v>
+        <v>1030</v>
       </c>
       <c r="H144" t="s">
-        <v>1054</v>
+        <v>1031</v>
       </c>
       <c r="I144" t="s">
-        <v>1055</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>1056</v>
+        <v>1033</v>
       </c>
       <c r="B145" t="s">
-        <v>1524</v>
+        <v>1488</v>
       </c>
       <c r="C145" t="s">
-        <v>1057</v>
+        <v>1034</v>
       </c>
       <c r="D145" t="s">
-        <v>1058</v>
+        <v>1035</v>
       </c>
       <c r="F145" t="s">
-        <v>1059</v>
+        <v>1036</v>
       </c>
       <c r="G145" t="s">
-        <v>1060</v>
+        <v>1037</v>
       </c>
       <c r="H145" t="s">
-        <v>1061</v>
+        <v>1038</v>
       </c>
       <c r="I145" t="s">
-        <v>1062</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>1063</v>
+        <v>1040</v>
       </c>
       <c r="B146" t="s">
-        <v>1064</v>
+        <v>1041</v>
       </c>
       <c r="D146" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="E146" t="s">
-        <v>1066</v>
+        <v>1043</v>
       </c>
       <c r="F146" t="s">
-        <v>1067</v>
+        <v>1044</v>
       </c>
       <c r="G146" t="s">
-        <v>1068</v>
+        <v>1045</v>
       </c>
       <c r="H146" t="s">
-        <v>1069</v>
+        <v>1046</v>
       </c>
       <c r="I146" t="s">
-        <v>1070</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>1071</v>
+        <v>1047</v>
       </c>
       <c r="B147" t="s">
-        <v>1072</v>
+        <v>1048</v>
       </c>
       <c r="C147" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="D147" t="s">
-        <v>1074</v>
+        <v>1050</v>
       </c>
       <c r="F147" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="G147" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="H147" t="s">
-        <v>1077</v>
+        <v>1053</v>
       </c>
       <c r="I147" t="s">
-        <v>1078</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>1079</v>
+        <v>1054</v>
       </c>
       <c r="B148" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="C148" t="s">
-        <v>1081</v>
+        <v>1056</v>
       </c>
       <c r="D148" t="s">
-        <v>1082</v>
+        <v>1057</v>
       </c>
       <c r="F148" t="s">
-        <v>1083</v>
+        <v>1058</v>
       </c>
       <c r="G148" t="s">
-        <v>1084</v>
+        <v>1059</v>
       </c>
       <c r="H148" t="s">
-        <v>1085</v>
+        <v>1060</v>
       </c>
       <c r="I148" t="s">
-        <v>1086</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>1087</v>
+        <v>1062</v>
       </c>
       <c r="B149" t="s">
-        <v>1536</v>
+        <v>1500</v>
       </c>
       <c r="C149" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="D149" t="s">
-        <v>1089</v>
+        <v>1064</v>
       </c>
       <c r="E149" t="s">
-        <v>1090</v>
+        <v>1065</v>
       </c>
       <c r="F149" t="s">
-        <v>1091</v>
+        <v>1066</v>
       </c>
       <c r="G149" t="s">
-        <v>1092</v>
+        <v>1067</v>
       </c>
       <c r="H149" t="s">
-        <v>1093</v>
+        <v>1068</v>
       </c>
       <c r="I149" t="s">
-        <v>1094</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>1095</v>
+        <v>1070</v>
       </c>
       <c r="B150" t="s">
-        <v>1096</v>
+        <v>1071</v>
       </c>
       <c r="C150" t="s">
-        <v>1097</v>
+        <v>1072</v>
       </c>
       <c r="D150" t="s">
-        <v>1098</v>
+        <v>1073</v>
       </c>
       <c r="F150" t="s">
-        <v>1099</v>
+        <v>1074</v>
       </c>
       <c r="G150" t="s">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="H150" t="s">
-        <v>1101</v>
+        <v>1076</v>
       </c>
       <c r="I150" t="s">
-        <v>1102</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>1103</v>
+        <v>1078</v>
       </c>
       <c r="B151" t="s">
-        <v>1104</v>
+        <v>1079</v>
       </c>
       <c r="C151" t="s">
-        <v>1105</v>
+        <v>1080</v>
       </c>
       <c r="D151" t="s">
-        <v>1106</v>
+        <v>1081</v>
       </c>
       <c r="E151" t="s">
-        <v>1107</v>
+        <v>1082</v>
       </c>
       <c r="F151" t="s">
-        <v>1108</v>
+        <v>1083</v>
       </c>
       <c r="H151" t="s">
-        <v>1501</v>
+        <v>1465</v>
       </c>
       <c r="I151" t="s">
-        <v>1109</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>1110</v>
+        <v>1085</v>
       </c>
       <c r="B152" t="s">
-        <v>1111</v>
+        <v>1086</v>
       </c>
       <c r="C152" t="s">
-        <v>1112</v>
+        <v>1087</v>
       </c>
       <c r="D152" t="s">
-        <v>1113</v>
+        <v>1088</v>
       </c>
       <c r="F152" t="s">
-        <v>1114</v>
+        <v>1089</v>
       </c>
       <c r="H152" t="s">
-        <v>1502</v>
+        <v>1466</v>
       </c>
       <c r="I152" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>1116</v>
+        <v>1091</v>
       </c>
       <c r="B153" t="s">
-        <v>1117</v>
+        <v>1092</v>
       </c>
       <c r="C153" t="s">
-        <v>1118</v>
+        <v>1093</v>
       </c>
       <c r="D153" t="s">
-        <v>1119</v>
+        <v>1094</v>
       </c>
       <c r="F153" t="s">
-        <v>1120</v>
+        <v>1095</v>
       </c>
       <c r="G153" t="s">
-        <v>1121</v>
+        <v>1096</v>
       </c>
       <c r="H153" t="s">
-        <v>1122</v>
+        <v>1097</v>
       </c>
       <c r="I153" t="s">
-        <v>1123</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>1124</v>
+        <v>1099</v>
       </c>
       <c r="B154" t="s">
-        <v>1125</v>
+        <v>1100</v>
       </c>
       <c r="C154" t="s">
-        <v>1126</v>
+        <v>1101</v>
       </c>
       <c r="H154" t="s">
-        <v>1127</v>
+        <v>1102</v>
       </c>
       <c r="I154" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>1128</v>
+        <v>1103</v>
       </c>
       <c r="B155" t="s">
-        <v>1129</v>
+        <v>1104</v>
       </c>
       <c r="C155" t="s">
-        <v>1130</v>
+        <v>1105</v>
       </c>
       <c r="E155" t="s">
-        <v>1131</v>
+        <v>1106</v>
       </c>
       <c r="F155" t="s">
-        <v>1132</v>
+        <v>1107</v>
       </c>
       <c r="H155" t="s">
-        <v>1133</v>
+        <v>1108</v>
       </c>
       <c r="I155" t="s">
-        <v>1134</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>1135</v>
+        <v>1110</v>
       </c>
       <c r="B156" t="s">
-        <v>1136</v>
+        <v>1111</v>
       </c>
       <c r="C156" t="s">
-        <v>1137</v>
+        <v>1112</v>
       </c>
       <c r="D156" t="s">
-        <v>1138</v>
+        <v>1113</v>
       </c>
       <c r="H156" t="s">
-        <v>1139</v>
+        <v>1114</v>
       </c>
       <c r="I156" t="s">
-        <v>1140</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>1141</v>
+        <v>1116</v>
       </c>
       <c r="B157" t="s">
-        <v>1525</v>
+        <v>1489</v>
       </c>
       <c r="C157" t="s">
-        <v>1142</v>
+        <v>1117</v>
       </c>
       <c r="D157" t="s">
-        <v>1143</v>
+        <v>1118</v>
       </c>
       <c r="E157" t="s">
-        <v>1144</v>
+        <v>1119</v>
       </c>
       <c r="F157" t="s">
-        <v>1145</v>
+        <v>1120</v>
       </c>
       <c r="H157" t="s">
-        <v>1146</v>
+        <v>1121</v>
       </c>
       <c r="I157" t="s">
-        <v>1147</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>1148</v>
+        <v>1123</v>
       </c>
       <c r="B158" t="s">
-        <v>1149</v>
+        <v>1124</v>
       </c>
       <c r="C158" t="s">
-        <v>1150</v>
+        <v>1125</v>
       </c>
       <c r="D158" t="s">
-        <v>1151</v>
+        <v>1126</v>
       </c>
       <c r="E158" t="s">
-        <v>1152</v>
+        <v>1127</v>
       </c>
       <c r="F158" t="s">
-        <v>1153</v>
+        <v>1128</v>
       </c>
       <c r="G158" t="s">
-        <v>1154</v>
+        <v>1129</v>
       </c>
       <c r="H158" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="I158" t="s">
-        <v>1155</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>1156</v>
+        <v>1131</v>
       </c>
       <c r="B159" t="s">
-        <v>1157</v>
+        <v>1132</v>
       </c>
       <c r="C159" t="s">
-        <v>1158</v>
+        <v>1133</v>
       </c>
       <c r="D159" t="s">
-        <v>1159</v>
+        <v>1134</v>
       </c>
       <c r="E159" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="H159" t="s">
-        <v>1161</v>
+        <v>1136</v>
       </c>
       <c r="I159" t="s">
-        <v>1162</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>1163</v>
+        <v>1137</v>
       </c>
       <c r="B160" t="s">
-        <v>1164</v>
+        <v>1138</v>
       </c>
       <c r="C160" t="s">
-        <v>1165</v>
+        <v>1139</v>
       </c>
       <c r="D160" t="s">
-        <v>1166</v>
+        <v>1140</v>
       </c>
       <c r="F160" t="s">
-        <v>1167</v>
+        <v>1141</v>
       </c>
       <c r="H160" t="s">
-        <v>1168</v>
+        <v>1142</v>
       </c>
       <c r="I160" t="s">
-        <v>1169</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>1170</v>
+        <v>1144</v>
       </c>
       <c r="B161" t="s">
-        <v>1171</v>
+        <v>1145</v>
       </c>
       <c r="C161" t="s">
-        <v>1533</v>
+        <v>1497</v>
       </c>
       <c r="D161" t="s">
-        <v>1172</v>
+        <v>1146</v>
       </c>
       <c r="E161" t="s">
-        <v>1173</v>
+        <v>1147</v>
       </c>
       <c r="F161" t="s">
-        <v>1174</v>
+        <v>1148</v>
       </c>
       <c r="G161" t="s">
-        <v>1175</v>
+        <v>1149</v>
       </c>
       <c r="H161" t="s">
-        <v>1176</v>
+        <v>1150</v>
       </c>
       <c r="I161" t="s">
-        <v>1177</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>1178</v>
+        <v>1152</v>
       </c>
       <c r="B162" t="s">
-        <v>1526</v>
+        <v>1490</v>
       </c>
       <c r="C162" t="s">
-        <v>1179</v>
+        <v>1153</v>
       </c>
       <c r="D162" t="s">
-        <v>1180</v>
+        <v>1154</v>
       </c>
       <c r="E162" t="s">
-        <v>1181</v>
+        <v>1155</v>
       </c>
       <c r="F162" t="s">
-        <v>1182</v>
+        <v>1156</v>
       </c>
       <c r="G162" t="s">
-        <v>1183</v>
+        <v>1157</v>
       </c>
       <c r="H162" t="s">
-        <v>1085</v>
+        <v>1060</v>
       </c>
       <c r="I162" t="s">
-        <v>1184</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>1185</v>
+        <v>1159</v>
       </c>
       <c r="B163" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
       <c r="C163" t="s">
-        <v>1187</v>
+        <v>1161</v>
       </c>
       <c r="D163" t="s">
-        <v>1188</v>
+        <v>1162</v>
       </c>
       <c r="F163" t="s">
-        <v>1189</v>
+        <v>1163</v>
       </c>
       <c r="H163" t="s">
-        <v>977</v>
+        <v>959</v>
       </c>
       <c r="I163" t="s">
-        <v>1190</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>1191</v>
+        <v>1165</v>
       </c>
       <c r="B164" t="s">
-        <v>1192</v>
+        <v>1166</v>
       </c>
       <c r="C164" t="s">
-        <v>1193</v>
+        <v>1167</v>
       </c>
       <c r="D164" t="s">
-        <v>1194</v>
+        <v>1168</v>
       </c>
       <c r="F164" t="s">
-        <v>1195</v>
+        <v>1169</v>
       </c>
       <c r="G164" t="s">
-        <v>1196</v>
+        <v>1170</v>
       </c>
       <c r="H164" t="s">
-        <v>1197</v>
+        <v>1171</v>
       </c>
       <c r="I164" t="s">
-        <v>1198</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>1199</v>
+        <v>1173</v>
       </c>
       <c r="B165" t="s">
-        <v>1200</v>
+        <v>1174</v>
       </c>
       <c r="C165" t="s">
-        <v>1201</v>
+        <v>1175</v>
       </c>
       <c r="D165" t="s">
-        <v>1202</v>
+        <v>1176</v>
       </c>
       <c r="E165" t="s">
-        <v>1203</v>
+        <v>1177</v>
       </c>
       <c r="F165" t="s">
-        <v>1204</v>
+        <v>1178</v>
       </c>
       <c r="H165" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I165" t="s">
-        <v>1205</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>1206</v>
+        <v>1180</v>
       </c>
       <c r="B166" t="s">
-        <v>1207</v>
+        <v>1181</v>
       </c>
       <c r="C166" t="s">
-        <v>1208</v>
+        <v>1182</v>
       </c>
       <c r="D166" t="s">
-        <v>1209</v>
+        <v>1183</v>
       </c>
       <c r="E166" t="s">
-        <v>1210</v>
+        <v>1184</v>
       </c>
       <c r="F166" t="s">
-        <v>1211</v>
+        <v>1185</v>
       </c>
       <c r="G166" t="s">
-        <v>1212</v>
+        <v>1186</v>
       </c>
       <c r="H166" t="s">
-        <v>1213</v>
+        <v>1187</v>
       </c>
       <c r="I166" t="s">
-        <v>1214</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>1215</v>
+        <v>1189</v>
       </c>
       <c r="B167" t="s">
-        <v>1216</v>
+        <v>1190</v>
       </c>
       <c r="C167" t="s">
-        <v>1217</v>
+        <v>1191</v>
       </c>
       <c r="D167" t="s">
-        <v>1218</v>
+        <v>1192</v>
       </c>
       <c r="E167" t="s">
-        <v>1219</v>
+        <v>1193</v>
       </c>
       <c r="F167" t="s">
-        <v>1220</v>
+        <v>1194</v>
       </c>
       <c r="G167" t="s">
-        <v>1221</v>
+        <v>1195</v>
       </c>
       <c r="H167" t="s">
-        <v>1222</v>
+        <v>1196</v>
       </c>
       <c r="I167" t="s">
-        <v>1223</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>1224</v>
+        <v>1197</v>
       </c>
       <c r="B168" t="s">
-        <v>1225</v>
+        <v>1198</v>
       </c>
       <c r="C168" t="s">
-        <v>1226</v>
+        <v>1199</v>
       </c>
       <c r="D168" t="s">
-        <v>1218</v>
+        <v>1192</v>
       </c>
       <c r="E168" t="s">
-        <v>1227</v>
+        <v>1200</v>
       </c>
       <c r="F168" t="s">
-        <v>1228</v>
+        <v>1201</v>
       </c>
       <c r="G168" t="s">
-        <v>1221</v>
+        <v>1195</v>
       </c>
       <c r="I168" t="s">
-        <v>1229</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>1230</v>
+        <v>1202</v>
       </c>
       <c r="B169" t="s">
-        <v>1231</v>
+        <v>1203</v>
       </c>
       <c r="C169" t="s">
-        <v>1232</v>
+        <v>1204</v>
       </c>
       <c r="E169" t="s">
-        <v>1233</v>
+        <v>1205</v>
       </c>
       <c r="F169" t="s">
-        <v>1234</v>
+        <v>1206</v>
       </c>
       <c r="G169" t="s">
-        <v>1235</v>
+        <v>1207</v>
       </c>
       <c r="H169" t="s">
-        <v>1236</v>
+        <v>1208</v>
       </c>
       <c r="I169" t="s">
-        <v>1492</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>1237</v>
+        <v>1209</v>
       </c>
       <c r="B170" t="s">
-        <v>1544</v>
+        <v>1508</v>
       </c>
       <c r="C170" t="s">
-        <v>1238</v>
+        <v>1210</v>
       </c>
       <c r="D170" t="s">
-        <v>1239</v>
+        <v>1211</v>
       </c>
       <c r="E170" t="s">
-        <v>1240</v>
+        <v>1212</v>
       </c>
       <c r="F170" t="s">
-        <v>1241</v>
+        <v>1213</v>
       </c>
       <c r="G170" t="s">
-        <v>1242</v>
+        <v>1214</v>
       </c>
       <c r="H170" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="I170" t="s">
-        <v>1243</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>1244</v>
+        <v>1216</v>
       </c>
       <c r="B171" t="s">
-        <v>1245</v>
+        <v>1217</v>
       </c>
       <c r="C171" t="s">
-        <v>1246</v>
+        <v>1218</v>
       </c>
       <c r="D171" t="s">
-        <v>1247</v>
+        <v>1219</v>
       </c>
       <c r="E171" t="s">
-        <v>1248</v>
+        <v>1220</v>
       </c>
       <c r="F171" t="s">
-        <v>1249</v>
+        <v>1221</v>
       </c>
       <c r="H171" t="s">
-        <v>1250</v>
+        <v>1222</v>
       </c>
       <c r="I171" t="s">
-        <v>1251</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>1252</v>
+        <v>1223</v>
       </c>
       <c r="B172" t="s">
-        <v>1253</v>
+        <v>1224</v>
       </c>
       <c r="C172" t="s">
-        <v>1254</v>
+        <v>1225</v>
       </c>
       <c r="D172" t="s">
-        <v>1255</v>
+        <v>1226</v>
       </c>
       <c r="E172" t="s">
-        <v>1256</v>
+        <v>1227</v>
       </c>
       <c r="F172" t="s">
-        <v>1257</v>
+        <v>1228</v>
       </c>
       <c r="G172" t="s">
-        <v>1258</v>
+        <v>1229</v>
       </c>
       <c r="H172" t="s">
-        <v>1259</v>
+        <v>1230</v>
       </c>
       <c r="I172" t="s">
-        <v>1260</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>1261</v>
+        <v>1232</v>
       </c>
       <c r="B173" t="s">
-        <v>1543</v>
+        <v>1507</v>
       </c>
       <c r="C173" t="s">
-        <v>1262</v>
+        <v>1233</v>
       </c>
       <c r="D173" t="s">
-        <v>1263</v>
+        <v>1234</v>
       </c>
       <c r="F173" t="s">
-        <v>1264</v>
+        <v>1235</v>
       </c>
       <c r="H173" t="s">
-        <v>1265</v>
+        <v>1236</v>
       </c>
       <c r="I173" t="s">
-        <v>1266</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>1267</v>
+        <v>1238</v>
       </c>
       <c r="B174" t="s">
-        <v>1539</v>
+        <v>1503</v>
       </c>
       <c r="C174" t="s">
-        <v>1268</v>
+        <v>1239</v>
       </c>
       <c r="D174" t="s">
-        <v>1269</v>
+        <v>1240</v>
       </c>
       <c r="F174" t="s">
-        <v>1270</v>
+        <v>1241</v>
       </c>
       <c r="H174" t="s">
-        <v>1271</v>
+        <v>1242</v>
       </c>
       <c r="I174" t="s">
-        <v>1272</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>1273</v>
+        <v>1243</v>
       </c>
       <c r="B175" t="s">
-        <v>1274</v>
+        <v>1244</v>
       </c>
       <c r="C175" t="s">
-        <v>1268</v>
+        <v>1239</v>
       </c>
       <c r="D175" t="s">
-        <v>1269</v>
+        <v>1240</v>
       </c>
       <c r="F175" t="s">
-        <v>1270</v>
+        <v>1241</v>
       </c>
       <c r="H175" t="s">
-        <v>1271</v>
+        <v>1242</v>
       </c>
       <c r="I175" t="s">
-        <v>1272</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>1275</v>
+        <v>1245</v>
       </c>
       <c r="B176" t="s">
-        <v>1538</v>
+        <v>1502</v>
       </c>
       <c r="C176" t="s">
-        <v>1534</v>
+        <v>1498</v>
       </c>
       <c r="D176" t="s">
-        <v>1276</v>
+        <v>1246</v>
       </c>
       <c r="E176" t="s">
-        <v>1277</v>
+        <v>1247</v>
       </c>
       <c r="F176" t="s">
-        <v>1278</v>
+        <v>1248</v>
       </c>
       <c r="G176" t="s">
-        <v>1279</v>
+        <v>1249</v>
       </c>
       <c r="H176" t="s">
-        <v>1280</v>
+        <v>1250</v>
       </c>
       <c r="I176" t="s">
-        <v>1281</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>1282</v>
+        <v>1252</v>
       </c>
       <c r="B177" t="s">
-        <v>1283</v>
+        <v>1253</v>
       </c>
       <c r="C177" t="s">
-        <v>1284</v>
+        <v>1254</v>
       </c>
       <c r="D177" t="s">
-        <v>1285</v>
+        <v>1255</v>
       </c>
       <c r="F177" t="s">
-        <v>1286</v>
+        <v>1256</v>
       </c>
       <c r="G177" t="s">
-        <v>1287</v>
+        <v>1257</v>
       </c>
       <c r="H177" t="s">
-        <v>1288</v>
+        <v>1258</v>
       </c>
       <c r="I177" t="s">
-        <v>1289</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>1290</v>
+        <v>1259</v>
       </c>
       <c r="B178" t="s">
-        <v>1291</v>
+        <v>1260</v>
       </c>
       <c r="C178" t="s">
-        <v>1292</v>
+        <v>1261</v>
       </c>
       <c r="D178" t="s">
-        <v>1293</v>
+        <v>1262</v>
       </c>
       <c r="E178" t="s">
-        <v>1294</v>
+        <v>1263</v>
       </c>
       <c r="F178" t="s">
-        <v>1295</v>
+        <v>1264</v>
       </c>
       <c r="H178" t="s">
-        <v>1296</v>
+        <v>1265</v>
       </c>
       <c r="I178" t="s">
-        <v>1297</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>1298</v>
+        <v>1267</v>
       </c>
       <c r="B179" t="s">
-        <v>1299</v>
+        <v>1268</v>
       </c>
       <c r="C179" t="s">
-        <v>1300</v>
+        <v>1269</v>
       </c>
       <c r="F179" t="s">
-        <v>1301</v>
+        <v>1270</v>
       </c>
       <c r="H179" t="s">
-        <v>1302</v>
+        <v>1271</v>
       </c>
       <c r="I179" t="s">
-        <v>1303</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>1304</v>
+        <v>1273</v>
       </c>
       <c r="B180" t="s">
-        <v>1305</v>
+        <v>1274</v>
       </c>
       <c r="C180" t="s">
-        <v>1306</v>
+        <v>1275</v>
       </c>
       <c r="D180" t="s">
-        <v>1307</v>
+        <v>1276</v>
       </c>
       <c r="F180" t="s">
-        <v>1308</v>
+        <v>1277</v>
       </c>
       <c r="H180" t="s">
-        <v>1309</v>
+        <v>1278</v>
       </c>
       <c r="I180" t="s">
-        <v>1310</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>1311</v>
+        <v>1280</v>
       </c>
       <c r="B181" t="s">
-        <v>1529</v>
+        <v>1493</v>
       </c>
       <c r="C181" t="s">
-        <v>1312</v>
+        <v>1281</v>
       </c>
       <c r="D181" t="s">
-        <v>1313</v>
+        <v>1282</v>
       </c>
       <c r="E181" t="s">
-        <v>1314</v>
+        <v>1283</v>
       </c>
       <c r="F181" t="s">
-        <v>1315</v>
+        <v>1284</v>
       </c>
       <c r="H181" t="s">
-        <v>1280</v>
+        <v>1250</v>
       </c>
       <c r="I181" t="s">
-        <v>1316</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>1317</v>
+        <v>1286</v>
       </c>
       <c r="B182" t="s">
-        <v>1318</v>
+        <v>1287</v>
       </c>
       <c r="C182" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="E182" t="s">
-        <v>1320</v>
+        <v>1289</v>
       </c>
       <c r="F182" t="s">
-        <v>1321</v>
+        <v>1290</v>
       </c>
       <c r="H182" t="s">
-        <v>1322</v>
+        <v>1291</v>
       </c>
       <c r="I182" t="s">
-        <v>1323</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>1324</v>
+        <v>1293</v>
       </c>
       <c r="B183" t="s">
-        <v>1325</v>
+        <v>1294</v>
       </c>
       <c r="C183" t="s">
-        <v>1326</v>
+        <v>1295</v>
       </c>
       <c r="E183" t="s">
-        <v>1327</v>
+        <v>1296</v>
       </c>
       <c r="F183" t="s">
-        <v>1328</v>
+        <v>1297</v>
       </c>
       <c r="G183" t="s">
-        <v>1329</v>
+        <v>1298</v>
       </c>
       <c r="H183" t="s">
-        <v>1497</v>
+        <v>1461</v>
       </c>
       <c r="I183" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="B184" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="C184" t="s">
-        <v>1333</v>
+        <v>1302</v>
       </c>
       <c r="D184" t="s">
-        <v>1334</v>
+        <v>1303</v>
       </c>
       <c r="E184" t="s">
-        <v>1335</v>
+        <v>1304</v>
       </c>
       <c r="F184" t="s">
-        <v>1336</v>
+        <v>1305</v>
       </c>
       <c r="G184" t="s">
-        <v>1337</v>
+        <v>1306</v>
       </c>
       <c r="H184" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="I184" t="s">
-        <v>1338</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>1339</v>
+        <v>1308</v>
       </c>
       <c r="B185" t="s">
-        <v>1540</v>
+        <v>1504</v>
       </c>
       <c r="C185" t="s">
-        <v>1340</v>
+        <v>1309</v>
       </c>
       <c r="D185" t="s">
-        <v>1341</v>
+        <v>1310</v>
       </c>
       <c r="E185" t="s">
-        <v>1342</v>
+        <v>1311</v>
       </c>
       <c r="F185" t="s">
-        <v>1343</v>
+        <v>1312</v>
       </c>
       <c r="G185" t="s">
-        <v>1344</v>
+        <v>1313</v>
       </c>
       <c r="H185" t="s">
-        <v>1345</v>
+        <v>1314</v>
       </c>
       <c r="I185" t="s">
-        <v>1346</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>1347</v>
+        <v>1316</v>
       </c>
       <c r="B186" t="s">
-        <v>1348</v>
+        <v>1317</v>
       </c>
       <c r="C186" t="s">
-        <v>1349</v>
+        <v>1318</v>
       </c>
       <c r="D186" t="s">
-        <v>1350</v>
+        <v>1319</v>
       </c>
       <c r="H186" t="s">
-        <v>1351</v>
+        <v>1320</v>
       </c>
       <c r="I186" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="B187" t="s">
-        <v>1353</v>
+        <v>1322</v>
       </c>
       <c r="C187" t="s">
-        <v>1354</v>
+        <v>1323</v>
       </c>
       <c r="D187" t="s">
-        <v>1355</v>
+        <v>1324</v>
       </c>
       <c r="F187" t="s">
-        <v>1356</v>
+        <v>1325</v>
       </c>
       <c r="G187" t="s">
-        <v>1357</v>
+        <v>1326</v>
       </c>
       <c r="H187" t="s">
-        <v>1495</v>
+        <v>1459</v>
       </c>
       <c r="I187" t="s">
-        <v>1358</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>1359</v>
+        <v>1328</v>
       </c>
       <c r="B188" t="s">
-        <v>1360</v>
+        <v>1329</v>
       </c>
       <c r="C188" t="s">
-        <v>1361</v>
+        <v>1330</v>
       </c>
       <c r="D188" t="s">
-        <v>1362</v>
+        <v>1331</v>
       </c>
       <c r="E188" t="s">
-        <v>1363</v>
+        <v>1332</v>
       </c>
       <c r="F188" t="s">
-        <v>1364</v>
+        <v>1333</v>
       </c>
       <c r="G188" t="s">
-        <v>1365</v>
+        <v>1334</v>
       </c>
       <c r="H188" t="s">
-        <v>1366</v>
+        <v>1335</v>
       </c>
       <c r="I188" t="s">
-        <v>1367</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>1368</v>
+        <v>1337</v>
       </c>
       <c r="B189" t="s">
-        <v>1369</v>
+        <v>1338</v>
       </c>
       <c r="E189" t="s">
-        <v>1370</v>
+        <v>1339</v>
       </c>
       <c r="F189" t="s">
-        <v>1371</v>
+        <v>1340</v>
       </c>
       <c r="G189" t="s">
-        <v>1372</v>
+        <v>1341</v>
       </c>
       <c r="H189" t="s">
-        <v>1373</v>
+        <v>1342</v>
       </c>
       <c r="I189" t="s">
-        <v>1374</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>1375</v>
+        <v>1344</v>
       </c>
       <c r="B190" t="s">
-        <v>1541</v>
+        <v>1505</v>
       </c>
       <c r="C190" t="s">
-        <v>1376</v>
+        <v>1345</v>
       </c>
       <c r="E190" t="s">
-        <v>1377</v>
+        <v>1346</v>
       </c>
       <c r="F190" t="s">
-        <v>1378</v>
+        <v>1347</v>
       </c>
       <c r="G190" t="s">
-        <v>1379</v>
+        <v>1348</v>
       </c>
       <c r="H190" t="s">
-        <v>1380</v>
+        <v>1349</v>
       </c>
       <c r="I190" t="s">
-        <v>1381</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>1382</v>
+        <v>1351</v>
       </c>
       <c r="B191" t="s">
-        <v>1383</v>
+        <v>1352</v>
       </c>
       <c r="C191" t="s">
-        <v>1384</v>
+        <v>1353</v>
       </c>
       <c r="E191" t="s">
-        <v>1385</v>
+        <v>1354</v>
       </c>
       <c r="F191" t="s">
-        <v>1386</v>
+        <v>1355</v>
       </c>
       <c r="G191" t="s">
-        <v>1387</v>
+        <v>1356</v>
       </c>
       <c r="H191" t="s">
-        <v>1388</v>
+        <v>1357</v>
       </c>
       <c r="I191" t="s">
-        <v>1389</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>1390</v>
+        <v>1359</v>
       </c>
       <c r="B192" t="s">
-        <v>1391</v>
+        <v>1360</v>
       </c>
       <c r="C192" t="s">
-        <v>1392</v>
+        <v>1361</v>
       </c>
       <c r="D192" t="s">
-        <v>1393</v>
+        <v>1362</v>
       </c>
       <c r="E192" t="s">
-        <v>1394</v>
+        <v>1363</v>
       </c>
       <c r="F192" t="s">
-        <v>1395</v>
+        <v>1364</v>
       </c>
       <c r="G192" t="s">
-        <v>1396</v>
+        <v>1365</v>
       </c>
       <c r="H192" t="s">
-        <v>1397</v>
+        <v>1366</v>
       </c>
       <c r="I192" t="s">
-        <v>1398</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>1399</v>
+        <v>1367</v>
       </c>
       <c r="B193" t="s">
-        <v>1400</v>
+        <v>1368</v>
       </c>
       <c r="C193" t="s">
-        <v>1401</v>
+        <v>1369</v>
       </c>
       <c r="D193" t="s">
-        <v>1402</v>
+        <v>1370</v>
       </c>
       <c r="E193" t="s">
-        <v>1403</v>
+        <v>1371</v>
       </c>
       <c r="F193" t="s">
-        <v>1404</v>
+        <v>1372</v>
       </c>
       <c r="H193" t="s">
-        <v>1405</v>
+        <v>1373</v>
       </c>
       <c r="I193" t="s">
-        <v>1406</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>1407</v>
+        <v>1375</v>
       </c>
       <c r="B194" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I194" t="s">
         <v>1551</v>
-      </c>
-      <c r="C194" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D194" t="s">
-        <v>1409</v>
-      </c>
-      <c r="F194" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G194" t="s">
-        <v>1411</v>
-      </c>
-      <c r="H194" t="s">
-        <v>1412</v>
-      </c>
-      <c r="I194" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>1414</v>
+        <v>1381</v>
       </c>
       <c r="B195" t="s">
-        <v>1552</v>
+        <v>1516</v>
       </c>
       <c r="C195" t="s">
-        <v>1415</v>
+        <v>1382</v>
       </c>
       <c r="D195" t="s">
-        <v>1416</v>
+        <v>1383</v>
       </c>
       <c r="F195" t="s">
-        <v>1417</v>
+        <v>1384</v>
       </c>
       <c r="H195" t="s">
-        <v>1418</v>
+        <v>1385</v>
       </c>
       <c r="I195" t="s">
-        <v>1419</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>1420</v>
+        <v>1387</v>
       </c>
       <c r="B196" t="s">
-        <v>1421</v>
+        <v>1388</v>
       </c>
       <c r="C196" t="s">
-        <v>1422</v>
+        <v>1389</v>
       </c>
       <c r="D196" t="s">
-        <v>1423</v>
+        <v>1390</v>
       </c>
       <c r="E196" t="s">
-        <v>1424</v>
+        <v>1391</v>
       </c>
       <c r="F196" t="s">
-        <v>1425</v>
+        <v>1392</v>
       </c>
       <c r="G196" t="s">
-        <v>1426</v>
+        <v>1393</v>
       </c>
       <c r="H196" t="s">
-        <v>1494</v>
+        <v>1458</v>
       </c>
       <c r="I196" t="s">
-        <v>1427</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>1428</v>
+        <v>1395</v>
       </c>
       <c r="B197" t="s">
-        <v>1542</v>
+        <v>1506</v>
       </c>
       <c r="C197" t="s">
-        <v>1429</v>
+        <v>1396</v>
       </c>
       <c r="D197" t="s">
-        <v>1430</v>
+        <v>1397</v>
       </c>
       <c r="F197" t="s">
-        <v>1431</v>
+        <v>1398</v>
       </c>
       <c r="G197" t="s">
-        <v>1432</v>
+        <v>1399</v>
       </c>
       <c r="H197" t="s">
-        <v>1503</v>
+        <v>1467</v>
       </c>
       <c r="I197" t="s">
-        <v>1433</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>1434</v>
+        <v>1400</v>
       </c>
       <c r="B198" t="s">
-        <v>1435</v>
+        <v>1401</v>
       </c>
       <c r="C198" t="s">
-        <v>1436</v>
+        <v>1402</v>
       </c>
       <c r="D198" t="s">
-        <v>1437</v>
+        <v>1403</v>
       </c>
       <c r="H198" t="s">
-        <v>1438</v>
+        <v>1404</v>
       </c>
       <c r="I198" t="s">
-        <v>1439</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>1440</v>
+        <v>1406</v>
       </c>
       <c r="B199" t="s">
-        <v>1441</v>
+        <v>1407</v>
       </c>
       <c r="C199" t="s">
-        <v>1442</v>
+        <v>1408</v>
       </c>
       <c r="D199" t="s">
-        <v>1443</v>
+        <v>1409</v>
       </c>
       <c r="E199" t="s">
-        <v>1444</v>
+        <v>1410</v>
       </c>
       <c r="H199" t="s">
-        <v>1445</v>
+        <v>1411</v>
       </c>
       <c r="I199" t="s">
-        <v>1491</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>1446</v>
+        <v>1412</v>
       </c>
       <c r="B200" t="s">
-        <v>1447</v>
+        <v>1413</v>
       </c>
       <c r="C200" t="s">
-        <v>1448</v>
+        <v>1414</v>
       </c>
       <c r="D200" t="s">
-        <v>1449</v>
+        <v>1415</v>
       </c>
       <c r="F200" t="s">
-        <v>1450</v>
+        <v>1416</v>
       </c>
       <c r="H200" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="I200" t="s">
-        <v>1451</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>1452</v>
+        <v>1417</v>
       </c>
       <c r="B201" t="s">
-        <v>1453</v>
+        <v>1418</v>
       </c>
       <c r="C201" t="s">
-        <v>1454</v>
+        <v>1419</v>
       </c>
       <c r="D201" t="s">
-        <v>1455</v>
+        <v>1420</v>
       </c>
       <c r="E201" t="s">
-        <v>1456</v>
+        <v>1421</v>
       </c>
       <c r="F201" t="s">
-        <v>1457</v>
+        <v>1422</v>
       </c>
       <c r="G201" t="s">
-        <v>1458</v>
+        <v>1423</v>
       </c>
       <c r="H201" t="s">
-        <v>1459</v>
+        <v>1424</v>
       </c>
       <c r="I201" t="s">
-        <v>1496</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>1460</v>
+        <v>1425</v>
       </c>
       <c r="B202" t="s">
-        <v>1527</v>
+        <v>1491</v>
       </c>
       <c r="C202" t="s">
-        <v>1461</v>
+        <v>1426</v>
       </c>
       <c r="D202" t="s">
-        <v>1462</v>
+        <v>1427</v>
       </c>
       <c r="E202" t="s">
-        <v>1463</v>
+        <v>1428</v>
       </c>
       <c r="F202" t="s">
-        <v>1464</v>
+        <v>1429</v>
       </c>
       <c r="G202" t="s">
-        <v>1465</v>
+        <v>1430</v>
       </c>
       <c r="H202" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="I202" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>1466</v>
+        <v>1431</v>
       </c>
       <c r="B203" t="s">
-        <v>1467</v>
+        <v>1432</v>
       </c>
       <c r="D203" t="s">
-        <v>1462</v>
+        <v>1427</v>
       </c>
       <c r="F203" t="s">
-        <v>1468</v>
+        <v>1433</v>
       </c>
       <c r="G203" t="s">
-        <v>1469</v>
+        <v>1434</v>
       </c>
       <c r="H203" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="I203" t="s">
-        <v>1470</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>1471</v>
+        <v>1436</v>
       </c>
       <c r="B204" t="s">
-        <v>1472</v>
+        <v>1437</v>
       </c>
       <c r="C204" t="s">
-        <v>1473</v>
+        <v>1438</v>
       </c>
       <c r="D204" t="s">
-        <v>1474</v>
+        <v>1439</v>
       </c>
       <c r="E204" t="s">
-        <v>1475</v>
+        <v>1440</v>
       </c>
       <c r="F204" t="s">
-        <v>1476</v>
+        <v>1441</v>
       </c>
       <c r="H204" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="I204" t="s">
-        <v>1477</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>1478</v>
+        <v>1443</v>
       </c>
       <c r="B205" t="s">
-        <v>1528</v>
+        <v>1492</v>
       </c>
       <c r="C205" t="s">
-        <v>1479</v>
+        <v>1444</v>
       </c>
       <c r="E205" t="s">
-        <v>1480</v>
+        <v>1445</v>
       </c>
       <c r="F205" t="s">
-        <v>1481</v>
+        <v>1446</v>
       </c>
       <c r="H205" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="I205" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/bookDB2.xlsx
+++ b/bookDB2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sme13\OneDrive\바탕 화면\dev\real-dnb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97D683E-DFA1-4328-9E2B-032ED3004172}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429E0490-A03F-4BE0-81A0-AA4DF2BC534E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="570" windowWidth="14400" windowHeight="7360" xr2:uid="{509E9B0D-9459-46C0-BD3F-1330B5019B57}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{509E9B0D-9459-46C0-BD3F-1330B5019B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10979,8 +10979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0123434E-4507-4409-A143-CCD2072D0150}">
   <dimension ref="A1:IU423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="I223" workbookViewId="0">
+      <selection activeCell="I153" sqref="I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10993,7 +10993,7 @@
     <col min="6" max="6" width="23.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="61.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">

--- a/bookDB2.xlsx
+++ b/bookDB2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sme13\OneDrive\바탕 화면\dev\real-dnb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0543184C-1381-4029-B2E8-6166D655B15D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1461C91E-91A6-450F-B022-FC4CB1D77B15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{509E9B0D-9459-46C0-BD3F-1330B5019B57}"/>
   </bookViews>
@@ -11054,10 +11054,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0123434E-4507-4409-A143-CCD2072D0150}">
   <dimension ref="A1:IU422"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A153" sqref="A153"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -11068,7 +11068,7 @@
     <col min="4" max="4" width="38.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" customWidth="1"/>
     <col min="6" max="6" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" customWidth="1"/>
     <col min="8" max="8" width="61.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -15397,12 +15397,11 @@
       <c r="D163" s="9" t="s">
         <v>1602</v>
       </c>
-      <c r="E163" s="5"/>
+      <c r="E163" s="8" t="s">
+        <v>1604</v>
+      </c>
       <c r="F163" s="7" t="s">
         <v>1603</v>
-      </c>
-      <c r="G163" s="8" t="s">
-        <v>1604</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>1605</v>
@@ -23267,7 +23266,7 @@
     <hyperlink ref="E141" r:id="rId46" xr:uid="{4D594304-D6B2-40A3-A2A2-130A4208D0DB}"/>
     <hyperlink ref="E142" r:id="rId47" xr:uid="{A3648E20-85CA-4A67-9B18-B66AA6AC3365}"/>
     <hyperlink ref="E153" r:id="rId48" xr:uid="{08D7A4F5-58CD-47E0-8928-B565EE9A33EC}"/>
-    <hyperlink ref="G163" r:id="rId49" xr:uid="{9CC550D1-CBEA-4607-B667-8C7A1A318560}"/>
+    <hyperlink ref="E163" r:id="rId49" xr:uid="{9CC550D1-CBEA-4607-B667-8C7A1A318560}"/>
     <hyperlink ref="E172" r:id="rId50" xr:uid="{B464D95D-EAA6-40FE-9BC3-9E82FD61F7B8}"/>
     <hyperlink ref="E173" r:id="rId51" xr:uid="{636C5E60-8B8E-4D79-A96A-AC63078488B0}"/>
     <hyperlink ref="E177" r:id="rId52" xr:uid="{BBCD6988-9D2B-44A8-A33A-7DEC5856A06A}"/>

--- a/bookDB2.xlsx
+++ b/bookDB2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sme13\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sme13\OneDrive\바탕 화면\dev\real-dnb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F060747A-E74A-4910-ACE4-FC8BD5071E8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36388DA4-7831-4327-BB13-FF4DFAF43E3B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{509E9B0D-9459-46C0-BD3F-1330B5019B57}"/>
   </bookViews>
@@ -5747,9 +5747,6 @@
     <t>서울시 마포구 와우산로 29-18 (상수동)</t>
   </si>
   <si>
-    <t>서울시 마포구 와우산로 61-1 (서교동, 3층)</t>
-  </si>
-  <si>
     <t>서울시 마포구 월드컵로14길 10-8 (서교동)</t>
   </si>
   <si>
@@ -10399,6 +10396,10 @@
   </si>
   <si>
     <t>독서모임;멤버십책방;책추천;복합문화공간;책포장;이것저것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 마포구 와우산로 61-1 (서교동) 3층</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10834,10 +10835,10 @@
   <dimension ref="A1:J407"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I300" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I308" sqref="I308"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10898,7 +10899,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -10910,7 +10911,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10936,39 +10937,39 @@
         <v>1734</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2008</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="6" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2010</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2009</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2158</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2159</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>2011</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="1" t="s">
         <v>2012</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>2013</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10976,13 +10977,13 @@
         <v>1735</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1838</v>
+        <v>3202</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1736</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>1752</v>
@@ -10997,7 +10998,7 @@
         <v>1738</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11005,7 +11006,7 @@
         <v>1740</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1744</v>
@@ -11021,7 +11022,7 @@
         <v>1750</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11029,7 +11030,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -11038,7 +11039,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
@@ -11047,7 +11048,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11076,7 +11077,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11084,7 +11085,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -11102,7 +11103,7 @@
         <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11131,7 +11132,7 @@
         <v>45</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11139,7 +11140,7 @@
         <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>47</v>
@@ -11157,7 +11158,7 @@
         <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11186,7 +11187,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11194,7 +11195,7 @@
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>60</v>
@@ -11215,7 +11216,7 @@
         <v>65</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11238,7 +11239,7 @@
         <v>70</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11267,7 +11268,7 @@
         <v>78</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11293,7 +11294,7 @@
         <v>84</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11322,7 +11323,7 @@
         <v>1023</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11330,7 +11331,7 @@
         <v>91</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>92</v>
@@ -11342,10 +11343,10 @@
         <v>94</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11371,7 +11372,7 @@
         <v>105</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -11379,7 +11380,7 @@
         <v>96</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>97</v>
@@ -11400,7 +11401,7 @@
         <v>102</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -11414,7 +11415,7 @@
         <v>108</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>109</v>
@@ -11423,7 +11424,7 @@
         <v>110</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -11431,7 +11432,7 @@
         <v>111</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>112</v>
@@ -11452,7 +11453,7 @@
         <v>117</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -11460,7 +11461,7 @@
         <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>119</v>
@@ -11481,7 +11482,7 @@
         <v>124</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -11489,7 +11490,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>126</v>
@@ -11504,7 +11505,7 @@
         <v>129</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -11524,7 +11525,7 @@
         <v>1696</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -11553,7 +11554,7 @@
         <v>136</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -11561,7 +11562,7 @@
         <v>137</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>138</v>
@@ -11582,7 +11583,7 @@
         <v>143</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -11611,7 +11612,7 @@
         <v>150</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -11619,7 +11620,7 @@
         <v>211</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>212</v>
@@ -11637,12 +11638,12 @@
         <v>1024</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1773</v>
@@ -11657,7 +11658,7 @@
         <v>153</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -11683,7 +11684,7 @@
         <v>1675</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -11691,7 +11692,7 @@
         <v>154</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>155</v>
@@ -11712,7 +11713,7 @@
         <v>160</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -11720,7 +11721,7 @@
         <v>161</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>162</v>
@@ -11741,7 +11742,7 @@
         <v>167</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -11767,7 +11768,7 @@
         <v>174</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -11775,13 +11776,13 @@
         <v>175</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>177</v>
@@ -11790,7 +11791,7 @@
         <v>178</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -11798,7 +11799,7 @@
         <v>179</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>180</v>
@@ -11816,7 +11817,7 @@
         <v>184</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -11839,7 +11840,7 @@
         <v>190</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -11862,13 +11863,13 @@
         <v>195</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>196</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -11882,7 +11883,7 @@
         <v>198</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>199</v>
@@ -11897,7 +11898,7 @@
         <v>202</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -11905,7 +11906,7 @@
         <v>203</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>204</v>
@@ -11923,7 +11924,7 @@
         <v>208</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -11931,7 +11932,7 @@
         <v>209</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>210</v>
@@ -11946,12 +11947,12 @@
         <v>208</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1797</v>
@@ -11975,7 +11976,7 @@
         <v>221</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -11983,7 +11984,7 @@
         <v>223</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>224</v>
@@ -12001,7 +12002,7 @@
         <v>78</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -12009,7 +12010,7 @@
         <v>228</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>229</v>
@@ -12021,7 +12022,7 @@
         <v>231</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -12050,7 +12051,7 @@
         <v>239</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -12058,7 +12059,7 @@
         <v>1751</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1742</v>
@@ -12071,13 +12072,13 @@
         <v>1747</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>1749</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -12100,7 +12101,7 @@
         <v>244</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -12108,7 +12109,7 @@
         <v>245</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>246</v>
@@ -12117,7 +12118,7 @@
         <v>247</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>248</v>
@@ -12129,7 +12130,7 @@
         <v>250</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -12137,7 +12138,7 @@
         <v>256</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>252</v>
@@ -12149,13 +12150,13 @@
         <v>254</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>257</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -12172,19 +12173,19 @@
         <v>253</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>254</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -12192,7 +12193,7 @@
         <v>258</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>259</v>
@@ -12201,19 +12202,19 @@
         <v>260</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>261</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -12239,7 +12240,7 @@
         <v>269</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -12268,7 +12269,7 @@
         <v>276</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -12297,7 +12298,7 @@
         <v>283</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -12305,7 +12306,7 @@
         <v>284</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>285</v>
@@ -12323,7 +12324,7 @@
         <v>289</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -12331,7 +12332,7 @@
         <v>1644</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>1645</v>
@@ -12352,7 +12353,7 @@
         <v>1650</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -12381,7 +12382,7 @@
         <v>296</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -12398,16 +12399,16 @@
         <v>299</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>300</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -12433,7 +12434,7 @@
         <v>306</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -12441,7 +12442,7 @@
         <v>307</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>308</v>
@@ -12456,10 +12457,10 @@
         <v>311</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -12467,7 +12468,7 @@
         <v>312</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>313</v>
@@ -12488,7 +12489,7 @@
         <v>318</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -12496,25 +12497,25 @@
         <v>319</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>320</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>321</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>322</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -12543,7 +12544,7 @@
         <v>329</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -12566,13 +12567,13 @@
         <v>334</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -12601,7 +12602,7 @@
         <v>345</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -12609,7 +12610,7 @@
         <v>335</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>336</v>
@@ -12630,7 +12631,7 @@
         <v>341</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -12656,7 +12657,7 @@
         <v>352</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -12664,7 +12665,7 @@
         <v>353</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>354</v>
@@ -12673,7 +12674,7 @@
         <v>355</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>356</v>
@@ -12682,7 +12683,7 @@
         <v>357</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -12690,7 +12691,7 @@
         <v>358</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>359</v>
@@ -12708,7 +12709,7 @@
         <v>363</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -12716,7 +12717,7 @@
         <v>364</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>365</v>
@@ -12737,7 +12738,7 @@
         <v>370</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -12745,7 +12746,7 @@
         <v>371</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>372</v>
@@ -12766,7 +12767,7 @@
         <v>377</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -12774,7 +12775,7 @@
         <v>378</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>379</v>
@@ -12792,7 +12793,7 @@
         <v>289</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -12821,7 +12822,7 @@
         <v>389</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -12850,7 +12851,7 @@
         <v>396</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -12858,7 +12859,7 @@
         <v>397</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>398</v>
@@ -12876,7 +12877,7 @@
         <v>402</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -12884,7 +12885,7 @@
         <v>403</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>404</v>
@@ -12905,7 +12906,7 @@
         <v>409</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -12913,7 +12914,7 @@
         <v>410</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>411</v>
@@ -12934,7 +12935,7 @@
         <v>416</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -12963,7 +12964,7 @@
         <v>423</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -12971,7 +12972,7 @@
         <v>424</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>425</v>
@@ -12980,19 +12981,19 @@
         <v>426</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>428</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -13006,7 +13007,7 @@
         <v>430</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>431</v>
@@ -13015,13 +13016,13 @@
         <v>432</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>433</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -13050,7 +13051,7 @@
         <v>1689</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -13058,7 +13059,7 @@
         <v>1690</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>1691</v>
@@ -13076,7 +13077,7 @@
         <v>1692</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -13102,7 +13103,7 @@
         <v>439</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -13110,13 +13111,13 @@
         <v>440</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>441</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>442</v>
@@ -13125,36 +13126,36 @@
         <v>443</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>444</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>2130</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>2131</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="6" t="s">
+        <v>2153</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>2132</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>2154</v>
-      </c>
-      <c r="F85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>2133</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>2134</v>
-      </c>
       <c r="I85" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -13162,7 +13163,7 @@
         <v>445</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>446</v>
@@ -13180,7 +13181,7 @@
         <v>450</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -13206,7 +13207,7 @@
         <v>456</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -13223,7 +13224,7 @@
         <v>459</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>460</v>
@@ -13232,7 +13233,7 @@
         <v>461</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -13240,7 +13241,7 @@
         <v>462</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>463</v>
@@ -13252,13 +13253,13 @@
         <v>465</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>466</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -13275,19 +13276,19 @@
         <v>469</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>470</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>471</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -13310,7 +13311,7 @@
         <v>476</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -13318,13 +13319,13 @@
         <v>477</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>478</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>479</v>
@@ -13336,7 +13337,7 @@
         <v>481</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -13344,7 +13345,7 @@
         <v>488</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>489</v>
@@ -13353,19 +13354,19 @@
         <v>490</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>491</v>
       </c>
       <c r="G93" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>1993</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>1994</v>
-      </c>
       <c r="I93" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -13373,7 +13374,7 @@
         <v>492</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>493</v>
@@ -13391,7 +13392,7 @@
         <v>497</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -13399,7 +13400,7 @@
         <v>498</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>499</v>
@@ -13414,13 +13415,13 @@
         <v>502</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>357</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -13449,7 +13450,7 @@
         <v>509</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -13457,7 +13458,7 @@
         <v>510</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>511</v>
@@ -13466,7 +13467,7 @@
         <v>512</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>513</v>
@@ -13478,7 +13479,7 @@
         <v>515</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -13501,7 +13502,7 @@
         <v>521</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -13530,7 +13531,7 @@
         <v>6</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -13556,7 +13557,7 @@
         <v>527</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -13582,7 +13583,7 @@
         <v>533</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -13590,7 +13591,7 @@
         <v>1719</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>1720</v>
@@ -13611,7 +13612,7 @@
         <v>1725</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -13640,7 +13641,7 @@
         <v>540</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -13669,7 +13670,7 @@
         <v>548</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -13677,7 +13678,7 @@
         <v>1042</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>1043</v>
@@ -13690,7 +13691,7 @@
         <v>1045</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -13698,7 +13699,7 @@
         <v>1046</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>1047</v>
@@ -13713,7 +13714,7 @@
         <v>1050</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -13721,7 +13722,7 @@
         <v>1051</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>1052</v>
@@ -13740,32 +13741,32 @@
         <v>1056</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>1961</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>1962</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>1963</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="2"/>
       <c r="F108" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>1964</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="H108" s="2" t="s">
         <v>1965</v>
       </c>
-      <c r="H108" s="2" t="s">
-        <v>1966</v>
-      </c>
       <c r="I108" s="2" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -13773,7 +13774,7 @@
         <v>1057</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>1058</v>
@@ -13794,7 +13795,7 @@
         <v>1063</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -13802,7 +13803,7 @@
         <v>1064</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>1065</v>
@@ -13820,7 +13821,7 @@
         <v>1069</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -13828,7 +13829,7 @@
         <v>1070</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>1071</v>
@@ -13837,7 +13838,7 @@
         <v>1072</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>1073</v>
@@ -13849,7 +13850,7 @@
         <v>1075</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -13857,7 +13858,7 @@
         <v>1076</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>1077</v>
@@ -13876,7 +13877,7 @@
         <v>1081</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -13884,7 +13885,7 @@
         <v>1697</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1698</v>
@@ -13902,7 +13903,7 @@
         <v>1702</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -13910,7 +13911,7 @@
         <v>1082</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>1083</v>
@@ -13922,7 +13923,7 @@
         <v>1085</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -13945,7 +13946,7 @@
         <v>1669</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -13953,7 +13954,7 @@
         <v>1086</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>1087</v>
@@ -13971,7 +13972,7 @@
         <v>1091</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -13979,7 +13980,7 @@
         <v>1092</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>1093</v>
@@ -13994,7 +13995,7 @@
         <v>1096</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -14002,7 +14003,7 @@
         <v>1097</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>1098</v>
@@ -14011,7 +14012,7 @@
         <v>1099</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>1100</v>
@@ -14023,7 +14024,7 @@
         <v>1102</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -14031,7 +14032,7 @@
         <v>482</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>483</v>
@@ -14049,7 +14050,7 @@
         <v>487</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -14057,16 +14058,16 @@
         <v>1726</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>2015</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>2016</v>
-      </c>
       <c r="D120" s="6" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>1727</v>
@@ -14075,10 +14076,10 @@
         <v>1728</v>
       </c>
       <c r="H120" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I120" s="2" t="s">
         <v>2017</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>2018</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -14101,7 +14102,7 @@
         <v>1107</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -14127,7 +14128,7 @@
         <v>1114</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -14135,7 +14136,7 @@
         <v>1115</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1116</v>
@@ -14156,7 +14157,7 @@
         <v>1121</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -14183,7 +14184,7 @@
         <v>521</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -14191,7 +14192,7 @@
         <v>1127</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>1128</v>
@@ -14206,7 +14207,7 @@
         <v>1131</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -14225,10 +14226,10 @@
         <v>1134</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -14236,13 +14237,13 @@
         <v>1135</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>1136</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>1137</v>
@@ -14251,7 +14252,7 @@
         <v>1138</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -14278,7 +14279,7 @@
         <v>1145</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -14286,7 +14287,7 @@
         <v>1146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>1147</v>
@@ -14307,7 +14308,7 @@
         <v>1152</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -14315,7 +14316,7 @@
         <v>1153</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>1154</v>
@@ -14336,7 +14337,7 @@
         <v>1159</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -14344,7 +14345,7 @@
         <v>1160</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>1161</v>
@@ -14362,10 +14363,10 @@
         <v>1165</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -14373,7 +14374,7 @@
         <v>1173</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>1174</v>
@@ -14391,7 +14392,7 @@
         <v>1178</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -14399,7 +14400,7 @@
         <v>1179</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>1180</v>
@@ -14412,10 +14413,10 @@
         <v>1182</v>
       </c>
       <c r="H133" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>2023</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>2024</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -14423,7 +14424,7 @@
         <v>1183</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>1184</v>
@@ -14442,7 +14443,7 @@
         <v>1188</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -14450,7 +14451,7 @@
         <v>1189</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>1190</v>
@@ -14460,18 +14461,18 @@
         <v>1191</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="2" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>1192</v>
@@ -14489,7 +14490,7 @@
         <v>1196</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -14515,7 +14516,7 @@
         <v>1202</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -14523,7 +14524,7 @@
         <v>1203</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>1204</v>
@@ -14544,15 +14545,15 @@
         <v>1209</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="2" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>1210</v>
@@ -14573,7 +14574,7 @@
         <v>1215</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -14581,7 +14582,7 @@
         <v>1216</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>1217</v>
@@ -14596,13 +14597,13 @@
         <v>1220</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>1221</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -14610,7 +14611,7 @@
         <v>1222</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1223</v>
@@ -14631,7 +14632,7 @@
         <v>1228</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -14654,10 +14655,10 @@
         <v>1233</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -14665,13 +14666,13 @@
         <v>1234</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>1236</v>
@@ -14686,7 +14687,7 @@
         <v>1239</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -14694,7 +14695,7 @@
         <v>1240</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>1241</v>
@@ -14712,7 +14713,7 @@
         <v>289</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -14739,7 +14740,7 @@
         <v>1250</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -14747,7 +14748,7 @@
         <v>1251</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>1252</v>
@@ -14762,15 +14763,15 @@
         <v>184</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="2" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>1255</v>
@@ -14789,7 +14790,7 @@
         <v>1259</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -14797,7 +14798,7 @@
         <v>1260</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>1261</v>
@@ -14818,7 +14819,7 @@
         <v>1266</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -14826,7 +14827,7 @@
         <v>1267</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>1268</v>
@@ -14835,7 +14836,7 @@
         <v>1269</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>1270</v>
@@ -14844,7 +14845,7 @@
         <v>1271</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -14871,7 +14872,7 @@
         <v>1277</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -14900,7 +14901,7 @@
         <v>1285</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -14926,7 +14927,7 @@
         <v>1292</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -14952,7 +14953,7 @@
         <v>618</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -14960,7 +14961,7 @@
         <v>1299</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>1300</v>
@@ -14970,13 +14971,13 @@
       </c>
       <c r="E154" s="2"/>
       <c r="G154" s="6" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>1302</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -15005,7 +15006,7 @@
         <v>1309</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -15031,7 +15032,7 @@
         <v>1316</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -15060,7 +15061,7 @@
         <v>1324</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -15089,7 +15090,7 @@
         <v>1332</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -15116,7 +15117,7 @@
         <v>1338</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -15143,7 +15144,7 @@
         <v>1344</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -15151,7 +15152,7 @@
         <v>1345</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>1346</v>
@@ -15169,7 +15170,7 @@
         <v>1350</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -15177,7 +15178,7 @@
         <v>1351</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>1352</v>
@@ -15192,13 +15193,13 @@
         <v>1355</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>1356</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -15227,7 +15228,7 @@
         <v>1363</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -15256,7 +15257,7 @@
         <v>1324</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -15279,30 +15280,30 @@
         <v>1374</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>2135</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>2155</v>
-      </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="6" t="s">
         <v>2136</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="F166" s="1" t="s">
         <v>2137</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>2138</v>
-      </c>
       <c r="H166" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -15316,7 +15317,7 @@
         <v>1424</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>1425</v>
@@ -15325,7 +15326,7 @@
         <v>1426</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="J167" s="2"/>
     </row>
@@ -15334,16 +15335,16 @@
         <v>673</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>674</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>675</v>
@@ -15355,7 +15356,7 @@
         <v>677</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -15363,7 +15364,7 @@
         <v>1375</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>1376</v>
@@ -15384,7 +15385,7 @@
         <v>1381</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -15392,7 +15393,7 @@
         <v>1382</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>1383</v>
@@ -15413,7 +15414,7 @@
         <v>423</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -15442,7 +15443,7 @@
         <v>1394</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -15450,7 +15451,7 @@
         <v>1395</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>1396</v>
@@ -15459,13 +15460,13 @@
         <v>1397</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>1398</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="J172" s="2"/>
     </row>
@@ -15474,7 +15475,7 @@
         <v>1399</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>1400</v>
@@ -15489,7 +15490,7 @@
         <v>1403</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -15518,7 +15519,7 @@
         <v>1411</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -15547,7 +15548,7 @@
         <v>1418</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -15555,7 +15556,7 @@
         <v>1419</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>1420</v>
@@ -15568,7 +15569,7 @@
         <v>1422</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -15597,7 +15598,7 @@
         <v>1433</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="J177" s="2"/>
     </row>
@@ -15606,7 +15607,7 @@
         <v>1434</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>1435</v>
@@ -15627,7 +15628,7 @@
         <v>1440</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="J178" s="2"/>
     </row>
@@ -15636,7 +15637,7 @@
         <v>1441</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>1442</v>
@@ -15657,13 +15658,13 @@
         <v>1447</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="2" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>1448</v>
@@ -15687,7 +15688,7 @@
         <v>1454</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -15713,10 +15714,10 @@
         <v>1460</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="J181" s="2"/>
     </row>
@@ -15725,7 +15726,7 @@
         <v>1461</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>1462</v>
@@ -15743,7 +15744,7 @@
         <v>262</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -15761,7 +15762,7 @@
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="1" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>1469</v>
@@ -15770,7 +15771,7 @@
         <v>1470</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -15794,7 +15795,7 @@
         <v>1476</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="J184" s="2"/>
     </row>
@@ -15803,7 +15804,7 @@
         <v>1477</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>1478</v>
@@ -15818,7 +15819,7 @@
         <v>1481</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -15845,10 +15846,10 @@
         <v>1488</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -15874,7 +15875,7 @@
         <v>1494</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -15882,7 +15883,7 @@
         <v>1495</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>1496</v>
@@ -15892,13 +15893,13 @@
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="1" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>1498</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="J188" s="2"/>
     </row>
@@ -15907,7 +15908,7 @@
         <v>1499</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>1500</v>
@@ -15928,7 +15929,7 @@
         <v>1505</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -15936,7 +15937,7 @@
         <v>1506</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>1507</v>
@@ -15957,7 +15958,7 @@
         <v>1512</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="J190" s="2"/>
     </row>
@@ -15966,7 +15967,7 @@
         <v>1513</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>1514</v>
@@ -15984,7 +15985,7 @@
         <v>1102</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -16013,7 +16014,7 @@
         <v>1525</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -16036,7 +16037,7 @@
         <v>1531</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -16044,7 +16045,7 @@
         <v>1532</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>1533</v>
@@ -16060,7 +16061,7 @@
         <v>1536</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -16089,7 +16090,7 @@
         <v>14</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -16097,7 +16098,7 @@
         <v>1537</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>1538</v>
@@ -16118,7 +16119,7 @@
         <v>1543</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -16147,7 +16148,7 @@
         <v>1550</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -16155,7 +16156,7 @@
         <v>1555</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>1556</v>
@@ -16170,15 +16171,15 @@
         <v>1558</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="2" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>1551</v>
@@ -16193,7 +16194,7 @@
         <v>1554</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -16201,7 +16202,7 @@
         <v>1559</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>1560</v>
@@ -16219,7 +16220,7 @@
         <v>1022</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -16227,7 +16228,7 @@
         <v>1564</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>1565</v>
@@ -16246,7 +16247,7 @@
         <v>1569</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -16254,7 +16255,7 @@
         <v>1570</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>1571</v>
@@ -16275,7 +16276,7 @@
         <v>1576</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -16304,7 +16305,7 @@
         <v>1584</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -16324,13 +16325,13 @@
         <v>1588</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H204" s="2" t="s">
         <v>1589</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -16359,7 +16360,7 @@
         <v>1596</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -16367,7 +16368,7 @@
         <v>1597</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>1598</v>
@@ -16385,7 +16386,7 @@
         <v>1602</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -16393,7 +16394,7 @@
         <v>1603</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>1604</v>
@@ -16409,10 +16410,10 @@
         <v>1607</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -16441,7 +16442,7 @@
         <v>1615</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -16449,7 +16450,7 @@
         <v>1616</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>1617</v>
@@ -16470,7 +16471,7 @@
         <v>533</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="J209" s="8"/>
     </row>
@@ -16500,7 +16501,7 @@
         <v>1682</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -16508,7 +16509,7 @@
         <v>1622</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>1623</v>
@@ -16529,7 +16530,7 @@
         <v>1628</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -16537,7 +16538,7 @@
         <v>1629</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>1630</v>
@@ -16558,7 +16559,7 @@
         <v>1635</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -16573,7 +16574,7 @@
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="6" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>1638</v>
@@ -16582,7 +16583,7 @@
         <v>1271</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -16590,7 +16591,7 @@
         <v>1639</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>1640</v>
@@ -16606,27 +16607,27 @@
         <v>1643</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="215" spans="1:10">
       <c r="A215" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>2139</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>2156</v>
-      </c>
-      <c r="C215" s="1" t="s">
+      <c r="F215" s="1" t="s">
         <v>2140</v>
       </c>
-      <c r="F215" s="1" t="s">
+      <c r="H215" s="1" t="s">
         <v>2141</v>
       </c>
-      <c r="H215" s="1" t="s">
-        <v>2142</v>
-      </c>
       <c r="I215" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -16652,7 +16653,7 @@
         <v>554</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -16660,7 +16661,7 @@
         <v>555</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>556</v>
@@ -16669,7 +16670,7 @@
         <v>557</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>558</v>
@@ -16681,7 +16682,7 @@
         <v>560</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -16689,7 +16690,7 @@
         <v>561</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>562</v>
@@ -16701,7 +16702,7 @@
         <v>521</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -16709,7 +16710,7 @@
         <v>1651</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>1652</v>
@@ -16730,7 +16731,7 @@
         <v>1657</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -16738,7 +16739,7 @@
         <v>564</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>565</v>
@@ -16750,7 +16751,7 @@
         <v>567</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -16758,7 +16759,7 @@
         <v>568</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>569</v>
@@ -16779,7 +16780,7 @@
         <v>416</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -16802,7 +16803,7 @@
         <v>1025</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -16831,7 +16832,7 @@
         <v>584</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -16839,7 +16840,7 @@
         <v>590</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>591</v>
@@ -16857,7 +16858,7 @@
         <v>593</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -16865,7 +16866,7 @@
         <v>598</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>599</v>
@@ -16880,7 +16881,7 @@
         <v>600</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -16888,7 +16889,7 @@
         <v>585</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>586</v>
@@ -16906,7 +16907,7 @@
         <v>289</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -16914,7 +16915,7 @@
         <v>594</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>595</v>
@@ -16932,7 +16933,7 @@
         <v>597</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -16940,7 +16941,7 @@
         <v>601</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>602</v>
@@ -16958,10 +16959,10 @@
         <v>606</v>
       </c>
       <c r="H228" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="I228" s="1" t="s">
         <v>2273</v>
-      </c>
-      <c r="I228" s="1" t="s">
-        <v>2274</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -16969,7 +16970,7 @@
         <v>607</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>608</v>
@@ -16987,7 +16988,7 @@
         <v>612</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -17013,10 +17014,10 @@
         <v>618</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -17024,7 +17025,7 @@
         <v>619</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>620</v>
@@ -17042,7 +17043,7 @@
         <v>95</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -17050,7 +17051,7 @@
         <v>624</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>625</v>
@@ -17065,7 +17066,7 @@
         <v>628</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -17073,7 +17074,7 @@
         <v>629</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>630</v>
@@ -17088,7 +17089,7 @@
         <v>509</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -17096,7 +17097,7 @@
         <v>633</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>634</v>
@@ -17111,7 +17112,7 @@
         <v>584</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -17119,7 +17120,7 @@
         <v>637</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>638</v>
@@ -17140,7 +17141,7 @@
         <v>643</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -17148,7 +17149,7 @@
         <v>644</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>645</v>
@@ -17163,7 +17164,7 @@
         <v>648</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -17171,13 +17172,13 @@
         <v>649</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>650</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>651</v>
@@ -17192,7 +17193,7 @@
         <v>416</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -17206,7 +17207,7 @@
         <v>1033</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>655</v>
@@ -17221,7 +17222,7 @@
         <v>658</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -17241,13 +17242,13 @@
         <v>661</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>662</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -17255,7 +17256,7 @@
         <v>663</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>664</v>
@@ -17270,7 +17271,7 @@
         <v>667</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -17296,10 +17297,10 @@
         <v>672</v>
       </c>
       <c r="H241" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="I241" s="1" t="s">
         <v>2288</v>
-      </c>
-      <c r="I241" s="1" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -17307,7 +17308,7 @@
         <v>678</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>679</v>
@@ -17328,7 +17329,7 @@
         <v>684</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -17336,7 +17337,7 @@
         <v>685</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>686</v>
@@ -17354,7 +17355,7 @@
         <v>690</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -17362,13 +17363,13 @@
         <v>691</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>692</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>693</v>
@@ -17380,7 +17381,7 @@
         <v>695</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -17406,7 +17407,7 @@
         <v>700</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -17414,7 +17415,7 @@
         <v>701</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>702</v>
@@ -17429,7 +17430,7 @@
         <v>705</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -17437,7 +17438,7 @@
         <v>706</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>707</v>
@@ -17452,10 +17453,10 @@
         <v>710</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -17463,7 +17464,7 @@
         <v>711</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>712</v>
@@ -17484,15 +17485,15 @@
         <v>717</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>2280</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>2281</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>718</v>
@@ -17507,7 +17508,7 @@
         <v>721</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -17515,7 +17516,7 @@
         <v>722</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>723</v>
@@ -17530,7 +17531,7 @@
         <v>726</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -17538,7 +17539,7 @@
         <v>727</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>728</v>
@@ -17553,7 +17554,7 @@
         <v>731</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -17561,7 +17562,7 @@
         <v>732</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>733</v>
@@ -17573,7 +17574,7 @@
         <v>735</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -17581,7 +17582,7 @@
         <v>736</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>737</v>
@@ -17599,7 +17600,7 @@
         <v>345</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -17607,7 +17608,7 @@
         <v>741</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>742</v>
@@ -17622,7 +17623,7 @@
         <v>745</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -17648,7 +17649,7 @@
         <v>752</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -17662,7 +17663,7 @@
         <v>754</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>755</v>
@@ -17674,7 +17675,7 @@
         <v>757</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -17682,7 +17683,7 @@
         <v>758</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>759</v>
@@ -17700,7 +17701,7 @@
         <v>763</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -17708,7 +17709,7 @@
         <v>1739</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>1741</v>
@@ -17726,7 +17727,7 @@
         <v>1711</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -17743,7 +17744,7 @@
         <v>766</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>767</v>
@@ -17752,7 +17753,7 @@
         <v>768</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -17760,7 +17761,7 @@
         <v>769</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>770</v>
@@ -17778,7 +17779,7 @@
         <v>774</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -17807,7 +17808,7 @@
         <v>781</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -17815,7 +17816,7 @@
         <v>782</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>783</v>
@@ -17830,10 +17831,10 @@
         <v>786</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -17859,7 +17860,7 @@
         <v>1026</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -17867,7 +17868,7 @@
         <v>793</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>794</v>
@@ -17882,7 +17883,7 @@
         <v>1027</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -17908,7 +17909,7 @@
         <v>802</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -17928,7 +17929,7 @@
         <v>807</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>808</v>
@@ -17937,7 +17938,7 @@
         <v>306</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -17966,7 +17967,7 @@
         <v>1710</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -17989,7 +17990,7 @@
         <v>814</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -17997,13 +17998,13 @@
         <v>815</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>816</v>
@@ -18018,27 +18019,27 @@
         <v>819</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>2149</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="C270" s="1" t="s">
         <v>2150</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="F270" s="1" t="s">
         <v>2151</v>
       </c>
-      <c r="F270" s="1" t="s">
+      <c r="H270" s="1" t="s">
         <v>2152</v>
       </c>
-      <c r="H270" s="1" t="s">
-        <v>2153</v>
-      </c>
       <c r="I270" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -18067,7 +18068,7 @@
         <v>1664</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -18075,7 +18076,7 @@
         <v>820</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>821</v>
@@ -18096,7 +18097,7 @@
         <v>774</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -18119,15 +18120,15 @@
         <v>695</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>830</v>
@@ -18145,7 +18146,7 @@
         <v>834</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -18153,7 +18154,7 @@
         <v>835</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>836</v>
@@ -18171,7 +18172,7 @@
         <v>222</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -18185,7 +18186,7 @@
         <v>841</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>842</v>
@@ -18200,7 +18201,7 @@
         <v>845</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -18208,7 +18209,7 @@
         <v>853</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>854</v>
@@ -18226,7 +18227,7 @@
         <v>851</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -18255,7 +18256,7 @@
         <v>852</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -18263,7 +18264,7 @@
         <v>857</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>858</v>
@@ -18281,7 +18282,7 @@
         <v>862</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -18310,7 +18311,7 @@
         <v>357</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -18336,7 +18337,7 @@
         <v>874</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -18365,7 +18366,7 @@
         <v>882</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -18385,10 +18386,10 @@
         <v>886</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -18396,7 +18397,7 @@
         <v>887</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>1037</v>
@@ -18417,7 +18418,7 @@
         <v>892</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -18443,7 +18444,7 @@
         <v>898</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -18469,7 +18470,7 @@
         <v>904</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -18489,7 +18490,7 @@
         <v>908</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -18497,7 +18498,7 @@
         <v>909</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>910</v>
@@ -18512,7 +18513,7 @@
         <v>913</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -18520,7 +18521,7 @@
         <v>914</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>915</v>
@@ -18535,10 +18536,10 @@
         <v>918</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -18546,7 +18547,7 @@
         <v>919</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>920</v>
@@ -18561,7 +18562,7 @@
         <v>923</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -18569,7 +18570,7 @@
         <v>924</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>925</v>
@@ -18587,7 +18588,7 @@
         <v>1022</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -18595,7 +18596,7 @@
         <v>929</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>930</v>
@@ -18616,7 +18617,7 @@
         <v>289</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -18624,7 +18625,7 @@
         <v>935</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>936</v>
@@ -18645,7 +18646,7 @@
         <v>941</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -18653,7 +18654,7 @@
         <v>942</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>943</v>
@@ -18665,7 +18666,7 @@
         <v>945</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -18673,7 +18674,7 @@
         <v>946</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>947</v>
@@ -18691,7 +18692,7 @@
         <v>1021</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -18699,7 +18700,7 @@
         <v>951</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>952</v>
@@ -18720,7 +18721,7 @@
         <v>957</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -18728,7 +18729,7 @@
         <v>958</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>959</v>
@@ -18743,30 +18744,30 @@
         <v>962</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>2143</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="C298" s="1" t="s">
         <v>2144</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="F298" s="1" t="s">
         <v>2145</v>
       </c>
-      <c r="F298" s="1" t="s">
+      <c r="G298" s="1" t="s">
         <v>2146</v>
       </c>
-      <c r="G298" s="1" t="s">
+      <c r="H298" s="1" t="s">
         <v>2147</v>
       </c>
-      <c r="H298" s="1" t="s">
-        <v>2148</v>
-      </c>
       <c r="I298" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -18774,7 +18775,7 @@
         <v>963</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>964</v>
@@ -18792,7 +18793,7 @@
         <v>968</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -18818,7 +18819,7 @@
         <v>974</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -18847,7 +18848,7 @@
         <v>981</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -18855,7 +18856,7 @@
         <v>982</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>983</v>
@@ -18873,7 +18874,7 @@
         <v>987</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -18902,7 +18903,7 @@
         <v>1712</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -18910,7 +18911,7 @@
         <v>988</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>989</v>
@@ -18928,7 +18929,7 @@
         <v>993</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -18955,7 +18956,7 @@
         <v>1172</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -18963,7 +18964,7 @@
         <v>994</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>995</v>
@@ -18978,7 +18979,7 @@
         <v>998</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -19007,7 +19008,7 @@
         <v>1020</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -19015,7 +19016,7 @@
         <v>1005</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>1006</v>
@@ -19030,2577 +19031,2577 @@
         <v>1009</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="309" spans="1:9">
       <c r="A309" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>2351</v>
       </c>
-      <c r="B309" s="10" t="s">
-        <v>3036</v>
-      </c>
-      <c r="C309" s="1" t="s">
+      <c r="D309" s="1" t="s">
         <v>2352</v>
       </c>
-      <c r="D309" s="1" t="s">
-        <v>2353</v>
-      </c>
       <c r="E309" s="6" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>527</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="310" spans="1:9">
       <c r="A310" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B310" s="10" t="s">
         <v>2354</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="C310" s="1" t="s">
         <v>2355</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="D310" s="1" t="s">
         <v>2356</v>
       </c>
-      <c r="D310" s="1" t="s">
+      <c r="E310" s="6" t="s">
+        <v>2990</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="G310" s="1" t="s">
         <v>2357</v>
       </c>
-      <c r="E310" s="6" t="s">
-        <v>2991</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>2900</v>
-      </c>
-      <c r="G310" s="1" t="s">
+      <c r="H310" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="H310" s="1" t="s">
-        <v>2359</v>
-      </c>
       <c r="I310" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="311" spans="1:9">
       <c r="A311" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>2360</v>
       </c>
-      <c r="B311" s="10" t="s">
-        <v>3190</v>
-      </c>
-      <c r="C311" s="1" t="s">
+      <c r="D311" s="1" t="s">
         <v>2361</v>
       </c>
-      <c r="D311" s="1" t="s">
+      <c r="E311" s="6" t="s">
+        <v>2991</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="G311" s="1" t="s">
         <v>2362</v>
-      </c>
-      <c r="E311" s="6" t="s">
-        <v>2992</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>2901</v>
-      </c>
-      <c r="G311" s="1" t="s">
-        <v>2363</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>289</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="312" spans="1:9">
       <c r="A312" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B312" s="10" t="s">
         <v>2364</v>
       </c>
-      <c r="B312" s="10" t="s">
+      <c r="D312" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="E312" s="6" t="s">
+        <v>2992</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G312" s="1" t="s">
         <v>2365</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>2362</v>
-      </c>
-      <c r="E312" s="6" t="s">
-        <v>2993</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="G312" s="1" t="s">
-        <v>2366</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>289</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" s="2" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="C313" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D313" s="1" t="s">
         <v>2367</v>
       </c>
-      <c r="D313" s="1" t="s">
+      <c r="E313" s="6" t="s">
+        <v>2993</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="H313" s="1" t="s">
         <v>2368</v>
       </c>
-      <c r="E313" s="6" t="s">
-        <v>2994</v>
-      </c>
-      <c r="F313" s="1" t="s">
-        <v>2903</v>
-      </c>
-      <c r="H313" s="1" t="s">
-        <v>2369</v>
-      </c>
       <c r="I313" s="2" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="314" spans="1:9">
       <c r="A314" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B314" s="10" t="s">
         <v>2370</v>
       </c>
-      <c r="B314" s="10" t="s">
+      <c r="C314" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="D314" s="1" t="s">
         <v>2372</v>
       </c>
-      <c r="D314" s="1" t="s">
+      <c r="E314" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="E314" s="1" t="s">
-        <v>2374</v>
-      </c>
       <c r="F314" s="1" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>289</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="315" spans="1:9">
       <c r="A315" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B315" s="10" t="s">
         <v>2375</v>
       </c>
-      <c r="B315" s="10" t="s">
+      <c r="C315" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="E315" s="1" t="s">
         <v>2377</v>
       </c>
-      <c r="E315" s="1" t="s">
+      <c r="F315" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="H315" s="1" t="s">
         <v>2378</v>
       </c>
-      <c r="F315" s="1" t="s">
-        <v>2905</v>
-      </c>
-      <c r="H315" s="1" t="s">
-        <v>2379</v>
-      </c>
       <c r="I315" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="316" spans="1:9">
       <c r="A316" s="2" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="B316" s="5" t="s">
-        <v>3189</v>
-      </c>
-      <c r="C316" s="1" t="s">
+      <c r="D316" s="6" t="s">
+        <v>3154</v>
+      </c>
+      <c r="E316" s="6" t="s">
         <v>2381</v>
       </c>
-      <c r="D316" s="6" t="s">
-        <v>3155</v>
-      </c>
-      <c r="E316" s="6" t="s">
+      <c r="F316" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G316" s="1" t="s">
         <v>2382</v>
       </c>
-      <c r="F316" s="1" t="s">
-        <v>2906</v>
-      </c>
-      <c r="G316" s="1" t="s">
+      <c r="H316" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="H316" s="1" t="s">
-        <v>2384</v>
-      </c>
       <c r="I316" s="2" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="317" spans="1:9">
       <c r="A317" s="2" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B317" s="5" t="s">
         <v>2385</v>
       </c>
-      <c r="B317" s="5" t="s">
+      <c r="C317" s="1" t="s">
         <v>2386</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="D317" s="1" t="s">
         <v>2387</v>
       </c>
-      <c r="D317" s="1" t="s">
+      <c r="E317" s="6" t="s">
         <v>2388</v>
       </c>
-      <c r="E317" s="6" t="s">
-        <v>2389</v>
-      </c>
       <c r="F317" s="1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="318" spans="1:9">
       <c r="A318" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>2390</v>
       </c>
-      <c r="B318" s="5" t="s">
-        <v>3188</v>
-      </c>
-      <c r="C318" s="1" t="s">
+      <c r="E318" s="6" t="s">
+        <v>2994</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="G318" s="1" t="s">
         <v>2391</v>
       </c>
-      <c r="E318" s="6" t="s">
-        <v>2995</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>2908</v>
-      </c>
-      <c r="G318" s="1" t="s">
+      <c r="H318" s="1" t="s">
         <v>2392</v>
       </c>
-      <c r="H318" s="1" t="s">
-        <v>2393</v>
-      </c>
       <c r="I318" s="2" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="2" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="C319" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D319" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="D319" s="1" t="s">
+      <c r="E319" s="6" t="s">
+        <v>2995</v>
+      </c>
+      <c r="H319" s="1" t="s">
         <v>2395</v>
       </c>
-      <c r="E319" s="6" t="s">
-        <v>2996</v>
-      </c>
-      <c r="H319" s="1" t="s">
-        <v>2396</v>
-      </c>
       <c r="I319" s="2" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="320" spans="1:9">
       <c r="A320" s="2" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E320" s="6" t="s">
+        <v>2996</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="G320" s="1" t="s">
         <v>2397</v>
       </c>
-      <c r="B320" s="5" t="s">
-        <v>3033</v>
-      </c>
-      <c r="E320" s="6" t="s">
-        <v>2997</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>2909</v>
-      </c>
-      <c r="G320" s="1" t="s">
+      <c r="H320" s="1" t="s">
         <v>2398</v>
       </c>
-      <c r="H320" s="1" t="s">
-        <v>2399</v>
-      </c>
       <c r="I320" s="2" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="321" spans="1:9">
       <c r="A321" s="2" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>3186</v>
+      </c>
+      <c r="D321" s="1" t="s">
         <v>2400</v>
       </c>
-      <c r="B321" s="5" t="s">
-        <v>3187</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>2401</v>
-      </c>
       <c r="E321" s="6" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="F321" s="2"/>
       <c r="H321" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="322" spans="1:9">
       <c r="A322" s="2" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B322" s="5" t="s">
         <v>2403</v>
       </c>
-      <c r="B322" s="5" t="s">
+      <c r="C322" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="D322" s="6" t="s">
+        <v>3155</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="G322" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="D322" s="6" t="s">
-        <v>3156</v>
-      </c>
-      <c r="E322" s="6" t="s">
-        <v>2999</v>
-      </c>
-      <c r="F322" s="1" t="s">
-        <v>2910</v>
-      </c>
-      <c r="G322" s="1" t="s">
+      <c r="H322" s="1" t="s">
         <v>2406</v>
       </c>
-      <c r="H322" s="1" t="s">
-        <v>2407</v>
-      </c>
       <c r="I322" s="2" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="323" spans="1:9">
       <c r="A323" s="2" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>3185</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="B323" s="5" t="s">
-        <v>3186</v>
-      </c>
-      <c r="C323" s="1" t="s">
+      <c r="D323" s="1" t="s">
         <v>2409</v>
       </c>
-      <c r="D323" s="1" t="s">
+      <c r="E323" s="2" t="s">
+        <v>2999</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="H323" s="1" t="s">
         <v>2410</v>
       </c>
-      <c r="E323" s="2" t="s">
-        <v>3000</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>2911</v>
-      </c>
-      <c r="H323" s="1" t="s">
-        <v>2411</v>
-      </c>
       <c r="I323" s="2" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="324" spans="1:9">
       <c r="A324" s="2" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B324" s="5" t="s">
         <v>2412</v>
       </c>
-      <c r="B324" s="5" t="s">
+      <c r="C324" s="1" t="s">
         <v>2413</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="D324" s="6" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E324" s="2" t="s">
         <v>2414</v>
       </c>
-      <c r="D324" s="6" t="s">
+      <c r="F324" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="H324" s="1" t="s">
         <v>3129</v>
       </c>
-      <c r="E324" s="2" t="s">
-        <v>2415</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>2912</v>
-      </c>
-      <c r="G324" s="1" t="s">
-        <v>2416</v>
-      </c>
-      <c r="H324" s="1" t="s">
-        <v>3130</v>
-      </c>
       <c r="I324" s="2" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="325" spans="1:9">
       <c r="A325" s="2" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="B325" s="10" t="s">
-        <v>3185</v>
-      </c>
-      <c r="C325" s="1" t="s">
+      <c r="D325" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D325" s="1" t="s">
+      <c r="E325" s="6" t="s">
+        <v>3000</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="G325" s="1" t="s">
         <v>2419</v>
       </c>
-      <c r="E325" s="6" t="s">
-        <v>3001</v>
-      </c>
-      <c r="F325" s="1" t="s">
-        <v>2913</v>
-      </c>
-      <c r="G325" s="1" t="s">
+      <c r="H325" s="1" t="s">
         <v>2420</v>
       </c>
-      <c r="H325" s="1" t="s">
-        <v>2421</v>
-      </c>
       <c r="I325" s="2" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="326" spans="1:9">
       <c r="A326" s="2" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B326" s="5" t="s">
         <v>2422</v>
       </c>
-      <c r="B326" s="5" t="s">
+      <c r="C326" s="1" t="s">
         <v>2423</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="D326" s="1" t="s">
         <v>2424</v>
       </c>
-      <c r="D326" s="1" t="s">
+      <c r="E326" s="2" t="s">
         <v>2425</v>
       </c>
-      <c r="E326" s="2" t="s">
+      <c r="F326" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="G326" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="F326" s="1" t="s">
-        <v>2914</v>
-      </c>
-      <c r="G326" s="1" t="s">
+      <c r="H326" s="1" t="s">
         <v>2427</v>
       </c>
-      <c r="H326" s="1" t="s">
-        <v>2428</v>
-      </c>
       <c r="I326" s="2" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="327" spans="1:9">
       <c r="A327" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B327" s="5" t="s">
         <v>2429</v>
       </c>
-      <c r="B327" s="5" t="s">
+      <c r="C327" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="E327" s="2" t="s">
         <v>2431</v>
       </c>
-      <c r="E327" s="2" t="s">
+      <c r="F327" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="H327" s="1" t="s">
         <v>2432</v>
       </c>
-      <c r="F327" s="1" t="s">
-        <v>2915</v>
-      </c>
-      <c r="H327" s="1" t="s">
-        <v>2433</v>
-      </c>
       <c r="I327" s="2" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="328" spans="1:9">
       <c r="A328" s="2" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B328" s="5" t="s">
         <v>2434</v>
       </c>
-      <c r="B328" s="5" t="s">
+      <c r="C328" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="D328" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="D328" s="1" t="s">
+      <c r="E328" s="6" t="s">
+        <v>3001</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="G328" s="1" t="s">
         <v>2437</v>
       </c>
-      <c r="E328" s="6" t="s">
-        <v>3002</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>2916</v>
-      </c>
-      <c r="G328" s="1" t="s">
+      <c r="H328" s="1" t="s">
         <v>2438</v>
       </c>
-      <c r="H328" s="1" t="s">
-        <v>2439</v>
-      </c>
       <c r="I328" s="2" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="329" spans="1:9">
       <c r="A329" s="2" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B329" s="5" t="s">
         <v>2440</v>
       </c>
-      <c r="B329" s="5" t="s">
+      <c r="C329" s="1" t="s">
         <v>2441</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="D329" s="1" t="s">
         <v>2442</v>
       </c>
-      <c r="D329" s="1" t="s">
+      <c r="E329" s="2" t="s">
         <v>2443</v>
       </c>
-      <c r="E329" s="2" t="s">
+      <c r="F329" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="G329" s="1" t="s">
         <v>2444</v>
       </c>
-      <c r="F329" s="1" t="s">
-        <v>2917</v>
-      </c>
-      <c r="G329" s="1" t="s">
+      <c r="H329" s="1" t="s">
         <v>2445</v>
       </c>
-      <c r="H329" s="1" t="s">
-        <v>2446</v>
-      </c>
       <c r="I329" s="2" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="330" spans="1:9">
       <c r="A330" s="2" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B330" s="5" t="s">
         <v>2447</v>
       </c>
-      <c r="B330" s="5" t="s">
+      <c r="C330" s="1" t="s">
         <v>2448</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="D330" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="E330" s="2" t="s">
         <v>2450</v>
       </c>
-      <c r="E330" s="2" t="s">
+      <c r="F330" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="G330" s="1" t="s">
         <v>2451</v>
       </c>
-      <c r="F330" s="1" t="s">
-        <v>2918</v>
-      </c>
-      <c r="G330" s="1" t="s">
-        <v>2452</v>
-      </c>
       <c r="H330" s="1" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="331" spans="1:9">
       <c r="A331" s="2" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B331" s="5" t="s">
         <v>2453</v>
       </c>
-      <c r="B331" s="5" t="s">
+      <c r="E331" s="2" t="s">
         <v>2454</v>
       </c>
-      <c r="E331" s="2" t="s">
+      <c r="F331" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="G331" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="F331" s="1" t="s">
-        <v>2919</v>
-      </c>
-      <c r="G331" s="1" t="s">
+      <c r="H331" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="H331" s="1" t="s">
-        <v>2457</v>
-      </c>
       <c r="I331" s="2" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="332" spans="1:9">
       <c r="A332" s="2" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D332" s="1" t="s">
         <v>2458</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>3184</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>2459</v>
       </c>
       <c r="E332" s="2"/>
       <c r="F332" s="1" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="333" spans="1:9">
       <c r="A333" s="2" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B333" s="5" t="s">
         <v>2461</v>
       </c>
-      <c r="B333" s="5" t="s">
+      <c r="C333" s="1" t="s">
         <v>2462</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="D333" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="D333" s="1" t="s">
+      <c r="E333" s="2" t="s">
         <v>2464</v>
       </c>
-      <c r="E333" s="2" t="s">
+      <c r="F333" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="G333" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="F333" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="G333" s="1" t="s">
+      <c r="H333" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="H333" s="1" t="s">
-        <v>2467</v>
-      </c>
       <c r="I333" s="2" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="334" spans="1:9">
       <c r="A334" s="2" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>2468</v>
       </c>
-      <c r="B334" s="5" t="s">
-        <v>3032</v>
-      </c>
-      <c r="C334" s="1" t="s">
+      <c r="D334" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="D334" s="1" t="s">
+      <c r="E334" s="2" t="s">
         <v>2470</v>
       </c>
-      <c r="E334" s="2" t="s">
+      <c r="F334" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="H334" s="1" t="s">
         <v>2471</v>
       </c>
-      <c r="F334" s="1" t="s">
-        <v>2922</v>
-      </c>
-      <c r="H334" s="1" t="s">
-        <v>2472</v>
-      </c>
       <c r="I334" s="2" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="335" spans="1:9">
       <c r="A335" s="2" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B335" s="5" t="s">
         <v>2473</v>
       </c>
-      <c r="B335" s="5" t="s">
+      <c r="C335" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="D335" s="1" t="s">
         <v>2475</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="E335" s="2" t="s">
         <v>2476</v>
       </c>
-      <c r="E335" s="2" t="s">
+      <c r="F335" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="H335" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="F335" s="1" t="s">
-        <v>2923</v>
-      </c>
-      <c r="H335" s="1" t="s">
-        <v>2478</v>
-      </c>
       <c r="I335" s="2" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="336" spans="1:9">
       <c r="A336" s="2" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B336" s="5" t="s">
         <v>2479</v>
       </c>
-      <c r="B336" s="5" t="s">
+      <c r="C336" s="1" t="s">
         <v>2480</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="D336" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="D336" s="1" t="s">
+      <c r="E336" s="6" t="s">
         <v>2482</v>
       </c>
-      <c r="E336" s="6" t="s">
+      <c r="F336" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="H336" s="1" t="s">
         <v>2483</v>
       </c>
-      <c r="F336" s="1" t="s">
-        <v>2924</v>
-      </c>
-      <c r="H336" s="1" t="s">
-        <v>2484</v>
-      </c>
       <c r="I336" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="337" spans="1:9">
       <c r="A337" s="2" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B337" s="5" t="s">
         <v>2485</v>
       </c>
-      <c r="B337" s="5" t="s">
+      <c r="C337" s="1" t="s">
         <v>2486</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="D337" s="1" t="s">
         <v>2487</v>
       </c>
-      <c r="D337" s="1" t="s">
+      <c r="E337" s="2" t="s">
         <v>2488</v>
       </c>
-      <c r="E337" s="2" t="s">
+      <c r="F337" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G337" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="F337" s="1" t="s">
-        <v>2925</v>
-      </c>
-      <c r="G337" s="1" t="s">
+      <c r="H337" s="1" t="s">
         <v>2490</v>
       </c>
-      <c r="H337" s="1" t="s">
-        <v>2491</v>
-      </c>
       <c r="I337" s="2" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="2" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B338" s="5" t="s">
         <v>2492</v>
       </c>
-      <c r="B338" s="5" t="s">
+      <c r="C338" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="D338" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="D338" s="1" t="s">
+      <c r="E338" s="2" t="s">
         <v>2495</v>
       </c>
-      <c r="E338" s="2" t="s">
+      <c r="F338" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="G338" s="1" t="s">
         <v>2496</v>
-      </c>
-      <c r="F338" s="1" t="s">
-        <v>2926</v>
-      </c>
-      <c r="G338" s="1" t="s">
-        <v>2497</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>409</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="339" spans="1:9">
       <c r="A339" s="2" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>2498</v>
       </c>
-      <c r="B339" s="5" t="s">
-        <v>3031</v>
-      </c>
-      <c r="C339" s="1" t="s">
+      <c r="D339" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="D339" s="1" t="s">
+      <c r="E339" s="2" t="s">
         <v>2500</v>
       </c>
-      <c r="E339" s="2" t="s">
+      <c r="F339" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="H339" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="F339" s="1" t="s">
-        <v>2927</v>
-      </c>
-      <c r="H339" s="1" t="s">
-        <v>2502</v>
-      </c>
       <c r="I339" s="2" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="340" spans="1:9">
       <c r="A340" s="2" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C340" s="1" t="s">
         <v>2503</v>
       </c>
-      <c r="B340" s="5" t="s">
+      <c r="E340" s="6" t="s">
+        <v>3002</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="H340" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="I340" s="2" t="s">
         <v>3140</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>2504</v>
-      </c>
-      <c r="E340" s="6" t="s">
-        <v>3003</v>
-      </c>
-      <c r="F340" s="1" t="s">
-        <v>2928</v>
-      </c>
-      <c r="H340" s="1" t="s">
-        <v>2505</v>
-      </c>
-      <c r="I340" s="2" t="s">
-        <v>3141</v>
       </c>
     </row>
     <row r="341" spans="1:9">
       <c r="A341" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B341" s="5" t="s">
         <v>2506</v>
       </c>
-      <c r="B341" s="5" t="s">
+      <c r="C341" s="1" t="s">
         <v>2507</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="D341" s="1" t="s">
         <v>2508</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="E341" s="2" t="s">
         <v>2509</v>
       </c>
-      <c r="E341" s="2" t="s">
+      <c r="F341" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="G341" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="F341" s="1" t="s">
-        <v>2929</v>
-      </c>
-      <c r="G341" s="1" t="s">
+      <c r="H341" s="1" t="s">
         <v>2511</v>
       </c>
-      <c r="H341" s="1" t="s">
-        <v>2512</v>
-      </c>
       <c r="I341" s="2" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="342" spans="1:9">
       <c r="A342" s="2" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B342" s="10" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="D342" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="D342" s="1" t="s">
+      <c r="F342" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="G342" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="F342" s="1" t="s">
-        <v>2930</v>
-      </c>
-      <c r="G342" s="1" t="s">
+      <c r="H342" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="H342" s="1" t="s">
-        <v>2517</v>
-      </c>
       <c r="I342" s="2" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="343" spans="1:9">
       <c r="A343" s="2" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B343" s="5" t="s">
         <v>2518</v>
       </c>
-      <c r="B343" s="5" t="s">
+      <c r="C343" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="D343" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="D343" s="1" t="s">
+      <c r="E343" s="6" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G343" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="E343" s="6" t="s">
-        <v>3004</v>
-      </c>
-      <c r="F343" s="1" t="s">
-        <v>2931</v>
-      </c>
-      <c r="G343" s="1" t="s">
+      <c r="H343" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="H343" s="1" t="s">
-        <v>2523</v>
-      </c>
       <c r="I343" s="2" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="344" spans="1:9">
       <c r="A344" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B344" s="10" t="s">
         <v>2524</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="C344" s="1" t="s">
         <v>2525</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="D344" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="D344" s="1" t="s">
+      <c r="E344" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="E344" s="1" t="s">
+      <c r="F344" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="H344" s="1" t="s">
         <v>2528</v>
       </c>
-      <c r="F344" s="1" t="s">
-        <v>2932</v>
-      </c>
-      <c r="H344" s="1" t="s">
-        <v>2529</v>
-      </c>
       <c r="I344" s="1" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="345" spans="1:9">
       <c r="A345" s="2" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>2530</v>
       </c>
-      <c r="B345" s="5" t="s">
-        <v>3183</v>
-      </c>
-      <c r="C345" s="1" t="s">
+      <c r="D345" s="1" t="s">
         <v>2531</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="E345" s="2"/>
       <c r="F345" s="1" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="346" spans="1:9">
       <c r="A346" s="2" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B346" s="5" t="s">
         <v>2533</v>
       </c>
-      <c r="B346" s="5" t="s">
+      <c r="C346" s="1" t="s">
         <v>2534</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="D346" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="D346" s="1" t="s">
+      <c r="E346" s="6" t="s">
         <v>2536</v>
       </c>
-      <c r="E346" s="6" t="s">
+      <c r="F346" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="H346" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="F346" s="1" t="s">
-        <v>2934</v>
-      </c>
-      <c r="H346" s="1" t="s">
-        <v>2538</v>
-      </c>
       <c r="I346" s="2" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="347" spans="1:9">
       <c r="A347" s="2" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B347" s="5" t="s">
         <v>2539</v>
       </c>
-      <c r="B347" s="5" t="s">
+      <c r="C347" s="1" t="s">
         <v>2540</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>2541</v>
       </c>
       <c r="E347" s="2"/>
       <c r="F347" s="1" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="348" spans="1:9">
       <c r="A348" s="2" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="B348" s="5" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C348" s="1" t="s">
+      <c r="D348" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="D348" s="1" t="s">
+      <c r="E348" s="6" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="G348" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="E348" s="6" t="s">
-        <v>3005</v>
-      </c>
-      <c r="F348" s="1" t="s">
-        <v>2936</v>
-      </c>
-      <c r="G348" s="1" t="s">
+      <c r="H348" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="H348" s="1" t="s">
-        <v>2547</v>
-      </c>
       <c r="I348" s="2" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="349" spans="1:9">
       <c r="A349" s="2" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B349" s="5" t="s">
         <v>2548</v>
       </c>
-      <c r="B349" s="5" t="s">
+      <c r="C349" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="D349" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="D349" s="1" t="s">
+      <c r="E349" s="2" t="s">
         <v>2551</v>
       </c>
-      <c r="E349" s="2" t="s">
+      <c r="F349" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="G349" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="F349" s="1" t="s">
-        <v>2937</v>
-      </c>
-      <c r="G349" s="1" t="s">
+      <c r="H349" s="1" t="s">
         <v>2553</v>
       </c>
-      <c r="H349" s="1" t="s">
-        <v>2554</v>
-      </c>
       <c r="I349" s="2" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="350" spans="1:9">
       <c r="A350" s="2" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C350" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="B350" s="5" t="s">
-        <v>3029</v>
-      </c>
-      <c r="C350" s="1" t="s">
+      <c r="E350" s="2" t="s">
         <v>2556</v>
       </c>
-      <c r="E350" s="2" t="s">
+      <c r="F350" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="G350" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="F350" s="1" t="s">
-        <v>2938</v>
-      </c>
-      <c r="G350" s="1" t="s">
+      <c r="H350" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="H350" s="1" t="s">
-        <v>2559</v>
-      </c>
       <c r="I350" s="2" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="351" spans="1:9">
       <c r="A351" s="2" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B351" s="5" t="s">
         <v>2560</v>
       </c>
-      <c r="B351" s="5" t="s">
+      <c r="C351" s="1" t="s">
         <v>2561</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="D351" s="1" t="s">
         <v>2562</v>
       </c>
-      <c r="D351" s="1" t="s">
+      <c r="E351" s="4" t="s">
         <v>2563</v>
       </c>
-      <c r="E351" s="4" t="s">
+      <c r="F351" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="H351" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="F351" s="1" t="s">
-        <v>2939</v>
-      </c>
-      <c r="H351" s="1" t="s">
-        <v>2565</v>
-      </c>
       <c r="I351" s="2" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="352" spans="1:9">
       <c r="A352" s="2" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B352" s="5" t="s">
         <v>2566</v>
       </c>
-      <c r="B352" s="5" t="s">
+      <c r="C352" s="1" t="s">
         <v>2567</v>
       </c>
-      <c r="C352" s="1" t="s">
+      <c r="D352" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="D352" s="1" t="s">
+      <c r="E352" s="6" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="G352" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="E352" s="6" t="s">
-        <v>3123</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="G352" s="1" t="s">
+      <c r="H352" s="1" t="s">
         <v>2570</v>
       </c>
-      <c r="H352" s="1" t="s">
-        <v>2571</v>
-      </c>
       <c r="I352" s="2" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="353" spans="1:9">
       <c r="A353" s="2" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C353" s="1" t="s">
         <v>2572</v>
       </c>
-      <c r="B353" s="5" t="s">
-        <v>3182</v>
-      </c>
-      <c r="C353" s="1" t="s">
+      <c r="D353" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="D353" s="1" t="s">
+      <c r="E353" s="2" t="s">
         <v>2574</v>
       </c>
-      <c r="E353" s="2" t="s">
+      <c r="F353" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="H353" s="1" t="s">
         <v>2575</v>
       </c>
-      <c r="F353" s="1" t="s">
-        <v>2941</v>
-      </c>
-      <c r="H353" s="1" t="s">
-        <v>2576</v>
-      </c>
       <c r="I353" s="2" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="354" spans="1:9">
       <c r="A354" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>2577</v>
       </c>
-      <c r="B354" s="5" t="s">
-        <v>3028</v>
-      </c>
-      <c r="C354" s="1" t="s">
+      <c r="D354" s="1" t="s">
         <v>2578</v>
       </c>
-      <c r="D354" s="1" t="s">
+      <c r="E354" s="2" t="s">
         <v>2579</v>
       </c>
-      <c r="E354" s="2" t="s">
+      <c r="F354" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="G354" s="1" t="s">
         <v>2580</v>
-      </c>
-      <c r="F354" s="1" t="s">
-        <v>2942</v>
-      </c>
-      <c r="G354" s="1" t="s">
-        <v>2581</v>
       </c>
       <c r="H354" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="2" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B355" s="5" t="s">
         <v>2582</v>
       </c>
-      <c r="B355" s="5" t="s">
+      <c r="C355" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="E355" s="2" t="s">
         <v>2584</v>
       </c>
-      <c r="E355" s="2" t="s">
+      <c r="F355" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="H355" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="F355" s="1" t="s">
-        <v>2943</v>
-      </c>
-      <c r="H355" s="1" t="s">
-        <v>2586</v>
-      </c>
       <c r="I355" s="2" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="356" spans="1:9">
       <c r="A356" s="2" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B356" s="5" t="s">
         <v>2587</v>
       </c>
-      <c r="B356" s="5" t="s">
+      <c r="C356" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="D356" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="E356" s="2" t="s">
         <v>2590</v>
       </c>
-      <c r="E356" s="2" t="s">
+      <c r="F356" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="H356" s="1" t="s">
         <v>2591</v>
       </c>
-      <c r="F356" s="1" t="s">
-        <v>2944</v>
-      </c>
-      <c r="H356" s="1" t="s">
-        <v>2592</v>
-      </c>
       <c r="I356" s="2" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="357" spans="1:9">
       <c r="A357" s="2" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C357" s="1" t="s">
         <v>2593</v>
       </c>
-      <c r="B357" s="5" t="s">
-        <v>3181</v>
-      </c>
-      <c r="C357" s="1" t="s">
+      <c r="D357" s="1" t="s">
         <v>2594</v>
       </c>
-      <c r="D357" s="1" t="s">
+      <c r="E357" s="2" t="s">
         <v>2595</v>
       </c>
-      <c r="E357" s="2" t="s">
+      <c r="F357" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="G357" s="1" t="s">
         <v>2596</v>
-      </c>
-      <c r="F357" s="1" t="s">
-        <v>2945</v>
-      </c>
-      <c r="G357" s="1" t="s">
-        <v>2597</v>
       </c>
       <c r="H357" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="358" spans="1:9">
       <c r="A358" s="2" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B358" s="5" t="s">
         <v>2598</v>
       </c>
-      <c r="B358" s="5" t="s">
+      <c r="C358" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="D358" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="E358" s="2" t="s">
         <v>2601</v>
       </c>
-      <c r="E358" s="2" t="s">
+      <c r="F358" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="G358" s="1" t="s">
         <v>2602</v>
       </c>
-      <c r="F358" s="1" t="s">
-        <v>2946</v>
-      </c>
-      <c r="G358" s="1" t="s">
+      <c r="H358" s="1" t="s">
         <v>2603</v>
       </c>
-      <c r="H358" s="1" t="s">
-        <v>2604</v>
-      </c>
       <c r="I358" s="2" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="359" spans="1:9">
       <c r="A359" s="2" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C359" s="1" t="s">
         <v>2605</v>
       </c>
-      <c r="B359" s="5" t="s">
-        <v>3180</v>
-      </c>
-      <c r="C359" s="1" t="s">
+      <c r="D359" s="1" t="s">
         <v>2606</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>2607</v>
       </c>
       <c r="E359" s="2"/>
       <c r="F359" s="1" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="G359" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="H359" s="1" t="s">
         <v>2608</v>
       </c>
-      <c r="H359" s="1" t="s">
-        <v>2609</v>
-      </c>
       <c r="I359" s="2" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="360" spans="1:9">
       <c r="A360" s="2" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B360" s="5" t="s">
         <v>2610</v>
       </c>
-      <c r="B360" s="5" t="s">
+      <c r="C360" s="1" t="s">
         <v>2611</v>
       </c>
-      <c r="C360" s="1" t="s">
+      <c r="D360" s="1" t="s">
         <v>2612</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>2613</v>
       </c>
       <c r="E360" s="2"/>
       <c r="F360" s="1" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="361" spans="1:9">
       <c r="A361" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B361" s="5" t="s">
         <v>2615</v>
       </c>
-      <c r="B361" s="5" t="s">
+      <c r="C361" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="D361" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>2618</v>
       </c>
       <c r="E361" s="2"/>
       <c r="F361" s="1" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>416</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="362" spans="1:9">
       <c r="A362" s="2" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B362" s="5" t="s">
         <v>2619</v>
       </c>
-      <c r="B362" s="5" t="s">
+      <c r="C362" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="C362" s="1" t="s">
+      <c r="D362" s="1" t="s">
         <v>2621</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>2622</v>
       </c>
       <c r="E362" s="2"/>
       <c r="F362" s="1" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="G362" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H362" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="H362" s="1" t="s">
-        <v>2624</v>
-      </c>
       <c r="I362" s="2" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="363" spans="1:9">
       <c r="A363" s="2" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B363" s="5" t="s">
         <v>2625</v>
       </c>
-      <c r="B363" s="5" t="s">
+      <c r="C363" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="C363" s="1" t="s">
+      <c r="D363" s="1" t="s">
         <v>2627</v>
       </c>
-      <c r="D363" s="1" t="s">
+      <c r="E363" s="2" t="s">
         <v>2628</v>
       </c>
-      <c r="E363" s="2" t="s">
+      <c r="F363" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="H363" s="1" t="s">
         <v>2629</v>
       </c>
-      <c r="F363" s="1" t="s">
-        <v>2951</v>
-      </c>
-      <c r="H363" s="1" t="s">
-        <v>2630</v>
-      </c>
       <c r="I363" s="2" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="364" spans="1:9">
       <c r="A364" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C364" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="B364" s="5" t="s">
-        <v>3179</v>
-      </c>
-      <c r="C364" s="1" t="s">
+      <c r="D364" s="1" t="s">
         <v>2632</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>2633</v>
       </c>
       <c r="E364" s="2"/>
       <c r="F364" s="1" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="365" spans="1:9">
       <c r="A365" s="2" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>3177</v>
+      </c>
+      <c r="C365" s="1" t="s">
         <v>2635</v>
       </c>
-      <c r="B365" s="5" t="s">
-        <v>3178</v>
-      </c>
-      <c r="C365" s="1" t="s">
+      <c r="D365" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="D365" s="1" t="s">
+      <c r="E365" s="6" t="s">
         <v>2637</v>
       </c>
-      <c r="E365" s="6" t="s">
-        <v>2638</v>
-      </c>
       <c r="F365" s="1" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="G365" s="7"/>
       <c r="H365" s="1" t="s">
         <v>345</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="366" spans="1:9">
       <c r="A366" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B366" s="5" t="s">
         <v>2639</v>
       </c>
-      <c r="B366" s="5" t="s">
+      <c r="C366" s="1" t="s">
         <v>2640</v>
       </c>
-      <c r="C366" s="1" t="s">
+      <c r="D366" s="6" t="s">
+        <v>3158</v>
+      </c>
+      <c r="E366" s="2" t="s">
         <v>2641</v>
       </c>
-      <c r="D366" s="6" t="s">
+      <c r="F366" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="G366" s="7" t="s">
         <v>3159</v>
       </c>
-      <c r="E366" s="2" t="s">
-        <v>2642</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>2954</v>
-      </c>
-      <c r="G366" s="7" t="s">
-        <v>3160</v>
-      </c>
       <c r="H366" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="367" spans="1:9">
       <c r="A367" s="2" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B367" s="5" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C367" s="1" t="s">
         <v>2643</v>
       </c>
-      <c r="C367" s="1" t="s">
-        <v>2644</v>
-      </c>
       <c r="D367" s="6" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="E367" s="2"/>
       <c r="F367" s="1" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="G367" s="7" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="368" spans="1:9">
       <c r="A368" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B368" s="10" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>2646</v>
       </c>
-      <c r="B368" s="10" t="s">
-        <v>3177</v>
-      </c>
-      <c r="C368" s="1" t="s">
+      <c r="D368" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="D368" s="1" t="s">
+      <c r="E368" s="1" t="s">
         <v>2648</v>
       </c>
-      <c r="E368" s="1" t="s">
+      <c r="F368" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="H368" s="1" t="s">
         <v>2649</v>
       </c>
-      <c r="F368" s="1" t="s">
-        <v>2956</v>
-      </c>
-      <c r="H368" s="1" t="s">
-        <v>2650</v>
-      </c>
       <c r="I368" s="1" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="369" spans="1:9">
       <c r="A369" s="2" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B369" s="5" t="s">
         <v>2651</v>
       </c>
-      <c r="B369" s="5" t="s">
+      <c r="C369" s="1" t="s">
         <v>2652</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="D369" s="1" t="s">
         <v>2653</v>
       </c>
-      <c r="D369" s="1" t="s">
+      <c r="E369" s="2" t="s">
         <v>2654</v>
       </c>
-      <c r="E369" s="2" t="s">
+      <c r="F369" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="H369" s="1" t="s">
         <v>2655</v>
       </c>
-      <c r="F369" s="1" t="s">
-        <v>2957</v>
-      </c>
-      <c r="H369" s="1" t="s">
-        <v>2656</v>
-      </c>
       <c r="I369" s="2" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="370" spans="1:9">
       <c r="A370" s="2" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B370" s="5" t="s">
         <v>2657</v>
       </c>
-      <c r="B370" s="5" t="s">
+      <c r="C370" s="1" t="s">
         <v>2658</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>2659</v>
       </c>
       <c r="E370" s="2"/>
       <c r="H370" s="1" t="s">
         <v>527</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="371" spans="1:9">
       <c r="A371" s="2" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>3175</v>
+      </c>
+      <c r="C371" s="1" t="s">
         <v>2660</v>
-      </c>
-      <c r="B371" s="5" t="s">
-        <v>3176</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>2661</v>
       </c>
       <c r="E371" s="2"/>
       <c r="F371" s="1" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="H371" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="372" spans="1:9">
       <c r="A372" s="1" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="C372" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="F372" s="1" t="s">
         <v>2662</v>
       </c>
-      <c r="F372" s="1" t="s">
+      <c r="H372" s="1" t="s">
         <v>2663</v>
       </c>
-      <c r="H372" s="1" t="s">
-        <v>2664</v>
-      </c>
       <c r="I372" s="2" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="373" spans="1:9">
       <c r="A373" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C373" s="1" t="s">
         <v>2665</v>
-      </c>
-      <c r="B373" s="5" t="s">
-        <v>3174</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>2666</v>
       </c>
       <c r="E373" s="2"/>
       <c r="F373" s="1" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="374" spans="1:9">
       <c r="A374" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B374" s="5" t="s">
         <v>2668</v>
       </c>
-      <c r="B374" s="5" t="s">
+      <c r="C374" s="1" t="s">
         <v>2669</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>2670</v>
       </c>
       <c r="E374" s="2"/>
       <c r="F374" s="1" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="H374" s="1" t="s">
         <v>745</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="375" spans="1:9">
       <c r="A375" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C375" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="B375" s="5" t="s">
-        <v>3173</v>
-      </c>
-      <c r="C375" s="1" t="s">
+      <c r="D375" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="D375" s="1" t="s">
+      <c r="E375" s="2" t="s">
         <v>2673</v>
       </c>
-      <c r="E375" s="2" t="s">
+      <c r="F375" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="G375" s="1" t="s">
         <v>2674</v>
       </c>
-      <c r="F375" s="1" t="s">
-        <v>2961</v>
-      </c>
-      <c r="G375" s="1" t="s">
+      <c r="H375" s="1" t="s">
         <v>2675</v>
       </c>
-      <c r="H375" s="1" t="s">
-        <v>2676</v>
-      </c>
       <c r="I375" s="2" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="376" spans="1:9">
       <c r="A376" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B376" s="5" t="s">
         <v>2677</v>
       </c>
-      <c r="B376" s="5" t="s">
+      <c r="C376" s="1" t="s">
         <v>2678</v>
       </c>
-      <c r="C376" s="1" t="s">
+      <c r="D376" s="1" t="s">
         <v>2679</v>
       </c>
-      <c r="D376" s="1" t="s">
+      <c r="E376" s="2" t="s">
         <v>2680</v>
       </c>
-      <c r="E376" s="2" t="s">
-        <v>2681</v>
-      </c>
       <c r="F376" s="1" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="377" spans="1:9">
       <c r="A377" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>3171</v>
+      </c>
+      <c r="C377" s="1" t="s">
         <v>2682</v>
-      </c>
-      <c r="B377" s="5" t="s">
-        <v>3172</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>2683</v>
       </c>
       <c r="E377" s="2"/>
       <c r="F377" s="1" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="H377" s="1" t="s">
         <v>409</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="378" spans="1:9">
       <c r="A378" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C378" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="B378" s="5" t="s">
-        <v>3171</v>
-      </c>
-      <c r="C378" s="1" t="s">
+      <c r="D378" s="1" t="s">
         <v>2685</v>
       </c>
-      <c r="D378" s="1" t="s">
+      <c r="E378" s="2" t="s">
         <v>2686</v>
       </c>
-      <c r="E378" s="2" t="s">
+      <c r="F378" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="H378" s="1" t="s">
         <v>2687</v>
       </c>
-      <c r="F378" s="1" t="s">
-        <v>2964</v>
-      </c>
-      <c r="H378" s="1" t="s">
-        <v>2688</v>
-      </c>
       <c r="I378" s="2" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="379" spans="1:9">
       <c r="A379" s="2" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C379" s="1" t="s">
         <v>2689</v>
-      </c>
-      <c r="B379" s="5" t="s">
-        <v>3170</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>2690</v>
       </c>
       <c r="E379" s="2"/>
       <c r="F379" s="1" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="H379" s="1" t="s">
         <v>509</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="380" spans="1:9">
       <c r="A380" s="2" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B380" s="5" t="s">
         <v>2691</v>
       </c>
-      <c r="B380" s="5" t="s">
+      <c r="C380" s="1" t="s">
         <v>2692</v>
       </c>
-      <c r="C380" s="1" t="s">
+      <c r="D380" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="D380" s="1" t="s">
+      <c r="E380" s="2" t="s">
         <v>2694</v>
       </c>
-      <c r="E380" s="2" t="s">
+      <c r="F380" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="H380" s="1" t="s">
         <v>2695</v>
       </c>
-      <c r="F380" s="1" t="s">
-        <v>2966</v>
-      </c>
-      <c r="H380" s="1" t="s">
-        <v>2696</v>
-      </c>
       <c r="I380" s="2" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="381" spans="1:9">
       <c r="A381" s="2" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C381" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="B381" s="5" t="s">
-        <v>3169</v>
-      </c>
-      <c r="C381" s="1" t="s">
+      <c r="D381" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="D381" s="1" t="s">
+      <c r="E381" s="2" t="s">
         <v>2699</v>
       </c>
-      <c r="E381" s="2" t="s">
+      <c r="F381" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="G381" s="1" t="s">
         <v>2700</v>
       </c>
-      <c r="F381" s="1" t="s">
-        <v>2967</v>
-      </c>
-      <c r="G381" s="1" t="s">
+      <c r="H381" s="1" t="s">
         <v>2701</v>
       </c>
-      <c r="H381" s="1" t="s">
-        <v>2702</v>
-      </c>
       <c r="I381" s="2" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="382" spans="1:9">
       <c r="A382" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B382" s="10" t="s">
         <v>2703</v>
       </c>
-      <c r="B382" s="10" t="s">
+      <c r="C382" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="C382" s="1" t="s">
+      <c r="D382" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="D382" s="1" t="s">
+      <c r="F382" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="H382" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="F382" s="1" t="s">
-        <v>2968</v>
-      </c>
-      <c r="H382" s="1" t="s">
-        <v>2707</v>
-      </c>
       <c r="I382" s="1" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="383" spans="1:9">
       <c r="A383" s="2" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C383" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="B383" s="5" t="s">
-        <v>3027</v>
-      </c>
-      <c r="C383" s="1" t="s">
+      <c r="D383" s="1" t="s">
         <v>2709</v>
       </c>
-      <c r="D383" s="1" t="s">
+      <c r="E383" s="2" t="s">
         <v>2710</v>
       </c>
-      <c r="E383" s="2" t="s">
+      <c r="F383" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G383" s="1" t="s">
         <v>2711</v>
       </c>
-      <c r="F383" s="1" t="s">
-        <v>2969</v>
-      </c>
-      <c r="G383" s="1" t="s">
+      <c r="H383" s="1" t="s">
         <v>2712</v>
       </c>
-      <c r="H383" s="1" t="s">
-        <v>2713</v>
-      </c>
       <c r="I383" s="2" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="384" spans="1:9">
       <c r="A384" s="2" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B384" s="5" t="s">
         <v>2714</v>
       </c>
-      <c r="B384" s="5" t="s">
+      <c r="C384" s="1" t="s">
         <v>2715</v>
       </c>
-      <c r="C384" s="1" t="s">
+      <c r="D384" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="D384" s="1" t="s">
+      <c r="E384" s="6" t="s">
         <v>2717</v>
       </c>
-      <c r="E384" s="6" t="s">
+      <c r="F384" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="G384" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="F384" s="1" t="s">
-        <v>2970</v>
-      </c>
-      <c r="G384" s="1" t="s">
+      <c r="H384" s="1" t="s">
         <v>2719</v>
       </c>
-      <c r="H384" s="1" t="s">
-        <v>2720</v>
-      </c>
       <c r="I384" s="2" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="385" spans="1:9">
       <c r="A385" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B385" s="10" t="s">
         <v>2721</v>
       </c>
-      <c r="B385" s="10" t="s">
+      <c r="C385" s="1" t="s">
         <v>2722</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="D385" s="1" t="s">
         <v>2723</v>
       </c>
-      <c r="D385" s="1" t="s">
+      <c r="E385" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="E385" s="1" t="s">
+      <c r="F385" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="G385" s="1" t="s">
         <v>2725</v>
       </c>
-      <c r="F385" s="1" t="s">
-        <v>2971</v>
-      </c>
-      <c r="G385" s="1" t="s">
+      <c r="H385" s="1" t="s">
         <v>2726</v>
       </c>
-      <c r="H385" s="1" t="s">
-        <v>2727</v>
-      </c>
       <c r="I385" s="1" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="386" spans="1:9">
       <c r="A386" s="2" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B386" s="5" t="s">
         <v>2728</v>
       </c>
-      <c r="B386" s="5" t="s">
+      <c r="C386" s="1" t="s">
         <v>2729</v>
       </c>
-      <c r="C386" s="1" t="s">
+      <c r="D386" s="1" t="s">
         <v>2730</v>
       </c>
-      <c r="D386" s="1" t="s">
+      <c r="E386" s="6" t="s">
+        <v>3005</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="H386" s="1" t="s">
         <v>2731</v>
       </c>
-      <c r="E386" s="6" t="s">
-        <v>3006</v>
-      </c>
-      <c r="F386" s="1" t="s">
-        <v>2972</v>
-      </c>
-      <c r="H386" s="1" t="s">
-        <v>2732</v>
-      </c>
       <c r="I386" s="2" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="387" spans="1:9">
       <c r="A387" s="2" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C387" s="1" t="s">
         <v>2733</v>
       </c>
-      <c r="B387" s="5" t="s">
-        <v>3168</v>
-      </c>
-      <c r="C387" s="1" t="s">
+      <c r="D387" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="D387" s="1" t="s">
+      <c r="E387" s="2" t="s">
         <v>2735</v>
       </c>
-      <c r="E387" s="2" t="s">
+      <c r="F387" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="G387" s="1" t="s">
         <v>2736</v>
       </c>
-      <c r="F387" s="1" t="s">
-        <v>2973</v>
-      </c>
-      <c r="G387" s="1" t="s">
+      <c r="H387" s="1" t="s">
         <v>2737</v>
       </c>
-      <c r="H387" s="1" t="s">
-        <v>2738</v>
-      </c>
       <c r="I387" s="2" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="388" spans="1:9">
       <c r="A388" s="2" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B388" s="5" t="s">
         <v>2739</v>
       </c>
-      <c r="B388" s="5" t="s">
+      <c r="C388" s="1" t="s">
         <v>2740</v>
       </c>
-      <c r="C388" s="1" t="s">
+      <c r="D388" s="1" t="s">
         <v>2741</v>
       </c>
-      <c r="D388" s="1" t="s">
+      <c r="E388" s="6" t="s">
         <v>2742</v>
       </c>
-      <c r="E388" s="6" t="s">
+      <c r="F388" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="G388" s="1" t="s">
         <v>2743</v>
-      </c>
-      <c r="F388" s="1" t="s">
-        <v>2974</v>
-      </c>
-      <c r="G388" s="1" t="s">
-        <v>2744</v>
       </c>
       <c r="H388" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I388" s="2" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="389" spans="1:9">
       <c r="A389" s="2" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>2745</v>
       </c>
-      <c r="B389" s="5" t="s">
-        <v>3026</v>
-      </c>
-      <c r="C389" s="1" t="s">
+      <c r="D389" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="D389" s="1" t="s">
+      <c r="E389" s="2" t="s">
         <v>2747</v>
       </c>
-      <c r="E389" s="2" t="s">
+      <c r="F389" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="H389" s="1" t="s">
         <v>2748</v>
       </c>
-      <c r="F389" s="1" t="s">
-        <v>3015</v>
-      </c>
-      <c r="H389" s="1" t="s">
-        <v>2749</v>
-      </c>
       <c r="I389" s="2" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="390" spans="1:9">
       <c r="A390" s="2" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C390" s="1" t="s">
         <v>3016</v>
       </c>
-      <c r="B390" s="5" t="s">
-        <v>3025</v>
-      </c>
-      <c r="C390" s="1" t="s">
+      <c r="D390" s="6" t="s">
         <v>3017</v>
-      </c>
-      <c r="D390" s="6" t="s">
-        <v>3018</v>
       </c>
       <c r="E390" s="2"/>
       <c r="F390" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="G390" s="1" t="s">
         <v>3019</v>
       </c>
-      <c r="G390" s="1" t="s">
+      <c r="H390" s="1" t="s">
         <v>3020</v>
       </c>
-      <c r="H390" s="1" t="s">
+      <c r="I390" s="2" t="s">
         <v>3021</v>
-      </c>
-      <c r="I390" s="2" t="s">
-        <v>3022</v>
       </c>
     </row>
     <row r="391" spans="1:9">
       <c r="A391" s="2" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C391" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="B391" s="5" t="s">
-        <v>3167</v>
-      </c>
-      <c r="C391" s="1" t="s">
+      <c r="D391" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="D391" s="1" t="s">
+      <c r="E391" s="2" t="s">
         <v>2752</v>
       </c>
-      <c r="E391" s="2" t="s">
+      <c r="F391" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="G391" s="1" t="s">
         <v>2753</v>
       </c>
-      <c r="F391" s="1" t="s">
-        <v>2975</v>
-      </c>
-      <c r="G391" s="1" t="s">
+      <c r="H391" s="1" t="s">
         <v>2754</v>
       </c>
-      <c r="H391" s="1" t="s">
-        <v>2755</v>
-      </c>
       <c r="I391" s="2" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="392" spans="1:9">
       <c r="A392" s="2" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B392" s="5" t="s">
         <v>2756</v>
       </c>
-      <c r="B392" s="5" t="s">
+      <c r="C392" s="1" t="s">
         <v>2757</v>
       </c>
-      <c r="C392" s="1" t="s">
+      <c r="D392" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="D392" s="1" t="s">
+      <c r="E392" s="2" t="s">
         <v>2759</v>
       </c>
-      <c r="E392" s="2" t="s">
+      <c r="F392" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="H392" s="1" t="s">
         <v>2760</v>
       </c>
-      <c r="F392" s="1" t="s">
-        <v>2976</v>
-      </c>
-      <c r="H392" s="1" t="s">
-        <v>2761</v>
-      </c>
       <c r="I392" s="2" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="393" spans="1:9">
       <c r="A393" s="2" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C393" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="B393" s="5" t="s">
-        <v>3024</v>
-      </c>
-      <c r="C393" s="1" t="s">
+      <c r="D393" s="1" t="s">
         <v>2763</v>
       </c>
-      <c r="D393" s="1" t="s">
+      <c r="E393" s="2" t="s">
         <v>2764</v>
       </c>
-      <c r="E393" s="2" t="s">
+      <c r="F393" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="G393" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="F393" s="1" t="s">
-        <v>2977</v>
-      </c>
-      <c r="G393" s="1" t="s">
+      <c r="H393" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="H393" s="1" t="s">
-        <v>2767</v>
-      </c>
       <c r="I393" s="2" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="394" spans="1:9">
       <c r="A394" s="2" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B394" s="5" t="s">
         <v>2768</v>
       </c>
-      <c r="B394" s="5" t="s">
+      <c r="C394" s="1" t="s">
         <v>2769</v>
       </c>
-      <c r="C394" s="1" t="s">
+      <c r="D394" s="6" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E394" s="2" t="s">
         <v>2770</v>
       </c>
-      <c r="D394" s="6" t="s">
-        <v>3161</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>2771</v>
-      </c>
       <c r="F394" s="1" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="H394" s="1" t="s">
         <v>1096</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="395" spans="1:9">
       <c r="A395" s="2" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>2772</v>
       </c>
-      <c r="B395" s="5" t="s">
-        <v>3007</v>
-      </c>
-      <c r="C395" s="1" t="s">
+      <c r="D395" s="1" t="s">
         <v>2773</v>
       </c>
-      <c r="D395" s="1" t="s">
+      <c r="E395" s="2" t="s">
         <v>2774</v>
       </c>
-      <c r="E395" s="2" t="s">
+      <c r="F395" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="H395" s="1" t="s">
         <v>2775</v>
       </c>
-      <c r="F395" s="1" t="s">
-        <v>2979</v>
-      </c>
-      <c r="H395" s="1" t="s">
-        <v>2776</v>
-      </c>
       <c r="I395" s="2" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="396" spans="1:9">
       <c r="A396" s="2" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B396" s="5" t="s">
         <v>2777</v>
       </c>
-      <c r="B396" s="5" t="s">
+      <c r="C396" s="1" t="s">
         <v>2778</v>
       </c>
-      <c r="C396" s="1" t="s">
+      <c r="D396" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="D396" s="1" t="s">
+      <c r="E396" s="2" t="s">
         <v>2780</v>
       </c>
-      <c r="E396" s="2" t="s">
+      <c r="F396" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="H396" s="1" t="s">
         <v>2781</v>
       </c>
-      <c r="F396" s="1" t="s">
-        <v>2980</v>
-      </c>
-      <c r="H396" s="1" t="s">
-        <v>2782</v>
-      </c>
       <c r="I396" s="2" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="397" spans="1:9">
       <c r="A397" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B397" s="10" t="s">
         <v>2783</v>
       </c>
-      <c r="B397" s="10" t="s">
+      <c r="C397" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="C397" s="1" t="s">
+      <c r="F397" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="G397" s="1" t="s">
         <v>2785</v>
       </c>
-      <c r="F397" s="1" t="s">
-        <v>2981</v>
-      </c>
-      <c r="G397" s="1" t="s">
+      <c r="H397" s="1" t="s">
         <v>2786</v>
       </c>
-      <c r="H397" s="1" t="s">
-        <v>2787</v>
-      </c>
       <c r="I397" s="1" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="398" spans="1:9">
       <c r="A398" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B398" s="10" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C398" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="B398" s="10" t="s">
-        <v>3166</v>
-      </c>
-      <c r="C398" s="1" t="s">
+      <c r="D398" s="1" t="s">
         <v>2789</v>
       </c>
-      <c r="D398" s="1" t="s">
+      <c r="G398" s="1" t="s">
         <v>2790</v>
       </c>
-      <c r="G398" s="1" t="s">
+      <c r="H398" s="1" t="s">
         <v>2791</v>
       </c>
-      <c r="H398" s="1" t="s">
-        <v>2792</v>
-      </c>
       <c r="I398" s="1" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="399" spans="1:9">
       <c r="A399" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B399" s="10" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C399" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="B399" s="10" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C399" s="1" t="s">
+      <c r="D399" s="1" t="s">
         <v>2794</v>
       </c>
-      <c r="D399" s="1" t="s">
+      <c r="H399" s="1" t="s">
         <v>2795</v>
       </c>
-      <c r="H399" s="1" t="s">
-        <v>2796</v>
-      </c>
       <c r="I399" s="1" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="400" spans="1:9">
       <c r="A400" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B400" s="10" t="s">
         <v>2797</v>
       </c>
-      <c r="B400" s="10" t="s">
+      <c r="D400" s="6" t="s">
+        <v>3161</v>
+      </c>
+      <c r="E400" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="D400" s="6" t="s">
-        <v>3162</v>
-      </c>
-      <c r="E400" s="1" t="s">
+      <c r="F400" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="G400" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="F400" s="1" t="s">
-        <v>2982</v>
-      </c>
-      <c r="G400" s="1" t="s">
+      <c r="H400" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="H400" s="1" t="s">
-        <v>2801</v>
-      </c>
       <c r="I400" s="1" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="401" spans="1:10">
       <c r="A401" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B401" s="10" t="s">
         <v>2802</v>
       </c>
-      <c r="B401" s="10" t="s">
+      <c r="C401" s="1" t="s">
         <v>2803</v>
       </c>
-      <c r="C401" s="1" t="s">
+      <c r="D401" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="D401" s="1" t="s">
+      <c r="E401" s="1" t="s">
         <v>2805</v>
       </c>
-      <c r="E401" s="1" t="s">
+      <c r="F401" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="H401" s="1" t="s">
         <v>2806</v>
       </c>
-      <c r="F401" s="1" t="s">
-        <v>2983</v>
-      </c>
-      <c r="H401" s="1" t="s">
-        <v>2807</v>
-      </c>
       <c r="I401" s="1" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="402" spans="1:10">
       <c r="A402" s="1" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="B402" s="10" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C402" s="1" t="s">
         <v>2808</v>
       </c>
-      <c r="C402" s="1" t="s">
+      <c r="D402" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="D402" s="1" t="s">
+      <c r="F402" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="G402" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="F402" s="1" t="s">
-        <v>2984</v>
-      </c>
-      <c r="G402" s="1" t="s">
+      <c r="H402" s="1" t="s">
         <v>2811</v>
       </c>
-      <c r="H402" s="1" t="s">
-        <v>2812</v>
-      </c>
       <c r="I402" s="1" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="403" spans="1:10">
       <c r="A403" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B403" s="10" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C403" s="1" t="s">
         <v>2813</v>
       </c>
-      <c r="B403" s="10" t="s">
-        <v>3008</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>2814</v>
-      </c>
       <c r="D403" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="G403" s="1" t="s">
         <v>2810</v>
-      </c>
-      <c r="F403" s="1" t="s">
-        <v>2985</v>
-      </c>
-      <c r="G403" s="1" t="s">
-        <v>2811</v>
       </c>
       <c r="H403" s="1" t="s">
         <v>481</v>
       </c>
       <c r="I403" s="1" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="404" spans="1:10">
       <c r="A404" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B404" s="10" t="s">
         <v>2815</v>
       </c>
-      <c r="B404" s="10" t="s">
+      <c r="C404" s="1" t="s">
         <v>2816</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="D404" s="6" t="s">
+        <v>3162</v>
+      </c>
+      <c r="E404" s="6" t="s">
         <v>2817</v>
       </c>
-      <c r="D404" s="6" t="s">
-        <v>3163</v>
-      </c>
-      <c r="E404" s="6" t="s">
+      <c r="F404" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="G404" s="1" t="s">
         <v>2818</v>
       </c>
-      <c r="F404" s="1" t="s">
-        <v>2986</v>
-      </c>
-      <c r="G404" s="1" t="s">
+      <c r="H404" s="1" t="s">
         <v>2819</v>
       </c>
-      <c r="H404" s="1" t="s">
-        <v>2820</v>
-      </c>
       <c r="I404" s="1" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="405" spans="1:10">
       <c r="A405" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B405" s="10" t="s">
         <v>2821</v>
       </c>
-      <c r="B405" s="10" t="s">
+      <c r="C405" s="1" t="s">
         <v>2822</v>
       </c>
-      <c r="C405" s="1" t="s">
+      <c r="D405" s="1" t="s">
         <v>2823</v>
       </c>
-      <c r="D405" s="1" t="s">
+      <c r="E405" s="1" t="s">
         <v>2824</v>
       </c>
-      <c r="E405" s="1" t="s">
-        <v>2825</v>
-      </c>
       <c r="F405" s="1" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="I405" s="1" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="J405" s="2"/>
     </row>
     <row r="406" spans="1:10">
       <c r="A406" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B406" s="10" t="s">
         <v>2826</v>
       </c>
-      <c r="B406" s="10" t="s">
+      <c r="E406" s="1" t="s">
         <v>2827</v>
       </c>
-      <c r="E406" s="1" t="s">
+      <c r="F406" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="H406" s="1" t="s">
         <v>2828</v>
       </c>
-      <c r="F406" s="1" t="s">
-        <v>2988</v>
-      </c>
-      <c r="H406" s="1" t="s">
-        <v>2829</v>
-      </c>
       <c r="I406" s="1" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="J406" s="2"/>
     </row>
     <row r="407" spans="1:10">
       <c r="A407" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B407" s="10" t="s">
+        <v>3163</v>
+      </c>
+      <c r="C407" s="1" t="s">
         <v>2830</v>
       </c>
-      <c r="B407" s="10" t="s">
-        <v>3164</v>
-      </c>
-      <c r="C407" s="1" t="s">
+      <c r="E407" s="1" t="s">
         <v>2831</v>
       </c>
-      <c r="E407" s="1" t="s">
+      <c r="F407" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="G407" s="1" t="s">
         <v>2832</v>
-      </c>
-      <c r="F407" s="1" t="s">
-        <v>2989</v>
-      </c>
-      <c r="G407" s="1" t="s">
-        <v>2833</v>
       </c>
       <c r="H407" s="1" t="s">
         <v>768</v>
       </c>
       <c r="I407" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="J407" s="2"/>
     </row>

--- a/bookDB2.xlsx
+++ b/bookDB2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sme13\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sme13\OneDrive\바탕 화면\dev\real-dnb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F060747A-E74A-4910-ACE4-FC8BD5071E8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6D87B9-481A-417C-B3F4-9FC81B9FBE3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{509E9B0D-9459-46C0-BD3F-1330B5019B57}"/>
   </bookViews>
@@ -5524,9 +5524,6 @@
     <t>대구시 달서구 선원로37남길 13-10 (이곡동) 1층</t>
   </si>
   <si>
-    <t>대구시 북구 호암로 40 (칠성동2가, 삼성아파트)</t>
-  </si>
-  <si>
     <t>대구시 서구 고성로 132-2 (원대동1가)</t>
   </si>
   <si>
@@ -5732,9 +5729,6 @@
     <t>서울시 마포구 양화로6길 57-6 (서교동)</t>
   </si>
   <si>
-    <t>서울시 마포구 연남로 61-1 (연남동 ) 1층</t>
-  </si>
-  <si>
     <t>서울시 마포구 연남로11길 34 (연남동) 지하1층</t>
   </si>
   <si>
@@ -5747,9 +5741,6 @@
     <t>서울시 마포구 와우산로 29-18 (상수동)</t>
   </si>
   <si>
-    <t>서울시 마포구 와우산로 61-1 (서교동, 3층)</t>
-  </si>
-  <si>
     <t>서울시 마포구 월드컵로14길 10-8 (서교동)</t>
   </si>
   <si>
@@ -8235,9 +8226,6 @@
     <t>책벌레</t>
   </si>
   <si>
-    <t>대구시 수성구 교학로11길 46 (만촌동, 만촌1차우방아파트상가) 2층</t>
-  </si>
-  <si>
     <t>053-793-3347</t>
   </si>
   <si>
@@ -9810,15 +9798,9 @@
     <t>전남 목포시 동부로 4 (용당동) 2층</t>
   </si>
   <si>
-    <t xml:space="preserve">전북 전주시 완산구 풍남문2길 53 (전동, 남부시장) 2층 청년몰 </t>
-  </si>
-  <si>
     <t>전남 순천시 역전2길 10 (조곡동)</t>
   </si>
   <si>
-    <t>전남 순천시 오천1길 20 (오천동, 진아리채파크원) 상가동 105호</t>
-  </si>
-  <si>
     <t>경북 경주시 중앙로 39-2 (노동동)</t>
   </si>
   <si>
@@ -9918,9 +9900,6 @@
     <t>전북 군산시 구영5길 21-26 (월명동)</t>
   </si>
   <si>
-    <t>충남 천안시 동남구 작은재빼기길 5-27  (대흥동)</t>
-  </si>
-  <si>
     <t>충남 금산군 금산읍 금산천길 98 (금산읍) 금산시장 청년몰</t>
   </si>
   <si>
@@ -10322,10 +10301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경기도 고양시 일산동구 무궁화로 8-28 (장항동, 삼성메르헨하우스) 1층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부산시 부산진구 서전로37번길 26 (전포동) 1-2층</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -10399,6 +10374,38 @@
   </si>
   <si>
     <t>독서모임;멤버십책방;책추천;복합문화공간;책포장;이것저것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 마포구 와우산로 61-1 (서교동) 3층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 마포구 연남로 61-1 (연남동) 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남 천안시 동남구 작은재빼기길 5-27 (대흥동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구시 북구 호암로 40 (칠성동2가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 고양시 일산동구 무궁화로 8-28 (장항동) 삼성메르헨하우스 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남 순천시 오천1길 20 (오천동) 진아리채파크원 상가동 105호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 전주시 완산구 풍남문2길 53 (전동) 남부시장 2층 청년몰 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구시 수성구 교학로11길 46 (만촌동) 만촌1차우방아파트상가 2층</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10834,10 +10841,10 @@
   <dimension ref="A1:J407"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I300" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I308" sqref="I308"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10889,7 +10896,7 @@
         <v>1984</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -10898,7 +10905,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -10910,7 +10917,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10918,7 +10925,7 @@
         <v>1729</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1730</v>
@@ -10936,39 +10943,39 @@
         <v>1734</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2008</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="G4" s="6" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>2010</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2009</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2158</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2159</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2011</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>2012</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>2013</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>3108</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10976,13 +10983,13 @@
         <v>1735</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1838</v>
+        <v>3195</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1736</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>1752</v>
@@ -10997,7 +11004,7 @@
         <v>1738</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11005,7 +11012,7 @@
         <v>1740</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1744</v>
@@ -11021,7 +11028,7 @@
         <v>1750</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>3109</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11029,7 +11036,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3080</v>
+        <v>3073</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -11038,7 +11045,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>3111</v>
+        <v>3104</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
@@ -11047,7 +11054,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11055,7 +11062,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -11076,7 +11083,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11084,7 +11091,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3079</v>
+        <v>3072</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -11102,7 +11109,7 @@
         <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11131,7 +11138,7 @@
         <v>45</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11139,7 +11146,7 @@
         <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>47</v>
@@ -11157,7 +11164,7 @@
         <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11165,7 +11172,7 @@
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>53</v>
@@ -11186,7 +11193,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11194,7 +11201,7 @@
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>60</v>
@@ -11215,7 +11222,7 @@
         <v>65</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11238,7 +11245,7 @@
         <v>70</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11267,7 +11274,7 @@
         <v>78</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>3107</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11293,7 +11300,7 @@
         <v>84</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11301,7 +11308,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>86</v>
@@ -11322,7 +11329,7 @@
         <v>1023</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11330,7 +11337,7 @@
         <v>91</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3078</v>
+        <v>3071</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>92</v>
@@ -11342,10 +11349,10 @@
         <v>94</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11371,7 +11378,7 @@
         <v>105</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -11379,7 +11386,7 @@
         <v>96</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>97</v>
@@ -11400,7 +11407,7 @@
         <v>102</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -11414,7 +11421,7 @@
         <v>108</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>3113</v>
+        <v>3106</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>109</v>
@@ -11423,7 +11430,7 @@
         <v>110</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>3110</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -11431,7 +11438,7 @@
         <v>111</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3077</v>
+        <v>3070</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>112</v>
@@ -11452,7 +11459,7 @@
         <v>117</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -11460,7 +11467,7 @@
         <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>119</v>
@@ -11481,7 +11488,7 @@
         <v>124</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -11489,7 +11496,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3076</v>
+        <v>3069</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>126</v>
@@ -11504,7 +11511,7 @@
         <v>129</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -11524,7 +11531,7 @@
         <v>1696</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -11532,7 +11539,7 @@
         <v>130</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>131</v>
@@ -11553,7 +11560,7 @@
         <v>136</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -11561,7 +11568,7 @@
         <v>137</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>138</v>
@@ -11582,7 +11589,7 @@
         <v>143</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -11590,7 +11597,7 @@
         <v>144</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>145</v>
@@ -11611,7 +11618,7 @@
         <v>150</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>3112</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -11619,7 +11626,7 @@
         <v>211</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>212</v>
@@ -11637,15 +11644,15 @@
         <v>1024</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>151</v>
@@ -11657,7 +11664,7 @@
         <v>153</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -11665,7 +11672,7 @@
         <v>1670</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1671</v>
@@ -11683,7 +11690,7 @@
         <v>1675</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -11691,7 +11698,7 @@
         <v>154</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>155</v>
@@ -11712,7 +11719,7 @@
         <v>160</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -11720,7 +11727,7 @@
         <v>161</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>162</v>
@@ -11741,7 +11748,7 @@
         <v>167</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -11767,7 +11774,7 @@
         <v>174</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -11775,13 +11782,13 @@
         <v>175</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>177</v>
@@ -11790,7 +11797,7 @@
         <v>178</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -11798,7 +11805,7 @@
         <v>179</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3075</v>
+        <v>3068</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>180</v>
@@ -11816,7 +11823,7 @@
         <v>184</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -11839,7 +11846,7 @@
         <v>190</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -11847,7 +11854,7 @@
         <v>191</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1833</v>
+        <v>3196</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>192</v>
@@ -11862,13 +11869,13 @@
         <v>195</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>196</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -11876,13 +11883,13 @@
         <v>197</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>199</v>
@@ -11897,7 +11904,7 @@
         <v>202</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -11905,7 +11912,7 @@
         <v>203</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>204</v>
@@ -11923,7 +11930,7 @@
         <v>208</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -11931,7 +11938,7 @@
         <v>209</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>210</v>
@@ -11946,15 +11953,15 @@
         <v>208</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>216</v>
@@ -11975,7 +11982,7 @@
         <v>221</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -11983,7 +11990,7 @@
         <v>223</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3074</v>
+        <v>3067</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>224</v>
@@ -12001,7 +12008,7 @@
         <v>78</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -12009,7 +12016,7 @@
         <v>228</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>229</v>
@@ -12021,7 +12028,7 @@
         <v>231</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -12050,7 +12057,7 @@
         <v>239</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -12058,7 +12065,7 @@
         <v>1751</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1742</v>
@@ -12071,13 +12078,13 @@
         <v>1747</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>1749</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -12100,7 +12107,7 @@
         <v>244</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -12108,7 +12115,7 @@
         <v>245</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>246</v>
@@ -12117,7 +12124,7 @@
         <v>247</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>3114</v>
+        <v>3107</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>248</v>
@@ -12129,7 +12136,7 @@
         <v>250</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -12137,7 +12144,7 @@
         <v>256</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>252</v>
@@ -12149,13 +12156,13 @@
         <v>254</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>257</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -12172,19 +12179,19 @@
         <v>253</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>3115</v>
+        <v>3108</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>254</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -12192,7 +12199,7 @@
         <v>258</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3073</v>
+        <v>3066</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>259</v>
@@ -12201,19 +12208,19 @@
         <v>260</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>3116</v>
+        <v>3109</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>261</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -12239,7 +12246,7 @@
         <v>269</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -12247,7 +12254,7 @@
         <v>270</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>271</v>
@@ -12268,7 +12275,7 @@
         <v>276</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -12297,7 +12304,7 @@
         <v>283</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -12305,7 +12312,7 @@
         <v>284</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>285</v>
@@ -12323,7 +12330,7 @@
         <v>289</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -12331,7 +12338,7 @@
         <v>1644</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>1645</v>
@@ -12352,7 +12359,7 @@
         <v>1650</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -12360,7 +12367,7 @@
         <v>290</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>291</v>
@@ -12381,7 +12388,7 @@
         <v>296</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -12389,7 +12396,7 @@
         <v>297</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>298</v>
@@ -12398,16 +12405,16 @@
         <v>299</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>3117</v>
+        <v>3110</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>300</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -12415,7 +12422,7 @@
         <v>301</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>302</v>
@@ -12433,7 +12440,7 @@
         <v>306</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -12441,7 +12448,7 @@
         <v>307</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>308</v>
@@ -12456,10 +12463,10 @@
         <v>311</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -12467,7 +12474,7 @@
         <v>312</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>313</v>
@@ -12488,7 +12495,7 @@
         <v>318</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -12496,25 +12503,25 @@
         <v>319</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>320</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>321</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>322</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -12522,7 +12529,7 @@
         <v>323</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>324</v>
@@ -12543,7 +12550,7 @@
         <v>329</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -12566,13 +12573,13 @@
         <v>334</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -12580,7 +12587,7 @@
         <v>342</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>343</v>
@@ -12601,7 +12608,7 @@
         <v>345</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -12609,7 +12616,7 @@
         <v>335</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>336</v>
@@ -12630,7 +12637,7 @@
         <v>341</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -12656,7 +12663,7 @@
         <v>352</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -12664,7 +12671,7 @@
         <v>353</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>354</v>
@@ -12673,7 +12680,7 @@
         <v>355</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>356</v>
@@ -12682,7 +12689,7 @@
         <v>357</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -12690,7 +12697,7 @@
         <v>358</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>359</v>
@@ -12708,7 +12715,7 @@
         <v>363</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -12716,7 +12723,7 @@
         <v>364</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3072</v>
+        <v>3065</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>365</v>
@@ -12737,7 +12744,7 @@
         <v>370</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -12745,7 +12752,7 @@
         <v>371</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3071</v>
+        <v>3064</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>372</v>
@@ -12766,7 +12773,7 @@
         <v>377</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -12774,7 +12781,7 @@
         <v>378</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>379</v>
@@ -12792,7 +12799,7 @@
         <v>289</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -12800,7 +12807,7 @@
         <v>383</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>384</v>
@@ -12821,7 +12828,7 @@
         <v>389</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -12829,7 +12836,7 @@
         <v>390</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>391</v>
@@ -12850,7 +12857,7 @@
         <v>396</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -12858,7 +12865,7 @@
         <v>397</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>398</v>
@@ -12876,7 +12883,7 @@
         <v>402</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -12884,7 +12891,7 @@
         <v>403</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>404</v>
@@ -12905,7 +12912,7 @@
         <v>409</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -12913,7 +12920,7 @@
         <v>410</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>411</v>
@@ -12934,7 +12941,7 @@
         <v>416</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -12942,7 +12949,7 @@
         <v>417</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>418</v>
@@ -12963,7 +12970,7 @@
         <v>423</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -12971,7 +12978,7 @@
         <v>424</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>3070</v>
+        <v>3063</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>425</v>
@@ -12980,19 +12987,19 @@
         <v>426</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>3082</v>
+        <v>3075</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>428</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -13000,13 +13007,13 @@
         <v>429</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>430</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>431</v>
@@ -13015,13 +13022,13 @@
         <v>432</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>433</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -13029,7 +13036,7 @@
         <v>1683</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>1684</v>
@@ -13050,7 +13057,7 @@
         <v>1689</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -13058,7 +13065,7 @@
         <v>1690</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>1691</v>
@@ -13076,7 +13083,7 @@
         <v>1692</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -13084,7 +13091,7 @@
         <v>434</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>435</v>
@@ -13102,7 +13109,7 @@
         <v>439</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -13110,13 +13117,13 @@
         <v>440</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>441</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>442</v>
@@ -13125,36 +13132,36 @@
         <v>443</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>444</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>2130</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>2131</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>2132</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>2154</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>2133</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>2134</v>
-      </c>
       <c r="I85" s="1" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -13162,7 +13169,7 @@
         <v>445</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>3069</v>
+        <v>3062</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>446</v>
@@ -13180,7 +13187,7 @@
         <v>450</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -13188,7 +13195,7 @@
         <v>451</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>452</v>
@@ -13206,7 +13213,7 @@
         <v>456</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -13214,7 +13221,7 @@
         <v>457</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>458</v>
@@ -13223,7 +13230,7 @@
         <v>459</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>3118</v>
+        <v>3111</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>460</v>
@@ -13232,7 +13239,7 @@
         <v>461</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -13240,7 +13247,7 @@
         <v>462</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3068</v>
+        <v>3061</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>463</v>
@@ -13252,13 +13259,13 @@
         <v>465</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>466</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -13275,19 +13282,19 @@
         <v>469</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>3083</v>
+        <v>3076</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>470</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>471</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -13310,7 +13317,7 @@
         <v>476</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -13318,13 +13325,13 @@
         <v>477</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3067</v>
+        <v>3060</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>478</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>479</v>
@@ -13336,7 +13343,7 @@
         <v>481</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -13344,7 +13351,7 @@
         <v>488</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>489</v>
@@ -13353,19 +13360,19 @@
         <v>490</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>491</v>
       </c>
       <c r="G93" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>1993</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>1994</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -13373,7 +13380,7 @@
         <v>492</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>493</v>
@@ -13391,7 +13398,7 @@
         <v>497</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -13399,7 +13406,7 @@
         <v>498</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>499</v>
@@ -13414,13 +13421,13 @@
         <v>502</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>357</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -13428,7 +13435,7 @@
         <v>503</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>504</v>
@@ -13449,7 +13456,7 @@
         <v>509</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -13457,7 +13464,7 @@
         <v>510</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>511</v>
@@ -13466,7 +13473,7 @@
         <v>512</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>513</v>
@@ -13478,7 +13485,7 @@
         <v>515</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -13501,7 +13508,7 @@
         <v>521</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -13509,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>1</v>
@@ -13530,7 +13537,7 @@
         <v>6</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -13538,7 +13545,7 @@
         <v>522</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>523</v>
@@ -13556,7 +13563,7 @@
         <v>527</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -13582,7 +13589,7 @@
         <v>533</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -13590,7 +13597,7 @@
         <v>1719</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>1720</v>
@@ -13611,7 +13618,7 @@
         <v>1725</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -13640,7 +13647,7 @@
         <v>540</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -13669,7 +13676,7 @@
         <v>548</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -13677,7 +13684,7 @@
         <v>1042</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>3066</v>
+        <v>3197</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>1043</v>
@@ -13690,7 +13697,7 @@
         <v>1045</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -13698,7 +13705,7 @@
         <v>1046</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>3065</v>
+        <v>3059</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>1047</v>
@@ -13713,7 +13720,7 @@
         <v>1050</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -13721,7 +13728,7 @@
         <v>1051</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>1052</v>
@@ -13740,32 +13747,32 @@
         <v>1056</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="2"/>
       <c r="F108" s="1" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -13773,7 +13780,7 @@
         <v>1057</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>3064</v>
+        <v>3058</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>1058</v>
@@ -13794,7 +13801,7 @@
         <v>1063</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -13802,7 +13809,7 @@
         <v>1064</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>1065</v>
@@ -13820,7 +13827,7 @@
         <v>1069</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -13828,7 +13835,7 @@
         <v>1070</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>1071</v>
@@ -13837,7 +13844,7 @@
         <v>1072</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>3119</v>
+        <v>3112</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>1073</v>
@@ -13849,7 +13856,7 @@
         <v>1075</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -13857,7 +13864,7 @@
         <v>1076</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>1077</v>
@@ -13876,7 +13883,7 @@
         <v>1081</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -13884,7 +13891,7 @@
         <v>1697</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1698</v>
@@ -13902,7 +13909,7 @@
         <v>1702</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -13910,7 +13917,7 @@
         <v>1082</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>3063</v>
+        <v>3057</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>1083</v>
@@ -13922,7 +13929,7 @@
         <v>1085</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -13930,7 +13937,7 @@
         <v>1665</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1666</v>
@@ -13945,7 +13952,7 @@
         <v>1669</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -13953,7 +13960,7 @@
         <v>1086</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>1087</v>
@@ -13971,7 +13978,7 @@
         <v>1091</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -13979,7 +13986,7 @@
         <v>1092</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>1093</v>
@@ -13994,7 +14001,7 @@
         <v>1096</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>3086</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -14002,7 +14009,7 @@
         <v>1097</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>1098</v>
@@ -14011,7 +14018,7 @@
         <v>1099</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>1100</v>
@@ -14023,7 +14030,7 @@
         <v>1102</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -14031,7 +14038,7 @@
         <v>482</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>3062</v>
+        <v>3056</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>483</v>
@@ -14049,7 +14056,7 @@
         <v>487</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -14057,16 +14064,16 @@
         <v>1726</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>3125</v>
+        <v>3118</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>3124</v>
+        <v>3117</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>1727</v>
@@ -14075,10 +14082,10 @@
         <v>1728</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -14086,7 +14093,7 @@
         <v>1103</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>1104</v>
@@ -14101,7 +14108,7 @@
         <v>1107</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -14127,7 +14134,7 @@
         <v>1114</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -14135,7 +14142,7 @@
         <v>1115</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>3061</v>
+        <v>3055</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1116</v>
@@ -14156,7 +14163,7 @@
         <v>1121</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -14164,7 +14171,7 @@
         <v>1122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>1123</v>
@@ -14183,7 +14190,7 @@
         <v>521</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -14191,7 +14198,7 @@
         <v>1127</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>1128</v>
@@ -14206,7 +14213,7 @@
         <v>1131</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -14214,7 +14221,7 @@
         <v>1132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>1133</v>
@@ -14225,10 +14232,10 @@
         <v>1134</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -14236,13 +14243,13 @@
         <v>1135</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>1136</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>3120</v>
+        <v>3113</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>1137</v>
@@ -14251,7 +14258,7 @@
         <v>1138</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -14278,7 +14285,7 @@
         <v>1145</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -14286,7 +14293,7 @@
         <v>1146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>1147</v>
@@ -14307,7 +14314,7 @@
         <v>1152</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -14315,7 +14322,7 @@
         <v>1153</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>1154</v>
@@ -14336,7 +14343,7 @@
         <v>1159</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -14344,7 +14351,7 @@
         <v>1160</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>1161</v>
@@ -14362,10 +14369,10 @@
         <v>1165</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -14373,7 +14380,7 @@
         <v>1173</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>1174</v>
@@ -14391,7 +14398,7 @@
         <v>1178</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -14399,7 +14406,7 @@
         <v>1179</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>1180</v>
@@ -14412,10 +14419,10 @@
         <v>1182</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -14423,7 +14430,7 @@
         <v>1183</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>1184</v>
@@ -14442,7 +14449,7 @@
         <v>1188</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -14450,7 +14457,7 @@
         <v>1189</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>1190</v>
@@ -14460,18 +14467,18 @@
         <v>1191</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="2" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>3060</v>
+        <v>3054</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>1192</v>
@@ -14489,7 +14496,7 @@
         <v>1196</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -14497,7 +14504,7 @@
         <v>1197</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>1198</v>
@@ -14515,7 +14522,7 @@
         <v>1202</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -14523,7 +14530,7 @@
         <v>1203</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>1204</v>
@@ -14544,15 +14551,15 @@
         <v>1209</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="2" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>1210</v>
@@ -14573,7 +14580,7 @@
         <v>1215</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -14581,7 +14588,7 @@
         <v>1216</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>1217</v>
@@ -14596,13 +14603,13 @@
         <v>1220</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>1221</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -14610,7 +14617,7 @@
         <v>1222</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>3059</v>
+        <v>3053</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1223</v>
@@ -14631,7 +14638,7 @@
         <v>1228</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -14639,7 +14646,7 @@
         <v>1229</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>1230</v>
@@ -14654,10 +14661,10 @@
         <v>1233</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -14665,13 +14672,13 @@
         <v>1234</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>1236</v>
@@ -14686,7 +14693,7 @@
         <v>1239</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -14694,7 +14701,7 @@
         <v>1240</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>1241</v>
@@ -14712,7 +14719,7 @@
         <v>289</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>3095</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -14720,7 +14727,7 @@
         <v>1245</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>1246</v>
@@ -14739,7 +14746,7 @@
         <v>1250</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -14747,7 +14754,7 @@
         <v>1251</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>1252</v>
@@ -14762,15 +14769,15 @@
         <v>184</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="2" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>1255</v>
@@ -14789,7 +14796,7 @@
         <v>1259</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -14797,7 +14804,7 @@
         <v>1260</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>1261</v>
@@ -14818,7 +14825,7 @@
         <v>1266</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -14826,7 +14833,7 @@
         <v>1267</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>1268</v>
@@ -14835,7 +14842,7 @@
         <v>1269</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>1270</v>
@@ -14844,7 +14851,7 @@
         <v>1271</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -14852,7 +14859,7 @@
         <v>1272</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>1273</v>
@@ -14871,7 +14878,7 @@
         <v>1277</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -14900,7 +14907,7 @@
         <v>1285</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -14926,7 +14933,7 @@
         <v>1292</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -14952,7 +14959,7 @@
         <v>618</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -14960,7 +14967,7 @@
         <v>1299</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>1300</v>
@@ -14970,13 +14977,13 @@
       </c>
       <c r="E154" s="2"/>
       <c r="G154" s="6" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>1302</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -14984,7 +14991,7 @@
         <v>1303</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>1304</v>
@@ -15005,7 +15012,7 @@
         <v>1309</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -15031,7 +15038,7 @@
         <v>1316</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -15060,7 +15067,7 @@
         <v>1324</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -15089,7 +15096,7 @@
         <v>1332</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -15097,7 +15104,7 @@
         <v>1333</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>1334</v>
@@ -15116,7 +15123,7 @@
         <v>1338</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -15124,7 +15131,7 @@
         <v>1339</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>1340</v>
@@ -15143,7 +15150,7 @@
         <v>1344</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -15151,7 +15158,7 @@
         <v>1345</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>3058</v>
+        <v>3052</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>1346</v>
@@ -15169,7 +15176,7 @@
         <v>1350</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -15177,7 +15184,7 @@
         <v>1351</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>1352</v>
@@ -15192,13 +15199,13 @@
         <v>1355</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>1356</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -15206,7 +15213,7 @@
         <v>1357</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>1358</v>
@@ -15227,7 +15234,7 @@
         <v>1363</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -15235,7 +15242,7 @@
         <v>1364</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>1365</v>
@@ -15256,7 +15263,7 @@
         <v>1324</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -15264,7 +15271,7 @@
         <v>1370</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>1371</v>
@@ -15279,30 +15286,30 @@
         <v>1374</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>2134</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>2135</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>2155</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>2136</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>2137</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>2138</v>
-      </c>
       <c r="H166" s="1" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -15316,7 +15323,7 @@
         <v>1424</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>3126</v>
+        <v>3119</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>1425</v>
@@ -15325,7 +15332,7 @@
         <v>1426</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="J167" s="2"/>
     </row>
@@ -15334,16 +15341,16 @@
         <v>673</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>3199</v>
+        <v>3191</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>674</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>3148</v>
+        <v>3141</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>675</v>
@@ -15355,7 +15362,7 @@
         <v>677</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -15363,7 +15370,7 @@
         <v>1375</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>1376</v>
@@ -15384,7 +15391,7 @@
         <v>1381</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -15392,7 +15399,7 @@
         <v>1382</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>1383</v>
@@ -15413,7 +15420,7 @@
         <v>423</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -15421,7 +15428,7 @@
         <v>1388</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>1389</v>
@@ -15442,7 +15449,7 @@
         <v>1394</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -15450,7 +15457,7 @@
         <v>1395</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>3057</v>
+        <v>3051</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>1396</v>
@@ -15459,13 +15466,13 @@
         <v>1397</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>1398</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>3094</v>
+        <v>3087</v>
       </c>
       <c r="J172" s="2"/>
     </row>
@@ -15474,7 +15481,7 @@
         <v>1399</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>1400</v>
@@ -15489,7 +15496,7 @@
         <v>1403</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -15518,7 +15525,7 @@
         <v>1411</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -15526,7 +15533,7 @@
         <v>1412</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>1413</v>
@@ -15547,7 +15554,7 @@
         <v>1418</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -15555,7 +15562,7 @@
         <v>1419</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>3056</v>
+        <v>3050</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>1420</v>
@@ -15568,7 +15575,7 @@
         <v>1422</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -15576,7 +15583,7 @@
         <v>1427</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>1428</v>
@@ -15597,7 +15604,7 @@
         <v>1433</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="J177" s="2"/>
     </row>
@@ -15606,7 +15613,7 @@
         <v>1434</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>3055</v>
+        <v>3049</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>1435</v>
@@ -15627,7 +15634,7 @@
         <v>1440</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>3091</v>
+        <v>3084</v>
       </c>
       <c r="J178" s="2"/>
     </row>
@@ -15636,7 +15643,7 @@
         <v>1441</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>3198</v>
+        <v>3190</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>1442</v>
@@ -15657,13 +15664,13 @@
         <v>1447</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="2" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>1448</v>
@@ -15687,7 +15694,7 @@
         <v>1454</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -15695,7 +15702,7 @@
         <v>1455</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>1456</v>
@@ -15713,10 +15720,10 @@
         <v>1460</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="J181" s="2"/>
     </row>
@@ -15725,7 +15732,7 @@
         <v>1461</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>3054</v>
+        <v>3048</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>1462</v>
@@ -15743,7 +15750,7 @@
         <v>262</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -15751,7 +15758,7 @@
         <v>1466</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>1467</v>
@@ -15761,7 +15768,7 @@
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="1" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>1469</v>
@@ -15770,7 +15777,7 @@
         <v>1470</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -15794,7 +15801,7 @@
         <v>1476</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>3096</v>
+        <v>3089</v>
       </c>
       <c r="J184" s="2"/>
     </row>
@@ -15803,7 +15810,7 @@
         <v>1477</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>3053</v>
+        <v>3047</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>1478</v>
@@ -15818,7 +15825,7 @@
         <v>1481</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -15845,10 +15852,10 @@
         <v>1488</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -15856,7 +15863,7 @@
         <v>1489</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>1490</v>
@@ -15874,7 +15881,7 @@
         <v>1494</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -15882,7 +15889,7 @@
         <v>1495</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>3052</v>
+        <v>3046</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>1496</v>
@@ -15892,13 +15899,13 @@
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="1" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>1498</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="J188" s="2"/>
     </row>
@@ -15907,7 +15914,7 @@
         <v>1499</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>1500</v>
@@ -15928,7 +15935,7 @@
         <v>1505</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -15936,7 +15943,7 @@
         <v>1506</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>1507</v>
@@ -15957,7 +15964,7 @@
         <v>1512</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
       <c r="J190" s="2"/>
     </row>
@@ -15966,7 +15973,7 @@
         <v>1513</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>1514</v>
@@ -15984,7 +15991,7 @@
         <v>1102</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -16013,7 +16020,7 @@
         <v>1525</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -16036,7 +16043,7 @@
         <v>1531</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -16044,7 +16051,7 @@
         <v>1532</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>1533</v>
@@ -16060,7 +16067,7 @@
         <v>1536</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -16089,7 +16096,7 @@
         <v>14</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>3092</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -16097,7 +16104,7 @@
         <v>1537</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>1538</v>
@@ -16118,7 +16125,7 @@
         <v>1543</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -16147,7 +16154,7 @@
         <v>1550</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -16155,7 +16162,7 @@
         <v>1555</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>1556</v>
@@ -16170,15 +16177,15 @@
         <v>1558</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="2" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>1551</v>
@@ -16193,7 +16200,7 @@
         <v>1554</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -16201,7 +16208,7 @@
         <v>1559</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>1560</v>
@@ -16219,7 +16226,7 @@
         <v>1022</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -16227,7 +16234,7 @@
         <v>1564</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>3051</v>
+        <v>3045</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>1565</v>
@@ -16246,7 +16253,7 @@
         <v>1569</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -16254,7 +16261,7 @@
         <v>1570</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>1571</v>
@@ -16275,7 +16282,7 @@
         <v>1576</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -16304,7 +16311,7 @@
         <v>1584</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -16312,7 +16319,7 @@
         <v>1585</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>1586</v>
@@ -16324,13 +16331,13 @@
         <v>1588</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="H204" s="2" t="s">
         <v>1589</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -16338,7 +16345,7 @@
         <v>1590</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>1591</v>
@@ -16359,7 +16366,7 @@
         <v>1596</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>3023</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -16367,7 +16374,7 @@
         <v>1597</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>3050</v>
+        <v>3044</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>1598</v>
@@ -16385,7 +16392,7 @@
         <v>1602</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -16393,7 +16400,7 @@
         <v>1603</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>1604</v>
@@ -16409,10 +16416,10 @@
         <v>1607</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -16441,7 +16448,7 @@
         <v>1615</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -16449,7 +16456,7 @@
         <v>1616</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>1617</v>
@@ -16470,7 +16477,7 @@
         <v>533</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="J209" s="8"/>
     </row>
@@ -16479,7 +16486,7 @@
         <v>1676</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>1677</v>
@@ -16500,7 +16507,7 @@
         <v>1682</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -16508,7 +16515,7 @@
         <v>1622</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>1623</v>
@@ -16529,7 +16536,7 @@
         <v>1628</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -16537,7 +16544,7 @@
         <v>1629</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>1630</v>
@@ -16558,7 +16565,7 @@
         <v>1635</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -16566,14 +16573,14 @@
         <v>1636</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>1637</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="6" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>1638</v>
@@ -16582,7 +16589,7 @@
         <v>1271</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -16590,7 +16597,7 @@
         <v>1639</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>1640</v>
@@ -16606,27 +16613,27 @@
         <v>1643</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="215" spans="1:10">
       <c r="A215" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="H215" s="1" t="s">
         <v>2139</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>2156</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>2140</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>2141</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>2142</v>
-      </c>
       <c r="I215" s="1" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -16634,7 +16641,7 @@
         <v>549</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1764</v>
+        <v>3198</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>550</v>
@@ -16652,7 +16659,7 @@
         <v>554</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -16660,7 +16667,7 @@
         <v>555</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>3197</v>
+        <v>3189</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>556</v>
@@ -16669,7 +16676,7 @@
         <v>557</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>3121</v>
+        <v>3114</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>558</v>
@@ -16681,7 +16688,7 @@
         <v>560</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -16689,7 +16696,7 @@
         <v>561</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>562</v>
@@ -16701,7 +16708,7 @@
         <v>521</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -16709,7 +16716,7 @@
         <v>1651</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>1652</v>
@@ -16730,7 +16737,7 @@
         <v>1657</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -16738,7 +16745,7 @@
         <v>564</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>3196</v>
+        <v>3188</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>565</v>
@@ -16750,7 +16757,7 @@
         <v>567</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -16758,7 +16765,7 @@
         <v>568</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>569</v>
@@ -16779,7 +16786,7 @@
         <v>416</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>3093</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -16787,7 +16794,7 @@
         <v>574</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>575</v>
@@ -16802,7 +16809,7 @@
         <v>1025</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -16810,7 +16817,7 @@
         <v>578</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>579</v>
@@ -16831,7 +16838,7 @@
         <v>584</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -16839,7 +16846,7 @@
         <v>590</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>591</v>
@@ -16857,7 +16864,7 @@
         <v>593</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -16865,7 +16872,7 @@
         <v>598</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>599</v>
@@ -16880,7 +16887,7 @@
         <v>600</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>3097</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -16888,7 +16895,7 @@
         <v>585</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>586</v>
@@ -16906,7 +16913,7 @@
         <v>289</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>3098</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -16914,7 +16921,7 @@
         <v>594</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>595</v>
@@ -16932,7 +16939,7 @@
         <v>597</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -16940,7 +16947,7 @@
         <v>601</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>602</v>
@@ -16958,10 +16965,10 @@
         <v>606</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -16969,7 +16976,7 @@
         <v>607</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>3049</v>
+        <v>3043</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>608</v>
@@ -16987,7 +16994,7 @@
         <v>612</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -16995,7 +17002,7 @@
         <v>613</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>614</v>
@@ -17013,10 +17020,10 @@
         <v>618</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -17024,7 +17031,7 @@
         <v>619</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>3048</v>
+        <v>3042</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>620</v>
@@ -17042,7 +17049,7 @@
         <v>95</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -17050,7 +17057,7 @@
         <v>624</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>3047</v>
+        <v>3041</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>625</v>
@@ -17065,7 +17072,7 @@
         <v>628</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -17073,7 +17080,7 @@
         <v>629</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>630</v>
@@ -17088,7 +17095,7 @@
         <v>509</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -17096,7 +17103,7 @@
         <v>633</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>634</v>
@@ -17111,7 +17118,7 @@
         <v>584</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -17119,7 +17126,7 @@
         <v>637</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>638</v>
@@ -17140,7 +17147,7 @@
         <v>643</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -17148,7 +17155,7 @@
         <v>644</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>3046</v>
+        <v>3040</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>645</v>
@@ -17163,7 +17170,7 @@
         <v>648</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -17171,13 +17178,13 @@
         <v>649</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>3045</v>
+        <v>3039</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>650</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>3149</v>
+        <v>3142</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>651</v>
@@ -17192,7 +17199,7 @@
         <v>416</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -17200,13 +17207,13 @@
         <v>654</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>1033</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>3150</v>
+        <v>3143</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>655</v>
@@ -17221,7 +17228,7 @@
         <v>658</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -17241,13 +17248,13 @@
         <v>661</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>662</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -17255,7 +17262,7 @@
         <v>663</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>664</v>
@@ -17270,7 +17277,7 @@
         <v>667</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -17278,7 +17285,7 @@
         <v>668</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>1034</v>
@@ -17296,10 +17303,10 @@
         <v>672</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -17307,7 +17314,7 @@
         <v>678</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>679</v>
@@ -17328,7 +17335,7 @@
         <v>684</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -17336,7 +17343,7 @@
         <v>685</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>686</v>
@@ -17354,7 +17361,7 @@
         <v>690</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -17362,13 +17369,13 @@
         <v>691</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>692</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>3122</v>
+        <v>3115</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>693</v>
@@ -17380,7 +17387,7 @@
         <v>695</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -17406,7 +17413,7 @@
         <v>700</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -17414,7 +17421,7 @@
         <v>701</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>702</v>
@@ -17429,7 +17436,7 @@
         <v>705</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -17437,7 +17444,7 @@
         <v>706</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>707</v>
@@ -17452,10 +17459,10 @@
         <v>710</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>3201</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -17463,7 +17470,7 @@
         <v>711</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>712</v>
@@ -17484,15 +17491,15 @@
         <v>717</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="1" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>718</v>
@@ -17507,7 +17514,7 @@
         <v>721</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -17515,7 +17522,7 @@
         <v>722</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3044</v>
+        <v>3038</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>723</v>
@@ -17530,7 +17537,7 @@
         <v>726</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -17538,7 +17545,7 @@
         <v>727</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>728</v>
@@ -17553,7 +17560,7 @@
         <v>731</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -17561,7 +17568,7 @@
         <v>732</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3043</v>
+        <v>3037</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>733</v>
@@ -17573,7 +17580,7 @@
         <v>735</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -17581,7 +17588,7 @@
         <v>736</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>737</v>
@@ -17599,7 +17606,7 @@
         <v>345</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -17607,7 +17614,7 @@
         <v>741</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3042</v>
+        <v>3036</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>742</v>
@@ -17622,7 +17629,7 @@
         <v>745</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -17648,7 +17655,7 @@
         <v>752</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -17662,7 +17669,7 @@
         <v>754</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>3151</v>
+        <v>3144</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>755</v>
@@ -17674,7 +17681,7 @@
         <v>757</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -17682,7 +17689,7 @@
         <v>758</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>759</v>
@@ -17700,7 +17707,7 @@
         <v>763</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -17708,7 +17715,7 @@
         <v>1739</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>1741</v>
@@ -17726,7 +17733,7 @@
         <v>1711</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -17734,7 +17741,7 @@
         <v>764</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>765</v>
@@ -17743,7 +17750,7 @@
         <v>766</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>767</v>
@@ -17752,7 +17759,7 @@
         <v>768</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -17760,7 +17767,7 @@
         <v>769</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3041</v>
+        <v>3035</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>770</v>
@@ -17778,7 +17785,7 @@
         <v>774</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -17786,7 +17793,7 @@
         <v>775</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>776</v>
@@ -17807,7 +17814,7 @@
         <v>781</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -17815,7 +17822,7 @@
         <v>782</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3040</v>
+        <v>3034</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>783</v>
@@ -17830,10 +17837,10 @@
         <v>786</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -17859,7 +17866,7 @@
         <v>1026</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -17867,7 +17874,7 @@
         <v>793</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>794</v>
@@ -17882,7 +17889,7 @@
         <v>1027</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -17890,7 +17897,7 @@
         <v>797</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>798</v>
@@ -17908,7 +17915,7 @@
         <v>802</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -17928,7 +17935,7 @@
         <v>807</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>808</v>
@@ -17937,7 +17944,7 @@
         <v>306</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -17966,7 +17973,7 @@
         <v>1710</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -17989,7 +17996,7 @@
         <v>814</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -17997,13 +18004,13 @@
         <v>815</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>3152</v>
+        <v>3145</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>816</v>
@@ -18018,27 +18025,27 @@
         <v>819</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="F270" s="1" t="s">
         <v>2149</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="H270" s="1" t="s">
         <v>2150</v>
       </c>
-      <c r="C270" s="1" t="s">
-        <v>2151</v>
-      </c>
-      <c r="F270" s="1" t="s">
-        <v>2152</v>
-      </c>
-      <c r="H270" s="1" t="s">
-        <v>2153</v>
-      </c>
       <c r="I270" s="1" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -18046,7 +18053,7 @@
         <v>1658</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>1659</v>
@@ -18067,7 +18074,7 @@
         <v>1664</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>3087</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -18075,7 +18082,7 @@
         <v>820</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>821</v>
@@ -18096,7 +18103,7 @@
         <v>774</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -18104,7 +18111,7 @@
         <v>826</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>827</v>
@@ -18119,15 +18126,15 @@
         <v>695</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="1" t="s">
-        <v>3089</v>
+        <v>3082</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>830</v>
@@ -18145,7 +18152,7 @@
         <v>834</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>3090</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -18153,7 +18160,7 @@
         <v>835</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>836</v>
@@ -18171,7 +18178,7 @@
         <v>222</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -18179,13 +18186,13 @@
         <v>840</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>841</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>3153</v>
+        <v>3146</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>842</v>
@@ -18200,7 +18207,7 @@
         <v>845</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -18208,7 +18215,7 @@
         <v>853</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>854</v>
@@ -18226,7 +18233,7 @@
         <v>851</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -18234,7 +18241,7 @@
         <v>846</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>847</v>
@@ -18255,7 +18262,7 @@
         <v>852</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -18263,7 +18270,7 @@
         <v>857</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>858</v>
@@ -18281,7 +18288,7 @@
         <v>862</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -18289,7 +18296,7 @@
         <v>863</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>864</v>
@@ -18310,7 +18317,7 @@
         <v>357</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -18318,7 +18325,7 @@
         <v>869</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>870</v>
@@ -18336,7 +18343,7 @@
         <v>874</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -18365,7 +18372,7 @@
         <v>882</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -18385,10 +18392,10 @@
         <v>886</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -18396,7 +18403,7 @@
         <v>887</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>1037</v>
@@ -18417,7 +18424,7 @@
         <v>892</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -18425,7 +18432,7 @@
         <v>893</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>894</v>
@@ -18443,7 +18450,7 @@
         <v>898</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -18451,7 +18458,7 @@
         <v>899</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>900</v>
@@ -18469,7 +18476,7 @@
         <v>904</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -18477,7 +18484,7 @@
         <v>905</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>906</v>
@@ -18489,7 +18496,7 @@
         <v>908</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -18497,7 +18504,7 @@
         <v>909</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>3039</v>
+        <v>3033</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>910</v>
@@ -18512,7 +18519,7 @@
         <v>913</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -18520,7 +18527,7 @@
         <v>914</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>915</v>
@@ -18535,10 +18542,10 @@
         <v>918</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -18546,7 +18553,7 @@
         <v>919</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>920</v>
@@ -18561,7 +18568,7 @@
         <v>923</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -18569,7 +18576,7 @@
         <v>924</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>925</v>
@@ -18587,7 +18594,7 @@
         <v>1022</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -18595,7 +18602,7 @@
         <v>929</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>3038</v>
+        <v>3032</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>930</v>
@@ -18616,7 +18623,7 @@
         <v>289</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -18624,7 +18631,7 @@
         <v>935</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>936</v>
@@ -18645,7 +18652,7 @@
         <v>941</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -18653,7 +18660,7 @@
         <v>942</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>3195</v>
+        <v>3187</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>943</v>
@@ -18665,7 +18672,7 @@
         <v>945</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -18673,7 +18680,7 @@
         <v>946</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>3194</v>
+        <v>3186</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>947</v>
@@ -18691,7 +18698,7 @@
         <v>1021</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -18699,7 +18706,7 @@
         <v>951</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>3193</v>
+        <v>3185</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>952</v>
@@ -18720,7 +18727,7 @@
         <v>957</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -18728,7 +18735,7 @@
         <v>958</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>959</v>
@@ -18743,30 +18750,30 @@
         <v>962</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F298" s="1" t="s">
         <v>2143</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="G298" s="1" t="s">
         <v>2144</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="H298" s="1" t="s">
         <v>2145</v>
       </c>
-      <c r="F298" s="1" t="s">
-        <v>2146</v>
-      </c>
-      <c r="G298" s="1" t="s">
-        <v>2147</v>
-      </c>
-      <c r="H298" s="1" t="s">
-        <v>2148</v>
-      </c>
       <c r="I298" s="1" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -18774,7 +18781,7 @@
         <v>963</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>3037</v>
+        <v>3031</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>964</v>
@@ -18792,7 +18799,7 @@
         <v>968</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -18800,7 +18807,7 @@
         <v>969</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>970</v>
@@ -18818,7 +18825,7 @@
         <v>974</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -18826,7 +18833,7 @@
         <v>975</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>976</v>
@@ -18847,7 +18854,7 @@
         <v>981</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -18855,7 +18862,7 @@
         <v>982</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>983</v>
@@ -18873,7 +18880,7 @@
         <v>987</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -18902,7 +18909,7 @@
         <v>1712</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -18910,7 +18917,7 @@
         <v>988</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>3192</v>
+        <v>3184</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>989</v>
@@ -18928,7 +18935,7 @@
         <v>993</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -18955,7 +18962,7 @@
         <v>1172</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -18963,7 +18970,7 @@
         <v>994</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>995</v>
@@ -18978,7 +18985,7 @@
         <v>998</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -18986,7 +18993,7 @@
         <v>999</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>1000</v>
@@ -19007,7 +19014,7 @@
         <v>1020</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>3202</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -19015,7 +19022,7 @@
         <v>1005</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>3191</v>
+        <v>3183</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>1006</v>
@@ -19030,2577 +19037,2577 @@
         <v>1009</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="309" spans="1:9">
       <c r="A309" s="1" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>3036</v>
+        <v>3030</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>2990</v>
+        <v>2986</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>527</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>2834</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="310" spans="1:9">
       <c r="A310" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D310" s="1" t="s">
         <v>2354</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="E310" s="6" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="G310" s="1" t="s">
         <v>2355</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="H310" s="1" t="s">
         <v>2356</v>
       </c>
-      <c r="D310" s="1" t="s">
-        <v>2357</v>
-      </c>
-      <c r="E310" s="6" t="s">
-        <v>2991</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>2900</v>
-      </c>
-      <c r="G310" s="1" t="s">
-        <v>2358</v>
-      </c>
-      <c r="H310" s="1" t="s">
-        <v>2359</v>
-      </c>
       <c r="I310" s="1" t="s">
-        <v>2835</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="311" spans="1:9">
       <c r="A311" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>2988</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="G311" s="1" t="s">
         <v>2360</v>
-      </c>
-      <c r="B311" s="10" t="s">
-        <v>3190</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>2361</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>2362</v>
-      </c>
-      <c r="E311" s="6" t="s">
-        <v>2992</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>2901</v>
-      </c>
-      <c r="G311" s="1" t="s">
-        <v>2363</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>289</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>2836</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="312" spans="1:9">
       <c r="A312" s="1" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>2993</v>
+        <v>2989</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>289</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>3084</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" s="2" t="s">
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>3035</v>
+        <v>3029</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>2994</v>
+        <v>2990</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>2903</v>
+        <v>2899</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>2837</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="314" spans="1:9">
       <c r="A314" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B314" s="10" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D314" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="B314" s="10" t="s">
+      <c r="E314" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="C314" s="1" t="s">
-        <v>2372</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>2373</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>2374</v>
-      </c>
       <c r="F314" s="1" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>289</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>2838</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="315" spans="1:9">
       <c r="A315" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E315" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="B315" s="10" t="s">
+      <c r="F315" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="H315" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="C315" s="1" t="s">
-        <v>2377</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>2378</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>2905</v>
-      </c>
-      <c r="H315" s="1" t="s">
-        <v>2379</v>
-      </c>
       <c r="I315" s="1" t="s">
-        <v>2839</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="316" spans="1:9">
       <c r="A316" s="2" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>3148</v>
+      </c>
+      <c r="E316" s="6" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="G316" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="B316" s="5" t="s">
-        <v>3189</v>
-      </c>
-      <c r="C316" s="1" t="s">
+      <c r="H316" s="1" t="s">
         <v>2381</v>
       </c>
-      <c r="D316" s="6" t="s">
-        <v>3155</v>
-      </c>
-      <c r="E316" s="6" t="s">
-        <v>2382</v>
-      </c>
-      <c r="F316" s="1" t="s">
-        <v>2906</v>
-      </c>
-      <c r="G316" s="1" t="s">
-        <v>2383</v>
-      </c>
-      <c r="H316" s="1" t="s">
-        <v>2384</v>
-      </c>
       <c r="I316" s="2" t="s">
-        <v>3154</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="317" spans="1:9">
       <c r="A317" s="2" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D317" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="B317" s="5" t="s">
+      <c r="E317" s="6" t="s">
         <v>2386</v>
       </c>
-      <c r="C317" s="1" t="s">
-        <v>2387</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>2388</v>
-      </c>
-      <c r="E317" s="6" t="s">
-        <v>2389</v>
-      </c>
       <c r="F317" s="1" t="s">
-        <v>2907</v>
+        <v>2903</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>2840</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="318" spans="1:9">
       <c r="A318" s="2" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E318" s="6" t="s">
+        <v>2991</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="H318" s="1" t="s">
         <v>2390</v>
       </c>
-      <c r="B318" s="5" t="s">
-        <v>3188</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>2391</v>
-      </c>
-      <c r="E318" s="6" t="s">
-        <v>2995</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>2908</v>
-      </c>
-      <c r="G318" s="1" t="s">
-        <v>2392</v>
-      </c>
-      <c r="H318" s="1" t="s">
-        <v>2393</v>
-      </c>
       <c r="I318" s="2" t="s">
-        <v>2841</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="2" t="s">
-        <v>3010</v>
+        <v>3006</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>3034</v>
+        <v>3028</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>2996</v>
+        <v>2992</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>2842</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="320" spans="1:9">
       <c r="A320" s="2" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>3033</v>
+        <v>3027</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>2997</v>
+        <v>2993</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>2909</v>
+        <v>2905</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>2843</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="321" spans="1:9">
       <c r="A321" s="2" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>3187</v>
+        <v>3179</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>2998</v>
+        <v>2994</v>
       </c>
       <c r="F321" s="2"/>
       <c r="H321" s="1" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>3127</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="322" spans="1:9">
       <c r="A322" s="2" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>3149</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>2995</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G322" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="B322" s="5" t="s">
+      <c r="H322" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="C322" s="1" t="s">
-        <v>2405</v>
-      </c>
-      <c r="D322" s="6" t="s">
-        <v>3156</v>
-      </c>
-      <c r="E322" s="6" t="s">
-        <v>2999</v>
-      </c>
-      <c r="F322" s="1" t="s">
-        <v>2910</v>
-      </c>
-      <c r="G322" s="1" t="s">
-        <v>2406</v>
-      </c>
-      <c r="H322" s="1" t="s">
-        <v>2407</v>
-      </c>
       <c r="I322" s="2" t="s">
-        <v>2844</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="323" spans="1:9">
       <c r="A323" s="2" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>2996</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="H323" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="B323" s="5" t="s">
-        <v>3186</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>2409</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>2410</v>
-      </c>
-      <c r="E323" s="2" t="s">
-        <v>3000</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>2911</v>
-      </c>
-      <c r="H323" s="1" t="s">
-        <v>2411</v>
-      </c>
       <c r="I323" s="2" t="s">
-        <v>3128</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="324" spans="1:9">
       <c r="A324" s="2" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>3122</v>
+      </c>
+      <c r="E324" s="2" t="s">
         <v>2412</v>
       </c>
-      <c r="B324" s="5" t="s">
+      <c r="F324" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="G324" s="1" t="s">
         <v>2413</v>
       </c>
-      <c r="C324" s="1" t="s">
-        <v>2414</v>
-      </c>
-      <c r="D324" s="6" t="s">
-        <v>3129</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>2415</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>2912</v>
-      </c>
-      <c r="G324" s="1" t="s">
-        <v>2416</v>
-      </c>
       <c r="H324" s="1" t="s">
-        <v>3130</v>
+        <v>3123</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>2845</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="325" spans="1:9">
       <c r="A325" s="2" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>3177</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E325" s="6" t="s">
+        <v>2997</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="G325" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="B325" s="10" t="s">
-        <v>3185</v>
-      </c>
-      <c r="C325" s="1" t="s">
+      <c r="H325" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D325" s="1" t="s">
-        <v>2419</v>
-      </c>
-      <c r="E325" s="6" t="s">
-        <v>3001</v>
-      </c>
-      <c r="F325" s="1" t="s">
-        <v>2913</v>
-      </c>
-      <c r="G325" s="1" t="s">
-        <v>2420</v>
-      </c>
-      <c r="H325" s="1" t="s">
-        <v>2421</v>
-      </c>
       <c r="I325" s="2" t="s">
-        <v>2846</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="326" spans="1:9">
       <c r="A326" s="2" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D326" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="B326" s="5" t="s">
+      <c r="E326" s="2" t="s">
         <v>2423</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="F326" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="G326" s="1" t="s">
         <v>2424</v>
       </c>
-      <c r="D326" s="1" t="s">
+      <c r="H326" s="1" t="s">
         <v>2425</v>
       </c>
-      <c r="E326" s="2" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F326" s="1" t="s">
-        <v>2914</v>
-      </c>
-      <c r="G326" s="1" t="s">
-        <v>2427</v>
-      </c>
-      <c r="H326" s="1" t="s">
-        <v>2428</v>
-      </c>
       <c r="I326" s="2" t="s">
-        <v>3132</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="327" spans="1:9">
       <c r="A327" s="2" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="E327" s="2" t="s">
         <v>2429</v>
       </c>
-      <c r="B327" s="5" t="s">
+      <c r="F327" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="H327" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="C327" s="1" t="s">
-        <v>2431</v>
-      </c>
-      <c r="E327" s="2" t="s">
-        <v>2432</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>2915</v>
-      </c>
-      <c r="H327" s="1" t="s">
-        <v>2433</v>
-      </c>
       <c r="I327" s="2" t="s">
-        <v>3133</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="328" spans="1:9">
       <c r="A328" s="2" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D328" s="1" t="s">
         <v>2434</v>
       </c>
-      <c r="B328" s="5" t="s">
+      <c r="E328" s="6" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="G328" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="H328" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="D328" s="1" t="s">
-        <v>2437</v>
-      </c>
-      <c r="E328" s="6" t="s">
-        <v>3002</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>2916</v>
-      </c>
-      <c r="G328" s="1" t="s">
-        <v>2438</v>
-      </c>
-      <c r="H328" s="1" t="s">
-        <v>2439</v>
-      </c>
       <c r="I328" s="2" t="s">
-        <v>2847</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="329" spans="1:9">
       <c r="A329" s="2" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D329" s="1" t="s">
         <v>2440</v>
       </c>
-      <c r="B329" s="5" t="s">
+      <c r="E329" s="2" t="s">
         <v>2441</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="F329" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="G329" s="1" t="s">
         <v>2442</v>
       </c>
-      <c r="D329" s="1" t="s">
+      <c r="H329" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="E329" s="2" t="s">
-        <v>2444</v>
-      </c>
-      <c r="F329" s="1" t="s">
-        <v>2917</v>
-      </c>
-      <c r="G329" s="1" t="s">
-        <v>2445</v>
-      </c>
-      <c r="H329" s="1" t="s">
-        <v>2446</v>
-      </c>
       <c r="I329" s="2" t="s">
-        <v>3099</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="330" spans="1:9">
       <c r="A330" s="2" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D330" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="B330" s="5" t="s">
+      <c r="E330" s="2" t="s">
         <v>2448</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="F330" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="G330" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="D330" s="1" t="s">
-        <v>2450</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>2451</v>
-      </c>
-      <c r="F330" s="1" t="s">
-        <v>2918</v>
-      </c>
-      <c r="G330" s="1" t="s">
-        <v>2452</v>
-      </c>
       <c r="H330" s="1" t="s">
-        <v>3131</v>
+        <v>3124</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>3200</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="331" spans="1:9">
       <c r="A331" s="2" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>2452</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="G331" s="1" t="s">
         <v>2453</v>
       </c>
-      <c r="B331" s="5" t="s">
+      <c r="H331" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="E331" s="2" t="s">
-        <v>2455</v>
-      </c>
-      <c r="F331" s="1" t="s">
-        <v>2919</v>
-      </c>
-      <c r="G331" s="1" t="s">
-        <v>2456</v>
-      </c>
-      <c r="H331" s="1" t="s">
-        <v>2457</v>
-      </c>
       <c r="I331" s="2" t="s">
-        <v>3134</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="332" spans="1:9">
       <c r="A332" s="2" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>3184</v>
+        <v>3176</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="E332" s="2"/>
       <c r="F332" s="1" t="s">
-        <v>2920</v>
+        <v>2916</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>2848</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="333" spans="1:9">
       <c r="A333" s="2" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D333" s="1" t="s">
         <v>2461</v>
       </c>
-      <c r="B333" s="5" t="s">
+      <c r="E333" s="2" t="s">
         <v>2462</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="F333" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="G333" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="D333" s="1" t="s">
+      <c r="H333" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="E333" s="2" t="s">
-        <v>2465</v>
-      </c>
-      <c r="F333" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="G333" s="1" t="s">
-        <v>2466</v>
-      </c>
-      <c r="H333" s="1" t="s">
-        <v>2467</v>
-      </c>
       <c r="I333" s="2" t="s">
-        <v>2849</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="334" spans="1:9">
       <c r="A334" s="2" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="E334" s="2" t="s">
         <v>2468</v>
       </c>
-      <c r="B334" s="5" t="s">
-        <v>3032</v>
-      </c>
-      <c r="C334" s="1" t="s">
+      <c r="F334" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="H334" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="D334" s="1" t="s">
-        <v>2470</v>
-      </c>
-      <c r="E334" s="2" t="s">
-        <v>2471</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>2922</v>
-      </c>
-      <c r="H334" s="1" t="s">
-        <v>2472</v>
-      </c>
       <c r="I334" s="2" t="s">
-        <v>2850</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="335" spans="1:9">
       <c r="A335" s="2" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D335" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="B335" s="5" t="s">
+      <c r="E335" s="2" t="s">
         <v>2474</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="F335" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="H335" s="1" t="s">
         <v>2475</v>
       </c>
-      <c r="D335" s="1" t="s">
-        <v>2476</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>2477</v>
-      </c>
-      <c r="F335" s="1" t="s">
-        <v>2923</v>
-      </c>
-      <c r="H335" s="1" t="s">
-        <v>2478</v>
-      </c>
       <c r="I335" s="2" t="s">
-        <v>3135</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="336" spans="1:9">
       <c r="A336" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D336" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="B336" s="5" t="s">
+      <c r="E336" s="6" t="s">
         <v>2480</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="F336" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="H336" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="D336" s="1" t="s">
-        <v>2482</v>
-      </c>
-      <c r="E336" s="6" t="s">
-        <v>2483</v>
-      </c>
-      <c r="F336" s="1" t="s">
-        <v>2924</v>
-      </c>
-      <c r="H336" s="1" t="s">
-        <v>2484</v>
-      </c>
       <c r="I336" s="2" t="s">
-        <v>2851</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="337" spans="1:9">
       <c r="A337" s="2" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D337" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="B337" s="5" t="s">
+      <c r="E337" s="2" t="s">
         <v>2486</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="F337" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="G337" s="1" t="s">
         <v>2487</v>
       </c>
-      <c r="D337" s="1" t="s">
+      <c r="H337" s="1" t="s">
         <v>2488</v>
       </c>
-      <c r="E337" s="2" t="s">
-        <v>2489</v>
-      </c>
-      <c r="F337" s="1" t="s">
-        <v>2925</v>
-      </c>
-      <c r="G337" s="1" t="s">
-        <v>2490</v>
-      </c>
-      <c r="H337" s="1" t="s">
-        <v>2491</v>
-      </c>
       <c r="I337" s="2" t="s">
-        <v>2852</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D338" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="B338" s="5" t="s">
+      <c r="E338" s="2" t="s">
         <v>2493</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="F338" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="G338" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>2495</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>2496</v>
-      </c>
-      <c r="F338" s="1" t="s">
-        <v>2926</v>
-      </c>
-      <c r="G338" s="1" t="s">
-        <v>2497</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>409</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="339" spans="1:9">
       <c r="A339" s="2" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="E339" s="2" t="s">
         <v>2498</v>
       </c>
-      <c r="B339" s="5" t="s">
-        <v>3031</v>
-      </c>
-      <c r="C339" s="1" t="s">
+      <c r="F339" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="H339" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="D339" s="1" t="s">
-        <v>2500</v>
-      </c>
-      <c r="E339" s="2" t="s">
-        <v>2501</v>
-      </c>
-      <c r="F339" s="1" t="s">
-        <v>2927</v>
-      </c>
-      <c r="H339" s="1" t="s">
-        <v>2502</v>
-      </c>
       <c r="I339" s="2" t="s">
-        <v>2854</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="340" spans="1:9">
       <c r="A340" s="2" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>3140</v>
+        <v>3133</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>2504</v>
+        <v>2501</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>3003</v>
+        <v>2999</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>2505</v>
+        <v>2502</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>3141</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="341" spans="1:9">
       <c r="A341" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D341" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="B341" s="5" t="s">
+      <c r="E341" s="2" t="s">
         <v>2507</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="F341" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="G341" s="1" t="s">
         <v>2508</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="H341" s="1" t="s">
         <v>2509</v>
       </c>
-      <c r="E341" s="2" t="s">
-        <v>2510</v>
-      </c>
-      <c r="F341" s="1" t="s">
-        <v>2929</v>
-      </c>
-      <c r="G341" s="1" t="s">
-        <v>2511</v>
-      </c>
-      <c r="H341" s="1" t="s">
-        <v>2512</v>
-      </c>
       <c r="I341" s="2" t="s">
-        <v>2855</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="342" spans="1:9">
       <c r="A342" s="2" t="s">
-        <v>3011</v>
+        <v>3007</v>
       </c>
       <c r="B342" s="10" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="G342" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="H342" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="D342" s="1" t="s">
-        <v>2515</v>
-      </c>
-      <c r="F342" s="1" t="s">
-        <v>2930</v>
-      </c>
-      <c r="G342" s="1" t="s">
-        <v>2516</v>
-      </c>
-      <c r="H342" s="1" t="s">
-        <v>2517</v>
-      </c>
       <c r="I342" s="2" t="s">
-        <v>3142</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="343" spans="1:9">
       <c r="A343" s="2" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D343" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="B343" s="5" t="s">
+      <c r="E343" s="6" t="s">
+        <v>3000</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="G343" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="H343" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="D343" s="1" t="s">
-        <v>2521</v>
-      </c>
-      <c r="E343" s="6" t="s">
-        <v>3004</v>
-      </c>
-      <c r="F343" s="1" t="s">
-        <v>2931</v>
-      </c>
-      <c r="G343" s="1" t="s">
-        <v>2522</v>
-      </c>
-      <c r="H343" s="1" t="s">
-        <v>2523</v>
-      </c>
       <c r="I343" s="2" t="s">
-        <v>2856</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="344" spans="1:9">
       <c r="A344" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B344" s="10" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D344" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="E344" s="1" t="s">
         <v>2525</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="F344" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="H344" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="D344" s="1" t="s">
-        <v>2527</v>
-      </c>
-      <c r="E344" s="1" t="s">
-        <v>2528</v>
-      </c>
-      <c r="F344" s="1" t="s">
-        <v>2932</v>
-      </c>
-      <c r="H344" s="1" t="s">
-        <v>2529</v>
-      </c>
       <c r="I344" s="1" t="s">
-        <v>3136</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="345" spans="1:9">
       <c r="A345" s="2" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>3183</v>
+        <v>3199</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="E345" s="2"/>
       <c r="F345" s="1" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>2857</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="346" spans="1:9">
       <c r="A346" s="2" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="B346" s="5" t="s">
+      <c r="E346" s="6" t="s">
         <v>2534</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="F346" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="H346" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="D346" s="1" t="s">
-        <v>2536</v>
-      </c>
-      <c r="E346" s="6" t="s">
-        <v>2537</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>2934</v>
-      </c>
-      <c r="H346" s="1" t="s">
-        <v>2538</v>
-      </c>
       <c r="I346" s="2" t="s">
-        <v>2858</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="347" spans="1:9">
       <c r="A347" s="2" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>2540</v>
+        <v>2537</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="E347" s="2"/>
       <c r="F347" s="1" t="s">
-        <v>2935</v>
+        <v>2931</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>2859</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="348" spans="1:9">
       <c r="A348" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="E348" s="6" t="s">
+        <v>3001</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="G348" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="B348" s="5" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C348" s="1" t="s">
+      <c r="H348" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="D348" s="1" t="s">
-        <v>2545</v>
-      </c>
-      <c r="E348" s="6" t="s">
-        <v>3005</v>
-      </c>
-      <c r="F348" s="1" t="s">
-        <v>2936</v>
-      </c>
-      <c r="G348" s="1" t="s">
-        <v>2546</v>
-      </c>
-      <c r="H348" s="1" t="s">
-        <v>2547</v>
-      </c>
       <c r="I348" s="2" t="s">
-        <v>2860</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="349" spans="1:9">
       <c r="A349" s="2" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D349" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="B349" s="5" t="s">
+      <c r="E349" s="2" t="s">
         <v>2549</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="F349" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="G349" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="D349" s="1" t="s">
+      <c r="H349" s="1" t="s">
         <v>2551</v>
       </c>
-      <c r="E349" s="2" t="s">
-        <v>2552</v>
-      </c>
-      <c r="F349" s="1" t="s">
-        <v>2937</v>
-      </c>
-      <c r="G349" s="1" t="s">
-        <v>2553</v>
-      </c>
-      <c r="H349" s="1" t="s">
-        <v>2554</v>
-      </c>
       <c r="I349" s="2" t="s">
-        <v>2861</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="350" spans="1:9">
       <c r="A350" s="2" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="G350" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="B350" s="5" t="s">
-        <v>3029</v>
-      </c>
-      <c r="C350" s="1" t="s">
+      <c r="H350" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="E350" s="2" t="s">
-        <v>2557</v>
-      </c>
-      <c r="F350" s="1" t="s">
-        <v>2938</v>
-      </c>
-      <c r="G350" s="1" t="s">
-        <v>2558</v>
-      </c>
-      <c r="H350" s="1" t="s">
-        <v>2559</v>
-      </c>
       <c r="I350" s="2" t="s">
-        <v>2862</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="351" spans="1:9">
       <c r="A351" s="2" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D351" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="B351" s="5" t="s">
+      <c r="E351" s="4" t="s">
         <v>2561</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="F351" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="H351" s="1" t="s">
         <v>2562</v>
       </c>
-      <c r="D351" s="1" t="s">
-        <v>2563</v>
-      </c>
-      <c r="E351" s="4" t="s">
-        <v>2564</v>
-      </c>
-      <c r="F351" s="1" t="s">
-        <v>2939</v>
-      </c>
-      <c r="H351" s="1" t="s">
-        <v>2565</v>
-      </c>
       <c r="I351" s="2" t="s">
-        <v>2863</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="352" spans="1:9">
       <c r="A352" s="2" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E352" s="6" t="s">
+        <v>3116</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="G352" s="1" t="s">
         <v>2566</v>
       </c>
-      <c r="B352" s="5" t="s">
+      <c r="H352" s="1" t="s">
         <v>2567</v>
       </c>
-      <c r="C352" s="1" t="s">
-        <v>2568</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>2569</v>
-      </c>
-      <c r="E352" s="6" t="s">
-        <v>3123</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="G352" s="1" t="s">
-        <v>2570</v>
-      </c>
-      <c r="H352" s="1" t="s">
-        <v>2571</v>
-      </c>
       <c r="I352" s="2" t="s">
-        <v>2864</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="353" spans="1:9">
       <c r="A353" s="2" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>3175</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="H353" s="1" t="s">
         <v>2572</v>
       </c>
-      <c r="B353" s="5" t="s">
-        <v>3182</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>2573</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>2574</v>
-      </c>
-      <c r="E353" s="2" t="s">
-        <v>2575</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>2941</v>
-      </c>
-      <c r="H353" s="1" t="s">
-        <v>2576</v>
-      </c>
       <c r="I353" s="2" t="s">
-        <v>2865</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="354" spans="1:9">
       <c r="A354" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="G354" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>3028</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>2578</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>2579</v>
-      </c>
-      <c r="E354" s="2" t="s">
-        <v>2580</v>
-      </c>
-      <c r="F354" s="1" t="s">
-        <v>2942</v>
-      </c>
-      <c r="G354" s="1" t="s">
-        <v>2581</v>
       </c>
       <c r="H354" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>2866</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="2" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="H355" s="1" t="s">
         <v>2582</v>
       </c>
-      <c r="B355" s="5" t="s">
-        <v>2583</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>2584</v>
-      </c>
-      <c r="E355" s="2" t="s">
-        <v>2585</v>
-      </c>
-      <c r="F355" s="1" t="s">
-        <v>2943</v>
-      </c>
-      <c r="H355" s="1" t="s">
-        <v>2586</v>
-      </c>
       <c r="I355" s="2" t="s">
-        <v>2867</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="356" spans="1:9">
       <c r="A356" s="2" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E356" s="2" t="s">
         <v>2587</v>
       </c>
-      <c r="B356" s="5" t="s">
+      <c r="F356" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="H356" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="C356" s="1" t="s">
-        <v>2589</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>2590</v>
-      </c>
-      <c r="E356" s="2" t="s">
-        <v>2591</v>
-      </c>
-      <c r="F356" s="1" t="s">
-        <v>2944</v>
-      </c>
-      <c r="H356" s="1" t="s">
-        <v>2592</v>
-      </c>
       <c r="I356" s="2" t="s">
-        <v>2868</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="357" spans="1:9">
       <c r="A357" s="2" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>2592</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="G357" s="1" t="s">
         <v>2593</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>3181</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>2594</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>2595</v>
-      </c>
-      <c r="E357" s="2" t="s">
-        <v>2596</v>
-      </c>
-      <c r="F357" s="1" t="s">
-        <v>2945</v>
-      </c>
-      <c r="G357" s="1" t="s">
-        <v>2597</v>
       </c>
       <c r="H357" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>2869</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="358" spans="1:9">
       <c r="A358" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E358" s="2" t="s">
         <v>2598</v>
       </c>
-      <c r="B358" s="5" t="s">
+      <c r="F358" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="G358" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="H358" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="D358" s="1" t="s">
-        <v>2601</v>
-      </c>
-      <c r="E358" s="2" t="s">
-        <v>2602</v>
-      </c>
-      <c r="F358" s="1" t="s">
-        <v>2946</v>
-      </c>
-      <c r="G358" s="1" t="s">
-        <v>2603</v>
-      </c>
-      <c r="H358" s="1" t="s">
-        <v>2604</v>
-      </c>
       <c r="I358" s="2" t="s">
-        <v>2870</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="359" spans="1:9">
       <c r="A359" s="2" t="s">
-        <v>2605</v>
+        <v>2601</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>3180</v>
+        <v>3173</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>2606</v>
+        <v>2602</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
       <c r="E359" s="2"/>
       <c r="F359" s="1" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>2608</v>
+        <v>2604</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>2871</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="360" spans="1:9">
       <c r="A360" s="2" t="s">
-        <v>2610</v>
+        <v>2606</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>2611</v>
+        <v>2607</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>2612</v>
+        <v>2608</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>2613</v>
+        <v>2609</v>
       </c>
       <c r="E360" s="2"/>
       <c r="F360" s="1" t="s">
-        <v>2948</v>
+        <v>2944</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>2614</v>
+        <v>2610</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>2872</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="361" spans="1:9">
       <c r="A361" s="2" t="s">
-        <v>2615</v>
+        <v>2611</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>2616</v>
+        <v>2612</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>2617</v>
+        <v>2613</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>2618</v>
+        <v>2614</v>
       </c>
       <c r="E361" s="2"/>
       <c r="F361" s="1" t="s">
-        <v>2949</v>
+        <v>2945</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>416</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>2873</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="362" spans="1:9">
       <c r="A362" s="2" t="s">
-        <v>2619</v>
+        <v>2615</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>2620</v>
+        <v>2616</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>2621</v>
+        <v>2617</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>2622</v>
+        <v>2618</v>
       </c>
       <c r="E362" s="2"/>
       <c r="F362" s="1" t="s">
-        <v>2950</v>
+        <v>2946</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="363" spans="1:9">
       <c r="A363" s="2" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E363" s="2" t="s">
         <v>2625</v>
       </c>
-      <c r="B363" s="5" t="s">
+      <c r="F363" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="H363" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="C363" s="1" t="s">
-        <v>2627</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>2628</v>
-      </c>
-      <c r="E363" s="2" t="s">
-        <v>2629</v>
-      </c>
-      <c r="F363" s="1" t="s">
-        <v>2951</v>
-      </c>
-      <c r="H363" s="1" t="s">
-        <v>2630</v>
-      </c>
       <c r="I363" s="2" t="s">
-        <v>2875</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="364" spans="1:9">
       <c r="A364" s="2" t="s">
-        <v>2631</v>
+        <v>2627</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>3179</v>
+        <v>3172</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>2632</v>
+        <v>2628</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>2633</v>
+        <v>2629</v>
       </c>
       <c r="E364" s="2"/>
       <c r="F364" s="1" t="s">
-        <v>2952</v>
+        <v>2948</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>2634</v>
+        <v>2630</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>2876</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="365" spans="1:9">
       <c r="A365" s="2" t="s">
-        <v>2635</v>
+        <v>2631</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>3178</v>
+        <v>3171</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>2636</v>
+        <v>2632</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>2637</v>
+        <v>2633</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>2638</v>
+        <v>2634</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>2953</v>
+        <v>2949</v>
       </c>
       <c r="G365" s="7"/>
       <c r="H365" s="1" t="s">
         <v>345</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>2877</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="366" spans="1:9">
       <c r="A366" s="2" t="s">
-        <v>2639</v>
+        <v>2635</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>2640</v>
+        <v>2636</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>2641</v>
+        <v>2637</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>3159</v>
+        <v>3152</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>2642</v>
+        <v>2638</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>2954</v>
+        <v>2950</v>
       </c>
       <c r="G366" s="7" t="s">
-        <v>3160</v>
+        <v>3153</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>3157</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="367" spans="1:9">
       <c r="A367" s="2" t="s">
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>2643</v>
+        <v>2639</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>2644</v>
+        <v>2640</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>3159</v>
+        <v>3152</v>
       </c>
       <c r="E367" s="2"/>
       <c r="F367" s="1" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="G367" s="7" t="s">
-        <v>3160</v>
+        <v>3153</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>2645</v>
+        <v>2641</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>3158</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="368" spans="1:9">
       <c r="A368" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B368" s="10" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="H368" s="1" t="s">
         <v>2646</v>
       </c>
-      <c r="B368" s="10" t="s">
-        <v>3177</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>2648</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>2649</v>
-      </c>
-      <c r="F368" s="1" t="s">
-        <v>2956</v>
-      </c>
-      <c r="H368" s="1" t="s">
-        <v>2650</v>
-      </c>
       <c r="I368" s="1" t="s">
-        <v>3137</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="369" spans="1:9">
       <c r="A369" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="E369" s="2" t="s">
         <v>2651</v>
       </c>
-      <c r="B369" s="5" t="s">
+      <c r="F369" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="H369" s="1" t="s">
         <v>2652</v>
       </c>
-      <c r="C369" s="1" t="s">
-        <v>2653</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>2654</v>
-      </c>
-      <c r="E369" s="2" t="s">
-        <v>2655</v>
-      </c>
-      <c r="F369" s="1" t="s">
-        <v>2957</v>
-      </c>
-      <c r="H369" s="1" t="s">
-        <v>2656</v>
-      </c>
       <c r="I369" s="2" t="s">
-        <v>2878</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="370" spans="1:9">
       <c r="A370" s="2" t="s">
-        <v>2657</v>
+        <v>2653</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>2658</v>
+        <v>2654</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>2659</v>
+        <v>2655</v>
       </c>
       <c r="E370" s="2"/>
       <c r="H370" s="1" t="s">
         <v>527</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>3100</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="371" spans="1:9">
       <c r="A371" s="2" t="s">
-        <v>2660</v>
+        <v>2656</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>3176</v>
+        <v>3169</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>2661</v>
+        <v>2657</v>
       </c>
       <c r="E371" s="2"/>
       <c r="F371" s="1" t="s">
-        <v>2958</v>
+        <v>2954</v>
       </c>
       <c r="H371" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>3101</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="372" spans="1:9">
       <c r="A372" s="1" t="s">
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>3175</v>
+        <v>3168</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>2662</v>
+        <v>2658</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>2663</v>
+        <v>2659</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>2664</v>
+        <v>2660</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>3102</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="373" spans="1:9">
       <c r="A373" s="2" t="s">
-        <v>2665</v>
+        <v>2661</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>3174</v>
+        <v>3167</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>2666</v>
+        <v>2662</v>
       </c>
       <c r="E373" s="2"/>
       <c r="F373" s="1" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>2667</v>
+        <v>2663</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>3102</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="374" spans="1:9">
       <c r="A374" s="2" t="s">
-        <v>2668</v>
+        <v>2664</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>2669</v>
+        <v>2665</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>2670</v>
+        <v>2666</v>
       </c>
       <c r="E374" s="2"/>
       <c r="F374" s="1" t="s">
-        <v>2960</v>
+        <v>2956</v>
       </c>
       <c r="H374" s="1" t="s">
         <v>745</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>3143</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="375" spans="1:9">
       <c r="A375" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="G375" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="B375" s="5" t="s">
-        <v>3173</v>
-      </c>
-      <c r="C375" s="1" t="s">
+      <c r="H375" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="D375" s="1" t="s">
-        <v>2673</v>
-      </c>
-      <c r="E375" s="2" t="s">
-        <v>2674</v>
-      </c>
-      <c r="F375" s="1" t="s">
-        <v>2961</v>
-      </c>
-      <c r="G375" s="1" t="s">
-        <v>2675</v>
-      </c>
-      <c r="H375" s="1" t="s">
-        <v>2676</v>
-      </c>
       <c r="I375" s="2" t="s">
-        <v>3085</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="376" spans="1:9">
       <c r="A376" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="E376" s="2" t="s">
         <v>2677</v>
       </c>
-      <c r="B376" s="5" t="s">
-        <v>2678</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>2679</v>
-      </c>
-      <c r="D376" s="1" t="s">
-        <v>2680</v>
-      </c>
-      <c r="E376" s="2" t="s">
-        <v>2681</v>
-      </c>
       <c r="F376" s="1" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>3145</v>
+        <v>3138</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>3144</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="377" spans="1:9">
       <c r="A377" s="2" t="s">
-        <v>2682</v>
+        <v>2678</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>3172</v>
+        <v>3165</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>2683</v>
+        <v>2679</v>
       </c>
       <c r="E377" s="2"/>
       <c r="F377" s="1" t="s">
-        <v>2963</v>
+        <v>2959</v>
       </c>
       <c r="H377" s="1" t="s">
         <v>409</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>2879</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="378" spans="1:9">
       <c r="A378" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="H378" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="B378" s="5" t="s">
-        <v>3171</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>2685</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>2686</v>
-      </c>
-      <c r="E378" s="2" t="s">
-        <v>2687</v>
-      </c>
-      <c r="F378" s="1" t="s">
-        <v>2964</v>
-      </c>
-      <c r="H378" s="1" t="s">
-        <v>2688</v>
-      </c>
       <c r="I378" s="2" t="s">
-        <v>2880</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="379" spans="1:9">
       <c r="A379" s="2" t="s">
-        <v>2689</v>
+        <v>2685</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>3170</v>
+        <v>3163</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>2690</v>
+        <v>2686</v>
       </c>
       <c r="E379" s="2"/>
       <c r="F379" s="1" t="s">
-        <v>2965</v>
+        <v>2961</v>
       </c>
       <c r="H379" s="1" t="s">
         <v>509</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>3103</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="380" spans="1:9">
       <c r="A380" s="2" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E380" s="2" t="s">
         <v>2691</v>
       </c>
-      <c r="B380" s="5" t="s">
+      <c r="F380" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="H380" s="1" t="s">
         <v>2692</v>
       </c>
-      <c r="C380" s="1" t="s">
-        <v>2693</v>
-      </c>
-      <c r="D380" s="1" t="s">
-        <v>2694</v>
-      </c>
-      <c r="E380" s="2" t="s">
-        <v>2695</v>
-      </c>
-      <c r="F380" s="1" t="s">
-        <v>2966</v>
-      </c>
-      <c r="H380" s="1" t="s">
-        <v>2696</v>
-      </c>
       <c r="I380" s="2" t="s">
-        <v>2881</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="381" spans="1:9">
       <c r="A381" s="2" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>2696</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="G381" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="B381" s="5" t="s">
-        <v>3169</v>
-      </c>
-      <c r="C381" s="1" t="s">
+      <c r="H381" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="D381" s="1" t="s">
-        <v>2699</v>
-      </c>
-      <c r="E381" s="2" t="s">
-        <v>2700</v>
-      </c>
-      <c r="F381" s="1" t="s">
-        <v>2967</v>
-      </c>
-      <c r="G381" s="1" t="s">
-        <v>2701</v>
-      </c>
-      <c r="H381" s="1" t="s">
-        <v>2702</v>
-      </c>
       <c r="I381" s="2" t="s">
-        <v>2882</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="382" spans="1:9">
       <c r="A382" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B382" s="10" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="H382" s="1" t="s">
         <v>2703</v>
       </c>
-      <c r="B382" s="10" t="s">
-        <v>2704</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>2705</v>
-      </c>
-      <c r="D382" s="1" t="s">
-        <v>2706</v>
-      </c>
-      <c r="F382" s="1" t="s">
-        <v>2968</v>
-      </c>
-      <c r="H382" s="1" t="s">
-        <v>2707</v>
-      </c>
       <c r="I382" s="1" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="383" spans="1:9">
       <c r="A383" s="2" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>2707</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="G383" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="B383" s="5" t="s">
-        <v>3027</v>
-      </c>
-      <c r="C383" s="1" t="s">
+      <c r="H383" s="1" t="s">
         <v>2709</v>
       </c>
-      <c r="D383" s="1" t="s">
-        <v>2710</v>
-      </c>
-      <c r="E383" s="2" t="s">
-        <v>2711</v>
-      </c>
-      <c r="F383" s="1" t="s">
-        <v>2969</v>
-      </c>
-      <c r="G383" s="1" t="s">
-        <v>2712</v>
-      </c>
-      <c r="H383" s="1" t="s">
-        <v>2713</v>
-      </c>
       <c r="I383" s="2" t="s">
-        <v>3138</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="384" spans="1:9">
       <c r="A384" s="2" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E384" s="6" t="s">
         <v>2714</v>
       </c>
-      <c r="B384" s="5" t="s">
+      <c r="F384" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="G384" s="1" t="s">
         <v>2715</v>
       </c>
-      <c r="C384" s="1" t="s">
+      <c r="H384" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="D384" s="1" t="s">
-        <v>2717</v>
-      </c>
-      <c r="E384" s="6" t="s">
-        <v>2718</v>
-      </c>
-      <c r="F384" s="1" t="s">
-        <v>2970</v>
-      </c>
-      <c r="G384" s="1" t="s">
-        <v>2719</v>
-      </c>
-      <c r="H384" s="1" t="s">
-        <v>2720</v>
-      </c>
       <c r="I384" s="2" t="s">
-        <v>2884</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="385" spans="1:9">
       <c r="A385" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B385" s="10" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="E385" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="B385" s="10" t="s">
+      <c r="F385" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="G385" s="1" t="s">
         <v>2722</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="H385" s="1" t="s">
         <v>2723</v>
       </c>
-      <c r="D385" s="1" t="s">
-        <v>2724</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>2725</v>
-      </c>
-      <c r="F385" s="1" t="s">
-        <v>2971</v>
-      </c>
-      <c r="G385" s="1" t="s">
-        <v>2726</v>
-      </c>
-      <c r="H385" s="1" t="s">
-        <v>2727</v>
-      </c>
       <c r="I385" s="1" t="s">
-        <v>2885</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="386" spans="1:9">
       <c r="A386" s="2" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E386" s="6" t="s">
+        <v>3002</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="H386" s="1" t="s">
         <v>2728</v>
       </c>
-      <c r="B386" s="5" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>2730</v>
-      </c>
-      <c r="D386" s="1" t="s">
-        <v>2731</v>
-      </c>
-      <c r="E386" s="6" t="s">
-        <v>3006</v>
-      </c>
-      <c r="F386" s="1" t="s">
-        <v>2972</v>
-      </c>
-      <c r="H386" s="1" t="s">
-        <v>2732</v>
-      </c>
       <c r="I386" s="2" t="s">
-        <v>3146</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="387" spans="1:9">
       <c r="A387" s="2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>2732</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="G387" s="1" t="s">
         <v>2733</v>
       </c>
-      <c r="B387" s="5" t="s">
-        <v>3168</v>
-      </c>
-      <c r="C387" s="1" t="s">
+      <c r="H387" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="D387" s="1" t="s">
-        <v>2735</v>
-      </c>
-      <c r="E387" s="2" t="s">
-        <v>2736</v>
-      </c>
-      <c r="F387" s="1" t="s">
-        <v>2973</v>
-      </c>
-      <c r="G387" s="1" t="s">
-        <v>2737</v>
-      </c>
-      <c r="H387" s="1" t="s">
-        <v>2738</v>
-      </c>
       <c r="I387" s="2" t="s">
-        <v>3104</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="388" spans="1:9">
       <c r="A388" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E388" s="6" t="s">
         <v>2739</v>
       </c>
-      <c r="B388" s="5" t="s">
+      <c r="F388" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="G388" s="1" t="s">
         <v>2740</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>2741</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>2742</v>
-      </c>
-      <c r="E388" s="6" t="s">
-        <v>2743</v>
-      </c>
-      <c r="F388" s="1" t="s">
-        <v>2974</v>
-      </c>
-      <c r="G388" s="1" t="s">
-        <v>2744</v>
       </c>
       <c r="H388" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I388" s="2" t="s">
-        <v>2886</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="389" spans="1:9">
       <c r="A389" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>2744</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="H389" s="1" t="s">
         <v>2745</v>
       </c>
-      <c r="B389" s="5" t="s">
-        <v>3026</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>2746</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>2747</v>
-      </c>
-      <c r="E389" s="2" t="s">
-        <v>2748</v>
-      </c>
-      <c r="F389" s="1" t="s">
-        <v>3015</v>
-      </c>
-      <c r="H389" s="1" t="s">
-        <v>2749</v>
-      </c>
       <c r="I389" s="2" t="s">
-        <v>2887</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="390" spans="1:9">
       <c r="A390" s="2" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>3025</v>
+        <v>3021</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>3017</v>
+        <v>3013</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>3018</v>
+        <v>3014</v>
       </c>
       <c r="E390" s="2"/>
       <c r="F390" s="1" t="s">
-        <v>3019</v>
+        <v>3015</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>3020</v>
+        <v>3016</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>3021</v>
+        <v>3017</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>3022</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="391" spans="1:9">
       <c r="A391" s="2" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="G391" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="B391" s="5" t="s">
-        <v>3167</v>
-      </c>
-      <c r="C391" s="1" t="s">
+      <c r="H391" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="D391" s="1" t="s">
-        <v>2752</v>
-      </c>
-      <c r="E391" s="2" t="s">
-        <v>2753</v>
-      </c>
-      <c r="F391" s="1" t="s">
-        <v>2975</v>
-      </c>
-      <c r="G391" s="1" t="s">
-        <v>2754</v>
-      </c>
-      <c r="H391" s="1" t="s">
-        <v>2755</v>
-      </c>
       <c r="I391" s="2" t="s">
-        <v>2888</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="392" spans="1:9">
       <c r="A392" s="2" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="E392" s="2" t="s">
         <v>2756</v>
       </c>
-      <c r="B392" s="5" t="s">
+      <c r="F392" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="H392" s="1" t="s">
         <v>2757</v>
       </c>
-      <c r="C392" s="1" t="s">
-        <v>2758</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>2759</v>
-      </c>
-      <c r="E392" s="2" t="s">
-        <v>2760</v>
-      </c>
-      <c r="F392" s="1" t="s">
-        <v>2976</v>
-      </c>
-      <c r="H392" s="1" t="s">
-        <v>2761</v>
-      </c>
       <c r="I392" s="2" t="s">
-        <v>3147</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="393" spans="1:9">
       <c r="A393" s="2" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>2761</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="G393" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="B393" s="5" t="s">
-        <v>3024</v>
-      </c>
-      <c r="C393" s="1" t="s">
+      <c r="H393" s="1" t="s">
         <v>2763</v>
       </c>
-      <c r="D393" s="1" t="s">
-        <v>2764</v>
-      </c>
-      <c r="E393" s="2" t="s">
-        <v>2765</v>
-      </c>
-      <c r="F393" s="1" t="s">
-        <v>2977</v>
-      </c>
-      <c r="G393" s="1" t="s">
-        <v>2766</v>
-      </c>
-      <c r="H393" s="1" t="s">
-        <v>2767</v>
-      </c>
       <c r="I393" s="2" t="s">
-        <v>2889</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="394" spans="1:9">
       <c r="A394" s="2" t="s">
-        <v>2768</v>
+        <v>2764</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>2769</v>
+        <v>2765</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>2770</v>
+        <v>2766</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>3161</v>
+        <v>3154</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>2771</v>
+        <v>2767</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>2978</v>
+        <v>2974</v>
       </c>
       <c r="H394" s="1" t="s">
         <v>1096</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>2890</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="395" spans="1:9">
       <c r="A395" s="2" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>2771</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="H395" s="1" t="s">
         <v>2772</v>
       </c>
-      <c r="B395" s="5" t="s">
-        <v>3007</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>2773</v>
-      </c>
-      <c r="D395" s="1" t="s">
-        <v>2774</v>
-      </c>
-      <c r="E395" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="F395" s="1" t="s">
-        <v>2979</v>
-      </c>
-      <c r="H395" s="1" t="s">
-        <v>2776</v>
-      </c>
       <c r="I395" s="2" t="s">
-        <v>2891</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="396" spans="1:9">
       <c r="A396" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="E396" s="2" t="s">
         <v>2777</v>
       </c>
-      <c r="B396" s="5" t="s">
+      <c r="F396" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="H396" s="1" t="s">
         <v>2778</v>
       </c>
-      <c r="C396" s="1" t="s">
-        <v>2779</v>
-      </c>
-      <c r="D396" s="1" t="s">
-        <v>2780</v>
-      </c>
-      <c r="E396" s="2" t="s">
-        <v>2781</v>
-      </c>
-      <c r="F396" s="1" t="s">
-        <v>2980</v>
-      </c>
-      <c r="H396" s="1" t="s">
-        <v>2782</v>
-      </c>
       <c r="I396" s="2" t="s">
-        <v>2892</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="397" spans="1:9">
       <c r="A397" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="H397" s="1" t="s">
         <v>2783</v>
       </c>
-      <c r="B397" s="10" t="s">
-        <v>2784</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>2785</v>
-      </c>
-      <c r="F397" s="1" t="s">
-        <v>2981</v>
-      </c>
-      <c r="G397" s="1" t="s">
-        <v>2786</v>
-      </c>
-      <c r="H397" s="1" t="s">
-        <v>2787</v>
-      </c>
       <c r="I397" s="1" t="s">
-        <v>3081</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="398" spans="1:9">
       <c r="A398" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B398" s="10" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="H398" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="B398" s="10" t="s">
-        <v>3166</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>2789</v>
-      </c>
-      <c r="D398" s="1" t="s">
-        <v>2790</v>
-      </c>
-      <c r="G398" s="1" t="s">
-        <v>2791</v>
-      </c>
-      <c r="H398" s="1" t="s">
-        <v>2792</v>
-      </c>
       <c r="I398" s="1" t="s">
-        <v>2893</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="399" spans="1:9">
       <c r="A399" s="1" t="s">
-        <v>2793</v>
+        <v>2789</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>3165</v>
+        <v>3158</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
       <c r="H399" s="1" t="s">
-        <v>2796</v>
+        <v>2792</v>
       </c>
       <c r="I399" s="1" t="s">
-        <v>3105</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="400" spans="1:9">
       <c r="A400" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B400" s="10" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D400" s="6" t="s">
+        <v>3155</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="H400" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="B400" s="10" t="s">
-        <v>2798</v>
-      </c>
-      <c r="D400" s="6" t="s">
-        <v>3162</v>
-      </c>
-      <c r="E400" s="1" t="s">
-        <v>2799</v>
-      </c>
-      <c r="F400" s="1" t="s">
-        <v>2982</v>
-      </c>
-      <c r="G400" s="1" t="s">
-        <v>2800</v>
-      </c>
-      <c r="H400" s="1" t="s">
-        <v>2801</v>
-      </c>
       <c r="I400" s="1" t="s">
-        <v>3088</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="401" spans="1:10">
       <c r="A401" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B401" s="10" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E401" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="B401" s="10" t="s">
+      <c r="F401" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="H401" s="1" t="s">
         <v>2803</v>
       </c>
-      <c r="C401" s="1" t="s">
-        <v>2804</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>2805</v>
-      </c>
-      <c r="E401" s="1" t="s">
-        <v>2806</v>
-      </c>
-      <c r="F401" s="1" t="s">
-        <v>2983</v>
-      </c>
-      <c r="H401" s="1" t="s">
-        <v>2807</v>
-      </c>
       <c r="I401" s="1" t="s">
-        <v>3139</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="402" spans="1:10">
       <c r="A402" s="1" t="s">
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="B402" s="10" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="H402" s="1" t="s">
         <v>2808</v>
       </c>
-      <c r="C402" s="1" t="s">
-        <v>2809</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>2810</v>
-      </c>
-      <c r="F402" s="1" t="s">
-        <v>2984</v>
-      </c>
-      <c r="G402" s="1" t="s">
-        <v>2811</v>
-      </c>
-      <c r="H402" s="1" t="s">
-        <v>2812</v>
-      </c>
       <c r="I402" s="1" t="s">
-        <v>2894</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="403" spans="1:10">
       <c r="A403" s="1" t="s">
-        <v>2813</v>
+        <v>2809</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>2810</v>
+        <v>2806</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>2985</v>
+        <v>2981</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>2811</v>
+        <v>2807</v>
       </c>
       <c r="H403" s="1" t="s">
         <v>481</v>
       </c>
       <c r="I403" s="1" t="s">
-        <v>2895</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="404" spans="1:10">
       <c r="A404" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B404" s="10" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D404" s="6" t="s">
+        <v>3156</v>
+      </c>
+      <c r="E404" s="6" t="s">
+        <v>2814</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="G404" s="1" t="s">
         <v>2815</v>
       </c>
-      <c r="B404" s="10" t="s">
+      <c r="H404" s="1" t="s">
         <v>2816</v>
       </c>
-      <c r="C404" s="1" t="s">
-        <v>2817</v>
-      </c>
-      <c r="D404" s="6" t="s">
-        <v>3163</v>
-      </c>
-      <c r="E404" s="6" t="s">
-        <v>2818</v>
-      </c>
-      <c r="F404" s="1" t="s">
-        <v>2986</v>
-      </c>
-      <c r="G404" s="1" t="s">
-        <v>2819</v>
-      </c>
-      <c r="H404" s="1" t="s">
-        <v>2820</v>
-      </c>
       <c r="I404" s="1" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="405" spans="1:10">
       <c r="A405" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B405" s="10" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="E405" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="B405" s="10" t="s">
-        <v>2822</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>2823</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>2824</v>
-      </c>
-      <c r="E405" s="1" t="s">
-        <v>2825</v>
-      </c>
       <c r="F405" s="1" t="s">
-        <v>2987</v>
+        <v>2983</v>
       </c>
       <c r="I405" s="1" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="J405" s="2"/>
     </row>
     <row r="406" spans="1:10">
       <c r="A406" s="1" t="s">
-        <v>2826</v>
+        <v>2822</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>2827</v>
+        <v>2823</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>2828</v>
+        <v>2824</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>2988</v>
+        <v>2984</v>
       </c>
       <c r="H406" s="1" t="s">
-        <v>2829</v>
+        <v>2825</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>3106</v>
+        <v>3099</v>
       </c>
       <c r="J406" s="2"/>
     </row>
     <row r="407" spans="1:10">
       <c r="A407" s="1" t="s">
-        <v>2830</v>
+        <v>2826</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>3164</v>
+        <v>3157</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>2831</v>
+        <v>2827</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>2832</v>
+        <v>2828</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>2989</v>
+        <v>2985</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>2833</v>
+        <v>2829</v>
       </c>
       <c r="H407" s="1" t="s">
         <v>768</v>
       </c>
       <c r="I407" s="1" t="s">
-        <v>2898</v>
+        <v>2894</v>
       </c>
       <c r="J407" s="2"/>
     </row>

--- a/bookDB2.xlsx
+++ b/bookDB2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sme13\OneDrive\바탕 화면\dev\real-dnb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36388DA4-7831-4327-BB13-FF4DFAF43E3B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6D87B9-481A-417C-B3F4-9FC81B9FBE3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{509E9B0D-9459-46C0-BD3F-1330B5019B57}"/>
   </bookViews>
@@ -5524,9 +5524,6 @@
     <t>대구시 달서구 선원로37남길 13-10 (이곡동) 1층</t>
   </si>
   <si>
-    <t>대구시 북구 호암로 40 (칠성동2가, 삼성아파트)</t>
-  </si>
-  <si>
     <t>대구시 서구 고성로 132-2 (원대동1가)</t>
   </si>
   <si>
@@ -5732,9 +5729,6 @@
     <t>서울시 마포구 양화로6길 57-6 (서교동)</t>
   </si>
   <si>
-    <t>서울시 마포구 연남로 61-1 (연남동 ) 1층</t>
-  </si>
-  <si>
     <t>서울시 마포구 연남로11길 34 (연남동) 지하1층</t>
   </si>
   <si>
@@ -8232,9 +8226,6 @@
     <t>책벌레</t>
   </si>
   <si>
-    <t>대구시 수성구 교학로11길 46 (만촌동, 만촌1차우방아파트상가) 2층</t>
-  </si>
-  <si>
     <t>053-793-3347</t>
   </si>
   <si>
@@ -9807,15 +9798,9 @@
     <t>전남 목포시 동부로 4 (용당동) 2층</t>
   </si>
   <si>
-    <t xml:space="preserve">전북 전주시 완산구 풍남문2길 53 (전동, 남부시장) 2층 청년몰 </t>
-  </si>
-  <si>
     <t>전남 순천시 역전2길 10 (조곡동)</t>
   </si>
   <si>
-    <t>전남 순천시 오천1길 20 (오천동, 진아리채파크원) 상가동 105호</t>
-  </si>
-  <si>
     <t>경북 경주시 중앙로 39-2 (노동동)</t>
   </si>
   <si>
@@ -9915,9 +9900,6 @@
     <t>전북 군산시 구영5길 21-26 (월명동)</t>
   </si>
   <si>
-    <t>충남 천안시 동남구 작은재빼기길 5-27  (대흥동)</t>
-  </si>
-  <si>
     <t>충남 금산군 금산읍 금산천길 98 (금산읍) 금산시장 청년몰</t>
   </si>
   <si>
@@ -10319,10 +10301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경기도 고양시 일산동구 무궁화로 8-28 (장항동, 삼성메르헨하우스) 1층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부산시 부산진구 서전로37번길 26 (전포동) 1-2층</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -10400,6 +10378,34 @@
   </si>
   <si>
     <t>서울시 마포구 와우산로 61-1 (서교동) 3층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 마포구 연남로 61-1 (연남동) 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남 천안시 동남구 작은재빼기길 5-27 (대흥동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구시 북구 호암로 40 (칠성동2가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 고양시 일산동구 무궁화로 8-28 (장항동) 삼성메르헨하우스 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남 순천시 오천1길 20 (오천동) 진아리채파크원 상가동 105호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 전주시 완산구 풍남문2길 53 (전동) 남부시장 2층 청년몰 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구시 수성구 교학로11길 46 (만촌동) 만촌1차우방아파트상가 2층</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10838,7 +10844,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10890,7 +10896,7 @@
         <v>1984</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -10899,7 +10905,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -10911,7 +10917,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10919,7 +10925,7 @@
         <v>1729</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1730</v>
@@ -10937,39 +10943,39 @@
         <v>1734</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2007</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>2009</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2008</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2157</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2158</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>2010</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>2011</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>2012</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>3107</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10977,13 +10983,13 @@
         <v>1735</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3202</v>
+        <v>3195</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1736</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>1752</v>
@@ -10998,7 +11004,7 @@
         <v>1738</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11006,7 +11012,7 @@
         <v>1740</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1744</v>
@@ -11022,7 +11028,7 @@
         <v>1750</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>3108</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11030,7 +11036,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3079</v>
+        <v>3073</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -11039,7 +11045,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>3110</v>
+        <v>3104</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
@@ -11048,7 +11054,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11056,7 +11062,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -11077,7 +11083,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11085,7 +11091,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3078</v>
+        <v>3072</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -11103,7 +11109,7 @@
         <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11132,7 +11138,7 @@
         <v>45</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11140,7 +11146,7 @@
         <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>47</v>
@@ -11158,7 +11164,7 @@
         <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11166,7 +11172,7 @@
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>53</v>
@@ -11187,7 +11193,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11195,7 +11201,7 @@
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>60</v>
@@ -11216,7 +11222,7 @@
         <v>65</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11239,7 +11245,7 @@
         <v>70</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11268,7 +11274,7 @@
         <v>78</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>3106</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11294,7 +11300,7 @@
         <v>84</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11302,7 +11308,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>86</v>
@@ -11323,7 +11329,7 @@
         <v>1023</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11331,7 +11337,7 @@
         <v>91</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3077</v>
+        <v>3071</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>92</v>
@@ -11343,10 +11349,10 @@
         <v>94</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11372,7 +11378,7 @@
         <v>105</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -11380,7 +11386,7 @@
         <v>96</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>97</v>
@@ -11401,7 +11407,7 @@
         <v>102</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -11415,7 +11421,7 @@
         <v>108</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>3112</v>
+        <v>3106</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>109</v>
@@ -11424,7 +11430,7 @@
         <v>110</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>3109</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -11432,7 +11438,7 @@
         <v>111</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3076</v>
+        <v>3070</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>112</v>
@@ -11453,7 +11459,7 @@
         <v>117</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -11461,7 +11467,7 @@
         <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>119</v>
@@ -11482,7 +11488,7 @@
         <v>124</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -11490,7 +11496,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3075</v>
+        <v>3069</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>126</v>
@@ -11505,7 +11511,7 @@
         <v>129</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -11525,7 +11531,7 @@
         <v>1696</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -11533,7 +11539,7 @@
         <v>130</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>131</v>
@@ -11554,7 +11560,7 @@
         <v>136</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -11562,7 +11568,7 @@
         <v>137</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>138</v>
@@ -11583,7 +11589,7 @@
         <v>143</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -11591,7 +11597,7 @@
         <v>144</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>145</v>
@@ -11612,7 +11618,7 @@
         <v>150</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>3111</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -11620,7 +11626,7 @@
         <v>211</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>212</v>
@@ -11638,15 +11644,15 @@
         <v>1024</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>151</v>
@@ -11658,7 +11664,7 @@
         <v>153</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -11666,7 +11672,7 @@
         <v>1670</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1671</v>
@@ -11684,7 +11690,7 @@
         <v>1675</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -11692,7 +11698,7 @@
         <v>154</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>155</v>
@@ -11713,7 +11719,7 @@
         <v>160</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -11721,7 +11727,7 @@
         <v>161</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>162</v>
@@ -11742,7 +11748,7 @@
         <v>167</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -11768,7 +11774,7 @@
         <v>174</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -11776,13 +11782,13 @@
         <v>175</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>177</v>
@@ -11791,7 +11797,7 @@
         <v>178</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -11799,7 +11805,7 @@
         <v>179</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3074</v>
+        <v>3068</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>180</v>
@@ -11817,7 +11823,7 @@
         <v>184</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -11840,7 +11846,7 @@
         <v>190</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -11848,7 +11854,7 @@
         <v>191</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1833</v>
+        <v>3196</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>192</v>
@@ -11863,13 +11869,13 @@
         <v>195</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>196</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -11877,13 +11883,13 @@
         <v>197</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>199</v>
@@ -11898,7 +11904,7 @@
         <v>202</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -11906,7 +11912,7 @@
         <v>203</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>204</v>
@@ -11924,7 +11930,7 @@
         <v>208</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -11932,7 +11938,7 @@
         <v>209</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>210</v>
@@ -11947,15 +11953,15 @@
         <v>208</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>216</v>
@@ -11976,7 +11982,7 @@
         <v>221</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -11984,7 +11990,7 @@
         <v>223</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3073</v>
+        <v>3067</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>224</v>
@@ -12002,7 +12008,7 @@
         <v>78</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -12010,7 +12016,7 @@
         <v>228</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>229</v>
@@ -12022,7 +12028,7 @@
         <v>231</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -12051,7 +12057,7 @@
         <v>239</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -12059,7 +12065,7 @@
         <v>1751</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1742</v>
@@ -12072,13 +12078,13 @@
         <v>1747</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>1749</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -12101,7 +12107,7 @@
         <v>244</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -12109,7 +12115,7 @@
         <v>245</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>246</v>
@@ -12118,7 +12124,7 @@
         <v>247</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>3113</v>
+        <v>3107</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>248</v>
@@ -12130,7 +12136,7 @@
         <v>250</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -12138,7 +12144,7 @@
         <v>256</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>252</v>
@@ -12150,13 +12156,13 @@
         <v>254</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>257</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -12173,19 +12179,19 @@
         <v>253</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>3114</v>
+        <v>3108</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>254</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -12193,7 +12199,7 @@
         <v>258</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3072</v>
+        <v>3066</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>259</v>
@@ -12202,19 +12208,19 @@
         <v>260</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>3115</v>
+        <v>3109</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>261</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -12240,7 +12246,7 @@
         <v>269</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -12248,7 +12254,7 @@
         <v>270</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>271</v>
@@ -12269,7 +12275,7 @@
         <v>276</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -12298,7 +12304,7 @@
         <v>283</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -12306,7 +12312,7 @@
         <v>284</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>285</v>
@@ -12324,7 +12330,7 @@
         <v>289</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -12332,7 +12338,7 @@
         <v>1644</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>1645</v>
@@ -12353,7 +12359,7 @@
         <v>1650</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -12361,7 +12367,7 @@
         <v>290</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>291</v>
@@ -12382,7 +12388,7 @@
         <v>296</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -12390,7 +12396,7 @@
         <v>297</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>298</v>
@@ -12399,16 +12405,16 @@
         <v>299</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>3116</v>
+        <v>3110</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>300</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -12416,7 +12422,7 @@
         <v>301</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>302</v>
@@ -12434,7 +12440,7 @@
         <v>306</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -12442,7 +12448,7 @@
         <v>307</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>308</v>
@@ -12457,10 +12463,10 @@
         <v>311</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -12468,7 +12474,7 @@
         <v>312</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>313</v>
@@ -12489,7 +12495,7 @@
         <v>318</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -12497,25 +12503,25 @@
         <v>319</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>320</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>321</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>322</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -12523,7 +12529,7 @@
         <v>323</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>324</v>
@@ -12544,7 +12550,7 @@
         <v>329</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -12567,13 +12573,13 @@
         <v>334</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -12581,7 +12587,7 @@
         <v>342</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>343</v>
@@ -12602,7 +12608,7 @@
         <v>345</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -12610,7 +12616,7 @@
         <v>335</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>336</v>
@@ -12631,7 +12637,7 @@
         <v>341</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -12657,7 +12663,7 @@
         <v>352</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -12665,7 +12671,7 @@
         <v>353</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>354</v>
@@ -12674,7 +12680,7 @@
         <v>355</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>356</v>
@@ -12683,7 +12689,7 @@
         <v>357</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -12691,7 +12697,7 @@
         <v>358</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>359</v>
@@ -12709,7 +12715,7 @@
         <v>363</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -12717,7 +12723,7 @@
         <v>364</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3071</v>
+        <v>3065</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>365</v>
@@ -12738,7 +12744,7 @@
         <v>370</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -12746,7 +12752,7 @@
         <v>371</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3070</v>
+        <v>3064</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>372</v>
@@ -12767,7 +12773,7 @@
         <v>377</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -12775,7 +12781,7 @@
         <v>378</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>379</v>
@@ -12793,7 +12799,7 @@
         <v>289</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -12801,7 +12807,7 @@
         <v>383</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>384</v>
@@ -12822,7 +12828,7 @@
         <v>389</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -12830,7 +12836,7 @@
         <v>390</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>391</v>
@@ -12851,7 +12857,7 @@
         <v>396</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -12859,7 +12865,7 @@
         <v>397</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>398</v>
@@ -12877,7 +12883,7 @@
         <v>402</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -12885,7 +12891,7 @@
         <v>403</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>404</v>
@@ -12906,7 +12912,7 @@
         <v>409</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -12914,7 +12920,7 @@
         <v>410</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>411</v>
@@ -12935,7 +12941,7 @@
         <v>416</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -12943,7 +12949,7 @@
         <v>417</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>418</v>
@@ -12964,7 +12970,7 @@
         <v>423</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -12972,7 +12978,7 @@
         <v>424</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>3069</v>
+        <v>3063</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>425</v>
@@ -12981,19 +12987,19 @@
         <v>426</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>3081</v>
+        <v>3075</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>428</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -13001,13 +13007,13 @@
         <v>429</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>430</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>431</v>
@@ -13016,13 +13022,13 @@
         <v>432</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>433</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -13030,7 +13036,7 @@
         <v>1683</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>1684</v>
@@ -13051,7 +13057,7 @@
         <v>1689</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -13059,7 +13065,7 @@
         <v>1690</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>1691</v>
@@ -13077,7 +13083,7 @@
         <v>1692</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -13085,7 +13091,7 @@
         <v>434</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>435</v>
@@ -13103,7 +13109,7 @@
         <v>439</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -13111,13 +13117,13 @@
         <v>440</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>441</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>442</v>
@@ -13126,36 +13132,36 @@
         <v>443</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>444</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>2129</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="D85" s="6" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>2130</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>2131</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>2153</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>2132</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>2133</v>
-      </c>
       <c r="I85" s="1" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -13163,7 +13169,7 @@
         <v>445</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>3068</v>
+        <v>3062</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>446</v>
@@ -13181,7 +13187,7 @@
         <v>450</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -13189,7 +13195,7 @@
         <v>451</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>452</v>
@@ -13207,7 +13213,7 @@
         <v>456</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -13215,7 +13221,7 @@
         <v>457</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>458</v>
@@ -13224,7 +13230,7 @@
         <v>459</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>3117</v>
+        <v>3111</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>460</v>
@@ -13233,7 +13239,7 @@
         <v>461</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -13241,7 +13247,7 @@
         <v>462</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3067</v>
+        <v>3061</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>463</v>
@@ -13253,13 +13259,13 @@
         <v>465</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>466</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -13276,19 +13282,19 @@
         <v>469</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>3082</v>
+        <v>3076</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>470</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>471</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -13311,7 +13317,7 @@
         <v>476</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -13319,13 +13325,13 @@
         <v>477</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3066</v>
+        <v>3060</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>478</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>479</v>
@@ -13337,7 +13343,7 @@
         <v>481</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -13345,7 +13351,7 @@
         <v>488</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>489</v>
@@ -13354,19 +13360,19 @@
         <v>490</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>491</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="H93" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>1993</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>1995</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -13374,7 +13380,7 @@
         <v>492</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>493</v>
@@ -13392,7 +13398,7 @@
         <v>497</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -13400,7 +13406,7 @@
         <v>498</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>499</v>
@@ -13415,13 +13421,13 @@
         <v>502</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>357</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -13429,7 +13435,7 @@
         <v>503</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>504</v>
@@ -13450,7 +13456,7 @@
         <v>509</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -13458,7 +13464,7 @@
         <v>510</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>511</v>
@@ -13467,7 +13473,7 @@
         <v>512</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>513</v>
@@ -13479,7 +13485,7 @@
         <v>515</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -13502,7 +13508,7 @@
         <v>521</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -13510,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>1</v>
@@ -13531,7 +13537,7 @@
         <v>6</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -13539,7 +13545,7 @@
         <v>522</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>523</v>
@@ -13557,7 +13563,7 @@
         <v>527</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -13583,7 +13589,7 @@
         <v>533</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -13591,7 +13597,7 @@
         <v>1719</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>1720</v>
@@ -13612,7 +13618,7 @@
         <v>1725</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -13641,7 +13647,7 @@
         <v>540</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -13670,7 +13676,7 @@
         <v>548</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -13678,7 +13684,7 @@
         <v>1042</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>3065</v>
+        <v>3197</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>1043</v>
@@ -13691,7 +13697,7 @@
         <v>1045</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -13699,7 +13705,7 @@
         <v>1046</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>3064</v>
+        <v>3059</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>1047</v>
@@ -13714,7 +13720,7 @@
         <v>1050</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -13722,7 +13728,7 @@
         <v>1051</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>1052</v>
@@ -13741,32 +13747,32 @@
         <v>1056</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>1960</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>1961</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>1962</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="2"/>
       <c r="F108" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>1963</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>1964</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>1965</v>
-      </c>
       <c r="I108" s="2" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -13774,7 +13780,7 @@
         <v>1057</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>3063</v>
+        <v>3058</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>1058</v>
@@ -13795,7 +13801,7 @@
         <v>1063</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -13803,7 +13809,7 @@
         <v>1064</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>1065</v>
@@ -13821,7 +13827,7 @@
         <v>1069</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -13829,7 +13835,7 @@
         <v>1070</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>1071</v>
@@ -13838,7 +13844,7 @@
         <v>1072</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>3118</v>
+        <v>3112</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>1073</v>
@@ -13850,7 +13856,7 @@
         <v>1075</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -13858,7 +13864,7 @@
         <v>1076</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>1077</v>
@@ -13877,7 +13883,7 @@
         <v>1081</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -13885,7 +13891,7 @@
         <v>1697</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1698</v>
@@ -13903,7 +13909,7 @@
         <v>1702</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -13911,7 +13917,7 @@
         <v>1082</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>3062</v>
+        <v>3057</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>1083</v>
@@ -13923,7 +13929,7 @@
         <v>1085</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -13931,7 +13937,7 @@
         <v>1665</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1666</v>
@@ -13946,7 +13952,7 @@
         <v>1669</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -13954,7 +13960,7 @@
         <v>1086</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>1087</v>
@@ -13972,7 +13978,7 @@
         <v>1091</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -13980,7 +13986,7 @@
         <v>1092</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>1093</v>
@@ -13995,7 +14001,7 @@
         <v>1096</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>3085</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -14003,7 +14009,7 @@
         <v>1097</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>1098</v>
@@ -14012,7 +14018,7 @@
         <v>1099</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>1100</v>
@@ -14024,7 +14030,7 @@
         <v>1102</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -14032,7 +14038,7 @@
         <v>482</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>3061</v>
+        <v>3056</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>483</v>
@@ -14050,7 +14056,7 @@
         <v>487</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -14058,16 +14064,16 @@
         <v>1726</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>3124</v>
+        <v>3118</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>3123</v>
+        <v>3117</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>1727</v>
@@ -14076,10 +14082,10 @@
         <v>1728</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -14087,7 +14093,7 @@
         <v>1103</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>1104</v>
@@ -14102,7 +14108,7 @@
         <v>1107</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -14128,7 +14134,7 @@
         <v>1114</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -14136,7 +14142,7 @@
         <v>1115</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>3060</v>
+        <v>3055</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1116</v>
@@ -14157,7 +14163,7 @@
         <v>1121</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -14165,7 +14171,7 @@
         <v>1122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>1123</v>
@@ -14184,7 +14190,7 @@
         <v>521</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -14192,7 +14198,7 @@
         <v>1127</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>1128</v>
@@ -14207,7 +14213,7 @@
         <v>1131</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -14215,7 +14221,7 @@
         <v>1132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>1133</v>
@@ -14226,10 +14232,10 @@
         <v>1134</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -14237,13 +14243,13 @@
         <v>1135</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>1136</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>3119</v>
+        <v>3113</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>1137</v>
@@ -14252,7 +14258,7 @@
         <v>1138</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -14279,7 +14285,7 @@
         <v>1145</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -14287,7 +14293,7 @@
         <v>1146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>1147</v>
@@ -14308,7 +14314,7 @@
         <v>1152</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -14316,7 +14322,7 @@
         <v>1153</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>1154</v>
@@ -14337,7 +14343,7 @@
         <v>1159</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -14345,7 +14351,7 @@
         <v>1160</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>1161</v>
@@ -14363,10 +14369,10 @@
         <v>1165</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -14374,7 +14380,7 @@
         <v>1173</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>1174</v>
@@ -14392,7 +14398,7 @@
         <v>1178</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -14400,7 +14406,7 @@
         <v>1179</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>1180</v>
@@ -14413,10 +14419,10 @@
         <v>1182</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -14424,7 +14430,7 @@
         <v>1183</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>1184</v>
@@ -14443,7 +14449,7 @@
         <v>1188</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -14451,7 +14457,7 @@
         <v>1189</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>1190</v>
@@ -14461,18 +14467,18 @@
         <v>1191</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="2" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>3059</v>
+        <v>3054</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>1192</v>
@@ -14490,7 +14496,7 @@
         <v>1196</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -14498,7 +14504,7 @@
         <v>1197</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>1198</v>
@@ -14516,7 +14522,7 @@
         <v>1202</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -14524,7 +14530,7 @@
         <v>1203</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>1204</v>
@@ -14545,15 +14551,15 @@
         <v>1209</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="2" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>1210</v>
@@ -14574,7 +14580,7 @@
         <v>1215</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -14582,7 +14588,7 @@
         <v>1216</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>1217</v>
@@ -14597,13 +14603,13 @@
         <v>1220</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>1221</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -14611,7 +14617,7 @@
         <v>1222</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>3058</v>
+        <v>3053</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1223</v>
@@ -14632,7 +14638,7 @@
         <v>1228</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -14640,7 +14646,7 @@
         <v>1229</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>1230</v>
@@ -14655,10 +14661,10 @@
         <v>1233</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -14666,13 +14672,13 @@
         <v>1234</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>1236</v>
@@ -14687,7 +14693,7 @@
         <v>1239</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -14695,7 +14701,7 @@
         <v>1240</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>1241</v>
@@ -14713,7 +14719,7 @@
         <v>289</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>3094</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -14721,7 +14727,7 @@
         <v>1245</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>1246</v>
@@ -14740,7 +14746,7 @@
         <v>1250</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -14748,7 +14754,7 @@
         <v>1251</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>1252</v>
@@ -14763,15 +14769,15 @@
         <v>184</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="2" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>1255</v>
@@ -14790,7 +14796,7 @@
         <v>1259</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -14798,7 +14804,7 @@
         <v>1260</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>1261</v>
@@ -14819,7 +14825,7 @@
         <v>1266</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -14827,7 +14833,7 @@
         <v>1267</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>1268</v>
@@ -14836,7 +14842,7 @@
         <v>1269</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>1270</v>
@@ -14845,7 +14851,7 @@
         <v>1271</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -14853,7 +14859,7 @@
         <v>1272</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>1273</v>
@@ -14872,7 +14878,7 @@
         <v>1277</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -14901,7 +14907,7 @@
         <v>1285</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -14927,7 +14933,7 @@
         <v>1292</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -14953,7 +14959,7 @@
         <v>618</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -14961,7 +14967,7 @@
         <v>1299</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>1300</v>
@@ -14971,13 +14977,13 @@
       </c>
       <c r="E154" s="2"/>
       <c r="G154" s="6" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>1302</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -14985,7 +14991,7 @@
         <v>1303</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>1304</v>
@@ -15006,7 +15012,7 @@
         <v>1309</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -15032,7 +15038,7 @@
         <v>1316</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -15061,7 +15067,7 @@
         <v>1324</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -15090,7 +15096,7 @@
         <v>1332</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -15098,7 +15104,7 @@
         <v>1333</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>1334</v>
@@ -15117,7 +15123,7 @@
         <v>1338</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -15125,7 +15131,7 @@
         <v>1339</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>1340</v>
@@ -15144,7 +15150,7 @@
         <v>1344</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -15152,7 +15158,7 @@
         <v>1345</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>3057</v>
+        <v>3052</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>1346</v>
@@ -15170,7 +15176,7 @@
         <v>1350</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -15178,7 +15184,7 @@
         <v>1351</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>1352</v>
@@ -15193,13 +15199,13 @@
         <v>1355</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>1356</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -15207,7 +15213,7 @@
         <v>1357</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>1358</v>
@@ -15228,7 +15234,7 @@
         <v>1363</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -15236,7 +15242,7 @@
         <v>1364</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>1365</v>
@@ -15257,7 +15263,7 @@
         <v>1324</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -15265,7 +15271,7 @@
         <v>1370</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>1371</v>
@@ -15280,30 +15286,30 @@
         <v>1374</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>2134</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>2154</v>
-      </c>
-      <c r="C166" s="1" t="s">
+      <c r="F166" s="1" t="s">
         <v>2135</v>
       </c>
-      <c r="D166" s="6" t="s">
-        <v>2136</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>2137</v>
-      </c>
       <c r="H166" s="1" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -15317,7 +15323,7 @@
         <v>1424</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>3125</v>
+        <v>3119</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>1425</v>
@@ -15326,7 +15332,7 @@
         <v>1426</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="J167" s="2"/>
     </row>
@@ -15335,16 +15341,16 @@
         <v>673</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>3198</v>
+        <v>3191</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>674</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>3147</v>
+        <v>3141</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>675</v>
@@ -15356,7 +15362,7 @@
         <v>677</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -15364,7 +15370,7 @@
         <v>1375</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>1376</v>
@@ -15385,7 +15391,7 @@
         <v>1381</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -15393,7 +15399,7 @@
         <v>1382</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>1383</v>
@@ -15414,7 +15420,7 @@
         <v>423</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -15422,7 +15428,7 @@
         <v>1388</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>1389</v>
@@ -15443,7 +15449,7 @@
         <v>1394</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -15451,7 +15457,7 @@
         <v>1395</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>3056</v>
+        <v>3051</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>1396</v>
@@ -15460,13 +15466,13 @@
         <v>1397</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>1398</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>3093</v>
+        <v>3087</v>
       </c>
       <c r="J172" s="2"/>
     </row>
@@ -15475,7 +15481,7 @@
         <v>1399</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>1400</v>
@@ -15490,7 +15496,7 @@
         <v>1403</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -15519,7 +15525,7 @@
         <v>1411</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -15527,7 +15533,7 @@
         <v>1412</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>1413</v>
@@ -15548,7 +15554,7 @@
         <v>1418</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -15556,7 +15562,7 @@
         <v>1419</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>3055</v>
+        <v>3050</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>1420</v>
@@ -15569,7 +15575,7 @@
         <v>1422</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -15577,7 +15583,7 @@
         <v>1427</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>1428</v>
@@ -15598,7 +15604,7 @@
         <v>1433</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="J177" s="2"/>
     </row>
@@ -15607,7 +15613,7 @@
         <v>1434</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>3054</v>
+        <v>3049</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>1435</v>
@@ -15628,7 +15634,7 @@
         <v>1440</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>3090</v>
+        <v>3084</v>
       </c>
       <c r="J178" s="2"/>
     </row>
@@ -15637,7 +15643,7 @@
         <v>1441</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>3197</v>
+        <v>3190</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>1442</v>
@@ -15658,13 +15664,13 @@
         <v>1447</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="2" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>1448</v>
@@ -15688,7 +15694,7 @@
         <v>1454</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -15696,7 +15702,7 @@
         <v>1455</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>1456</v>
@@ -15714,10 +15720,10 @@
         <v>1460</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="J181" s="2"/>
     </row>
@@ -15726,7 +15732,7 @@
         <v>1461</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>3053</v>
+        <v>3048</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>1462</v>
@@ -15744,7 +15750,7 @@
         <v>262</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -15752,7 +15758,7 @@
         <v>1466</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>1467</v>
@@ -15762,7 +15768,7 @@
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="1" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>1469</v>
@@ -15771,7 +15777,7 @@
         <v>1470</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -15795,7 +15801,7 @@
         <v>1476</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>3095</v>
+        <v>3089</v>
       </c>
       <c r="J184" s="2"/>
     </row>
@@ -15804,7 +15810,7 @@
         <v>1477</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>3052</v>
+        <v>3047</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>1478</v>
@@ -15819,7 +15825,7 @@
         <v>1481</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -15846,10 +15852,10 @@
         <v>1488</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -15857,7 +15863,7 @@
         <v>1489</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>1490</v>
@@ -15875,7 +15881,7 @@
         <v>1494</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -15883,7 +15889,7 @@
         <v>1495</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>3051</v>
+        <v>3046</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>1496</v>
@@ -15893,13 +15899,13 @@
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="1" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>1498</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="J188" s="2"/>
     </row>
@@ -15908,7 +15914,7 @@
         <v>1499</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>1500</v>
@@ -15929,7 +15935,7 @@
         <v>1505</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -15937,7 +15943,7 @@
         <v>1506</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>1507</v>
@@ -15958,7 +15964,7 @@
         <v>1512</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="J190" s="2"/>
     </row>
@@ -15967,7 +15973,7 @@
         <v>1513</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>1514</v>
@@ -15985,7 +15991,7 @@
         <v>1102</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -16014,7 +16020,7 @@
         <v>1525</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -16037,7 +16043,7 @@
         <v>1531</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -16045,7 +16051,7 @@
         <v>1532</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>1533</v>
@@ -16061,7 +16067,7 @@
         <v>1536</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -16090,7 +16096,7 @@
         <v>14</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>3091</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -16098,7 +16104,7 @@
         <v>1537</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>1538</v>
@@ -16119,7 +16125,7 @@
         <v>1543</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -16148,7 +16154,7 @@
         <v>1550</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -16156,7 +16162,7 @@
         <v>1555</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>1556</v>
@@ -16171,15 +16177,15 @@
         <v>1558</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="2" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>1551</v>
@@ -16194,7 +16200,7 @@
         <v>1554</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -16202,7 +16208,7 @@
         <v>1559</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>1560</v>
@@ -16220,7 +16226,7 @@
         <v>1022</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -16228,7 +16234,7 @@
         <v>1564</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>3050</v>
+        <v>3045</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>1565</v>
@@ -16247,7 +16253,7 @@
         <v>1569</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -16255,7 +16261,7 @@
         <v>1570</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>1571</v>
@@ -16276,7 +16282,7 @@
         <v>1576</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -16305,7 +16311,7 @@
         <v>1584</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -16313,7 +16319,7 @@
         <v>1585</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>1586</v>
@@ -16325,13 +16331,13 @@
         <v>1588</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="H204" s="2" t="s">
         <v>1589</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -16339,7 +16345,7 @@
         <v>1590</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>1591</v>
@@ -16360,7 +16366,7 @@
         <v>1596</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -16368,7 +16374,7 @@
         <v>1597</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>3049</v>
+        <v>3044</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>1598</v>
@@ -16386,7 +16392,7 @@
         <v>1602</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -16394,7 +16400,7 @@
         <v>1603</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>1604</v>
@@ -16410,10 +16416,10 @@
         <v>1607</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -16442,7 +16448,7 @@
         <v>1615</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -16450,7 +16456,7 @@
         <v>1616</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>1617</v>
@@ -16471,7 +16477,7 @@
         <v>533</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="J209" s="8"/>
     </row>
@@ -16480,7 +16486,7 @@
         <v>1676</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>1677</v>
@@ -16501,7 +16507,7 @@
         <v>1682</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -16509,7 +16515,7 @@
         <v>1622</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>1623</v>
@@ -16530,7 +16536,7 @@
         <v>1628</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -16538,7 +16544,7 @@
         <v>1629</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>1630</v>
@@ -16559,7 +16565,7 @@
         <v>1635</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -16567,14 +16573,14 @@
         <v>1636</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>1637</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="6" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>1638</v>
@@ -16583,7 +16589,7 @@
         <v>1271</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -16591,7 +16597,7 @@
         <v>1639</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>1640</v>
@@ -16607,27 +16613,27 @@
         <v>1643</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="215" spans="1:10">
       <c r="A215" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="F215" s="1" t="s">
         <v>2138</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>2155</v>
-      </c>
-      <c r="C215" s="1" t="s">
+      <c r="H215" s="1" t="s">
         <v>2139</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>2140</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>2141</v>
-      </c>
       <c r="I215" s="1" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -16635,7 +16641,7 @@
         <v>549</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1764</v>
+        <v>3198</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>550</v>
@@ -16653,7 +16659,7 @@
         <v>554</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -16661,7 +16667,7 @@
         <v>555</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>3196</v>
+        <v>3189</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>556</v>
@@ -16670,7 +16676,7 @@
         <v>557</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>3120</v>
+        <v>3114</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>558</v>
@@ -16682,7 +16688,7 @@
         <v>560</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -16690,7 +16696,7 @@
         <v>561</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>562</v>
@@ -16702,7 +16708,7 @@
         <v>521</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -16710,7 +16716,7 @@
         <v>1651</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>1652</v>
@@ -16731,7 +16737,7 @@
         <v>1657</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -16739,7 +16745,7 @@
         <v>564</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>3195</v>
+        <v>3188</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>565</v>
@@ -16751,7 +16757,7 @@
         <v>567</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -16759,7 +16765,7 @@
         <v>568</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>569</v>
@@ -16780,7 +16786,7 @@
         <v>416</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>3092</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -16788,7 +16794,7 @@
         <v>574</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>575</v>
@@ -16803,7 +16809,7 @@
         <v>1025</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -16811,7 +16817,7 @@
         <v>578</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>579</v>
@@ -16832,7 +16838,7 @@
         <v>584</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -16840,7 +16846,7 @@
         <v>590</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>591</v>
@@ -16858,7 +16864,7 @@
         <v>593</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -16866,7 +16872,7 @@
         <v>598</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>599</v>
@@ -16881,7 +16887,7 @@
         <v>600</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>3096</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -16889,7 +16895,7 @@
         <v>585</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>586</v>
@@ -16907,7 +16913,7 @@
         <v>289</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>3097</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -16915,7 +16921,7 @@
         <v>594</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>595</v>
@@ -16933,7 +16939,7 @@
         <v>597</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -16941,7 +16947,7 @@
         <v>601</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>602</v>
@@ -16959,10 +16965,10 @@
         <v>606</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -16970,7 +16976,7 @@
         <v>607</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>3048</v>
+        <v>3043</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>608</v>
@@ -16988,7 +16994,7 @@
         <v>612</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -16996,7 +17002,7 @@
         <v>613</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>614</v>
@@ -17014,10 +17020,10 @@
         <v>618</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -17025,7 +17031,7 @@
         <v>619</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>3047</v>
+        <v>3042</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>620</v>
@@ -17043,7 +17049,7 @@
         <v>95</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -17051,7 +17057,7 @@
         <v>624</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>3046</v>
+        <v>3041</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>625</v>
@@ -17066,7 +17072,7 @@
         <v>628</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -17074,7 +17080,7 @@
         <v>629</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>630</v>
@@ -17089,7 +17095,7 @@
         <v>509</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -17097,7 +17103,7 @@
         <v>633</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>634</v>
@@ -17112,7 +17118,7 @@
         <v>584</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -17120,7 +17126,7 @@
         <v>637</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>638</v>
@@ -17141,7 +17147,7 @@
         <v>643</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -17149,7 +17155,7 @@
         <v>644</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>3045</v>
+        <v>3040</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>645</v>
@@ -17164,7 +17170,7 @@
         <v>648</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -17172,13 +17178,13 @@
         <v>649</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>3044</v>
+        <v>3039</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>650</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>3148</v>
+        <v>3142</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>651</v>
@@ -17193,7 +17199,7 @@
         <v>416</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -17201,13 +17207,13 @@
         <v>654</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>1033</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>3149</v>
+        <v>3143</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>655</v>
@@ -17222,7 +17228,7 @@
         <v>658</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -17242,13 +17248,13 @@
         <v>661</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>662</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -17256,7 +17262,7 @@
         <v>663</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>664</v>
@@ -17271,7 +17277,7 @@
         <v>667</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -17279,7 +17285,7 @@
         <v>668</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>1034</v>
@@ -17297,10 +17303,10 @@
         <v>672</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -17308,7 +17314,7 @@
         <v>678</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>679</v>
@@ -17329,7 +17335,7 @@
         <v>684</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -17337,7 +17343,7 @@
         <v>685</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>686</v>
@@ -17355,7 +17361,7 @@
         <v>690</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -17363,13 +17369,13 @@
         <v>691</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>692</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>3121</v>
+        <v>3115</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>693</v>
@@ -17381,7 +17387,7 @@
         <v>695</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -17407,7 +17413,7 @@
         <v>700</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -17415,7 +17421,7 @@
         <v>701</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>702</v>
@@ -17430,7 +17436,7 @@
         <v>705</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -17438,7 +17444,7 @@
         <v>706</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>707</v>
@@ -17453,10 +17459,10 @@
         <v>710</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>3200</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -17464,7 +17470,7 @@
         <v>711</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>712</v>
@@ -17485,15 +17491,15 @@
         <v>717</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="1" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>718</v>
@@ -17508,7 +17514,7 @@
         <v>721</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -17516,7 +17522,7 @@
         <v>722</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3043</v>
+        <v>3038</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>723</v>
@@ -17531,7 +17537,7 @@
         <v>726</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -17539,7 +17545,7 @@
         <v>727</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>728</v>
@@ -17554,7 +17560,7 @@
         <v>731</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -17562,7 +17568,7 @@
         <v>732</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3042</v>
+        <v>3037</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>733</v>
@@ -17574,7 +17580,7 @@
         <v>735</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -17582,7 +17588,7 @@
         <v>736</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>737</v>
@@ -17600,7 +17606,7 @@
         <v>345</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -17608,7 +17614,7 @@
         <v>741</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3041</v>
+        <v>3036</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>742</v>
@@ -17623,7 +17629,7 @@
         <v>745</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -17649,7 +17655,7 @@
         <v>752</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -17663,7 +17669,7 @@
         <v>754</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>3150</v>
+        <v>3144</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>755</v>
@@ -17675,7 +17681,7 @@
         <v>757</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -17683,7 +17689,7 @@
         <v>758</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>759</v>
@@ -17701,7 +17707,7 @@
         <v>763</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -17709,7 +17715,7 @@
         <v>1739</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>1741</v>
@@ -17727,7 +17733,7 @@
         <v>1711</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -17735,7 +17741,7 @@
         <v>764</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>765</v>
@@ -17744,7 +17750,7 @@
         <v>766</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>767</v>
@@ -17753,7 +17759,7 @@
         <v>768</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -17761,7 +17767,7 @@
         <v>769</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3040</v>
+        <v>3035</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>770</v>
@@ -17779,7 +17785,7 @@
         <v>774</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -17787,7 +17793,7 @@
         <v>775</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>776</v>
@@ -17808,7 +17814,7 @@
         <v>781</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -17816,7 +17822,7 @@
         <v>782</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3039</v>
+        <v>3034</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>783</v>
@@ -17831,10 +17837,10 @@
         <v>786</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -17860,7 +17866,7 @@
         <v>1026</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -17868,7 +17874,7 @@
         <v>793</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>794</v>
@@ -17883,7 +17889,7 @@
         <v>1027</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -17891,7 +17897,7 @@
         <v>797</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>798</v>
@@ -17909,7 +17915,7 @@
         <v>802</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -17929,7 +17935,7 @@
         <v>807</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>808</v>
@@ -17938,7 +17944,7 @@
         <v>306</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -17967,7 +17973,7 @@
         <v>1710</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -17990,7 +17996,7 @@
         <v>814</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -17998,13 +18004,13 @@
         <v>815</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>3151</v>
+        <v>3145</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>816</v>
@@ -18019,27 +18025,27 @@
         <v>819</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>2148</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="F270" s="1" t="s">
         <v>2149</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="H270" s="1" t="s">
         <v>2150</v>
       </c>
-      <c r="F270" s="1" t="s">
-        <v>2151</v>
-      </c>
-      <c r="H270" s="1" t="s">
-        <v>2152</v>
-      </c>
       <c r="I270" s="1" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -18047,7 +18053,7 @@
         <v>1658</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>1659</v>
@@ -18068,7 +18074,7 @@
         <v>1664</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>3086</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -18076,7 +18082,7 @@
         <v>820</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>821</v>
@@ -18097,7 +18103,7 @@
         <v>774</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -18105,7 +18111,7 @@
         <v>826</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>827</v>
@@ -18120,15 +18126,15 @@
         <v>695</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="1" t="s">
-        <v>3088</v>
+        <v>3082</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>830</v>
@@ -18146,7 +18152,7 @@
         <v>834</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>3089</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -18154,7 +18160,7 @@
         <v>835</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>836</v>
@@ -18172,7 +18178,7 @@
         <v>222</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -18180,13 +18186,13 @@
         <v>840</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>841</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>3152</v>
+        <v>3146</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>842</v>
@@ -18201,7 +18207,7 @@
         <v>845</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -18209,7 +18215,7 @@
         <v>853</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>854</v>
@@ -18227,7 +18233,7 @@
         <v>851</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -18235,7 +18241,7 @@
         <v>846</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>847</v>
@@ -18256,7 +18262,7 @@
         <v>852</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -18264,7 +18270,7 @@
         <v>857</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>858</v>
@@ -18282,7 +18288,7 @@
         <v>862</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -18290,7 +18296,7 @@
         <v>863</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>864</v>
@@ -18311,7 +18317,7 @@
         <v>357</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -18319,7 +18325,7 @@
         <v>869</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>870</v>
@@ -18337,7 +18343,7 @@
         <v>874</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -18366,7 +18372,7 @@
         <v>882</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -18386,10 +18392,10 @@
         <v>886</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -18397,7 +18403,7 @@
         <v>887</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>1037</v>
@@ -18418,7 +18424,7 @@
         <v>892</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -18426,7 +18432,7 @@
         <v>893</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>894</v>
@@ -18444,7 +18450,7 @@
         <v>898</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -18452,7 +18458,7 @@
         <v>899</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>900</v>
@@ -18470,7 +18476,7 @@
         <v>904</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -18478,7 +18484,7 @@
         <v>905</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>906</v>
@@ -18490,7 +18496,7 @@
         <v>908</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -18498,7 +18504,7 @@
         <v>909</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>3038</v>
+        <v>3033</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>910</v>
@@ -18513,7 +18519,7 @@
         <v>913</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -18521,7 +18527,7 @@
         <v>914</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>915</v>
@@ -18536,10 +18542,10 @@
         <v>918</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -18547,7 +18553,7 @@
         <v>919</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>920</v>
@@ -18562,7 +18568,7 @@
         <v>923</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -18570,7 +18576,7 @@
         <v>924</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>925</v>
@@ -18588,7 +18594,7 @@
         <v>1022</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -18596,7 +18602,7 @@
         <v>929</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>3037</v>
+        <v>3032</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>930</v>
@@ -18617,7 +18623,7 @@
         <v>289</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -18625,7 +18631,7 @@
         <v>935</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>936</v>
@@ -18646,7 +18652,7 @@
         <v>941</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -18654,7 +18660,7 @@
         <v>942</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>3194</v>
+        <v>3187</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>943</v>
@@ -18666,7 +18672,7 @@
         <v>945</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -18674,7 +18680,7 @@
         <v>946</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>3193</v>
+        <v>3186</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>947</v>
@@ -18692,7 +18698,7 @@
         <v>1021</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -18700,7 +18706,7 @@
         <v>951</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>3192</v>
+        <v>3185</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>952</v>
@@ -18721,7 +18727,7 @@
         <v>957</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -18729,7 +18735,7 @@
         <v>958</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>959</v>
@@ -18744,30 +18750,30 @@
         <v>962</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>2142</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="F298" s="1" t="s">
         <v>2143</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="G298" s="1" t="s">
         <v>2144</v>
       </c>
-      <c r="F298" s="1" t="s">
+      <c r="H298" s="1" t="s">
         <v>2145</v>
       </c>
-      <c r="G298" s="1" t="s">
-        <v>2146</v>
-      </c>
-      <c r="H298" s="1" t="s">
-        <v>2147</v>
-      </c>
       <c r="I298" s="1" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -18775,7 +18781,7 @@
         <v>963</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>3036</v>
+        <v>3031</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>964</v>
@@ -18793,7 +18799,7 @@
         <v>968</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -18801,7 +18807,7 @@
         <v>969</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>970</v>
@@ -18819,7 +18825,7 @@
         <v>974</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -18827,7 +18833,7 @@
         <v>975</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>976</v>
@@ -18848,7 +18854,7 @@
         <v>981</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -18856,7 +18862,7 @@
         <v>982</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>983</v>
@@ -18874,7 +18880,7 @@
         <v>987</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -18903,7 +18909,7 @@
         <v>1712</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -18911,7 +18917,7 @@
         <v>988</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>3191</v>
+        <v>3184</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>989</v>
@@ -18929,7 +18935,7 @@
         <v>993</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -18956,7 +18962,7 @@
         <v>1172</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -18964,7 +18970,7 @@
         <v>994</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>995</v>
@@ -18979,7 +18985,7 @@
         <v>998</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -18987,7 +18993,7 @@
         <v>999</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>1000</v>
@@ -19008,7 +19014,7 @@
         <v>1020</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>3201</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -19016,7 +19022,7 @@
         <v>1005</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>3190</v>
+        <v>3183</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>1006</v>
@@ -19031,2577 +19037,2577 @@
         <v>1009</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="309" spans="1:9">
       <c r="A309" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D309" s="1" t="s">
         <v>2350</v>
       </c>
-      <c r="B309" s="10" t="s">
-        <v>3035</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>2351</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>2352</v>
-      </c>
       <c r="E309" s="6" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>527</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="310" spans="1:9">
       <c r="A310" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>2353</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="D310" s="1" t="s">
         <v>2354</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="E310" s="6" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="G310" s="1" t="s">
         <v>2355</v>
       </c>
-      <c r="D310" s="1" t="s">
+      <c r="H310" s="1" t="s">
         <v>2356</v>
       </c>
-      <c r="E310" s="6" t="s">
-        <v>2990</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="G310" s="1" t="s">
-        <v>2357</v>
-      </c>
-      <c r="H310" s="1" t="s">
-        <v>2358</v>
-      </c>
       <c r="I310" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="311" spans="1:9">
       <c r="A311" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>2359</v>
       </c>
-      <c r="B311" s="10" t="s">
-        <v>3189</v>
-      </c>
-      <c r="C311" s="1" t="s">
+      <c r="E311" s="6" t="s">
+        <v>2988</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="G311" s="1" t="s">
         <v>2360</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>2361</v>
-      </c>
-      <c r="E311" s="6" t="s">
-        <v>2991</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>2900</v>
-      </c>
-      <c r="G311" s="1" t="s">
-        <v>2362</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>289</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="312" spans="1:9">
       <c r="A312" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B312" s="10" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="E312" s="6" t="s">
+        <v>2989</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="G312" s="1" t="s">
         <v>2363</v>
-      </c>
-      <c r="B312" s="10" t="s">
-        <v>2364</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>2361</v>
-      </c>
-      <c r="E312" s="6" t="s">
-        <v>2992</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>2901</v>
-      </c>
-      <c r="G312" s="1" t="s">
-        <v>2365</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>289</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>3083</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" s="2" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>3034</v>
+        <v>3029</v>
       </c>
       <c r="C313" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>2990</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="H313" s="1" t="s">
         <v>2366</v>
       </c>
-      <c r="D313" s="1" t="s">
-        <v>2367</v>
-      </c>
-      <c r="E313" s="6" t="s">
-        <v>2993</v>
-      </c>
-      <c r="F313" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="H313" s="1" t="s">
-        <v>2368</v>
-      </c>
       <c r="I313" s="2" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="314" spans="1:9">
       <c r="A314" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B314" s="10" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>2369</v>
       </c>
-      <c r="B314" s="10" t="s">
+      <c r="D314" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="E314" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="D314" s="1" t="s">
-        <v>2372</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>2373</v>
-      </c>
       <c r="F314" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>289</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="315" spans="1:9">
       <c r="A315" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>2374</v>
       </c>
-      <c r="B315" s="10" t="s">
+      <c r="E315" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="F315" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="H315" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="E315" s="1" t="s">
-        <v>2377</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>2904</v>
-      </c>
-      <c r="H315" s="1" t="s">
-        <v>2378</v>
-      </c>
       <c r="I315" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="316" spans="1:9">
       <c r="A316" s="2" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>3148</v>
+      </c>
+      <c r="E316" s="6" t="s">
         <v>2379</v>
       </c>
-      <c r="B316" s="5" t="s">
-        <v>3188</v>
-      </c>
-      <c r="C316" s="1" t="s">
+      <c r="F316" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="G316" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="D316" s="6" t="s">
-        <v>3154</v>
-      </c>
-      <c r="E316" s="6" t="s">
+      <c r="H316" s="1" t="s">
         <v>2381</v>
       </c>
-      <c r="F316" s="1" t="s">
-        <v>2905</v>
-      </c>
-      <c r="G316" s="1" t="s">
-        <v>2382</v>
-      </c>
-      <c r="H316" s="1" t="s">
-        <v>2383</v>
-      </c>
       <c r="I316" s="2" t="s">
-        <v>3153</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="317" spans="1:9">
       <c r="A317" s="2" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>2384</v>
       </c>
-      <c r="B317" s="5" t="s">
+      <c r="D317" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="E317" s="6" t="s">
         <v>2386</v>
       </c>
-      <c r="D317" s="1" t="s">
-        <v>2387</v>
-      </c>
-      <c r="E317" s="6" t="s">
-        <v>2388</v>
-      </c>
       <c r="F317" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="318" spans="1:9">
       <c r="A318" s="2" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E318" s="6" t="s">
+        <v>2991</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G318" s="1" t="s">
         <v>2389</v>
       </c>
-      <c r="B318" s="5" t="s">
-        <v>3187</v>
-      </c>
-      <c r="C318" s="1" t="s">
+      <c r="H318" s="1" t="s">
         <v>2390</v>
       </c>
-      <c r="E318" s="6" t="s">
-        <v>2994</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>2907</v>
-      </c>
-      <c r="G318" s="1" t="s">
-        <v>2391</v>
-      </c>
-      <c r="H318" s="1" t="s">
-        <v>2392</v>
-      </c>
       <c r="I318" s="2" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="2" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>3033</v>
+        <v>3028</v>
       </c>
       <c r="C319" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="E319" s="6" t="s">
+        <v>2992</v>
+      </c>
+      <c r="H319" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="D319" s="1" t="s">
-        <v>2394</v>
-      </c>
-      <c r="E319" s="6" t="s">
-        <v>2995</v>
-      </c>
-      <c r="H319" s="1" t="s">
-        <v>2395</v>
-      </c>
       <c r="I319" s="2" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="320" spans="1:9">
       <c r="A320" s="2" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E320" s="6" t="s">
+        <v>2993</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="H320" s="1" t="s">
         <v>2396</v>
       </c>
-      <c r="B320" s="5" t="s">
-        <v>3032</v>
-      </c>
-      <c r="E320" s="6" t="s">
-        <v>2996</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>2908</v>
-      </c>
-      <c r="G320" s="1" t="s">
-        <v>2397</v>
-      </c>
-      <c r="H320" s="1" t="s">
-        <v>2398</v>
-      </c>
       <c r="I320" s="2" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="321" spans="1:9">
       <c r="A321" s="2" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>3186</v>
+        <v>3179</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="F321" s="2"/>
       <c r="H321" s="1" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>3126</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="322" spans="1:9">
       <c r="A322" s="2" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>2402</v>
       </c>
-      <c r="B322" s="5" t="s">
+      <c r="D322" s="6" t="s">
+        <v>3149</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>2995</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G322" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="H322" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="D322" s="6" t="s">
-        <v>3155</v>
-      </c>
-      <c r="E322" s="6" t="s">
-        <v>2998</v>
-      </c>
-      <c r="F322" s="1" t="s">
-        <v>2909</v>
-      </c>
-      <c r="G322" s="1" t="s">
-        <v>2405</v>
-      </c>
-      <c r="H322" s="1" t="s">
-        <v>2406</v>
-      </c>
       <c r="I322" s="2" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="323" spans="1:9">
       <c r="A323" s="2" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D323" s="1" t="s">
         <v>2407</v>
       </c>
-      <c r="B323" s="5" t="s">
-        <v>3185</v>
-      </c>
-      <c r="C323" s="1" t="s">
+      <c r="E323" s="2" t="s">
+        <v>2996</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="H323" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="D323" s="1" t="s">
-        <v>2409</v>
-      </c>
-      <c r="E323" s="2" t="s">
-        <v>2999</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>2910</v>
-      </c>
-      <c r="H323" s="1" t="s">
-        <v>2410</v>
-      </c>
       <c r="I323" s="2" t="s">
-        <v>3127</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="324" spans="1:9">
       <c r="A324" s="2" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="B324" s="5" t="s">
+      <c r="D324" s="6" t="s">
+        <v>3122</v>
+      </c>
+      <c r="E324" s="2" t="s">
         <v>2412</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="F324" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="G324" s="1" t="s">
         <v>2413</v>
       </c>
-      <c r="D324" s="6" t="s">
-        <v>3128</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>2414</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>2911</v>
-      </c>
-      <c r="G324" s="1" t="s">
-        <v>2415</v>
-      </c>
       <c r="H324" s="1" t="s">
-        <v>3129</v>
+        <v>3123</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="325" spans="1:9">
       <c r="A325" s="2" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>3177</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D325" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="B325" s="10" t="s">
-        <v>3184</v>
-      </c>
-      <c r="C325" s="1" t="s">
+      <c r="E325" s="6" t="s">
+        <v>2997</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="G325" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="D325" s="1" t="s">
+      <c r="H325" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="E325" s="6" t="s">
-        <v>3000</v>
-      </c>
-      <c r="F325" s="1" t="s">
-        <v>2912</v>
-      </c>
-      <c r="G325" s="1" t="s">
-        <v>2419</v>
-      </c>
-      <c r="H325" s="1" t="s">
-        <v>2420</v>
-      </c>
       <c r="I325" s="2" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="326" spans="1:9">
       <c r="A326" s="2" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>2421</v>
       </c>
-      <c r="B326" s="5" t="s">
+      <c r="D326" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="E326" s="2" t="s">
         <v>2423</v>
       </c>
-      <c r="D326" s="1" t="s">
+      <c r="F326" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="G326" s="1" t="s">
         <v>2424</v>
       </c>
-      <c r="E326" s="2" t="s">
+      <c r="H326" s="1" t="s">
         <v>2425</v>
       </c>
-      <c r="F326" s="1" t="s">
-        <v>2913</v>
-      </c>
-      <c r="G326" s="1" t="s">
-        <v>2426</v>
-      </c>
-      <c r="H326" s="1" t="s">
-        <v>2427</v>
-      </c>
       <c r="I326" s="2" t="s">
-        <v>3131</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="327" spans="1:9">
       <c r="A327" s="2" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>2428</v>
       </c>
-      <c r="B327" s="5" t="s">
+      <c r="E327" s="2" t="s">
         <v>2429</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="F327" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="H327" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="E327" s="2" t="s">
-        <v>2431</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>2914</v>
-      </c>
-      <c r="H327" s="1" t="s">
-        <v>2432</v>
-      </c>
       <c r="I327" s="2" t="s">
-        <v>3132</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="328" spans="1:9">
       <c r="A328" s="2" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>2433</v>
       </c>
-      <c r="B328" s="5" t="s">
+      <c r="D328" s="1" t="s">
         <v>2434</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="E328" s="6" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="G328" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="D328" s="1" t="s">
+      <c r="H328" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="E328" s="6" t="s">
-        <v>3001</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>2915</v>
-      </c>
-      <c r="G328" s="1" t="s">
-        <v>2437</v>
-      </c>
-      <c r="H328" s="1" t="s">
-        <v>2438</v>
-      </c>
       <c r="I328" s="2" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="329" spans="1:9">
       <c r="A329" s="2" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>2439</v>
       </c>
-      <c r="B329" s="5" t="s">
+      <c r="D329" s="1" t="s">
         <v>2440</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="E329" s="2" t="s">
         <v>2441</v>
       </c>
-      <c r="D329" s="1" t="s">
+      <c r="F329" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="G329" s="1" t="s">
         <v>2442</v>
       </c>
-      <c r="E329" s="2" t="s">
+      <c r="H329" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="F329" s="1" t="s">
-        <v>2916</v>
-      </c>
-      <c r="G329" s="1" t="s">
-        <v>2444</v>
-      </c>
-      <c r="H329" s="1" t="s">
-        <v>2445</v>
-      </c>
       <c r="I329" s="2" t="s">
-        <v>3098</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="330" spans="1:9">
       <c r="A330" s="2" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="B330" s="5" t="s">
+      <c r="D330" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="E330" s="2" t="s">
         <v>2448</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="F330" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="G330" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="E330" s="2" t="s">
-        <v>2450</v>
-      </c>
-      <c r="F330" s="1" t="s">
-        <v>2917</v>
-      </c>
-      <c r="G330" s="1" t="s">
-        <v>2451</v>
-      </c>
       <c r="H330" s="1" t="s">
-        <v>3130</v>
+        <v>3124</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>3199</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="331" spans="1:9">
       <c r="A331" s="2" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E331" s="2" t="s">
         <v>2452</v>
       </c>
-      <c r="B331" s="5" t="s">
+      <c r="F331" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="G331" s="1" t="s">
         <v>2453</v>
       </c>
-      <c r="E331" s="2" t="s">
+      <c r="H331" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="F331" s="1" t="s">
-        <v>2918</v>
-      </c>
-      <c r="G331" s="1" t="s">
-        <v>2455</v>
-      </c>
-      <c r="H331" s="1" t="s">
-        <v>2456</v>
-      </c>
       <c r="I331" s="2" t="s">
-        <v>3133</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="332" spans="1:9">
       <c r="A332" s="2" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>3183</v>
+        <v>3176</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="E332" s="2"/>
       <c r="F332" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="333" spans="1:9">
       <c r="A333" s="2" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>2460</v>
       </c>
-      <c r="B333" s="5" t="s">
+      <c r="D333" s="1" t="s">
         <v>2461</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="E333" s="2" t="s">
         <v>2462</v>
       </c>
-      <c r="D333" s="1" t="s">
+      <c r="F333" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="G333" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="E333" s="2" t="s">
+      <c r="H333" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="F333" s="1" t="s">
-        <v>2920</v>
-      </c>
-      <c r="G333" s="1" t="s">
-        <v>2465</v>
-      </c>
-      <c r="H333" s="1" t="s">
-        <v>2466</v>
-      </c>
       <c r="I333" s="2" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="334" spans="1:9">
       <c r="A334" s="2" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D334" s="1" t="s">
         <v>2467</v>
       </c>
-      <c r="B334" s="5" t="s">
-        <v>3031</v>
-      </c>
-      <c r="C334" s="1" t="s">
+      <c r="E334" s="2" t="s">
         <v>2468</v>
       </c>
-      <c r="D334" s="1" t="s">
+      <c r="F334" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="H334" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="E334" s="2" t="s">
-        <v>2470</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="H334" s="1" t="s">
-        <v>2471</v>
-      </c>
       <c r="I334" s="2" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="335" spans="1:9">
       <c r="A335" s="2" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>2472</v>
       </c>
-      <c r="B335" s="5" t="s">
+      <c r="D335" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="E335" s="2" t="s">
         <v>2474</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="F335" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="H335" s="1" t="s">
         <v>2475</v>
       </c>
-      <c r="E335" s="2" t="s">
-        <v>2476</v>
-      </c>
-      <c r="F335" s="1" t="s">
-        <v>2922</v>
-      </c>
-      <c r="H335" s="1" t="s">
-        <v>2477</v>
-      </c>
       <c r="I335" s="2" t="s">
-        <v>3134</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="336" spans="1:9">
       <c r="A336" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="B336" s="5" t="s">
+      <c r="D336" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="E336" s="6" t="s">
         <v>2480</v>
       </c>
-      <c r="D336" s="1" t="s">
+      <c r="F336" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="H336" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="E336" s="6" t="s">
-        <v>2482</v>
-      </c>
-      <c r="F336" s="1" t="s">
-        <v>2923</v>
-      </c>
-      <c r="H336" s="1" t="s">
-        <v>2483</v>
-      </c>
       <c r="I336" s="2" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="337" spans="1:9">
       <c r="A337" s="2" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>2484</v>
       </c>
-      <c r="B337" s="5" t="s">
+      <c r="D337" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="E337" s="2" t="s">
         <v>2486</v>
       </c>
-      <c r="D337" s="1" t="s">
+      <c r="F337" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="G337" s="1" t="s">
         <v>2487</v>
       </c>
-      <c r="E337" s="2" t="s">
+      <c r="H337" s="1" t="s">
         <v>2488</v>
       </c>
-      <c r="F337" s="1" t="s">
-        <v>2924</v>
-      </c>
-      <c r="G337" s="1" t="s">
-        <v>2489</v>
-      </c>
-      <c r="H337" s="1" t="s">
-        <v>2490</v>
-      </c>
       <c r="I337" s="2" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C338" s="1" t="s">
         <v>2491</v>
       </c>
-      <c r="B338" s="5" t="s">
+      <c r="D338" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="E338" s="2" t="s">
         <v>2493</v>
       </c>
-      <c r="D338" s="1" t="s">
+      <c r="F338" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="G338" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>2495</v>
-      </c>
-      <c r="F338" s="1" t="s">
-        <v>2925</v>
-      </c>
-      <c r="G338" s="1" t="s">
-        <v>2496</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>409</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="339" spans="1:9">
       <c r="A339" s="2" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D339" s="1" t="s">
         <v>2497</v>
       </c>
-      <c r="B339" s="5" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C339" s="1" t="s">
+      <c r="E339" s="2" t="s">
         <v>2498</v>
       </c>
-      <c r="D339" s="1" t="s">
+      <c r="F339" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="H339" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="E339" s="2" t="s">
-        <v>2500</v>
-      </c>
-      <c r="F339" s="1" t="s">
-        <v>2926</v>
-      </c>
-      <c r="H339" s="1" t="s">
-        <v>2501</v>
-      </c>
       <c r="I339" s="2" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="340" spans="1:9">
       <c r="A340" s="2" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E340" s="6" t="s">
+        <v>2999</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="H340" s="1" t="s">
         <v>2502</v>
       </c>
-      <c r="B340" s="5" t="s">
-        <v>3139</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>2503</v>
-      </c>
-      <c r="E340" s="6" t="s">
-        <v>3002</v>
-      </c>
-      <c r="F340" s="1" t="s">
-        <v>2927</v>
-      </c>
-      <c r="H340" s="1" t="s">
-        <v>2504</v>
-      </c>
       <c r="I340" s="2" t="s">
-        <v>3140</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="341" spans="1:9">
       <c r="A341" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="B341" s="5" t="s">
+      <c r="D341" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="E341" s="2" t="s">
         <v>2507</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="F341" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="G341" s="1" t="s">
         <v>2508</v>
       </c>
-      <c r="E341" s="2" t="s">
+      <c r="H341" s="1" t="s">
         <v>2509</v>
       </c>
-      <c r="F341" s="1" t="s">
-        <v>2928</v>
-      </c>
-      <c r="G341" s="1" t="s">
-        <v>2510</v>
-      </c>
-      <c r="H341" s="1" t="s">
-        <v>2511</v>
-      </c>
       <c r="I341" s="2" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="342" spans="1:9">
       <c r="A342" s="2" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="B342" s="10" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D342" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="F342" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="G342" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="D342" s="1" t="s">
+      <c r="H342" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="F342" s="1" t="s">
-        <v>2929</v>
-      </c>
-      <c r="G342" s="1" t="s">
-        <v>2515</v>
-      </c>
-      <c r="H342" s="1" t="s">
-        <v>2516</v>
-      </c>
       <c r="I342" s="2" t="s">
-        <v>3141</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="343" spans="1:9">
       <c r="A343" s="2" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>2517</v>
       </c>
-      <c r="B343" s="5" t="s">
+      <c r="D343" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="E343" s="6" t="s">
+        <v>3000</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="G343" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="D343" s="1" t="s">
+      <c r="H343" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="E343" s="6" t="s">
-        <v>3003</v>
-      </c>
-      <c r="F343" s="1" t="s">
-        <v>2930</v>
-      </c>
-      <c r="G343" s="1" t="s">
-        <v>2521</v>
-      </c>
-      <c r="H343" s="1" t="s">
-        <v>2522</v>
-      </c>
       <c r="I343" s="2" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="344" spans="1:9">
       <c r="A344" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B344" s="10" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="D344" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="E344" s="1" t="s">
         <v>2525</v>
       </c>
-      <c r="D344" s="1" t="s">
+      <c r="F344" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="H344" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="E344" s="1" t="s">
-        <v>2527</v>
-      </c>
-      <c r="F344" s="1" t="s">
-        <v>2931</v>
-      </c>
-      <c r="H344" s="1" t="s">
-        <v>2528</v>
-      </c>
       <c r="I344" s="1" t="s">
-        <v>3135</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="345" spans="1:9">
       <c r="A345" s="2" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="D345" s="1" t="s">
         <v>2529</v>
-      </c>
-      <c r="B345" s="5" t="s">
-        <v>3182</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>2530</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="E345" s="2"/>
       <c r="F345" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="346" spans="1:9">
       <c r="A346" s="2" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="B346" s="5" t="s">
+      <c r="D346" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="E346" s="6" t="s">
         <v>2534</v>
       </c>
-      <c r="D346" s="1" t="s">
+      <c r="F346" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="H346" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="E346" s="6" t="s">
-        <v>2536</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="H346" s="1" t="s">
-        <v>2537</v>
-      </c>
       <c r="I346" s="2" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="347" spans="1:9">
       <c r="A347" s="2" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C347" s="1" t="s">
         <v>2538</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>2539</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>2540</v>
       </c>
       <c r="E347" s="2"/>
       <c r="F347" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="348" spans="1:9">
       <c r="A348" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D348" s="1" t="s">
         <v>2542</v>
       </c>
-      <c r="B348" s="5" t="s">
-        <v>3029</v>
-      </c>
-      <c r="C348" s="1" t="s">
+      <c r="E348" s="6" t="s">
+        <v>3001</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="G348" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="D348" s="1" t="s">
+      <c r="H348" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="E348" s="6" t="s">
-        <v>3004</v>
-      </c>
-      <c r="F348" s="1" t="s">
-        <v>2935</v>
-      </c>
-      <c r="G348" s="1" t="s">
-        <v>2545</v>
-      </c>
-      <c r="H348" s="1" t="s">
-        <v>2546</v>
-      </c>
       <c r="I348" s="2" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="349" spans="1:9">
       <c r="A349" s="2" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="B349" s="5" t="s">
+      <c r="D349" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="E349" s="2" t="s">
         <v>2549</v>
       </c>
-      <c r="D349" s="1" t="s">
+      <c r="F349" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="G349" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="E349" s="2" t="s">
+      <c r="H349" s="1" t="s">
         <v>2551</v>
       </c>
-      <c r="F349" s="1" t="s">
-        <v>2936</v>
-      </c>
-      <c r="G349" s="1" t="s">
-        <v>2552</v>
-      </c>
-      <c r="H349" s="1" t="s">
-        <v>2553</v>
-      </c>
       <c r="I349" s="2" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="350" spans="1:9">
       <c r="A350" s="2" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E350" s="2" t="s">
         <v>2554</v>
       </c>
-      <c r="B350" s="5" t="s">
-        <v>3028</v>
-      </c>
-      <c r="C350" s="1" t="s">
+      <c r="F350" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="G350" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="E350" s="2" t="s">
+      <c r="H350" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="F350" s="1" t="s">
-        <v>2937</v>
-      </c>
-      <c r="G350" s="1" t="s">
-        <v>2557</v>
-      </c>
-      <c r="H350" s="1" t="s">
-        <v>2558</v>
-      </c>
       <c r="I350" s="2" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="351" spans="1:9">
       <c r="A351" s="2" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="B351" s="5" t="s">
+      <c r="D351" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="E351" s="4" t="s">
         <v>2561</v>
       </c>
-      <c r="D351" s="1" t="s">
+      <c r="F351" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="H351" s="1" t="s">
         <v>2562</v>
       </c>
-      <c r="E351" s="4" t="s">
-        <v>2563</v>
-      </c>
-      <c r="F351" s="1" t="s">
-        <v>2938</v>
-      </c>
-      <c r="H351" s="1" t="s">
-        <v>2564</v>
-      </c>
       <c r="I351" s="2" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="352" spans="1:9">
       <c r="A352" s="2" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="D352" s="1" t="s">
         <v>2565</v>
       </c>
-      <c r="B352" s="5" t="s">
+      <c r="E352" s="6" t="s">
+        <v>3116</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="G352" s="1" t="s">
         <v>2566</v>
       </c>
-      <c r="C352" s="1" t="s">
+      <c r="H352" s="1" t="s">
         <v>2567</v>
       </c>
-      <c r="D352" s="1" t="s">
-        <v>2568</v>
-      </c>
-      <c r="E352" s="6" t="s">
-        <v>3122</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>2939</v>
-      </c>
-      <c r="G352" s="1" t="s">
-        <v>2569</v>
-      </c>
-      <c r="H352" s="1" t="s">
-        <v>2570</v>
-      </c>
       <c r="I352" s="2" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="353" spans="1:9">
       <c r="A353" s="2" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>3175</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="E353" s="2" t="s">
         <v>2571</v>
       </c>
-      <c r="B353" s="5" t="s">
-        <v>3181</v>
-      </c>
-      <c r="C353" s="1" t="s">
+      <c r="F353" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="H353" s="1" t="s">
         <v>2572</v>
       </c>
-      <c r="D353" s="1" t="s">
-        <v>2573</v>
-      </c>
-      <c r="E353" s="2" t="s">
-        <v>2574</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="H353" s="1" t="s">
-        <v>2575</v>
-      </c>
       <c r="I353" s="2" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="354" spans="1:9">
       <c r="A354" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E354" s="2" t="s">
         <v>2576</v>
       </c>
-      <c r="B354" s="5" t="s">
-        <v>3027</v>
-      </c>
-      <c r="C354" s="1" t="s">
+      <c r="F354" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="G354" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>2578</v>
-      </c>
-      <c r="E354" s="2" t="s">
-        <v>2579</v>
-      </c>
-      <c r="F354" s="1" t="s">
-        <v>2941</v>
-      </c>
-      <c r="G354" s="1" t="s">
-        <v>2580</v>
       </c>
       <c r="H354" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="2" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="E355" s="2" t="s">
         <v>2581</v>
       </c>
-      <c r="B355" s="5" t="s">
+      <c r="F355" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="H355" s="1" t="s">
         <v>2582</v>
       </c>
-      <c r="C355" s="1" t="s">
-        <v>2583</v>
-      </c>
-      <c r="E355" s="2" t="s">
-        <v>2584</v>
-      </c>
-      <c r="F355" s="1" t="s">
-        <v>2942</v>
-      </c>
-      <c r="H355" s="1" t="s">
-        <v>2585</v>
-      </c>
       <c r="I355" s="2" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="356" spans="1:9">
       <c r="A356" s="2" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D356" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="B356" s="5" t="s">
+      <c r="E356" s="2" t="s">
         <v>2587</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="F356" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="H356" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="D356" s="1" t="s">
-        <v>2589</v>
-      </c>
-      <c r="E356" s="2" t="s">
-        <v>2590</v>
-      </c>
-      <c r="F356" s="1" t="s">
-        <v>2943</v>
-      </c>
-      <c r="H356" s="1" t="s">
-        <v>2591</v>
-      </c>
       <c r="I356" s="2" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="357" spans="1:9">
       <c r="A357" s="2" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E357" s="2" t="s">
         <v>2592</v>
       </c>
-      <c r="B357" s="5" t="s">
-        <v>3180</v>
-      </c>
-      <c r="C357" s="1" t="s">
+      <c r="F357" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="G357" s="1" t="s">
         <v>2593</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>2594</v>
-      </c>
-      <c r="E357" s="2" t="s">
-        <v>2595</v>
-      </c>
-      <c r="F357" s="1" t="s">
-        <v>2944</v>
-      </c>
-      <c r="G357" s="1" t="s">
-        <v>2596</v>
       </c>
       <c r="H357" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="358" spans="1:9">
       <c r="A358" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D358" s="1" t="s">
         <v>2597</v>
       </c>
-      <c r="B358" s="5" t="s">
+      <c r="E358" s="2" t="s">
         <v>2598</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="F358" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="G358" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="H358" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="E358" s="2" t="s">
-        <v>2601</v>
-      </c>
-      <c r="F358" s="1" t="s">
-        <v>2945</v>
-      </c>
-      <c r="G358" s="1" t="s">
-        <v>2602</v>
-      </c>
-      <c r="H358" s="1" t="s">
-        <v>2603</v>
-      </c>
       <c r="I358" s="2" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="359" spans="1:9">
       <c r="A359" s="2" t="s">
-        <v>2604</v>
+        <v>2601</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>3179</v>
+        <v>3173</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>2605</v>
+        <v>2602</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>2606</v>
+        <v>2603</v>
       </c>
       <c r="E359" s="2"/>
       <c r="F359" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>2607</v>
+        <v>2604</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="360" spans="1:9">
       <c r="A360" s="2" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D360" s="1" t="s">
         <v>2609</v>
-      </c>
-      <c r="B360" s="5" t="s">
-        <v>2610</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>2611</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>2612</v>
       </c>
       <c r="E360" s="2"/>
       <c r="F360" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="361" spans="1:9">
       <c r="A361" s="2" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="D361" s="1" t="s">
         <v>2614</v>
-      </c>
-      <c r="B361" s="5" t="s">
-        <v>2615</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>2616</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>2617</v>
       </c>
       <c r="E361" s="2"/>
       <c r="F361" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>416</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="362" spans="1:9">
       <c r="A362" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="D362" s="1" t="s">
         <v>2618</v>
-      </c>
-      <c r="B362" s="5" t="s">
-        <v>2619</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>2620</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>2621</v>
       </c>
       <c r="E362" s="2"/>
       <c r="F362" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>2622</v>
+        <v>2619</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>2623</v>
+        <v>2620</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="363" spans="1:9">
       <c r="A363" s="2" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D363" s="1" t="s">
         <v>2624</v>
       </c>
-      <c r="B363" s="5" t="s">
+      <c r="E363" s="2" t="s">
         <v>2625</v>
       </c>
-      <c r="C363" s="1" t="s">
+      <c r="F363" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="H363" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="D363" s="1" t="s">
-        <v>2627</v>
-      </c>
-      <c r="E363" s="2" t="s">
-        <v>2628</v>
-      </c>
-      <c r="F363" s="1" t="s">
-        <v>2950</v>
-      </c>
-      <c r="H363" s="1" t="s">
-        <v>2629</v>
-      </c>
       <c r="I363" s="2" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="364" spans="1:9">
       <c r="A364" s="2" t="s">
-        <v>2630</v>
+        <v>2627</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>3178</v>
+        <v>3172</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>2631</v>
+        <v>2628</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>2632</v>
+        <v>2629</v>
       </c>
       <c r="E364" s="2"/>
       <c r="F364" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>2633</v>
+        <v>2630</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="365" spans="1:9">
       <c r="A365" s="2" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>3171</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E365" s="6" t="s">
         <v>2634</v>
       </c>
-      <c r="B365" s="5" t="s">
-        <v>3177</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>2635</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>2636</v>
-      </c>
-      <c r="E365" s="6" t="s">
-        <v>2637</v>
-      </c>
       <c r="F365" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="G365" s="7"/>
       <c r="H365" s="1" t="s">
         <v>345</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="366" spans="1:9">
       <c r="A366" s="2" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E366" s="2" t="s">
         <v>2638</v>
       </c>
-      <c r="B366" s="5" t="s">
-        <v>2639</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>2640</v>
-      </c>
-      <c r="D366" s="6" t="s">
-        <v>3158</v>
-      </c>
-      <c r="E366" s="2" t="s">
-        <v>2641</v>
-      </c>
       <c r="F366" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="G366" s="7" t="s">
-        <v>3159</v>
+        <v>3153</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>3156</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="367" spans="1:9">
       <c r="A367" s="2" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>2642</v>
+        <v>2639</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>3158</v>
+        <v>3152</v>
       </c>
       <c r="E367" s="2"/>
       <c r="F367" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="G367" s="7" t="s">
-        <v>3159</v>
+        <v>3153</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>3157</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="368" spans="1:9">
       <c r="A368" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B368" s="10" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="E368" s="1" t="s">
         <v>2645</v>
       </c>
-      <c r="B368" s="10" t="s">
-        <v>3176</v>
-      </c>
-      <c r="C368" s="1" t="s">
+      <c r="F368" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="H368" s="1" t="s">
         <v>2646</v>
       </c>
-      <c r="D368" s="1" t="s">
-        <v>2647</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>2648</v>
-      </c>
-      <c r="F368" s="1" t="s">
-        <v>2955</v>
-      </c>
-      <c r="H368" s="1" t="s">
-        <v>2649</v>
-      </c>
       <c r="I368" s="1" t="s">
-        <v>3136</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="369" spans="1:9">
       <c r="A369" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D369" s="1" t="s">
         <v>2650</v>
       </c>
-      <c r="B369" s="5" t="s">
+      <c r="E369" s="2" t="s">
         <v>2651</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="F369" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="H369" s="1" t="s">
         <v>2652</v>
       </c>
-      <c r="D369" s="1" t="s">
-        <v>2653</v>
-      </c>
-      <c r="E369" s="2" t="s">
-        <v>2654</v>
-      </c>
-      <c r="F369" s="1" t="s">
-        <v>2956</v>
-      </c>
-      <c r="H369" s="1" t="s">
-        <v>2655</v>
-      </c>
       <c r="I369" s="2" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="370" spans="1:9">
       <c r="A370" s="2" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>2658</v>
+        <v>2655</v>
       </c>
       <c r="E370" s="2"/>
       <c r="H370" s="1" t="s">
         <v>527</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>3099</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="371" spans="1:9">
       <c r="A371" s="2" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>3175</v>
+        <v>3169</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="E371" s="2"/>
       <c r="F371" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="H371" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>3100</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="372" spans="1:9">
       <c r="A372" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>3174</v>
+        <v>3168</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>2662</v>
+        <v>2659</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>2663</v>
+        <v>2660</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>3101</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="373" spans="1:9">
       <c r="A373" s="2" t="s">
-        <v>2664</v>
+        <v>2661</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>3173</v>
+        <v>3167</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>2665</v>
+        <v>2662</v>
       </c>
       <c r="E373" s="2"/>
       <c r="F373" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>2666</v>
+        <v>2663</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>3101</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="374" spans="1:9">
       <c r="A374" s="2" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>2669</v>
+        <v>2666</v>
       </c>
       <c r="E374" s="2"/>
       <c r="F374" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="H374" s="1" t="s">
         <v>745</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>3142</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="375" spans="1:9">
       <c r="A375" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E375" s="2" t="s">
         <v>2670</v>
       </c>
-      <c r="B375" s="5" t="s">
-        <v>3172</v>
-      </c>
-      <c r="C375" s="1" t="s">
+      <c r="F375" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="G375" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="D375" s="1" t="s">
+      <c r="H375" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="E375" s="2" t="s">
-        <v>2673</v>
-      </c>
-      <c r="F375" s="1" t="s">
-        <v>2960</v>
-      </c>
-      <c r="G375" s="1" t="s">
-        <v>2674</v>
-      </c>
-      <c r="H375" s="1" t="s">
-        <v>2675</v>
-      </c>
       <c r="I375" s="2" t="s">
-        <v>3084</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="376" spans="1:9">
       <c r="A376" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D376" s="1" t="s">
         <v>2676</v>
       </c>
-      <c r="B376" s="5" t="s">
+      <c r="E376" s="2" t="s">
         <v>2677</v>
       </c>
-      <c r="C376" s="1" t="s">
-        <v>2678</v>
-      </c>
-      <c r="D376" s="1" t="s">
-        <v>2679</v>
-      </c>
-      <c r="E376" s="2" t="s">
-        <v>2680</v>
-      </c>
       <c r="F376" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>3144</v>
+        <v>3138</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>3143</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="377" spans="1:9">
       <c r="A377" s="2" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>3171</v>
+        <v>3165</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
       <c r="E377" s="2"/>
       <c r="F377" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="H377" s="1" t="s">
         <v>409</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="378" spans="1:9">
       <c r="A378" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E378" s="2" t="s">
         <v>2683</v>
       </c>
-      <c r="B378" s="5" t="s">
-        <v>3170</v>
-      </c>
-      <c r="C378" s="1" t="s">
+      <c r="F378" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="H378" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="D378" s="1" t="s">
-        <v>2685</v>
-      </c>
-      <c r="E378" s="2" t="s">
-        <v>2686</v>
-      </c>
-      <c r="F378" s="1" t="s">
-        <v>2963</v>
-      </c>
-      <c r="H378" s="1" t="s">
-        <v>2687</v>
-      </c>
       <c r="I378" s="2" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="379" spans="1:9">
       <c r="A379" s="2" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>3169</v>
+        <v>3163</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>2689</v>
+        <v>2686</v>
       </c>
       <c r="E379" s="2"/>
       <c r="F379" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="H379" s="1" t="s">
         <v>509</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>3102</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="380" spans="1:9">
       <c r="A380" s="2" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D380" s="1" t="s">
         <v>2690</v>
       </c>
-      <c r="B380" s="5" t="s">
+      <c r="E380" s="2" t="s">
         <v>2691</v>
       </c>
-      <c r="C380" s="1" t="s">
+      <c r="F380" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="H380" s="1" t="s">
         <v>2692</v>
       </c>
-      <c r="D380" s="1" t="s">
-        <v>2693</v>
-      </c>
-      <c r="E380" s="2" t="s">
-        <v>2694</v>
-      </c>
-      <c r="F380" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="H380" s="1" t="s">
-        <v>2695</v>
-      </c>
       <c r="I380" s="2" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="381" spans="1:9">
       <c r="A381" s="2" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="E381" s="2" t="s">
         <v>2696</v>
       </c>
-      <c r="B381" s="5" t="s">
-        <v>3168</v>
-      </c>
-      <c r="C381" s="1" t="s">
+      <c r="F381" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="G381" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="D381" s="1" t="s">
+      <c r="H381" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="E381" s="2" t="s">
-        <v>2699</v>
-      </c>
-      <c r="F381" s="1" t="s">
-        <v>2966</v>
-      </c>
-      <c r="G381" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="H381" s="1" t="s">
-        <v>2701</v>
-      </c>
       <c r="I381" s="2" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="382" spans="1:9">
       <c r="A382" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B382" s="10" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D382" s="1" t="s">
         <v>2702</v>
       </c>
-      <c r="B382" s="10" t="s">
+      <c r="F382" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="H382" s="1" t="s">
         <v>2703</v>
       </c>
-      <c r="C382" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="D382" s="1" t="s">
-        <v>2705</v>
-      </c>
-      <c r="F382" s="1" t="s">
-        <v>2967</v>
-      </c>
-      <c r="H382" s="1" t="s">
-        <v>2706</v>
-      </c>
       <c r="I382" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="383" spans="1:9">
       <c r="A383" s="2" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="E383" s="2" t="s">
         <v>2707</v>
       </c>
-      <c r="B383" s="5" t="s">
-        <v>3026</v>
-      </c>
-      <c r="C383" s="1" t="s">
+      <c r="F383" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="G383" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="D383" s="1" t="s">
+      <c r="H383" s="1" t="s">
         <v>2709</v>
       </c>
-      <c r="E383" s="2" t="s">
-        <v>2710</v>
-      </c>
-      <c r="F383" s="1" t="s">
-        <v>2968</v>
-      </c>
-      <c r="G383" s="1" t="s">
-        <v>2711</v>
-      </c>
-      <c r="H383" s="1" t="s">
-        <v>2712</v>
-      </c>
       <c r="I383" s="2" t="s">
-        <v>3137</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="384" spans="1:9">
       <c r="A384" s="2" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D384" s="1" t="s">
         <v>2713</v>
       </c>
-      <c r="B384" s="5" t="s">
+      <c r="E384" s="6" t="s">
         <v>2714</v>
       </c>
-      <c r="C384" s="1" t="s">
+      <c r="F384" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="G384" s="1" t="s">
         <v>2715</v>
       </c>
-      <c r="D384" s="1" t="s">
+      <c r="H384" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="E384" s="6" t="s">
-        <v>2717</v>
-      </c>
-      <c r="F384" s="1" t="s">
-        <v>2969</v>
-      </c>
-      <c r="G384" s="1" t="s">
-        <v>2718</v>
-      </c>
-      <c r="H384" s="1" t="s">
-        <v>2719</v>
-      </c>
       <c r="I384" s="2" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="385" spans="1:9">
       <c r="A385" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B385" s="10" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D385" s="1" t="s">
         <v>2720</v>
       </c>
-      <c r="B385" s="10" t="s">
+      <c r="E385" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="F385" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="G385" s="1" t="s">
         <v>2722</v>
       </c>
-      <c r="D385" s="1" t="s">
+      <c r="H385" s="1" t="s">
         <v>2723</v>
       </c>
-      <c r="E385" s="1" t="s">
-        <v>2724</v>
-      </c>
-      <c r="F385" s="1" t="s">
-        <v>2970</v>
-      </c>
-      <c r="G385" s="1" t="s">
-        <v>2725</v>
-      </c>
-      <c r="H385" s="1" t="s">
-        <v>2726</v>
-      </c>
       <c r="I385" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="386" spans="1:9">
       <c r="A386" s="2" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D386" s="1" t="s">
         <v>2727</v>
       </c>
-      <c r="B386" s="5" t="s">
+      <c r="E386" s="6" t="s">
+        <v>3002</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="H386" s="1" t="s">
         <v>2728</v>
       </c>
-      <c r="C386" s="1" t="s">
-        <v>2729</v>
-      </c>
-      <c r="D386" s="1" t="s">
-        <v>2730</v>
-      </c>
-      <c r="E386" s="6" t="s">
-        <v>3005</v>
-      </c>
-      <c r="F386" s="1" t="s">
-        <v>2971</v>
-      </c>
-      <c r="H386" s="1" t="s">
-        <v>2731</v>
-      </c>
       <c r="I386" s="2" t="s">
-        <v>3145</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="387" spans="1:9">
       <c r="A387" s="2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E387" s="2" t="s">
         <v>2732</v>
       </c>
-      <c r="B387" s="5" t="s">
-        <v>3167</v>
-      </c>
-      <c r="C387" s="1" t="s">
+      <c r="F387" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="G387" s="1" t="s">
         <v>2733</v>
       </c>
-      <c r="D387" s="1" t="s">
+      <c r="H387" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="E387" s="2" t="s">
-        <v>2735</v>
-      </c>
-      <c r="F387" s="1" t="s">
-        <v>2972</v>
-      </c>
-      <c r="G387" s="1" t="s">
-        <v>2736</v>
-      </c>
-      <c r="H387" s="1" t="s">
-        <v>2737</v>
-      </c>
       <c r="I387" s="2" t="s">
-        <v>3103</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="388" spans="1:9">
       <c r="A388" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D388" s="1" t="s">
         <v>2738</v>
       </c>
-      <c r="B388" s="5" t="s">
+      <c r="E388" s="6" t="s">
         <v>2739</v>
       </c>
-      <c r="C388" s="1" t="s">
+      <c r="F388" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="G388" s="1" t="s">
         <v>2740</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>2741</v>
-      </c>
-      <c r="E388" s="6" t="s">
-        <v>2742</v>
-      </c>
-      <c r="F388" s="1" t="s">
-        <v>2973</v>
-      </c>
-      <c r="G388" s="1" t="s">
-        <v>2743</v>
       </c>
       <c r="H388" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I388" s="2" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="389" spans="1:9">
       <c r="A389" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E389" s="2" t="s">
         <v>2744</v>
       </c>
-      <c r="B389" s="5" t="s">
-        <v>3025</v>
-      </c>
-      <c r="C389" s="1" t="s">
+      <c r="F389" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="H389" s="1" t="s">
         <v>2745</v>
       </c>
-      <c r="D389" s="1" t="s">
-        <v>2746</v>
-      </c>
-      <c r="E389" s="2" t="s">
-        <v>2747</v>
-      </c>
-      <c r="F389" s="1" t="s">
-        <v>3014</v>
-      </c>
-      <c r="H389" s="1" t="s">
-        <v>2748</v>
-      </c>
       <c r="I389" s="2" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="390" spans="1:9">
       <c r="A390" s="2" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="E390" s="2"/>
       <c r="F390" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="I390" s="2" t="s">
         <v>3018</v>
-      </c>
-      <c r="G390" s="1" t="s">
-        <v>3019</v>
-      </c>
-      <c r="H390" s="1" t="s">
-        <v>3020</v>
-      </c>
-      <c r="I390" s="2" t="s">
-        <v>3021</v>
       </c>
     </row>
     <row r="391" spans="1:9">
       <c r="A391" s="2" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="E391" s="2" t="s">
         <v>2749</v>
       </c>
-      <c r="B391" s="5" t="s">
-        <v>3166</v>
-      </c>
-      <c r="C391" s="1" t="s">
+      <c r="F391" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="G391" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="D391" s="1" t="s">
+      <c r="H391" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="E391" s="2" t="s">
-        <v>2752</v>
-      </c>
-      <c r="F391" s="1" t="s">
-        <v>2974</v>
-      </c>
-      <c r="G391" s="1" t="s">
-        <v>2753</v>
-      </c>
-      <c r="H391" s="1" t="s">
-        <v>2754</v>
-      </c>
       <c r="I391" s="2" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="392" spans="1:9">
       <c r="A392" s="2" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D392" s="1" t="s">
         <v>2755</v>
       </c>
-      <c r="B392" s="5" t="s">
+      <c r="E392" s="2" t="s">
         <v>2756</v>
       </c>
-      <c r="C392" s="1" t="s">
+      <c r="F392" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="H392" s="1" t="s">
         <v>2757</v>
       </c>
-      <c r="D392" s="1" t="s">
-        <v>2758</v>
-      </c>
-      <c r="E392" s="2" t="s">
-        <v>2759</v>
-      </c>
-      <c r="F392" s="1" t="s">
-        <v>2975</v>
-      </c>
-      <c r="H392" s="1" t="s">
-        <v>2760</v>
-      </c>
       <c r="I392" s="2" t="s">
-        <v>3146</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="393" spans="1:9">
       <c r="A393" s="2" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="E393" s="2" t="s">
         <v>2761</v>
       </c>
-      <c r="B393" s="5" t="s">
-        <v>3023</v>
-      </c>
-      <c r="C393" s="1" t="s">
+      <c r="F393" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="G393" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="D393" s="1" t="s">
+      <c r="H393" s="1" t="s">
         <v>2763</v>
       </c>
-      <c r="E393" s="2" t="s">
-        <v>2764</v>
-      </c>
-      <c r="F393" s="1" t="s">
-        <v>2976</v>
-      </c>
-      <c r="G393" s="1" t="s">
-        <v>2765</v>
-      </c>
-      <c r="H393" s="1" t="s">
-        <v>2766</v>
-      </c>
       <c r="I393" s="2" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="394" spans="1:9">
       <c r="A394" s="2" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D394" s="6" t="s">
+        <v>3154</v>
+      </c>
+      <c r="E394" s="2" t="s">
         <v>2767</v>
       </c>
-      <c r="B394" s="5" t="s">
-        <v>2768</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>2769</v>
-      </c>
-      <c r="D394" s="6" t="s">
-        <v>3160</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>2770</v>
-      </c>
       <c r="F394" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="H394" s="1" t="s">
         <v>1096</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="395" spans="1:9">
       <c r="A395" s="2" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E395" s="2" t="s">
         <v>2771</v>
       </c>
-      <c r="B395" s="5" t="s">
-        <v>3006</v>
-      </c>
-      <c r="C395" s="1" t="s">
+      <c r="F395" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="H395" s="1" t="s">
         <v>2772</v>
       </c>
-      <c r="D395" s="1" t="s">
-        <v>2773</v>
-      </c>
-      <c r="E395" s="2" t="s">
-        <v>2774</v>
-      </c>
-      <c r="F395" s="1" t="s">
-        <v>2978</v>
-      </c>
-      <c r="H395" s="1" t="s">
-        <v>2775</v>
-      </c>
       <c r="I395" s="2" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="396" spans="1:9">
       <c r="A396" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D396" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="B396" s="5" t="s">
+      <c r="E396" s="2" t="s">
         <v>2777</v>
       </c>
-      <c r="C396" s="1" t="s">
+      <c r="F396" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="H396" s="1" t="s">
         <v>2778</v>
       </c>
-      <c r="D396" s="1" t="s">
-        <v>2779</v>
-      </c>
-      <c r="E396" s="2" t="s">
-        <v>2780</v>
-      </c>
-      <c r="F396" s="1" t="s">
-        <v>2979</v>
-      </c>
-      <c r="H396" s="1" t="s">
-        <v>2781</v>
-      </c>
       <c r="I396" s="2" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="397" spans="1:9">
       <c r="A397" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="G397" s="1" t="s">
         <v>2782</v>
       </c>
-      <c r="B397" s="10" t="s">
+      <c r="H397" s="1" t="s">
         <v>2783</v>
       </c>
-      <c r="C397" s="1" t="s">
-        <v>2784</v>
-      </c>
-      <c r="F397" s="1" t="s">
-        <v>2980</v>
-      </c>
-      <c r="G397" s="1" t="s">
-        <v>2785</v>
-      </c>
-      <c r="H397" s="1" t="s">
-        <v>2786</v>
-      </c>
       <c r="I397" s="1" t="s">
-        <v>3080</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="398" spans="1:9">
       <c r="A398" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B398" s="10" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G398" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="B398" s="10" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C398" s="1" t="s">
+      <c r="H398" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="D398" s="1" t="s">
-        <v>2789</v>
-      </c>
-      <c r="G398" s="1" t="s">
-        <v>2790</v>
-      </c>
-      <c r="H398" s="1" t="s">
-        <v>2791</v>
-      </c>
       <c r="I398" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="399" spans="1:9">
       <c r="A399" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B399" s="10" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="H399" s="1" t="s">
         <v>2792</v>
       </c>
-      <c r="B399" s="10" t="s">
-        <v>3164</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>2793</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>2794</v>
-      </c>
-      <c r="H399" s="1" t="s">
-        <v>2795</v>
-      </c>
       <c r="I399" s="1" t="s">
-        <v>3104</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="400" spans="1:9">
       <c r="A400" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B400" s="10" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D400" s="6" t="s">
+        <v>3155</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="G400" s="1" t="s">
         <v>2796</v>
       </c>
-      <c r="B400" s="10" t="s">
+      <c r="H400" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="D400" s="6" t="s">
-        <v>3161</v>
-      </c>
-      <c r="E400" s="1" t="s">
-        <v>2798</v>
-      </c>
-      <c r="F400" s="1" t="s">
-        <v>2981</v>
-      </c>
-      <c r="G400" s="1" t="s">
-        <v>2799</v>
-      </c>
-      <c r="H400" s="1" t="s">
-        <v>2800</v>
-      </c>
       <c r="I400" s="1" t="s">
-        <v>3087</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="401" spans="1:10">
       <c r="A401" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B401" s="10" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D401" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="B401" s="10" t="s">
+      <c r="E401" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="C401" s="1" t="s">
+      <c r="F401" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="H401" s="1" t="s">
         <v>2803</v>
       </c>
-      <c r="D401" s="1" t="s">
-        <v>2804</v>
-      </c>
-      <c r="E401" s="1" t="s">
-        <v>2805</v>
-      </c>
-      <c r="F401" s="1" t="s">
-        <v>2982</v>
-      </c>
-      <c r="H401" s="1" t="s">
-        <v>2806</v>
-      </c>
       <c r="I401" s="1" t="s">
-        <v>3138</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="402" spans="1:10">
       <c r="A402" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="B402" s="10" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="G402" s="1" t="s">
         <v>2807</v>
       </c>
-      <c r="C402" s="1" t="s">
+      <c r="H402" s="1" t="s">
         <v>2808</v>
       </c>
-      <c r="D402" s="1" t="s">
-        <v>2809</v>
-      </c>
-      <c r="F402" s="1" t="s">
-        <v>2983</v>
-      </c>
-      <c r="G402" s="1" t="s">
-        <v>2810</v>
-      </c>
-      <c r="H402" s="1" t="s">
-        <v>2811</v>
-      </c>
       <c r="I402" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="403" spans="1:10">
       <c r="A403" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="H403" s="1" t="s">
         <v>481</v>
       </c>
       <c r="I403" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="404" spans="1:10">
       <c r="A404" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B404" s="10" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D404" s="6" t="s">
+        <v>3156</v>
+      </c>
+      <c r="E404" s="6" t="s">
         <v>2814</v>
       </c>
-      <c r="B404" s="10" t="s">
+      <c r="F404" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="G404" s="1" t="s">
         <v>2815</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="H404" s="1" t="s">
         <v>2816</v>
       </c>
-      <c r="D404" s="6" t="s">
-        <v>3162</v>
-      </c>
-      <c r="E404" s="6" t="s">
-        <v>2817</v>
-      </c>
-      <c r="F404" s="1" t="s">
-        <v>2985</v>
-      </c>
-      <c r="G404" s="1" t="s">
-        <v>2818</v>
-      </c>
-      <c r="H404" s="1" t="s">
-        <v>2819</v>
-      </c>
       <c r="I404" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="405" spans="1:10">
       <c r="A405" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B405" s="10" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D405" s="1" t="s">
         <v>2820</v>
       </c>
-      <c r="B405" s="10" t="s">
+      <c r="E405" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="C405" s="1" t="s">
-        <v>2822</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>2823</v>
-      </c>
-      <c r="E405" s="1" t="s">
-        <v>2824</v>
-      </c>
       <c r="F405" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="I405" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="J405" s="2"/>
     </row>
     <row r="406" spans="1:10">
       <c r="A406" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B406" s="10" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="H406" s="1" t="s">
         <v>2825</v>
       </c>
-      <c r="B406" s="10" t="s">
-        <v>2826</v>
-      </c>
-      <c r="E406" s="1" t="s">
-        <v>2827</v>
-      </c>
-      <c r="F406" s="1" t="s">
-        <v>2987</v>
-      </c>
-      <c r="H406" s="1" t="s">
-        <v>2828</v>
-      </c>
       <c r="I406" s="1" t="s">
-        <v>3105</v>
+        <v>3099</v>
       </c>
       <c r="J406" s="2"/>
     </row>
     <row r="407" spans="1:10">
       <c r="A407" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B407" s="10" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="G407" s="1" t="s">
         <v>2829</v>
-      </c>
-      <c r="B407" s="10" t="s">
-        <v>3163</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>2830</v>
-      </c>
-      <c r="E407" s="1" t="s">
-        <v>2831</v>
-      </c>
-      <c r="F407" s="1" t="s">
-        <v>2988</v>
-      </c>
-      <c r="G407" s="1" t="s">
-        <v>2832</v>
       </c>
       <c r="H407" s="1" t="s">
         <v>768</v>
       </c>
       <c r="I407" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="J407" s="2"/>
     </row>

--- a/bookDB2.xlsx
+++ b/bookDB2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sme13\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sme13\OneDrive\바탕 화면\dev\real-dnb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329BA75B-A57A-452E-9AB3-E501A9978B8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C77816-AA5E-4361-8A1F-1F02A7DA4CE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{509E9B0D-9459-46C0-BD3F-1330B5019B57}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="3193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="3192">
   <si>
     <t>라이너노트</t>
   </si>
@@ -8542,9 +8542,6 @@
   </si>
   <si>
     <t>http://blog.naver.com/borrysim25</t>
-  </si>
-  <si>
-    <t>https://dn-xl1-story.kakaocdn.net/dn/bSmG1F/hyuzSK8SRd/KlCCz8lMH0nfjwZEhWPvZk/img_xl.jpg?width=1707&amp;height=1281&amp;avg=%2523746552&amp;v=2</t>
   </si>
   <si>
     <t>Wed-Sun 11:00 ~ 20:00</t>
@@ -10456,7 +10453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10489,6 +10486,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10809,10 +10809,10 @@
   <dimension ref="A1:J406"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B357" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C372" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B361" sqref="B361"/>
+      <selection pane="bottomRight" activeCell="E379" sqref="E379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10943,7 +10943,7 @@
         <v>2006</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10951,7 +10951,7 @@
         <v>1733</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1734</v>
@@ -10996,7 +10996,7 @@
         <v>1748</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11004,7 +11004,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -11013,7 +11013,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
@@ -11059,7 +11059,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -11242,7 +11242,7 @@
         <v>78</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11305,7 +11305,7 @@
         <v>91</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>92</v>
@@ -11389,7 +11389,7 @@
         <v>108</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>109</v>
@@ -11398,7 +11398,7 @@
         <v>110</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -11406,7 +11406,7 @@
         <v>111</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>112</v>
@@ -11464,7 +11464,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>126</v>
@@ -11586,7 +11586,7 @@
         <v>150</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -11773,7 +11773,7 @@
         <v>179</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>180</v>
@@ -11822,7 +11822,7 @@
         <v>191</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>192</v>
@@ -11958,7 +11958,7 @@
         <v>223</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>224</v>
@@ -12092,7 +12092,7 @@
         <v>247</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>248</v>
@@ -12147,7 +12147,7 @@
         <v>253</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>254</v>
@@ -12167,7 +12167,7 @@
         <v>258</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>259</v>
@@ -12176,7 +12176,7 @@
         <v>260</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>261</v>
@@ -12373,7 +12373,7 @@
         <v>299</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>1954</v>
@@ -12416,10 +12416,10 @@
         <v>307</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>3189</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>3190</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>308</v>
@@ -12688,7 +12688,7 @@
         <v>363</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>364</v>
@@ -12717,7 +12717,7 @@
         <v>370</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>371</v>
@@ -12943,7 +12943,7 @@
         <v>423</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>424</v>
@@ -12952,7 +12952,7 @@
         <v>425</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>426</v>
@@ -13134,7 +13134,7 @@
         <v>444</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>445</v>
@@ -13195,7 +13195,7 @@
         <v>458</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>459</v>
@@ -13212,7 +13212,7 @@
         <v>461</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>462</v>
@@ -13247,7 +13247,7 @@
         <v>468</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>469</v>
@@ -13290,7 +13290,7 @@
         <v>476</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>477</v>
@@ -13649,7 +13649,7 @@
         <v>1041</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>1042</v>
@@ -13670,7 +13670,7 @@
         <v>1045</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>1046</v>
@@ -13745,7 +13745,7 @@
         <v>1056</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>1057</v>
@@ -13809,7 +13809,7 @@
         <v>1071</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>1072</v>
@@ -13882,7 +13882,7 @@
         <v>1081</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>1082</v>
@@ -13966,7 +13966,7 @@
         <v>1095</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -14003,7 +14003,7 @@
         <v>481</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>482</v>
@@ -14035,10 +14035,10 @@
         <v>2009</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>1725</v>
@@ -14107,7 +14107,7 @@
         <v>1114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1115</v>
@@ -14214,7 +14214,7 @@
         <v>1135</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>1136</v>
@@ -14443,7 +14443,7 @@
         <v>2019</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>1191</v>
@@ -14582,7 +14582,7 @@
         <v>1221</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1222</v>
@@ -14684,7 +14684,7 @@
         <v>289</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -15123,7 +15123,7 @@
         <v>1344</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>1345</v>
@@ -15288,7 +15288,7 @@
         <v>1423</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>1424</v>
@@ -15306,13 +15306,13 @@
         <v>672</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>673</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>2089</v>
@@ -15422,7 +15422,7 @@
         <v>1394</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>1395</v>
@@ -15437,7 +15437,7 @@
         <v>1397</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="J172" s="2"/>
     </row>
@@ -15527,7 +15527,7 @@
         <v>1418</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>1419</v>
@@ -15578,7 +15578,7 @@
         <v>1433</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>1434</v>
@@ -15599,7 +15599,7 @@
         <v>1439</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="J178" s="2"/>
     </row>
@@ -15608,7 +15608,7 @@
         <v>1440</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>1441</v>
@@ -15697,7 +15697,7 @@
         <v>1460</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>1461</v>
@@ -15766,7 +15766,7 @@
         <v>1475</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="J184" s="2"/>
     </row>
@@ -15775,7 +15775,7 @@
         <v>1476</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>1477</v>
@@ -15798,7 +15798,7 @@
         <v>1481</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>1482</v>
@@ -15852,7 +15852,7 @@
         <v>1493</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>1494</v>
@@ -16059,7 +16059,7 @@
         <v>14</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -16197,7 +16197,7 @@
         <v>1562</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>1563</v>
@@ -16329,7 +16329,7 @@
         <v>1594</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -16337,7 +16337,7 @@
         <v>1595</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>1596</v>
@@ -16604,7 +16604,7 @@
         <v>548</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>549</v>
@@ -16630,7 +16630,7 @@
         <v>554</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>555</v>
@@ -16639,7 +16639,7 @@
         <v>556</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>557</v>
@@ -16708,7 +16708,7 @@
         <v>563</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>564</v>
@@ -16749,7 +16749,7 @@
         <v>415</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -16850,7 +16850,7 @@
         <v>599</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -16876,7 +16876,7 @@
         <v>289</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -16939,7 +16939,7 @@
         <v>606</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>607</v>
@@ -16986,7 +16986,7 @@
         <v>2247</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -16994,7 +16994,7 @@
         <v>618</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>619</v>
@@ -17020,7 +17020,7 @@
         <v>623</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>624</v>
@@ -17118,7 +17118,7 @@
         <v>643</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>644</v>
@@ -17141,13 +17141,13 @@
         <v>648</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>649</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>650</v>
@@ -17176,7 +17176,7 @@
         <v>1032</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>654</v>
@@ -17338,7 +17338,7 @@
         <v>691</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>692</v>
@@ -17425,7 +17425,7 @@
         <v>2266</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -17485,7 +17485,7 @@
         <v>721</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>722</v>
@@ -17531,7 +17531,7 @@
         <v>731</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>732</v>
@@ -17577,7 +17577,7 @@
         <v>740</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>741</v>
@@ -17632,7 +17632,7 @@
         <v>753</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>754</v>
@@ -17730,7 +17730,7 @@
         <v>768</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>769</v>
@@ -17785,7 +17785,7 @@
         <v>781</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>782</v>
@@ -17973,7 +17973,7 @@
         <v>1035</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>815</v>
@@ -18037,7 +18037,7 @@
         <v>1662</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -18094,7 +18094,7 @@
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="1" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>1861</v>
@@ -18115,7 +18115,7 @@
         <v>833</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -18155,7 +18155,7 @@
         <v>840</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>841</v>
@@ -18467,7 +18467,7 @@
         <v>908</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>909</v>
@@ -18565,7 +18565,7 @@
         <v>928</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>929</v>
@@ -18623,7 +18623,7 @@
         <v>941</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>942</v>
@@ -18643,7 +18643,7 @@
         <v>945</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>946</v>
@@ -18669,7 +18669,7 @@
         <v>950</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>951</v>
@@ -18744,7 +18744,7 @@
         <v>962</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>963</v>
@@ -18880,7 +18880,7 @@
         <v>987</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>988</v>
@@ -18977,7 +18977,7 @@
         <v>1019</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -18985,7 +18985,7 @@
         <v>1004</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>1005</v>
@@ -19008,7 +19008,7 @@
         <v>2342</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>2343</v>
@@ -19017,16 +19017,16 @@
         <v>2344</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>526</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -19043,10 +19043,10 @@
         <v>2348</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="G310" s="1" t="s">
         <v>2349</v>
@@ -19055,7 +19055,7 @@
         <v>2350</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -19063,7 +19063,7 @@
         <v>2351</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>2352</v>
@@ -19072,10 +19072,10 @@
         <v>2353</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="G311" s="1" t="s">
         <v>2354</v>
@@ -19084,7 +19084,7 @@
         <v>289</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -19098,10 +19098,10 @@
         <v>2353</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="G312" s="1" t="s">
         <v>2357</v>
@@ -19110,15 +19110,15 @@
         <v>289</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" s="2" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>2358</v>
@@ -19127,16 +19127,16 @@
         <v>2359</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>2360</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -19156,13 +19156,13 @@
         <v>2365</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>289</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -19179,13 +19179,13 @@
         <v>2369</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>2370</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -19193,19 +19193,19 @@
         <v>2371</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>2372</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="E316" s="6" t="s">
         <v>2373</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="G316" s="1" t="s">
         <v>2374</v>
@@ -19214,7 +19214,7 @@
         <v>2375</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -19234,13 +19234,13 @@
         <v>2380</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -19248,16 +19248,16 @@
         <v>2381</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>2382</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="G318" s="1" t="s">
         <v>2383</v>
@@ -19266,15 +19266,15 @@
         <v>2384</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="2" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>2385</v>
@@ -19283,13 +19283,13 @@
         <v>2386</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>2387</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -19297,13 +19297,13 @@
         <v>2388</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="G320" s="1" t="s">
         <v>2389</v>
@@ -19312,7 +19312,7 @@
         <v>2390</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -19320,20 +19320,20 @@
         <v>2391</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>2392</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="F321" s="2"/>
       <c r="H321" s="1" t="s">
         <v>2393</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -19347,13 +19347,13 @@
         <v>2396</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="G322" s="1" t="s">
         <v>2397</v>
@@ -19362,7 +19362,7 @@
         <v>2398</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -19370,7 +19370,7 @@
         <v>2399</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>2400</v>
@@ -19379,16 +19379,16 @@
         <v>2401</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -19402,22 +19402,22 @@
         <v>2405</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>2406</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="G324" s="1" t="s">
         <v>2407</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -19425,7 +19425,7 @@
         <v>2408</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>2409</v>
@@ -19434,10 +19434,10 @@
         <v>2410</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="G325" s="1" t="s">
         <v>2411</v>
@@ -19446,7 +19446,7 @@
         <v>2412</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -19466,7 +19466,7 @@
         <v>2417</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="G326" s="1" t="s">
         <v>2418</v>
@@ -19475,7 +19475,7 @@
         <v>2419</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -19492,13 +19492,13 @@
         <v>2423</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>2424</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -19515,10 +19515,10 @@
         <v>2428</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="G328" s="1" t="s">
         <v>2429</v>
@@ -19527,7 +19527,7 @@
         <v>2430</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -19547,7 +19547,7 @@
         <v>2435</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="G329" s="1" t="s">
         <v>2436</v>
@@ -19556,7 +19556,7 @@
         <v>2437</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -19576,16 +19576,16 @@
         <v>2442</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="G330" s="1" t="s">
         <v>2443</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -19599,7 +19599,7 @@
         <v>2446</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>2447</v>
@@ -19608,7 +19608,7 @@
         <v>2448</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -19616,20 +19616,20 @@
         <v>2449</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>2450</v>
       </c>
       <c r="E332" s="2"/>
       <c r="F332" s="1" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>2451</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -19649,7 +19649,7 @@
         <v>2456</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G333" s="1" t="s">
         <v>2457</v>
@@ -19658,7 +19658,7 @@
         <v>2458</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -19666,7 +19666,7 @@
         <v>2459</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>2460</v>
@@ -19678,13 +19678,13 @@
         <v>2462</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="H334" s="1" t="s">
         <v>2463</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -19704,13 +19704,13 @@
         <v>2468</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>2469</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -19730,13 +19730,13 @@
         <v>2474</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>2475</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -19756,7 +19756,7 @@
         <v>2480</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="G337" s="1" t="s">
         <v>2481</v>
@@ -19765,7 +19765,7 @@
         <v>2482</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -19785,7 +19785,7 @@
         <v>2487</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="G338" s="1" t="s">
         <v>2488</v>
@@ -19794,7 +19794,7 @@
         <v>408</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -19802,7 +19802,7 @@
         <v>2489</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>2490</v>
@@ -19814,13 +19814,13 @@
         <v>2492</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="H339" s="1" t="s">
         <v>2493</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -19828,22 +19828,22 @@
         <v>2494</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>2495</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="H340" s="1" t="s">
         <v>2496</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -19863,7 +19863,7 @@
         <v>2501</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="G341" s="1" t="s">
         <v>2502</v>
@@ -19872,12 +19872,12 @@
         <v>2503</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="342" spans="1:9">
       <c r="A342" s="2" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="B342" s="10" t="s">
         <v>2504</v>
@@ -19889,7 +19889,7 @@
         <v>2506</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="G342" s="1" t="s">
         <v>2507</v>
@@ -19898,7 +19898,7 @@
         <v>2508</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -19915,10 +19915,10 @@
         <v>2512</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="G343" s="1" t="s">
         <v>2513</v>
@@ -19927,7 +19927,7 @@
         <v>2514</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -19947,13 +19947,13 @@
         <v>2519</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="H344" s="1" t="s">
         <v>2520</v>
       </c>
       <c r="I344" s="1" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -19961,7 +19961,7 @@
         <v>2521</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>2522</v>
@@ -19971,13 +19971,13 @@
       </c>
       <c r="E345" s="2"/>
       <c r="F345" s="1" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -19997,13 +19997,13 @@
         <v>2528</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="H346" s="1" t="s">
         <v>2529</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -20018,13 +20018,13 @@
       </c>
       <c r="E347" s="2"/>
       <c r="F347" s="1" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="H347" s="1" t="s">
         <v>2533</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -20032,7 +20032,7 @@
         <v>2534</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>2535</v>
@@ -20041,10 +20041,10 @@
         <v>2536</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="G348" s="1" t="s">
         <v>2537</v>
@@ -20053,7 +20053,7 @@
         <v>2538</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -20073,7 +20073,7 @@
         <v>2543</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="G349" s="1" t="s">
         <v>2544</v>
@@ -20082,7 +20082,7 @@
         <v>2545</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -20090,7 +20090,7 @@
         <v>2546</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>2547</v>
@@ -20099,7 +20099,7 @@
         <v>2548</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="G350" s="1" t="s">
         <v>2549</v>
@@ -20108,7 +20108,7 @@
         <v>2550</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -20128,13 +20128,13 @@
         <v>2555</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="H351" s="1" t="s">
         <v>2556</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -20142,7 +20142,7 @@
         <v>2557</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>2558</v>
@@ -20151,10 +20151,10 @@
         <v>2559</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="G352" s="1" t="s">
         <v>2560</v>
@@ -20163,7 +20163,7 @@
         <v>2561</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -20171,7 +20171,7 @@
         <v>2562</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>2563</v>
@@ -20183,13 +20183,13 @@
         <v>2565</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="H353" s="1" t="s">
         <v>2566</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -20197,7 +20197,7 @@
         <v>2567</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>2568</v>
@@ -20209,7 +20209,7 @@
         <v>2570</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="G354" s="1" t="s">
         <v>2571</v>
@@ -20218,7 +20218,7 @@
         <v>102</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -20235,13 +20235,13 @@
         <v>2575</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="H355" s="1" t="s">
         <v>2576</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -20261,13 +20261,13 @@
         <v>2581</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="H356" s="1" t="s">
         <v>2582</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -20275,7 +20275,7 @@
         <v>2583</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>2584</v>
@@ -20287,7 +20287,7 @@
         <v>2586</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="G357" s="1" t="s">
         <v>2587</v>
@@ -20296,7 +20296,7 @@
         <v>45</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -20316,7 +20316,7 @@
         <v>2592</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="G358" s="1" t="s">
         <v>2593</v>
@@ -20325,7 +20325,7 @@
         <v>2594</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -20333,7 +20333,7 @@
         <v>2595</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>2596</v>
@@ -20343,7 +20343,7 @@
       </c>
       <c r="E359" s="2"/>
       <c r="F359" s="1" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="G359" s="1" t="s">
         <v>2598</v>
@@ -20352,7 +20352,7 @@
         <v>2599</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -20370,13 +20370,13 @@
       </c>
       <c r="E360" s="2"/>
       <c r="F360" s="1" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="H360" s="1" t="s">
         <v>2604</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -20394,13 +20394,13 @@
       </c>
       <c r="E361" s="2"/>
       <c r="F361" s="1" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>415</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -20418,7 +20418,7 @@
       </c>
       <c r="E362" s="2"/>
       <c r="F362" s="1" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="G362" s="1" t="s">
         <v>2613</v>
@@ -20427,7 +20427,7 @@
         <v>2614</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -20435,7 +20435,7 @@
         <v>2615</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>2616</v>
@@ -20445,13 +20445,13 @@
       </c>
       <c r="E363" s="2"/>
       <c r="F363" s="1" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="H363" s="1" t="s">
         <v>2618</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -20459,7 +20459,7 @@
         <v>2619</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>2620</v>
@@ -20471,14 +20471,14 @@
         <v>2622</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="G364" s="7"/>
       <c r="H364" s="1" t="s">
         <v>344</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -20492,27 +20492,27 @@
         <v>2625</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>2626</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="G365" s="7" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H365" s="1" t="s">
         <v>2514</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="366" spans="1:9">
       <c r="A366" s="2" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="B366" s="5" t="s">
         <v>2627</v>
@@ -20521,20 +20521,20 @@
         <v>2628</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="E366" s="2"/>
       <c r="F366" s="1" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="G366" s="7" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H366" s="1" t="s">
         <v>2629</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -20542,7 +20542,7 @@
         <v>2630</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>2631</v>
@@ -20554,13 +20554,13 @@
         <v>2633</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="H367" s="1" t="s">
         <v>2634</v>
       </c>
       <c r="I367" s="1" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -20580,13 +20580,13 @@
         <v>2639</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="H368" s="1" t="s">
         <v>2640</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -20604,7 +20604,7 @@
         <v>526</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -20612,28 +20612,28 @@
         <v>2644</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>2645</v>
       </c>
       <c r="E370" s="2"/>
       <c r="F370" s="1" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="H370" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="371" spans="1:9">
       <c r="A371" s="1" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>2646</v>
@@ -20645,7 +20645,7 @@
         <v>2648</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -20653,20 +20653,20 @@
         <v>2649</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>2650</v>
       </c>
       <c r="E372" s="2"/>
       <c r="F372" s="1" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="H372" s="1" t="s">
         <v>2651</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -20681,13 +20681,13 @@
       </c>
       <c r="E373" s="2"/>
       <c r="F373" s="1" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="H373" s="1" t="s">
         <v>744</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -20695,7 +20695,7 @@
         <v>2655</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>2656</v>
@@ -20707,7 +20707,7 @@
         <v>2658</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="G374" s="1" t="s">
         <v>2659</v>
@@ -20716,7 +20716,7 @@
         <v>2660</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -20736,13 +20736,13 @@
         <v>2665</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -20750,20 +20750,20 @@
         <v>2666</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>2667</v>
       </c>
       <c r="E376" s="2"/>
       <c r="F376" s="1" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="H376" s="1" t="s">
         <v>408</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -20771,7 +20771,7 @@
         <v>2668</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>2669</v>
@@ -20779,772 +20779,770 @@
       <c r="D377" s="1" t="s">
         <v>2670</v>
       </c>
-      <c r="E377" s="2" t="s">
+      <c r="E377" s="11"/>
+      <c r="F377" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="H377" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="F377" s="1" t="s">
-        <v>2946</v>
-      </c>
-      <c r="H377" s="1" t="s">
-        <v>2672</v>
-      </c>
       <c r="I377" s="2" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="378" spans="1:9">
       <c r="A378" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C378" s="1" t="s">
         <v>2673</v>
-      </c>
-      <c r="B378" s="5" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>2674</v>
       </c>
       <c r="E378" s="2"/>
       <c r="F378" s="1" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="H378" s="1" t="s">
         <v>508</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="379" spans="1:9">
       <c r="A379" s="2" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B379" s="5" t="s">
         <v>2675</v>
       </c>
-      <c r="B379" s="5" t="s">
+      <c r="C379" s="1" t="s">
         <v>2676</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="D379" s="1" t="s">
         <v>2677</v>
       </c>
-      <c r="D379" s="1" t="s">
+      <c r="E379" s="2" t="s">
         <v>2678</v>
       </c>
-      <c r="E379" s="2" t="s">
+      <c r="F379" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="H379" s="1" t="s">
         <v>2679</v>
       </c>
-      <c r="F379" s="1" t="s">
-        <v>2948</v>
-      </c>
-      <c r="H379" s="1" t="s">
-        <v>2680</v>
-      </c>
       <c r="I379" s="2" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="380" spans="1:9">
       <c r="A380" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C380" s="1" t="s">
         <v>2681</v>
       </c>
-      <c r="B380" s="5" t="s">
-        <v>3148</v>
-      </c>
-      <c r="C380" s="1" t="s">
+      <c r="D380" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="D380" s="1" t="s">
+      <c r="E380" s="2" t="s">
         <v>2683</v>
       </c>
-      <c r="E380" s="2" t="s">
+      <c r="F380" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="G380" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="F380" s="1" t="s">
-        <v>2949</v>
-      </c>
-      <c r="G380" s="1" t="s">
+      <c r="H380" s="1" t="s">
         <v>2685</v>
       </c>
-      <c r="H380" s="1" t="s">
-        <v>2686</v>
-      </c>
       <c r="I380" s="2" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="381" spans="1:9">
       <c r="A381" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B381" s="10" t="s">
         <v>2687</v>
       </c>
-      <c r="B381" s="10" t="s">
+      <c r="C381" s="1" t="s">
         <v>2688</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="D381" s="1" t="s">
         <v>2689</v>
       </c>
-      <c r="D381" s="1" t="s">
+      <c r="F381" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="H381" s="1" t="s">
         <v>2690</v>
       </c>
-      <c r="F381" s="1" t="s">
-        <v>2950</v>
-      </c>
-      <c r="H381" s="1" t="s">
-        <v>2691</v>
-      </c>
       <c r="I381" s="1" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="382" spans="1:9">
       <c r="A382" s="2" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C382" s="1" t="s">
         <v>2692</v>
       </c>
-      <c r="B382" s="5" t="s">
-        <v>3009</v>
-      </c>
-      <c r="C382" s="1" t="s">
+      <c r="D382" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="D382" s="1" t="s">
+      <c r="E382" s="2" t="s">
         <v>2694</v>
       </c>
-      <c r="E382" s="2" t="s">
+      <c r="F382" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="G382" s="1" t="s">
         <v>2695</v>
       </c>
-      <c r="F382" s="1" t="s">
-        <v>2951</v>
-      </c>
-      <c r="G382" s="1" t="s">
+      <c r="H382" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="H382" s="1" t="s">
-        <v>2697</v>
-      </c>
       <c r="I382" s="2" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="383" spans="1:9">
       <c r="A383" s="2" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B383" s="5" t="s">
         <v>2698</v>
       </c>
-      <c r="B383" s="5" t="s">
+      <c r="C383" s="1" t="s">
         <v>2699</v>
       </c>
-      <c r="C383" s="1" t="s">
+      <c r="D383" s="1" t="s">
         <v>2700</v>
       </c>
-      <c r="D383" s="1" t="s">
+      <c r="E383" s="6" t="s">
         <v>2701</v>
       </c>
-      <c r="E383" s="6" t="s">
+      <c r="F383" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="G383" s="1" t="s">
         <v>2702</v>
       </c>
-      <c r="F383" s="1" t="s">
-        <v>2952</v>
-      </c>
-      <c r="G383" s="1" t="s">
+      <c r="H383" s="1" t="s">
         <v>2703</v>
       </c>
-      <c r="H383" s="1" t="s">
-        <v>2704</v>
-      </c>
       <c r="I383" s="2" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="384" spans="1:9">
       <c r="A384" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B384" s="10" t="s">
         <v>2705</v>
       </c>
-      <c r="B384" s="10" t="s">
+      <c r="C384" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="C384" s="1" t="s">
+      <c r="D384" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="D384" s="1" t="s">
+      <c r="E384" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="E384" s="1" t="s">
+      <c r="F384" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="G384" s="1" t="s">
         <v>2709</v>
       </c>
-      <c r="F384" s="1" t="s">
-        <v>2953</v>
-      </c>
-      <c r="G384" s="1" t="s">
+      <c r="H384" s="1" t="s">
         <v>2710</v>
       </c>
-      <c r="H384" s="1" t="s">
-        <v>2711</v>
-      </c>
       <c r="I384" s="1" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="385" spans="1:9">
       <c r="A385" s="2" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B385" s="5" t="s">
         <v>2712</v>
       </c>
-      <c r="B385" s="5" t="s">
+      <c r="C385" s="1" t="s">
         <v>2713</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="D385" s="1" t="s">
         <v>2714</v>
       </c>
-      <c r="D385" s="1" t="s">
+      <c r="E385" s="6" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="H385" s="1" t="s">
         <v>2715</v>
       </c>
-      <c r="E385" s="6" t="s">
-        <v>2988</v>
-      </c>
-      <c r="F385" s="1" t="s">
-        <v>2954</v>
-      </c>
-      <c r="H385" s="1" t="s">
-        <v>2716</v>
-      </c>
       <c r="I385" s="2" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="386" spans="1:9">
       <c r="A386" s="2" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C386" s="1" t="s">
         <v>2717</v>
       </c>
-      <c r="B386" s="5" t="s">
-        <v>3147</v>
-      </c>
-      <c r="C386" s="1" t="s">
+      <c r="D386" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="D386" s="1" t="s">
+      <c r="E386" s="2" t="s">
         <v>2719</v>
       </c>
-      <c r="E386" s="2" t="s">
+      <c r="F386" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="G386" s="1" t="s">
         <v>2720</v>
       </c>
-      <c r="F386" s="1" t="s">
-        <v>2955</v>
-      </c>
-      <c r="G386" s="1" t="s">
+      <c r="H386" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="H386" s="1" t="s">
-        <v>2722</v>
-      </c>
       <c r="I386" s="2" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="387" spans="1:9">
       <c r="A387" s="2" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B387" s="5" t="s">
         <v>2723</v>
       </c>
-      <c r="B387" s="5" t="s">
+      <c r="C387" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="C387" s="1" t="s">
+      <c r="D387" s="1" t="s">
         <v>2725</v>
       </c>
-      <c r="D387" s="1" t="s">
+      <c r="E387" s="6" t="s">
         <v>2726</v>
       </c>
-      <c r="E387" s="6" t="s">
+      <c r="F387" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="G387" s="1" t="s">
         <v>2727</v>
-      </c>
-      <c r="F387" s="1" t="s">
-        <v>2956</v>
-      </c>
-      <c r="G387" s="1" t="s">
-        <v>2728</v>
       </c>
       <c r="H387" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I387" s="2" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="388" spans="1:9">
       <c r="A388" s="2" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>2729</v>
       </c>
-      <c r="B388" s="5" t="s">
-        <v>3008</v>
-      </c>
-      <c r="C388" s="1" t="s">
+      <c r="D388" s="1" t="s">
         <v>2730</v>
       </c>
-      <c r="D388" s="1" t="s">
+      <c r="E388" s="2" t="s">
         <v>2731</v>
       </c>
-      <c r="E388" s="2" t="s">
+      <c r="F388" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="H388" s="1" t="s">
         <v>2732</v>
       </c>
-      <c r="F388" s="1" t="s">
-        <v>2997</v>
-      </c>
-      <c r="H388" s="1" t="s">
-        <v>2733</v>
-      </c>
       <c r="I388" s="2" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="389" spans="1:9">
       <c r="A389" s="2" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>2998</v>
       </c>
-      <c r="B389" s="5" t="s">
-        <v>3007</v>
-      </c>
-      <c r="C389" s="1" t="s">
+      <c r="D389" s="6" t="s">
         <v>2999</v>
-      </c>
-      <c r="D389" s="6" t="s">
-        <v>3000</v>
       </c>
       <c r="E389" s="2"/>
       <c r="F389" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="G389" s="1" t="s">
         <v>3001</v>
       </c>
-      <c r="G389" s="1" t="s">
+      <c r="H389" s="1" t="s">
         <v>3002</v>
       </c>
-      <c r="H389" s="1" t="s">
+      <c r="I389" s="2" t="s">
         <v>3003</v>
-      </c>
-      <c r="I389" s="2" t="s">
-        <v>3004</v>
       </c>
     </row>
     <row r="390" spans="1:9">
       <c r="A390" s="2" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C390" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="B390" s="5" t="s">
-        <v>3146</v>
-      </c>
-      <c r="C390" s="1" t="s">
+      <c r="D390" s="1" t="s">
         <v>2735</v>
       </c>
-      <c r="D390" s="1" t="s">
+      <c r="E390" s="2" t="s">
         <v>2736</v>
       </c>
-      <c r="E390" s="2" t="s">
+      <c r="F390" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="G390" s="1" t="s">
         <v>2737</v>
       </c>
-      <c r="F390" s="1" t="s">
-        <v>2957</v>
-      </c>
-      <c r="G390" s="1" t="s">
+      <c r="H390" s="1" t="s">
         <v>2738</v>
       </c>
-      <c r="H390" s="1" t="s">
-        <v>2739</v>
-      </c>
       <c r="I390" s="2" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="391" spans="1:9">
       <c r="A391" s="2" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B391" s="5" t="s">
         <v>2740</v>
       </c>
-      <c r="B391" s="5" t="s">
+      <c r="C391" s="1" t="s">
         <v>2741</v>
       </c>
-      <c r="C391" s="1" t="s">
+      <c r="D391" s="1" t="s">
         <v>2742</v>
       </c>
-      <c r="D391" s="1" t="s">
+      <c r="E391" s="2" t="s">
         <v>2743</v>
       </c>
-      <c r="E391" s="2" t="s">
+      <c r="F391" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="H391" s="1" t="s">
         <v>2744</v>
       </c>
-      <c r="F391" s="1" t="s">
-        <v>2958</v>
-      </c>
-      <c r="H391" s="1" t="s">
-        <v>2745</v>
-      </c>
       <c r="I391" s="2" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="392" spans="1:9">
       <c r="A392" s="2" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C392" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="B392" s="5" t="s">
-        <v>3006</v>
-      </c>
-      <c r="C392" s="1" t="s">
+      <c r="D392" s="1" t="s">
         <v>2747</v>
       </c>
-      <c r="D392" s="1" t="s">
+      <c r="E392" s="2" t="s">
         <v>2748</v>
       </c>
-      <c r="E392" s="2" t="s">
+      <c r="F392" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="G392" s="1" t="s">
         <v>2749</v>
       </c>
-      <c r="F392" s="1" t="s">
-        <v>2959</v>
-      </c>
-      <c r="G392" s="1" t="s">
+      <c r="H392" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="H392" s="1" t="s">
-        <v>2751</v>
-      </c>
       <c r="I392" s="2" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="393" spans="1:9">
       <c r="A393" s="2" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B393" s="5" t="s">
         <v>2752</v>
       </c>
-      <c r="B393" s="5" t="s">
+      <c r="C393" s="1" t="s">
         <v>2753</v>
       </c>
-      <c r="C393" s="1" t="s">
+      <c r="D393" s="6" t="s">
+        <v>3139</v>
+      </c>
+      <c r="E393" s="2" t="s">
         <v>2754</v>
       </c>
-      <c r="D393" s="6" t="s">
-        <v>3140</v>
-      </c>
-      <c r="E393" s="2" t="s">
-        <v>2755</v>
-      </c>
       <c r="F393" s="1" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="H393" s="1" t="s">
         <v>1095</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="394" spans="1:9">
       <c r="A394" s="2" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C394" s="1" t="s">
         <v>2756</v>
       </c>
-      <c r="B394" s="5" t="s">
-        <v>2989</v>
-      </c>
-      <c r="C394" s="1" t="s">
+      <c r="D394" s="1" t="s">
         <v>2757</v>
       </c>
-      <c r="D394" s="1" t="s">
+      <c r="E394" s="2" t="s">
         <v>2758</v>
       </c>
-      <c r="E394" s="2" t="s">
+      <c r="F394" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="H394" s="1" t="s">
         <v>2759</v>
       </c>
-      <c r="F394" s="1" t="s">
-        <v>2961</v>
-      </c>
-      <c r="H394" s="1" t="s">
-        <v>2760</v>
-      </c>
       <c r="I394" s="2" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="395" spans="1:9">
       <c r="A395" s="2" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B395" s="5" t="s">
         <v>2761</v>
       </c>
-      <c r="B395" s="5" t="s">
+      <c r="C395" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="C395" s="1" t="s">
+      <c r="D395" s="1" t="s">
         <v>2763</v>
       </c>
-      <c r="D395" s="1" t="s">
+      <c r="E395" s="2" t="s">
         <v>2764</v>
       </c>
-      <c r="E395" s="2" t="s">
+      <c r="F395" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="H395" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="F395" s="1" t="s">
-        <v>2962</v>
-      </c>
-      <c r="H395" s="1" t="s">
-        <v>2766</v>
-      </c>
       <c r="I395" s="2" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="396" spans="1:9">
       <c r="A396" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B396" s="10" t="s">
         <v>2767</v>
       </c>
-      <c r="B396" s="10" t="s">
+      <c r="C396" s="1" t="s">
         <v>2768</v>
       </c>
-      <c r="C396" s="1" t="s">
+      <c r="F396" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G396" s="1" t="s">
         <v>2769</v>
       </c>
-      <c r="F396" s="1" t="s">
-        <v>2963</v>
-      </c>
-      <c r="G396" s="1" t="s">
+      <c r="H396" s="1" t="s">
         <v>2770</v>
       </c>
-      <c r="H396" s="1" t="s">
-        <v>2771</v>
-      </c>
       <c r="I396" s="1" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="397" spans="1:9">
       <c r="A397" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C397" s="1" t="s">
         <v>2772</v>
       </c>
-      <c r="B397" s="10" t="s">
-        <v>3145</v>
-      </c>
-      <c r="C397" s="1" t="s">
+      <c r="D397" s="1" t="s">
         <v>2773</v>
       </c>
-      <c r="D397" s="1" t="s">
+      <c r="G397" s="1" t="s">
         <v>2774</v>
       </c>
-      <c r="G397" s="1" t="s">
+      <c r="H397" s="1" t="s">
         <v>2775</v>
       </c>
-      <c r="H397" s="1" t="s">
-        <v>2776</v>
-      </c>
       <c r="I397" s="1" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="398" spans="1:9">
       <c r="A398" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B398" s="10" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C398" s="1" t="s">
         <v>2777</v>
       </c>
-      <c r="B398" s="10" t="s">
-        <v>3144</v>
-      </c>
-      <c r="C398" s="1" t="s">
+      <c r="D398" s="1" t="s">
         <v>2778</v>
       </c>
-      <c r="D398" s="1" t="s">
+      <c r="H398" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="H398" s="1" t="s">
-        <v>2780</v>
-      </c>
       <c r="I398" s="1" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="399" spans="1:9">
       <c r="A399" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B399" s="10" t="s">
         <v>2781</v>
       </c>
-      <c r="B399" s="10" t="s">
+      <c r="D399" s="6" t="s">
+        <v>3140</v>
+      </c>
+      <c r="E399" s="1" t="s">
         <v>2782</v>
       </c>
-      <c r="D399" s="6" t="s">
-        <v>3141</v>
-      </c>
-      <c r="E399" s="1" t="s">
+      <c r="F399" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="G399" s="1" t="s">
         <v>2783</v>
       </c>
-      <c r="F399" s="1" t="s">
-        <v>2964</v>
-      </c>
-      <c r="G399" s="1" t="s">
+      <c r="H399" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="H399" s="1" t="s">
-        <v>2785</v>
-      </c>
       <c r="I399" s="1" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="400" spans="1:9">
       <c r="A400" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B400" s="10" t="s">
         <v>2786</v>
       </c>
-      <c r="B400" s="10" t="s">
+      <c r="C400" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="C400" s="1" t="s">
+      <c r="D400" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="D400" s="1" t="s">
+      <c r="E400" s="1" t="s">
         <v>2789</v>
       </c>
-      <c r="E400" s="1" t="s">
+      <c r="F400" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="H400" s="1" t="s">
         <v>2790</v>
       </c>
-      <c r="F400" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="H400" s="1" t="s">
-        <v>2791</v>
-      </c>
       <c r="I400" s="1" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="401" spans="1:10">
       <c r="A401" s="1" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="B401" s="10" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>2792</v>
       </c>
-      <c r="C401" s="1" t="s">
+      <c r="D401" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="D401" s="1" t="s">
+      <c r="F401" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="G401" s="1" t="s">
         <v>2794</v>
       </c>
-      <c r="F401" s="1" t="s">
-        <v>2966</v>
-      </c>
-      <c r="G401" s="1" t="s">
+      <c r="H401" s="1" t="s">
         <v>2795</v>
       </c>
-      <c r="H401" s="1" t="s">
-        <v>2796</v>
-      </c>
       <c r="I401" s="1" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="402" spans="1:10">
       <c r="A402" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B402" s="10" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C402" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="B402" s="10" t="s">
-        <v>2990</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>2798</v>
-      </c>
       <c r="D402" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="G402" s="1" t="s">
         <v>2794</v>
-      </c>
-      <c r="F402" s="1" t="s">
-        <v>2967</v>
-      </c>
-      <c r="G402" s="1" t="s">
-        <v>2795</v>
       </c>
       <c r="H402" s="1" t="s">
         <v>480</v>
       </c>
       <c r="I402" s="1" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="403" spans="1:10">
       <c r="A403" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B403" s="10" t="s">
         <v>2799</v>
       </c>
-      <c r="B403" s="10" t="s">
+      <c r="C403" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="C403" s="1" t="s">
+      <c r="D403" s="6" t="s">
+        <v>3141</v>
+      </c>
+      <c r="E403" s="6" t="s">
         <v>2801</v>
       </c>
-      <c r="D403" s="6" t="s">
-        <v>3142</v>
-      </c>
-      <c r="E403" s="6" t="s">
+      <c r="F403" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="G403" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="F403" s="1" t="s">
-        <v>2968</v>
-      </c>
-      <c r="G403" s="1" t="s">
+      <c r="H403" s="1" t="s">
         <v>2803</v>
       </c>
-      <c r="H403" s="1" t="s">
-        <v>2804</v>
-      </c>
       <c r="I403" s="1" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="404" spans="1:10">
       <c r="A404" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B404" s="10" t="s">
         <v>2805</v>
       </c>
-      <c r="B404" s="10" t="s">
+      <c r="C404" s="1" t="s">
         <v>2806</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="D404" s="1" t="s">
         <v>2807</v>
       </c>
-      <c r="D404" s="1" t="s">
+      <c r="E404" s="1" t="s">
         <v>2808</v>
       </c>
-      <c r="E404" s="1" t="s">
-        <v>2809</v>
-      </c>
       <c r="F404" s="1" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="J404" s="2"/>
     </row>
     <row r="405" spans="1:10">
       <c r="A405" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B405" s="10" t="s">
         <v>2810</v>
       </c>
-      <c r="B405" s="10" t="s">
+      <c r="E405" s="1" t="s">
         <v>2811</v>
       </c>
-      <c r="E405" s="1" t="s">
+      <c r="F405" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="H405" s="1" t="s">
         <v>2812</v>
       </c>
-      <c r="F405" s="1" t="s">
-        <v>2970</v>
-      </c>
-      <c r="H405" s="1" t="s">
-        <v>2813</v>
-      </c>
       <c r="I405" s="1" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="J405" s="2"/>
     </row>
     <row r="406" spans="1:10">
       <c r="A406" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B406" s="10" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C406" s="1" t="s">
         <v>2814</v>
       </c>
-      <c r="B406" s="10" t="s">
-        <v>3143</v>
-      </c>
-      <c r="C406" s="1" t="s">
+      <c r="E406" s="1" t="s">
         <v>2815</v>
       </c>
-      <c r="E406" s="1" t="s">
+      <c r="F406" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="G406" s="1" t="s">
         <v>2816</v>
-      </c>
-      <c r="F406" s="1" t="s">
-        <v>2971</v>
-      </c>
-      <c r="G406" s="1" t="s">
-        <v>2817</v>
       </c>
       <c r="H406" s="1" t="s">
         <v>767</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="J406" s="2"/>
     </row>

--- a/bookDB2.xlsx
+++ b/bookDB2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sme13\OneDrive\바탕 화면\dev\real-dnb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sme13\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C77816-AA5E-4361-8A1F-1F02A7DA4CE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE6378B-543A-45FF-AED2-0812BBCDFE58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{509E9B0D-9459-46C0-BD3F-1330B5019B57}"/>
   </bookViews>
@@ -5997,9 +5997,6 @@
     <t>제주도 제주시 우평로 45-1 (도평동) 101호</t>
   </si>
   <si>
-    <t>제주도 제주시 인다13길 45-4 (아라일동)</t>
-  </si>
-  <si>
     <t>제주도 제주시 인다6길 11 (아라일동) 1층</t>
   </si>
   <si>
@@ -6628,9 +6625,6 @@
     <t>책추천;전시공연;독립출판물;그림책;소설;에세이;여행;소품;인문학;복합문화공간;작가와의만남</t>
   </si>
   <si>
-    <t>sonmokseoga</t>
-  </si>
-  <si>
     <t>북스테이;독서모임;주택개조책방;책추천;작가와의만남;멤버십책방</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -10372,13 +10366,20 @@
   <si>
     <t>이사할 계획(4월초 재오픈)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도 서귀포시 막동산로 19 (호근동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://s3.ap-northeast-2.amazonaws.com/bookstore.img/%EC%8B%9C%EC%98%B7%EC%84%9C%EC%A0%90.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10424,6 +10425,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -10453,7 +10462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10488,6 +10497,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10809,10 +10821,10 @@
   <dimension ref="A1:J406"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C372" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E208" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E379" sqref="E379"/>
+      <selection pane="bottomRight" activeCell="G214" sqref="G214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10873,7 +10885,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -10885,7 +10897,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10911,39 +10923,39 @@
         <v>1732</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2001</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="6" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2148</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2003</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2002</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2149</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2150</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>2004</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="1" t="s">
         <v>2005</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>2006</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10951,13 +10963,13 @@
         <v>1733</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1734</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>1750</v>
@@ -10972,7 +10984,7 @@
         <v>1736</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10996,7 +11008,7 @@
         <v>1748</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11004,7 +11016,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -11013,7 +11025,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
@@ -11022,7 +11034,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11051,7 +11063,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11059,7 +11071,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -11077,7 +11089,7 @@
         <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11106,7 +11118,7 @@
         <v>45</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11132,7 +11144,7 @@
         <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11161,7 +11173,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11190,7 +11202,7 @@
         <v>65</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11213,7 +11225,7 @@
         <v>70</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11242,7 +11254,7 @@
         <v>78</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11268,7 +11280,7 @@
         <v>84</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11297,7 +11309,7 @@
         <v>1022</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11305,7 +11317,7 @@
         <v>91</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>92</v>
@@ -11317,10 +11329,10 @@
         <v>94</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11346,7 +11358,7 @@
         <v>105</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -11375,7 +11387,7 @@
         <v>102</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -11389,7 +11401,7 @@
         <v>108</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>109</v>
@@ -11398,7 +11410,7 @@
         <v>110</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -11406,7 +11418,7 @@
         <v>111</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>112</v>
@@ -11427,7 +11439,7 @@
         <v>117</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -11456,7 +11468,7 @@
         <v>124</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -11464,7 +11476,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>126</v>
@@ -11479,7 +11491,7 @@
         <v>129</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -11499,7 +11511,7 @@
         <v>1694</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -11528,7 +11540,7 @@
         <v>136</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -11557,7 +11569,7 @@
         <v>143</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -11586,7 +11598,7 @@
         <v>150</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -11594,7 +11606,7 @@
         <v>211</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>212</v>
@@ -11612,12 +11624,12 @@
         <v>1023</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1770</v>
@@ -11632,7 +11644,7 @@
         <v>153</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -11658,7 +11670,7 @@
         <v>1673</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -11687,7 +11699,7 @@
         <v>160</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -11716,7 +11728,7 @@
         <v>167</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -11742,7 +11754,7 @@
         <v>174</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -11756,7 +11768,7 @@
         <v>176</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>177</v>
@@ -11765,7 +11777,7 @@
         <v>178</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -11773,7 +11785,7 @@
         <v>179</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>180</v>
@@ -11791,7 +11803,7 @@
         <v>184</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -11814,7 +11826,7 @@
         <v>190</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -11822,7 +11834,7 @@
         <v>191</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>192</v>
@@ -11837,13 +11849,13 @@
         <v>195</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>196</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -11857,7 +11869,7 @@
         <v>198</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>199</v>
@@ -11872,7 +11884,7 @@
         <v>202</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -11898,7 +11910,7 @@
         <v>208</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -11921,12 +11933,12 @@
         <v>208</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1794</v>
@@ -11950,7 +11962,7 @@
         <v>221</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -11958,7 +11970,7 @@
         <v>223</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>224</v>
@@ -11976,7 +11988,7 @@
         <v>78</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -11996,7 +12008,7 @@
         <v>231</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -12025,7 +12037,7 @@
         <v>239</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -12033,7 +12045,7 @@
         <v>1749</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1740</v>
@@ -12046,13 +12058,13 @@
         <v>1745</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>1747</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -12075,7 +12087,7 @@
         <v>244</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -12092,7 +12104,7 @@
         <v>247</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>248</v>
@@ -12104,7 +12116,7 @@
         <v>250</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -12112,7 +12124,7 @@
         <v>256</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>252</v>
@@ -12124,13 +12136,13 @@
         <v>254</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>257</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -12147,19 +12159,19 @@
         <v>253</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>254</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -12167,7 +12179,7 @@
         <v>258</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>259</v>
@@ -12176,19 +12188,19 @@
         <v>260</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>261</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -12214,7 +12226,7 @@
         <v>269</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -12243,7 +12255,7 @@
         <v>276</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -12272,7 +12284,7 @@
         <v>283</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -12298,7 +12310,7 @@
         <v>289</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -12327,7 +12339,7 @@
         <v>1648</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -12356,7 +12368,7 @@
         <v>296</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -12373,16 +12385,16 @@
         <v>299</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>300</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -12408,7 +12420,7 @@
         <v>306</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -12416,10 +12428,10 @@
         <v>307</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>308</v>
@@ -12431,7 +12443,7 @@
         <v>310</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -12460,7 +12472,7 @@
         <v>317</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -12474,19 +12486,19 @@
         <v>319</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>320</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -12515,7 +12527,7 @@
         <v>328</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -12538,13 +12550,13 @@
         <v>333</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -12573,7 +12585,7 @@
         <v>344</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -12602,7 +12614,7 @@
         <v>340</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -12628,7 +12640,7 @@
         <v>351</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -12645,7 +12657,7 @@
         <v>354</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>355</v>
@@ -12654,7 +12666,7 @@
         <v>356</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -12662,7 +12674,7 @@
         <v>357</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>358</v>
@@ -12680,7 +12692,7 @@
         <v>362</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -12688,7 +12700,7 @@
         <v>363</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>364</v>
@@ -12709,7 +12721,7 @@
         <v>369</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -12717,7 +12729,7 @@
         <v>370</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>371</v>
@@ -12738,7 +12750,7 @@
         <v>376</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -12764,7 +12776,7 @@
         <v>289</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -12793,7 +12805,7 @@
         <v>388</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -12822,7 +12834,7 @@
         <v>395</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -12848,7 +12860,7 @@
         <v>401</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -12877,7 +12889,7 @@
         <v>408</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -12906,7 +12918,7 @@
         <v>415</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -12935,7 +12947,7 @@
         <v>422</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -12943,7 +12955,7 @@
         <v>423</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>424</v>
@@ -12952,19 +12964,19 @@
         <v>425</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>426</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>427</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -12978,7 +12990,7 @@
         <v>429</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>430</v>
@@ -12987,13 +12999,13 @@
         <v>431</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>432</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -13022,7 +13034,7 @@
         <v>1687</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -13048,7 +13060,7 @@
         <v>1690</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -13074,7 +13086,7 @@
         <v>438</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -13088,7 +13100,7 @@
         <v>440</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>441</v>
@@ -13097,36 +13109,36 @@
         <v>442</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>443</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>2121</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="D85" s="6" t="s">
+        <v>2143</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>2122</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>2123</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>2145</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>2124</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>2125</v>
-      </c>
       <c r="I85" s="1" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -13134,7 +13146,7 @@
         <v>444</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>445</v>
@@ -13152,7 +13164,7 @@
         <v>449</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -13178,7 +13190,7 @@
         <v>455</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -13195,7 +13207,7 @@
         <v>458</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>459</v>
@@ -13204,7 +13216,7 @@
         <v>460</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -13212,7 +13224,7 @@
         <v>461</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>462</v>
@@ -13224,13 +13236,13 @@
         <v>464</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>465</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -13247,19 +13259,19 @@
         <v>468</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>469</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>470</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -13282,7 +13294,7 @@
         <v>475</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -13290,13 +13302,13 @@
         <v>476</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>477</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>478</v>
@@ -13308,7 +13320,7 @@
         <v>480</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -13325,19 +13337,19 @@
         <v>489</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>490</v>
       </c>
       <c r="G93" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>1986</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>1987</v>
-      </c>
       <c r="I93" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -13363,7 +13375,7 @@
         <v>496</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -13386,13 +13398,13 @@
         <v>501</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>356</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -13421,7 +13433,7 @@
         <v>508</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -13438,7 +13450,7 @@
         <v>511</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>512</v>
@@ -13450,7 +13462,7 @@
         <v>514</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -13473,7 +13485,7 @@
         <v>520</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -13502,7 +13514,7 @@
         <v>6</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -13528,7 +13540,7 @@
         <v>526</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -13554,7 +13566,7 @@
         <v>532</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -13583,7 +13595,7 @@
         <v>1723</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -13612,7 +13624,7 @@
         <v>539</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -13641,7 +13653,7 @@
         <v>547</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -13649,7 +13661,7 @@
         <v>1041</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>1042</v>
@@ -13662,7 +13674,7 @@
         <v>1044</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -13670,7 +13682,7 @@
         <v>1045</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>1046</v>
@@ -13685,7 +13697,7 @@
         <v>1049</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -13712,32 +13724,32 @@
         <v>1055</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>1956</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>1957</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="2"/>
       <c r="F108" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>1958</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="H108" s="2" t="s">
         <v>1959</v>
       </c>
-      <c r="H108" s="2" t="s">
-        <v>1960</v>
-      </c>
       <c r="I108" s="2" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -13745,7 +13757,7 @@
         <v>1056</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>1057</v>
@@ -13766,7 +13778,7 @@
         <v>1062</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -13774,7 +13786,7 @@
         <v>1063</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>1064</v>
@@ -13792,7 +13804,7 @@
         <v>1068</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -13809,7 +13821,7 @@
         <v>1071</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>1072</v>
@@ -13821,7 +13833,7 @@
         <v>1074</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -13848,7 +13860,7 @@
         <v>1080</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -13874,7 +13886,7 @@
         <v>1700</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -13882,7 +13894,7 @@
         <v>1081</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>1082</v>
@@ -13894,7 +13906,7 @@
         <v>1084</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -13917,7 +13929,7 @@
         <v>1667</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -13925,7 +13937,7 @@
         <v>1085</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>1086</v>
@@ -13943,7 +13955,7 @@
         <v>1090</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -13966,7 +13978,7 @@
         <v>1095</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -13974,7 +13986,7 @@
         <v>1096</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>1097</v>
@@ -13983,7 +13995,7 @@
         <v>1098</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>1099</v>
@@ -13995,7 +14007,7 @@
         <v>1101</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -14003,7 +14015,7 @@
         <v>481</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>482</v>
@@ -14021,7 +14033,7 @@
         <v>486</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -14029,16 +14041,16 @@
         <v>1724</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>2008</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>2009</v>
-      </c>
       <c r="D120" s="6" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>1725</v>
@@ -14047,10 +14059,10 @@
         <v>1726</v>
       </c>
       <c r="H120" s="2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I120" s="2" t="s">
         <v>2010</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>2011</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -14073,7 +14085,7 @@
         <v>1106</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -14099,7 +14111,7 @@
         <v>1113</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -14107,7 +14119,7 @@
         <v>1114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1115</v>
@@ -14128,7 +14140,7 @@
         <v>1120</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -14155,7 +14167,7 @@
         <v>520</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -14178,7 +14190,7 @@
         <v>1130</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -14197,10 +14209,10 @@
         <v>1133</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -14214,7 +14226,7 @@
         <v>1135</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>1136</v>
@@ -14223,7 +14235,7 @@
         <v>1137</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -14250,7 +14262,7 @@
         <v>1144</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -14279,7 +14291,7 @@
         <v>1151</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -14308,7 +14320,7 @@
         <v>1158</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -14334,10 +14346,10 @@
         <v>1164</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -14363,7 +14375,7 @@
         <v>1177</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -14384,10 +14396,10 @@
         <v>1181</v>
       </c>
       <c r="H133" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>2016</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>2017</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -14395,7 +14407,7 @@
         <v>1182</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>1183</v>
@@ -14414,7 +14426,7 @@
         <v>1187</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -14432,18 +14444,18 @@
         <v>1190</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="2" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>1191</v>
@@ -14461,7 +14473,7 @@
         <v>1195</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -14487,7 +14499,7 @@
         <v>1201</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -14516,12 +14528,12 @@
         <v>1208</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="2" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>1859</v>
@@ -14545,7 +14557,7 @@
         <v>1214</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -14568,13 +14580,13 @@
         <v>1219</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>1220</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -14582,7 +14594,7 @@
         <v>1221</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1222</v>
@@ -14603,7 +14615,7 @@
         <v>1227</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -14626,10 +14638,10 @@
         <v>1232</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -14643,7 +14655,7 @@
         <v>1234</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>1235</v>
@@ -14658,7 +14670,7 @@
         <v>1238</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -14684,7 +14696,7 @@
         <v>289</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -14711,7 +14723,7 @@
         <v>1249</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -14734,12 +14746,12 @@
         <v>184</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="2" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>1867</v>
@@ -14761,7 +14773,7 @@
         <v>1258</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -14790,7 +14802,7 @@
         <v>1265</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -14807,7 +14819,7 @@
         <v>1268</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>1269</v>
@@ -14816,7 +14828,7 @@
         <v>1270</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -14843,7 +14855,7 @@
         <v>1276</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -14872,7 +14884,7 @@
         <v>1284</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -14898,7 +14910,7 @@
         <v>1291</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -14924,7 +14936,7 @@
         <v>617</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -14942,13 +14954,13 @@
       </c>
       <c r="E154" s="2"/>
       <c r="G154" s="6" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>1301</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -14977,7 +14989,7 @@
         <v>1308</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -15003,7 +15015,7 @@
         <v>1315</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -15032,7 +15044,7 @@
         <v>1323</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -15061,7 +15073,7 @@
         <v>1331</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -15088,7 +15100,7 @@
         <v>1337</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -15115,7 +15127,7 @@
         <v>1343</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -15123,7 +15135,7 @@
         <v>1344</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>1345</v>
@@ -15141,7 +15153,7 @@
         <v>1349</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -15164,13 +15176,13 @@
         <v>1354</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>1355</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -15199,7 +15211,7 @@
         <v>1362</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -15228,7 +15240,7 @@
         <v>1323</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -15251,30 +15263,30 @@
         <v>1373</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>2126</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>2146</v>
-      </c>
-      <c r="C166" s="1" t="s">
+      <c r="F166" s="1" t="s">
         <v>2127</v>
       </c>
-      <c r="D166" s="6" t="s">
-        <v>2128</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>2129</v>
-      </c>
       <c r="H166" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -15288,7 +15300,7 @@
         <v>1423</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>1424</v>
@@ -15297,7 +15309,7 @@
         <v>1425</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="J167" s="2"/>
     </row>
@@ -15306,16 +15318,16 @@
         <v>672</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>673</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>674</v>
@@ -15327,7 +15339,7 @@
         <v>676</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -15356,7 +15368,7 @@
         <v>1380</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -15385,7 +15397,7 @@
         <v>422</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -15414,7 +15426,7 @@
         <v>1393</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -15422,7 +15434,7 @@
         <v>1394</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>1395</v>
@@ -15431,13 +15443,13 @@
         <v>1396</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>1397</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="J172" s="2"/>
     </row>
@@ -15461,7 +15473,7 @@
         <v>1402</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -15490,7 +15502,7 @@
         <v>1410</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -15519,7 +15531,7 @@
         <v>1417</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -15527,7 +15539,7 @@
         <v>1418</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>1419</v>
@@ -15540,7 +15552,7 @@
         <v>1421</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -15569,7 +15581,7 @@
         <v>1432</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="J177" s="2"/>
     </row>
@@ -15578,7 +15590,7 @@
         <v>1433</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>1434</v>
@@ -15599,7 +15611,7 @@
         <v>1439</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="J178" s="2"/>
     </row>
@@ -15608,7 +15620,7 @@
         <v>1440</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>1441</v>
@@ -15629,13 +15641,13 @@
         <v>1446</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="2" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>1447</v>
@@ -15659,7 +15671,7 @@
         <v>1453</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -15685,10 +15697,10 @@
         <v>1459</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="J181" s="2"/>
     </row>
@@ -15697,7 +15709,7 @@
         <v>1460</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>1461</v>
@@ -15715,7 +15727,7 @@
         <v>262</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -15733,7 +15745,7 @@
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="1" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>1468</v>
@@ -15742,7 +15754,7 @@
         <v>1469</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -15766,7 +15778,7 @@
         <v>1475</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="J184" s="2"/>
     </row>
@@ -15775,7 +15787,7 @@
         <v>1476</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>1477</v>
@@ -15790,7 +15802,7 @@
         <v>1480</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -15798,7 +15810,7 @@
         <v>1481</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>1482</v>
@@ -15817,7 +15829,7 @@
         <v>1486</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="J186" s="2"/>
     </row>
@@ -15844,7 +15856,7 @@
         <v>1492</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -15852,7 +15864,7 @@
         <v>1493</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>1494</v>
@@ -15862,13 +15874,13 @@
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="1" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>1496</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="J188" s="2"/>
     </row>
@@ -15898,7 +15910,7 @@
         <v>1503</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -15927,7 +15939,7 @@
         <v>1510</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="J190" s="2"/>
     </row>
@@ -15954,7 +15966,7 @@
         <v>1101</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -15983,7 +15995,7 @@
         <v>1523</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -16006,7 +16018,7 @@
         <v>1529</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -16014,7 +16026,7 @@
         <v>1530</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>1531</v>
@@ -16030,7 +16042,7 @@
         <v>1534</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -16059,7 +16071,7 @@
         <v>14</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -16088,7 +16100,7 @@
         <v>1541</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -16117,7 +16129,7 @@
         <v>1548</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -16140,12 +16152,12 @@
         <v>1556</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="2" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>1889</v>
@@ -16163,7 +16175,7 @@
         <v>1552</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -16171,7 +16183,7 @@
         <v>1557</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>1558</v>
@@ -16189,7 +16201,7 @@
         <v>1021</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -16197,7 +16209,7 @@
         <v>1562</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>1563</v>
@@ -16216,7 +16228,7 @@
         <v>1567</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -16245,7 +16257,7 @@
         <v>1574</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -16274,7 +16286,7 @@
         <v>1582</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -16293,14 +16305,11 @@
       <c r="E204" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>2103</v>
-      </c>
       <c r="H204" s="2" t="s">
         <v>1587</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -16329,7 +16338,7 @@
         <v>1594</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -16337,7 +16346,7 @@
         <v>1595</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>1596</v>
@@ -16355,7 +16364,7 @@
         <v>1600</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -16379,10 +16388,10 @@
         <v>1605</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -16411,7 +16420,7 @@
         <v>1613</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -16440,7 +16449,7 @@
         <v>532</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="J209" s="8"/>
     </row>
@@ -16470,7 +16479,7 @@
         <v>1680</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -16499,7 +16508,7 @@
         <v>1626</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -16528,7 +16537,7 @@
         <v>1633</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -16543,7 +16552,7 @@
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="6" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>1636</v>
@@ -16552,7 +16561,7 @@
         <v>1270</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -16560,7 +16569,7 @@
         <v>1637</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1921</v>
+        <v>3190</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>1638</v>
@@ -16568,7 +16577,9 @@
       <c r="D214" s="3" t="s">
         <v>1639</v>
       </c>
-      <c r="E214" s="2"/>
+      <c r="E214" s="12" t="s">
+        <v>3191</v>
+      </c>
       <c r="F214" s="2" t="s">
         <v>1640</v>
       </c>
@@ -16576,27 +16587,27 @@
         <v>1641</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="215" spans="1:10">
       <c r="A215" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="F215" s="1" t="s">
         <v>2130</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>2147</v>
-      </c>
-      <c r="C215" s="1" t="s">
+      <c r="H215" s="1" t="s">
         <v>2131</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>2132</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>2133</v>
-      </c>
       <c r="I215" s="1" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -16604,7 +16615,7 @@
         <v>548</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>549</v>
@@ -16622,7 +16633,7 @@
         <v>553</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -16630,7 +16641,7 @@
         <v>554</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>555</v>
@@ -16639,7 +16650,7 @@
         <v>556</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>557</v>
@@ -16651,7 +16662,7 @@
         <v>559</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -16659,7 +16670,7 @@
         <v>560</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>561</v>
@@ -16671,7 +16682,7 @@
         <v>520</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -16700,7 +16711,7 @@
         <v>1655</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -16708,7 +16719,7 @@
         <v>563</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>564</v>
@@ -16720,7 +16731,7 @@
         <v>566</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -16749,7 +16760,7 @@
         <v>415</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -16772,7 +16783,7 @@
         <v>1024</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -16801,7 +16812,7 @@
         <v>583</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -16809,7 +16820,7 @@
         <v>589</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>590</v>
@@ -16827,7 +16838,7 @@
         <v>592</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -16835,7 +16846,7 @@
         <v>597</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>598</v>
@@ -16850,7 +16861,7 @@
         <v>599</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -16858,7 +16869,7 @@
         <v>584</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>585</v>
@@ -16876,7 +16887,7 @@
         <v>289</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -16884,7 +16895,7 @@
         <v>593</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>594</v>
@@ -16902,7 +16913,7 @@
         <v>596</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -16910,7 +16921,7 @@
         <v>600</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>601</v>
@@ -16928,10 +16939,10 @@
         <v>605</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -16939,7 +16950,7 @@
         <v>606</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>607</v>
@@ -16957,7 +16968,7 @@
         <v>611</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -16983,10 +16994,10 @@
         <v>617</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -16994,7 +17005,7 @@
         <v>618</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>619</v>
@@ -17012,7 +17023,7 @@
         <v>95</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -17020,7 +17031,7 @@
         <v>623</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>624</v>
@@ -17035,7 +17046,7 @@
         <v>627</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -17058,7 +17069,7 @@
         <v>508</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -17066,7 +17077,7 @@
         <v>632</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>633</v>
@@ -17081,7 +17092,7 @@
         <v>583</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -17110,7 +17121,7 @@
         <v>642</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -17118,7 +17129,7 @@
         <v>643</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>644</v>
@@ -17133,7 +17144,7 @@
         <v>647</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -17141,13 +17152,13 @@
         <v>648</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>649</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>650</v>
@@ -17162,7 +17173,7 @@
         <v>415</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -17176,7 +17187,7 @@
         <v>1032</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>654</v>
@@ -17191,7 +17202,7 @@
         <v>657</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -17211,13 +17222,13 @@
         <v>660</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>661</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -17240,7 +17251,7 @@
         <v>666</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -17266,10 +17277,10 @@
         <v>671</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -17298,7 +17309,7 @@
         <v>683</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -17324,7 +17335,7 @@
         <v>689</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -17338,7 +17349,7 @@
         <v>691</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>692</v>
@@ -17350,7 +17361,7 @@
         <v>694</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -17376,7 +17387,7 @@
         <v>699</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -17384,7 +17395,7 @@
         <v>700</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>701</v>
@@ -17399,7 +17410,7 @@
         <v>704</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -17407,7 +17418,7 @@
         <v>705</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>706</v>
@@ -17422,10 +17433,10 @@
         <v>709</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -17433,7 +17444,7 @@
         <v>710</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>711</v>
@@ -17454,15 +17465,15 @@
         <v>716</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="1" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>717</v>
@@ -17477,7 +17488,7 @@
         <v>720</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -17485,7 +17496,7 @@
         <v>721</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>722</v>
@@ -17500,7 +17511,7 @@
         <v>725</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -17508,7 +17519,7 @@
         <v>726</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>727</v>
@@ -17523,7 +17534,7 @@
         <v>730</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -17531,7 +17542,7 @@
         <v>731</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>732</v>
@@ -17543,7 +17554,7 @@
         <v>734</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -17551,7 +17562,7 @@
         <v>735</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>736</v>
@@ -17569,7 +17580,7 @@
         <v>344</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -17577,7 +17588,7 @@
         <v>740</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>741</v>
@@ -17592,7 +17603,7 @@
         <v>744</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -17618,7 +17629,7 @@
         <v>751</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -17632,7 +17643,7 @@
         <v>753</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>754</v>
@@ -17644,7 +17655,7 @@
         <v>756</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -17670,7 +17681,7 @@
         <v>762</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -17696,7 +17707,7 @@
         <v>1709</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -17713,7 +17724,7 @@
         <v>765</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>766</v>
@@ -17722,7 +17733,7 @@
         <v>767</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -17730,7 +17741,7 @@
         <v>768</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>769</v>
@@ -17748,7 +17759,7 @@
         <v>773</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -17777,7 +17788,7 @@
         <v>780</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -17785,7 +17796,7 @@
         <v>781</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>782</v>
@@ -17800,10 +17811,10 @@
         <v>785</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -17829,7 +17840,7 @@
         <v>1025</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -17852,7 +17863,7 @@
         <v>1026</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -17878,7 +17889,7 @@
         <v>801</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -17898,7 +17909,7 @@
         <v>806</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>807</v>
@@ -17907,7 +17918,7 @@
         <v>306</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -17936,7 +17947,7 @@
         <v>1708</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -17959,7 +17970,7 @@
         <v>813</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -17973,7 +17984,7 @@
         <v>1035</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>815</v>
@@ -17988,27 +17999,27 @@
         <v>818</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>2140</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="F270" s="1" t="s">
         <v>2141</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="H270" s="1" t="s">
         <v>2142</v>
       </c>
-      <c r="F270" s="1" t="s">
-        <v>2143</v>
-      </c>
-      <c r="H270" s="1" t="s">
-        <v>2144</v>
-      </c>
       <c r="I270" s="1" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -18037,7 +18048,7 @@
         <v>1662</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -18066,7 +18077,7 @@
         <v>773</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -18089,12 +18100,12 @@
         <v>694</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="1" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>1861</v>
@@ -18115,7 +18126,7 @@
         <v>833</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -18123,7 +18134,7 @@
         <v>834</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>835</v>
@@ -18141,7 +18152,7 @@
         <v>222</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -18155,7 +18166,7 @@
         <v>840</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>841</v>
@@ -18170,7 +18181,7 @@
         <v>844</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -18178,7 +18189,7 @@
         <v>852</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>853</v>
@@ -18196,7 +18207,7 @@
         <v>850</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -18225,7 +18236,7 @@
         <v>851</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -18233,7 +18244,7 @@
         <v>856</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>857</v>
@@ -18251,7 +18262,7 @@
         <v>861</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -18280,7 +18291,7 @@
         <v>356</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -18306,7 +18317,7 @@
         <v>873</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -18335,7 +18346,7 @@
         <v>881</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -18355,10 +18366,10 @@
         <v>885</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -18387,7 +18398,7 @@
         <v>891</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -18413,7 +18424,7 @@
         <v>897</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -18439,7 +18450,7 @@
         <v>903</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -18459,7 +18470,7 @@
         <v>907</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -18467,7 +18478,7 @@
         <v>908</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>909</v>
@@ -18482,7 +18493,7 @@
         <v>912</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -18490,7 +18501,7 @@
         <v>913</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>914</v>
@@ -18505,10 +18516,10 @@
         <v>917</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -18516,7 +18527,7 @@
         <v>918</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>919</v>
@@ -18531,7 +18542,7 @@
         <v>922</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -18557,7 +18568,7 @@
         <v>1021</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -18565,7 +18576,7 @@
         <v>928</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>929</v>
@@ -18586,7 +18597,7 @@
         <v>289</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -18615,7 +18626,7 @@
         <v>940</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -18623,7 +18634,7 @@
         <v>941</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>942</v>
@@ -18635,7 +18646,7 @@
         <v>944</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -18643,7 +18654,7 @@
         <v>945</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>946</v>
@@ -18661,7 +18672,7 @@
         <v>1020</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -18669,7 +18680,7 @@
         <v>950</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>951</v>
@@ -18690,7 +18701,7 @@
         <v>956</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -18713,30 +18724,30 @@
         <v>961</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>2134</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="F298" s="1" t="s">
         <v>2135</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="G298" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="F298" s="1" t="s">
+      <c r="H298" s="1" t="s">
         <v>2137</v>
       </c>
-      <c r="G298" s="1" t="s">
-        <v>2138</v>
-      </c>
-      <c r="H298" s="1" t="s">
-        <v>2139</v>
-      </c>
       <c r="I298" s="1" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -18744,7 +18755,7 @@
         <v>962</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>963</v>
@@ -18762,7 +18773,7 @@
         <v>967</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -18788,7 +18799,7 @@
         <v>973</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -18817,7 +18828,7 @@
         <v>980</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -18843,7 +18854,7 @@
         <v>986</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -18872,7 +18883,7 @@
         <v>1710</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -18880,7 +18891,7 @@
         <v>987</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>988</v>
@@ -18898,7 +18909,7 @@
         <v>992</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -18925,7 +18936,7 @@
         <v>1171</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -18933,7 +18944,7 @@
         <v>993</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>994</v>
@@ -18948,7 +18959,7 @@
         <v>997</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -18977,7 +18988,7 @@
         <v>1019</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -18985,7 +18996,7 @@
         <v>1004</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>1005</v>
@@ -19000,2549 +19011,2549 @@
         <v>1008</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="309" spans="1:9">
       <c r="A309" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D309" s="1" t="s">
         <v>2342</v>
       </c>
-      <c r="B309" s="10" t="s">
-        <v>3015</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>2343</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>2344</v>
-      </c>
       <c r="E309" s="6" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>526</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="310" spans="1:9">
       <c r="A310" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>2345</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="D310" s="1" t="s">
         <v>2346</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="E310" s="6" t="s">
+        <v>2970</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G310" s="1" t="s">
         <v>2347</v>
       </c>
-      <c r="D310" s="1" t="s">
+      <c r="H310" s="1" t="s">
         <v>2348</v>
       </c>
-      <c r="E310" s="6" t="s">
-        <v>2972</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>2882</v>
-      </c>
-      <c r="G310" s="1" t="s">
-        <v>2349</v>
-      </c>
-      <c r="H310" s="1" t="s">
-        <v>2350</v>
-      </c>
       <c r="I310" s="1" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="311" spans="1:9">
       <c r="A311" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>2351</v>
       </c>
-      <c r="B311" s="10" t="s">
-        <v>3167</v>
-      </c>
-      <c r="C311" s="1" t="s">
+      <c r="E311" s="6" t="s">
+        <v>2971</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="G311" s="1" t="s">
         <v>2352</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>2353</v>
-      </c>
-      <c r="E311" s="6" t="s">
-        <v>2973</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>2883</v>
-      </c>
-      <c r="G311" s="1" t="s">
-        <v>2354</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>289</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="312" spans="1:9">
       <c r="A312" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B312" s="10" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="E312" s="6" t="s">
+        <v>2972</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="G312" s="1" t="s">
         <v>2355</v>
-      </c>
-      <c r="B312" s="10" t="s">
-        <v>2356</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>2353</v>
-      </c>
-      <c r="E312" s="6" t="s">
-        <v>2974</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>2884</v>
-      </c>
-      <c r="G312" s="1" t="s">
-        <v>2357</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>289</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" s="2" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="C313" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="H313" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="D313" s="1" t="s">
-        <v>2359</v>
-      </c>
-      <c r="E313" s="6" t="s">
-        <v>2975</v>
-      </c>
-      <c r="F313" s="1" t="s">
-        <v>2885</v>
-      </c>
-      <c r="H313" s="1" t="s">
-        <v>2360</v>
-      </c>
       <c r="I313" s="2" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="314" spans="1:9">
       <c r="A314" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B314" s="10" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>2361</v>
       </c>
-      <c r="B314" s="10" t="s">
+      <c r="D314" s="1" t="s">
         <v>2362</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="E314" s="1" t="s">
         <v>2363</v>
       </c>
-      <c r="D314" s="1" t="s">
-        <v>2364</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>2365</v>
-      </c>
       <c r="F314" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>289</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="315" spans="1:9">
       <c r="A315" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>2366</v>
       </c>
-      <c r="B315" s="10" t="s">
+      <c r="E315" s="1" t="s">
         <v>2367</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="F315" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="H315" s="1" t="s">
         <v>2368</v>
       </c>
-      <c r="E315" s="1" t="s">
-        <v>2369</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>2887</v>
-      </c>
-      <c r="H315" s="1" t="s">
-        <v>2370</v>
-      </c>
       <c r="I315" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="316" spans="1:9">
       <c r="A316" s="2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>3131</v>
+      </c>
+      <c r="E316" s="6" t="s">
         <v>2371</v>
       </c>
-      <c r="B316" s="5" t="s">
-        <v>3166</v>
-      </c>
-      <c r="C316" s="1" t="s">
+      <c r="F316" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="G316" s="1" t="s">
         <v>2372</v>
       </c>
-      <c r="D316" s="6" t="s">
-        <v>3133</v>
-      </c>
-      <c r="E316" s="6" t="s">
+      <c r="H316" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="F316" s="1" t="s">
-        <v>2888</v>
-      </c>
-      <c r="G316" s="1" t="s">
-        <v>2374</v>
-      </c>
-      <c r="H316" s="1" t="s">
-        <v>2375</v>
-      </c>
       <c r="I316" s="2" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="317" spans="1:9">
       <c r="A317" s="2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="B317" s="5" t="s">
+      <c r="D317" s="1" t="s">
         <v>2377</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="E317" s="6" t="s">
         <v>2378</v>
       </c>
-      <c r="D317" s="1" t="s">
-        <v>2379</v>
-      </c>
-      <c r="E317" s="6" t="s">
-        <v>2380</v>
-      </c>
       <c r="F317" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="318" spans="1:9">
       <c r="A318" s="2" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>3163</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E318" s="6" t="s">
+        <v>2974</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="G318" s="1" t="s">
         <v>2381</v>
       </c>
-      <c r="B318" s="5" t="s">
-        <v>3165</v>
-      </c>
-      <c r="C318" s="1" t="s">
+      <c r="H318" s="1" t="s">
         <v>2382</v>
       </c>
-      <c r="E318" s="6" t="s">
-        <v>2976</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>2890</v>
-      </c>
-      <c r="G318" s="1" t="s">
-        <v>2383</v>
-      </c>
-      <c r="H318" s="1" t="s">
-        <v>2384</v>
-      </c>
       <c r="I318" s="2" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="2" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="C319" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E319" s="6" t="s">
+        <v>2975</v>
+      </c>
+      <c r="H319" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="D319" s="1" t="s">
-        <v>2386</v>
-      </c>
-      <c r="E319" s="6" t="s">
-        <v>2977</v>
-      </c>
-      <c r="H319" s="1" t="s">
-        <v>2387</v>
-      </c>
       <c r="I319" s="2" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="320" spans="1:9">
       <c r="A320" s="2" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>3010</v>
+      </c>
+      <c r="E320" s="6" t="s">
+        <v>2976</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="H320" s="1" t="s">
         <v>2388</v>
       </c>
-      <c r="B320" s="5" t="s">
-        <v>3012</v>
-      </c>
-      <c r="E320" s="6" t="s">
-        <v>2978</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>2891</v>
-      </c>
-      <c r="G320" s="1" t="s">
-        <v>2389</v>
-      </c>
-      <c r="H320" s="1" t="s">
-        <v>2390</v>
-      </c>
       <c r="I320" s="2" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="321" spans="1:9">
       <c r="A321" s="2" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="F321" s="2"/>
       <c r="H321" s="1" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="322" spans="1:9">
       <c r="A322" s="2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="B322" s="5" t="s">
+      <c r="D322" s="6" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="G322" s="1" t="s">
         <v>2395</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="H322" s="1" t="s">
         <v>2396</v>
       </c>
-      <c r="D322" s="6" t="s">
-        <v>3134</v>
-      </c>
-      <c r="E322" s="6" t="s">
-        <v>2980</v>
-      </c>
-      <c r="F322" s="1" t="s">
-        <v>2892</v>
-      </c>
-      <c r="G322" s="1" t="s">
-        <v>2397</v>
-      </c>
-      <c r="H322" s="1" t="s">
-        <v>2398</v>
-      </c>
       <c r="I322" s="2" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="323" spans="1:9">
       <c r="A323" s="2" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D323" s="1" t="s">
         <v>2399</v>
       </c>
-      <c r="B323" s="5" t="s">
-        <v>3163</v>
-      </c>
-      <c r="C323" s="1" t="s">
+      <c r="E323" s="2" t="s">
+        <v>2979</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="H323" s="1" t="s">
         <v>2400</v>
       </c>
-      <c r="D323" s="1" t="s">
-        <v>2401</v>
-      </c>
-      <c r="E323" s="2" t="s">
-        <v>2981</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>2893</v>
-      </c>
-      <c r="H323" s="1" t="s">
-        <v>2402</v>
-      </c>
       <c r="I323" s="2" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="324" spans="1:9">
       <c r="A324" s="2" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="B324" s="5" t="s">
+      <c r="D324" s="6" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E324" s="2" t="s">
         <v>2404</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="F324" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="G324" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="D324" s="6" t="s">
-        <v>3107</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>2406</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>2894</v>
-      </c>
-      <c r="G324" s="1" t="s">
-        <v>2407</v>
-      </c>
       <c r="H324" s="1" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="325" spans="1:9">
       <c r="A325" s="2" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D325" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="B325" s="10" t="s">
-        <v>3162</v>
-      </c>
-      <c r="C325" s="1" t="s">
+      <c r="E325" s="6" t="s">
+        <v>2980</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G325" s="1" t="s">
         <v>2409</v>
       </c>
-      <c r="D325" s="1" t="s">
+      <c r="H325" s="1" t="s">
         <v>2410</v>
       </c>
-      <c r="E325" s="6" t="s">
-        <v>2982</v>
-      </c>
-      <c r="F325" s="1" t="s">
-        <v>2895</v>
-      </c>
-      <c r="G325" s="1" t="s">
-        <v>2411</v>
-      </c>
-      <c r="H325" s="1" t="s">
-        <v>2412</v>
-      </c>
       <c r="I325" s="2" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="326" spans="1:9">
       <c r="A326" s="2" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>2413</v>
       </c>
-      <c r="B326" s="5" t="s">
+      <c r="D326" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="E326" s="2" t="s">
         <v>2415</v>
       </c>
-      <c r="D326" s="1" t="s">
+      <c r="F326" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="G326" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="E326" s="2" t="s">
+      <c r="H326" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="F326" s="1" t="s">
-        <v>2896</v>
-      </c>
-      <c r="G326" s="1" t="s">
-        <v>2418</v>
-      </c>
-      <c r="H326" s="1" t="s">
-        <v>2419</v>
-      </c>
       <c r="I326" s="2" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="327" spans="1:9">
       <c r="A327" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>2420</v>
       </c>
-      <c r="B327" s="5" t="s">
+      <c r="E327" s="2" t="s">
         <v>2421</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="F327" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="H327" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="E327" s="2" t="s">
-        <v>2423</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>2897</v>
-      </c>
-      <c r="H327" s="1" t="s">
-        <v>2424</v>
-      </c>
       <c r="I327" s="2" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="328" spans="1:9">
       <c r="A328" s="2" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>2425</v>
       </c>
-      <c r="B328" s="5" t="s">
+      <c r="D328" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="E328" s="6" t="s">
+        <v>2981</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="G328" s="1" t="s">
         <v>2427</v>
       </c>
-      <c r="D328" s="1" t="s">
+      <c r="H328" s="1" t="s">
         <v>2428</v>
       </c>
-      <c r="E328" s="6" t="s">
-        <v>2983</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>2898</v>
-      </c>
-      <c r="G328" s="1" t="s">
-        <v>2429</v>
-      </c>
-      <c r="H328" s="1" t="s">
-        <v>2430</v>
-      </c>
       <c r="I328" s="2" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="329" spans="1:9">
       <c r="A329" s="2" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>2431</v>
       </c>
-      <c r="B329" s="5" t="s">
+      <c r="D329" s="1" t="s">
         <v>2432</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="E329" s="2" t="s">
         <v>2433</v>
       </c>
-      <c r="D329" s="1" t="s">
+      <c r="F329" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="G329" s="1" t="s">
         <v>2434</v>
       </c>
-      <c r="E329" s="2" t="s">
+      <c r="H329" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="F329" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="G329" s="1" t="s">
-        <v>2436</v>
-      </c>
-      <c r="H329" s="1" t="s">
-        <v>2437</v>
-      </c>
       <c r="I329" s="2" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="330" spans="1:9">
       <c r="A330" s="2" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>2438</v>
       </c>
-      <c r="B330" s="5" t="s">
+      <c r="D330" s="1" t="s">
         <v>2439</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="E330" s="2" t="s">
         <v>2440</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="F330" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="G330" s="1" t="s">
         <v>2441</v>
       </c>
-      <c r="E330" s="2" t="s">
-        <v>2442</v>
-      </c>
-      <c r="F330" s="1" t="s">
-        <v>2900</v>
-      </c>
-      <c r="G330" s="1" t="s">
-        <v>2443</v>
-      </c>
       <c r="H330" s="1" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="331" spans="1:9">
       <c r="A331" s="2" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E331" s="2" t="s">
         <v>2444</v>
       </c>
-      <c r="B331" s="5" t="s">
+      <c r="F331" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="G331" s="1" t="s">
         <v>2445</v>
       </c>
-      <c r="E331" s="2" t="s">
+      <c r="H331" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="F331" s="1" t="s">
-        <v>2901</v>
-      </c>
-      <c r="G331" s="1" t="s">
-        <v>2447</v>
-      </c>
-      <c r="H331" s="1" t="s">
-        <v>2448</v>
-      </c>
       <c r="I331" s="2" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="332" spans="1:9">
       <c r="A332" s="2" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="E332" s="2"/>
       <c r="F332" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="333" spans="1:9">
       <c r="A333" s="2" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>2452</v>
       </c>
-      <c r="B333" s="5" t="s">
+      <c r="D333" s="1" t="s">
         <v>2453</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="E333" s="2" t="s">
         <v>2454</v>
       </c>
-      <c r="D333" s="1" t="s">
+      <c r="F333" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G333" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="E333" s="2" t="s">
+      <c r="H333" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="F333" s="1" t="s">
-        <v>2903</v>
-      </c>
-      <c r="G333" s="1" t="s">
-        <v>2457</v>
-      </c>
-      <c r="H333" s="1" t="s">
-        <v>2458</v>
-      </c>
       <c r="I333" s="2" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="334" spans="1:9">
       <c r="A334" s="2" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>3183</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D334" s="1" t="s">
         <v>2459</v>
       </c>
-      <c r="B334" s="5" t="s">
-        <v>3185</v>
-      </c>
-      <c r="C334" s="1" t="s">
+      <c r="E334" s="2" t="s">
         <v>2460</v>
       </c>
-      <c r="D334" s="1" t="s">
+      <c r="F334" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="H334" s="1" t="s">
         <v>2461</v>
       </c>
-      <c r="E334" s="2" t="s">
-        <v>2462</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>2904</v>
-      </c>
-      <c r="H334" s="1" t="s">
-        <v>2463</v>
-      </c>
       <c r="I334" s="2" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="335" spans="1:9">
       <c r="A335" s="2" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="B335" s="5" t="s">
+      <c r="D335" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="E335" s="2" t="s">
         <v>2466</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="F335" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="H335" s="1" t="s">
         <v>2467</v>
       </c>
-      <c r="E335" s="2" t="s">
-        <v>2468</v>
-      </c>
-      <c r="F335" s="1" t="s">
-        <v>2905</v>
-      </c>
-      <c r="H335" s="1" t="s">
-        <v>2469</v>
-      </c>
       <c r="I335" s="2" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="336" spans="1:9">
       <c r="A336" s="2" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>2470</v>
       </c>
-      <c r="B336" s="5" t="s">
+      <c r="D336" s="1" t="s">
         <v>2471</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="E336" s="6" t="s">
         <v>2472</v>
       </c>
-      <c r="D336" s="1" t="s">
+      <c r="F336" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="H336" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="E336" s="6" t="s">
-        <v>2474</v>
-      </c>
-      <c r="F336" s="1" t="s">
-        <v>2906</v>
-      </c>
-      <c r="H336" s="1" t="s">
-        <v>2475</v>
-      </c>
       <c r="I336" s="2" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="337" spans="1:9">
       <c r="A337" s="2" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>2476</v>
       </c>
-      <c r="B337" s="5" t="s">
+      <c r="D337" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="E337" s="2" t="s">
         <v>2478</v>
       </c>
-      <c r="D337" s="1" t="s">
+      <c r="F337" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G337" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="E337" s="2" t="s">
+      <c r="H337" s="1" t="s">
         <v>2480</v>
       </c>
-      <c r="F337" s="1" t="s">
-        <v>2907</v>
-      </c>
-      <c r="G337" s="1" t="s">
-        <v>2481</v>
-      </c>
-      <c r="H337" s="1" t="s">
-        <v>2482</v>
-      </c>
       <c r="I337" s="2" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="2" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C338" s="1" t="s">
         <v>2483</v>
       </c>
-      <c r="B338" s="5" t="s">
+      <c r="D338" s="1" t="s">
         <v>2484</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="E338" s="2" t="s">
         <v>2485</v>
       </c>
-      <c r="D338" s="1" t="s">
+      <c r="F338" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G338" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>2487</v>
-      </c>
-      <c r="F338" s="1" t="s">
-        <v>2908</v>
-      </c>
-      <c r="G338" s="1" t="s">
-        <v>2488</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>408</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="339" spans="1:9">
       <c r="A339" s="2" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D339" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="B339" s="5" t="s">
-        <v>3011</v>
-      </c>
-      <c r="C339" s="1" t="s">
+      <c r="E339" s="2" t="s">
         <v>2490</v>
       </c>
-      <c r="D339" s="1" t="s">
+      <c r="F339" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="H339" s="1" t="s">
         <v>2491</v>
       </c>
-      <c r="E339" s="2" t="s">
-        <v>2492</v>
-      </c>
-      <c r="F339" s="1" t="s">
-        <v>2909</v>
-      </c>
-      <c r="H339" s="1" t="s">
-        <v>2493</v>
-      </c>
       <c r="I339" s="2" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="340" spans="1:9">
       <c r="A340" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="E340" s="6" t="s">
+        <v>2982</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="H340" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="B340" s="5" t="s">
-        <v>3118</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>2495</v>
-      </c>
-      <c r="E340" s="6" t="s">
-        <v>2984</v>
-      </c>
-      <c r="F340" s="1" t="s">
-        <v>2910</v>
-      </c>
-      <c r="H340" s="1" t="s">
-        <v>2496</v>
-      </c>
       <c r="I340" s="2" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="341" spans="1:9">
       <c r="A341" s="2" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>2496</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>2497</v>
       </c>
-      <c r="B341" s="5" t="s">
+      <c r="D341" s="1" t="s">
         <v>2498</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="E341" s="2" t="s">
         <v>2499</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="F341" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="G341" s="1" t="s">
         <v>2500</v>
       </c>
-      <c r="E341" s="2" t="s">
+      <c r="H341" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="F341" s="1" t="s">
-        <v>2911</v>
-      </c>
-      <c r="G341" s="1" t="s">
-        <v>2502</v>
-      </c>
-      <c r="H341" s="1" t="s">
-        <v>2503</v>
-      </c>
       <c r="I341" s="2" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="342" spans="1:9">
       <c r="A342" s="2" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="B342" s="10" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D342" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="F342" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="G342" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="D342" s="1" t="s">
+      <c r="H342" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="F342" s="1" t="s">
-        <v>2912</v>
-      </c>
-      <c r="G342" s="1" t="s">
-        <v>2507</v>
-      </c>
-      <c r="H342" s="1" t="s">
-        <v>2508</v>
-      </c>
       <c r="I342" s="2" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="343" spans="1:9">
       <c r="A343" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>2509</v>
       </c>
-      <c r="B343" s="5" t="s">
+      <c r="D343" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="E343" s="6" t="s">
+        <v>2983</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="G343" s="1" t="s">
         <v>2511</v>
       </c>
-      <c r="D343" s="1" t="s">
+      <c r="H343" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="E343" s="6" t="s">
-        <v>2985</v>
-      </c>
-      <c r="F343" s="1" t="s">
-        <v>2913</v>
-      </c>
-      <c r="G343" s="1" t="s">
-        <v>2513</v>
-      </c>
-      <c r="H343" s="1" t="s">
-        <v>2514</v>
-      </c>
       <c r="I343" s="2" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="344" spans="1:9">
       <c r="A344" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B344" s="10" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="D344" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="E344" s="1" t="s">
         <v>2517</v>
       </c>
-      <c r="D344" s="1" t="s">
+      <c r="F344" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="H344" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="E344" s="1" t="s">
-        <v>2519</v>
-      </c>
-      <c r="F344" s="1" t="s">
-        <v>2914</v>
-      </c>
-      <c r="H344" s="1" t="s">
-        <v>2520</v>
-      </c>
       <c r="I344" s="1" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="345" spans="1:9">
       <c r="A345" s="2" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D345" s="1" t="s">
         <v>2521</v>
-      </c>
-      <c r="B345" s="5" t="s">
-        <v>3184</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>2522</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="E345" s="2"/>
       <c r="F345" s="1" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="346" spans="1:9">
       <c r="A346" s="2" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="B346" s="5" t="s">
+      <c r="D346" s="1" t="s">
         <v>2525</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="E346" s="6" t="s">
         <v>2526</v>
       </c>
-      <c r="D346" s="1" t="s">
+      <c r="F346" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="H346" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="E346" s="6" t="s">
-        <v>2528</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>2916</v>
-      </c>
-      <c r="H346" s="1" t="s">
-        <v>2529</v>
-      </c>
       <c r="I346" s="2" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="347" spans="1:9">
       <c r="A347" s="2" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C347" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>2531</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="E347" s="2"/>
       <c r="F347" s="1" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="348" spans="1:9">
       <c r="A348" s="2" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D348" s="1" t="s">
         <v>2534</v>
       </c>
-      <c r="B348" s="5" t="s">
-        <v>3186</v>
-      </c>
-      <c r="C348" s="1" t="s">
+      <c r="E348" s="6" t="s">
+        <v>2984</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="G348" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="D348" s="1" t="s">
+      <c r="H348" s="1" t="s">
         <v>2536</v>
       </c>
-      <c r="E348" s="6" t="s">
-        <v>2986</v>
-      </c>
-      <c r="F348" s="1" t="s">
-        <v>2918</v>
-      </c>
-      <c r="G348" s="1" t="s">
-        <v>2537</v>
-      </c>
-      <c r="H348" s="1" t="s">
-        <v>2538</v>
-      </c>
       <c r="I348" s="2" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="349" spans="1:9">
       <c r="A349" s="2" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>2539</v>
       </c>
-      <c r="B349" s="5" t="s">
+      <c r="D349" s="1" t="s">
         <v>2540</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="E349" s="2" t="s">
         <v>2541</v>
       </c>
-      <c r="D349" s="1" t="s">
+      <c r="F349" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="G349" s="1" t="s">
         <v>2542</v>
       </c>
-      <c r="E349" s="2" t="s">
+      <c r="H349" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="F349" s="1" t="s">
-        <v>2919</v>
-      </c>
-      <c r="G349" s="1" t="s">
-        <v>2544</v>
-      </c>
-      <c r="H349" s="1" t="s">
-        <v>2545</v>
-      </c>
       <c r="I349" s="2" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="350" spans="1:9">
       <c r="A350" s="2" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="E350" s="2" t="s">
         <v>2546</v>
       </c>
-      <c r="B350" s="5" t="s">
-        <v>3010</v>
-      </c>
-      <c r="C350" s="1" t="s">
+      <c r="F350" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="G350" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="E350" s="2" t="s">
+      <c r="H350" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="F350" s="1" t="s">
-        <v>2920</v>
-      </c>
-      <c r="G350" s="1" t="s">
-        <v>2549</v>
-      </c>
-      <c r="H350" s="1" t="s">
-        <v>2550</v>
-      </c>
       <c r="I350" s="2" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="351" spans="1:9">
       <c r="A351" s="2" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>2551</v>
       </c>
-      <c r="B351" s="5" t="s">
+      <c r="D351" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="E351" s="4" t="s">
         <v>2553</v>
       </c>
-      <c r="D351" s="1" t="s">
+      <c r="F351" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="H351" s="1" t="s">
         <v>2554</v>
       </c>
-      <c r="E351" s="4" t="s">
-        <v>2555</v>
-      </c>
-      <c r="F351" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="H351" s="1" t="s">
-        <v>2556</v>
-      </c>
       <c r="I351" s="2" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="352" spans="1:9">
       <c r="A352" s="2" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>3185</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D352" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="B352" s="5" t="s">
-        <v>3187</v>
-      </c>
-      <c r="C352" s="1" t="s">
+      <c r="E352" s="6" t="s">
+        <v>3099</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="G352" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="D352" s="1" t="s">
+      <c r="H352" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="E352" s="6" t="s">
-        <v>3101</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>2922</v>
-      </c>
-      <c r="G352" s="1" t="s">
-        <v>2560</v>
-      </c>
-      <c r="H352" s="1" t="s">
-        <v>2561</v>
-      </c>
       <c r="I352" s="2" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="353" spans="1:9">
       <c r="A353" s="2" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D353" s="1" t="s">
         <v>2562</v>
       </c>
-      <c r="B353" s="5" t="s">
-        <v>3160</v>
-      </c>
-      <c r="C353" s="1" t="s">
+      <c r="E353" s="2" t="s">
         <v>2563</v>
       </c>
-      <c r="D353" s="1" t="s">
+      <c r="F353" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="H353" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="E353" s="2" t="s">
-        <v>2565</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>2923</v>
-      </c>
-      <c r="H353" s="1" t="s">
-        <v>2566</v>
-      </c>
       <c r="I353" s="2" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="354" spans="1:9">
       <c r="A354" s="2" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D354" s="1" t="s">
         <v>2567</v>
       </c>
-      <c r="B354" s="5" t="s">
-        <v>3009</v>
-      </c>
-      <c r="C354" s="1" t="s">
+      <c r="E354" s="2" t="s">
         <v>2568</v>
       </c>
-      <c r="D354" s="1" t="s">
+      <c r="F354" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="G354" s="1" t="s">
         <v>2569</v>
-      </c>
-      <c r="E354" s="2" t="s">
-        <v>2570</v>
-      </c>
-      <c r="F354" s="1" t="s">
-        <v>2924</v>
-      </c>
-      <c r="G354" s="1" t="s">
-        <v>2571</v>
       </c>
       <c r="H354" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="2" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>2572</v>
       </c>
-      <c r="B355" s="5" t="s">
+      <c r="E355" s="2" t="s">
         <v>2573</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="F355" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="H355" s="1" t="s">
         <v>2574</v>
       </c>
-      <c r="E355" s="2" t="s">
-        <v>2575</v>
-      </c>
-      <c r="F355" s="1" t="s">
-        <v>2925</v>
-      </c>
-      <c r="H355" s="1" t="s">
-        <v>2576</v>
-      </c>
       <c r="I355" s="2" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="356" spans="1:9">
       <c r="A356" s="2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C356" s="1" t="s">
         <v>2577</v>
       </c>
-      <c r="B356" s="5" t="s">
+      <c r="D356" s="1" t="s">
         <v>2578</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="E356" s="2" t="s">
         <v>2579</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="F356" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="H356" s="1" t="s">
         <v>2580</v>
       </c>
-      <c r="E356" s="2" t="s">
-        <v>2581</v>
-      </c>
-      <c r="F356" s="1" t="s">
-        <v>2926</v>
-      </c>
-      <c r="H356" s="1" t="s">
-        <v>2582</v>
-      </c>
       <c r="I356" s="2" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="357" spans="1:9">
       <c r="A357" s="2" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D357" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="B357" s="5" t="s">
-        <v>3159</v>
-      </c>
-      <c r="C357" s="1" t="s">
+      <c r="E357" s="2" t="s">
         <v>2584</v>
       </c>
-      <c r="D357" s="1" t="s">
+      <c r="F357" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="G357" s="1" t="s">
         <v>2585</v>
-      </c>
-      <c r="E357" s="2" t="s">
-        <v>2586</v>
-      </c>
-      <c r="F357" s="1" t="s">
-        <v>2927</v>
-      </c>
-      <c r="G357" s="1" t="s">
-        <v>2587</v>
       </c>
       <c r="H357" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="358" spans="1:9">
       <c r="A358" s="2" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C358" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="B358" s="5" t="s">
+      <c r="D358" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="E358" s="2" t="s">
         <v>2590</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="F358" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="G358" s="1" t="s">
         <v>2591</v>
       </c>
-      <c r="E358" s="2" t="s">
+      <c r="H358" s="1" t="s">
         <v>2592</v>
       </c>
-      <c r="F358" s="1" t="s">
-        <v>2928</v>
-      </c>
-      <c r="G358" s="1" t="s">
-        <v>2593</v>
-      </c>
-      <c r="H358" s="1" t="s">
-        <v>2594</v>
-      </c>
       <c r="I358" s="2" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="359" spans="1:9">
       <c r="A359" s="2" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D359" s="1" t="s">
         <v>2595</v>
-      </c>
-      <c r="B359" s="5" t="s">
-        <v>3158</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>2596</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>2597</v>
       </c>
       <c r="E359" s="2"/>
       <c r="F359" s="1" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="360" spans="1:9">
       <c r="A360" s="2" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C360" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="B360" s="5" t="s">
+      <c r="D360" s="1" t="s">
         <v>2601</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>2602</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>2603</v>
       </c>
       <c r="E360" s="2"/>
       <c r="F360" s="1" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="361" spans="1:9">
       <c r="A361" s="2" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C361" s="1" t="s">
         <v>2605</v>
       </c>
-      <c r="B361" s="5" t="s">
+      <c r="D361" s="1" t="s">
         <v>2606</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>2607</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>2608</v>
       </c>
       <c r="E361" s="2"/>
       <c r="F361" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>415</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="362" spans="1:9">
       <c r="A362" s="2" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C362" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="B362" s="5" t="s">
+      <c r="D362" s="1" t="s">
         <v>2610</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>2611</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>2612</v>
       </c>
       <c r="E362" s="2"/>
       <c r="F362" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="363" spans="1:9">
       <c r="A363" s="2" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D363" s="1" t="s">
         <v>2615</v>
-      </c>
-      <c r="B363" s="5" t="s">
-        <v>3157</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>2616</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>2617</v>
       </c>
       <c r="E363" s="2"/>
       <c r="F363" s="1" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="364" spans="1:9">
       <c r="A364" s="2" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>3154</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D364" s="1" t="s">
         <v>2619</v>
       </c>
-      <c r="B364" s="5" t="s">
-        <v>3156</v>
-      </c>
-      <c r="C364" s="1" t="s">
+      <c r="E364" s="6" t="s">
         <v>2620</v>
       </c>
-      <c r="D364" s="1" t="s">
-        <v>2621</v>
-      </c>
-      <c r="E364" s="6" t="s">
-        <v>2622</v>
-      </c>
       <c r="F364" s="1" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="G364" s="7"/>
       <c r="H364" s="1" t="s">
         <v>344</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="365" spans="1:9">
       <c r="A365" s="2" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C365" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="B365" s="5" t="s">
+      <c r="D365" s="6" t="s">
+        <v>3135</v>
+      </c>
+      <c r="E365" s="2" t="s">
         <v>2624</v>
       </c>
-      <c r="C365" s="1" t="s">
-        <v>2625</v>
-      </c>
-      <c r="D365" s="6" t="s">
-        <v>3137</v>
-      </c>
-      <c r="E365" s="2" t="s">
-        <v>2626</v>
-      </c>
       <c r="F365" s="1" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="G365" s="7" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="366" spans="1:9">
       <c r="A366" s="2" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="E366" s="2"/>
       <c r="F366" s="1" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="G366" s="7" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="367" spans="1:9">
       <c r="A367" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B367" s="10" t="s">
+        <v>3153</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D367" s="1" t="s">
         <v>2630</v>
       </c>
-      <c r="B367" s="10" t="s">
-        <v>3155</v>
-      </c>
-      <c r="C367" s="1" t="s">
+      <c r="E367" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="D367" s="1" t="s">
+      <c r="F367" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="H367" s="1" t="s">
         <v>2632</v>
       </c>
-      <c r="E367" s="1" t="s">
-        <v>2633</v>
-      </c>
-      <c r="F367" s="1" t="s">
-        <v>2937</v>
-      </c>
-      <c r="H367" s="1" t="s">
-        <v>2634</v>
-      </c>
       <c r="I367" s="1" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="368" spans="1:9">
       <c r="A368" s="2" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>2635</v>
       </c>
-      <c r="B368" s="5" t="s">
+      <c r="D368" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="E368" s="2" t="s">
         <v>2637</v>
       </c>
-      <c r="D368" s="1" t="s">
+      <c r="F368" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="H368" s="1" t="s">
         <v>2638</v>
       </c>
-      <c r="E368" s="2" t="s">
-        <v>2639</v>
-      </c>
-      <c r="F368" s="1" t="s">
-        <v>2938</v>
-      </c>
-      <c r="H368" s="1" t="s">
-        <v>2640</v>
-      </c>
       <c r="I368" s="2" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="369" spans="1:9">
       <c r="A369" s="2" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C369" s="1" t="s">
         <v>2641</v>
-      </c>
-      <c r="B369" s="5" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>2643</v>
       </c>
       <c r="E369" s="2"/>
       <c r="H369" s="1" t="s">
         <v>526</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="370" spans="1:9">
       <c r="A370" s="2" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="E370" s="2"/>
       <c r="F370" s="1" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="H370" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="371" spans="1:9">
       <c r="A371" s="1" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="C371" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="H371" s="1" t="s">
         <v>2646</v>
       </c>
-      <c r="F371" s="1" t="s">
-        <v>2647</v>
-      </c>
-      <c r="H371" s="1" t="s">
-        <v>2648</v>
-      </c>
       <c r="I371" s="2" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="372" spans="1:9">
       <c r="A372" s="2" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="E372" s="2"/>
       <c r="F372" s="1" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="373" spans="1:9">
       <c r="A373" s="2" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C373" s="1" t="s">
         <v>2652</v>
-      </c>
-      <c r="B373" s="5" t="s">
-        <v>2653</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>2654</v>
       </c>
       <c r="E373" s="2"/>
       <c r="F373" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="H373" s="1" t="s">
         <v>744</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="374" spans="1:9">
       <c r="A374" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D374" s="1" t="s">
         <v>2655</v>
       </c>
-      <c r="B374" s="5" t="s">
-        <v>3151</v>
-      </c>
-      <c r="C374" s="1" t="s">
+      <c r="E374" s="2" t="s">
         <v>2656</v>
       </c>
-      <c r="D374" s="1" t="s">
+      <c r="F374" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="G374" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="E374" s="2" t="s">
+      <c r="H374" s="1" t="s">
         <v>2658</v>
       </c>
-      <c r="F374" s="1" t="s">
-        <v>2942</v>
-      </c>
-      <c r="G374" s="1" t="s">
-        <v>2659</v>
-      </c>
-      <c r="H374" s="1" t="s">
-        <v>2660</v>
-      </c>
       <c r="I374" s="2" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="375" spans="1:9">
       <c r="A375" s="2" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C375" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="B375" s="5" t="s">
+      <c r="D375" s="1" t="s">
         <v>2662</v>
       </c>
-      <c r="C375" s="1" t="s">
+      <c r="E375" s="2" t="s">
         <v>2663</v>
       </c>
-      <c r="D375" s="1" t="s">
-        <v>2664</v>
-      </c>
-      <c r="E375" s="2" t="s">
-        <v>2665</v>
-      </c>
       <c r="F375" s="1" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="376" spans="1:9">
       <c r="A376" s="2" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="E376" s="2"/>
       <c r="F376" s="1" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="H376" s="1" t="s">
         <v>408</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="377" spans="1:9">
       <c r="A377" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="D377" s="1" t="s">
         <v>2668</v>
-      </c>
-      <c r="B377" s="5" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>2669</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>2670</v>
       </c>
       <c r="E377" s="11"/>
       <c r="F377" s="1" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="378" spans="1:9">
       <c r="A378" s="2" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="E378" s="2"/>
       <c r="F378" s="1" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="H378" s="1" t="s">
         <v>508</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="379" spans="1:9">
       <c r="A379" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C379" s="1" t="s">
         <v>2674</v>
       </c>
-      <c r="B379" s="5" t="s">
+      <c r="D379" s="1" t="s">
         <v>2675</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="E379" s="2" t="s">
         <v>2676</v>
       </c>
-      <c r="D379" s="1" t="s">
+      <c r="F379" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="H379" s="1" t="s">
         <v>2677</v>
       </c>
-      <c r="E379" s="2" t="s">
-        <v>2678</v>
-      </c>
-      <c r="F379" s="1" t="s">
-        <v>2947</v>
-      </c>
-      <c r="H379" s="1" t="s">
-        <v>2679</v>
-      </c>
       <c r="I379" s="2" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="380" spans="1:9">
       <c r="A380" s="2" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D380" s="1" t="s">
         <v>2680</v>
       </c>
-      <c r="B380" s="5" t="s">
-        <v>3147</v>
-      </c>
-      <c r="C380" s="1" t="s">
+      <c r="E380" s="2" t="s">
         <v>2681</v>
       </c>
-      <c r="D380" s="1" t="s">
+      <c r="F380" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="G380" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="E380" s="2" t="s">
+      <c r="H380" s="1" t="s">
         <v>2683</v>
       </c>
-      <c r="F380" s="1" t="s">
-        <v>2948</v>
-      </c>
-      <c r="G380" s="1" t="s">
-        <v>2684</v>
-      </c>
-      <c r="H380" s="1" t="s">
-        <v>2685</v>
-      </c>
       <c r="I380" s="2" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="381" spans="1:9">
       <c r="A381" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B381" s="10" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C381" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="B381" s="10" t="s">
+      <c r="D381" s="1" t="s">
         <v>2687</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="F381" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="H381" s="1" t="s">
         <v>2688</v>
       </c>
-      <c r="D381" s="1" t="s">
-        <v>2689</v>
-      </c>
-      <c r="F381" s="1" t="s">
-        <v>2949</v>
-      </c>
-      <c r="H381" s="1" t="s">
-        <v>2690</v>
-      </c>
       <c r="I381" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="382" spans="1:9">
       <c r="A382" s="2" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D382" s="1" t="s">
         <v>2691</v>
       </c>
-      <c r="B382" s="5" t="s">
-        <v>3008</v>
-      </c>
-      <c r="C382" s="1" t="s">
+      <c r="E382" s="2" t="s">
         <v>2692</v>
       </c>
-      <c r="D382" s="1" t="s">
+      <c r="F382" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="G382" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="E382" s="2" t="s">
+      <c r="H382" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="F382" s="1" t="s">
-        <v>2950</v>
-      </c>
-      <c r="G382" s="1" t="s">
-        <v>2695</v>
-      </c>
-      <c r="H382" s="1" t="s">
-        <v>2696</v>
-      </c>
       <c r="I382" s="2" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="383" spans="1:9">
       <c r="A383" s="2" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C383" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="B383" s="5" t="s">
+      <c r="D383" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="C383" s="1" t="s">
+      <c r="E383" s="6" t="s">
         <v>2699</v>
       </c>
-      <c r="D383" s="1" t="s">
+      <c r="F383" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="G383" s="1" t="s">
         <v>2700</v>
       </c>
-      <c r="E383" s="6" t="s">
+      <c r="H383" s="1" t="s">
         <v>2701</v>
       </c>
-      <c r="F383" s="1" t="s">
-        <v>2951</v>
-      </c>
-      <c r="G383" s="1" t="s">
-        <v>2702</v>
-      </c>
-      <c r="H383" s="1" t="s">
-        <v>2703</v>
-      </c>
       <c r="I383" s="2" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="384" spans="1:9">
       <c r="A384" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B384" s="10" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C384" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="B384" s="10" t="s">
+      <c r="D384" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="C384" s="1" t="s">
+      <c r="E384" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="D384" s="1" t="s">
+      <c r="F384" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="G384" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="E384" s="1" t="s">
+      <c r="H384" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="F384" s="1" t="s">
-        <v>2952</v>
-      </c>
-      <c r="G384" s="1" t="s">
-        <v>2709</v>
-      </c>
-      <c r="H384" s="1" t="s">
-        <v>2710</v>
-      </c>
       <c r="I384" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="385" spans="1:9">
       <c r="A385" s="2" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C385" s="1" t="s">
         <v>2711</v>
       </c>
-      <c r="B385" s="5" t="s">
+      <c r="D385" s="1" t="s">
         <v>2712</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="E385" s="6" t="s">
+        <v>2985</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="H385" s="1" t="s">
         <v>2713</v>
       </c>
-      <c r="D385" s="1" t="s">
-        <v>2714</v>
-      </c>
-      <c r="E385" s="6" t="s">
-        <v>2987</v>
-      </c>
-      <c r="F385" s="1" t="s">
-        <v>2953</v>
-      </c>
-      <c r="H385" s="1" t="s">
-        <v>2715</v>
-      </c>
       <c r="I385" s="2" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="386" spans="1:9">
       <c r="A386" s="2" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="D386" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="B386" s="5" t="s">
-        <v>3146</v>
-      </c>
-      <c r="C386" s="1" t="s">
+      <c r="E386" s="2" t="s">
         <v>2717</v>
       </c>
-      <c r="D386" s="1" t="s">
+      <c r="F386" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="G386" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="E386" s="2" t="s">
+      <c r="H386" s="1" t="s">
         <v>2719</v>
       </c>
-      <c r="F386" s="1" t="s">
-        <v>2954</v>
-      </c>
-      <c r="G386" s="1" t="s">
-        <v>2720</v>
-      </c>
-      <c r="H386" s="1" t="s">
-        <v>2721</v>
-      </c>
       <c r="I386" s="2" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="387" spans="1:9">
       <c r="A387" s="2" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C387" s="1" t="s">
         <v>2722</v>
       </c>
-      <c r="B387" s="5" t="s">
+      <c r="D387" s="1" t="s">
         <v>2723</v>
       </c>
-      <c r="C387" s="1" t="s">
+      <c r="E387" s="6" t="s">
         <v>2724</v>
       </c>
-      <c r="D387" s="1" t="s">
+      <c r="F387" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="G387" s="1" t="s">
         <v>2725</v>
-      </c>
-      <c r="E387" s="6" t="s">
-        <v>2726</v>
-      </c>
-      <c r="F387" s="1" t="s">
-        <v>2955</v>
-      </c>
-      <c r="G387" s="1" t="s">
-        <v>2727</v>
       </c>
       <c r="H387" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I387" s="2" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="388" spans="1:9">
       <c r="A388" s="2" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D388" s="1" t="s">
         <v>2728</v>
       </c>
-      <c r="B388" s="5" t="s">
-        <v>3007</v>
-      </c>
-      <c r="C388" s="1" t="s">
+      <c r="E388" s="2" t="s">
         <v>2729</v>
       </c>
-      <c r="D388" s="1" t="s">
+      <c r="F388" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="H388" s="1" t="s">
         <v>2730</v>
       </c>
-      <c r="E388" s="2" t="s">
-        <v>2731</v>
-      </c>
-      <c r="F388" s="1" t="s">
-        <v>2996</v>
-      </c>
-      <c r="H388" s="1" t="s">
-        <v>2732</v>
-      </c>
       <c r="I388" s="2" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="389" spans="1:9">
       <c r="A389" s="2" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D389" s="6" t="s">
         <v>2997</v>
-      </c>
-      <c r="B389" s="5" t="s">
-        <v>3006</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="D389" s="6" t="s">
-        <v>2999</v>
       </c>
       <c r="E389" s="2"/>
       <c r="F389" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="H389" s="1" t="s">
         <v>3000</v>
       </c>
-      <c r="G389" s="1" t="s">
+      <c r="I389" s="2" t="s">
         <v>3001</v>
-      </c>
-      <c r="H389" s="1" t="s">
-        <v>3002</v>
-      </c>
-      <c r="I389" s="2" t="s">
-        <v>3003</v>
       </c>
     </row>
     <row r="390" spans="1:9">
       <c r="A390" s="2" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D390" s="1" t="s">
         <v>2733</v>
       </c>
-      <c r="B390" s="5" t="s">
-        <v>3145</v>
-      </c>
-      <c r="C390" s="1" t="s">
+      <c r="E390" s="2" t="s">
         <v>2734</v>
       </c>
-      <c r="D390" s="1" t="s">
+      <c r="F390" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="G390" s="1" t="s">
         <v>2735</v>
       </c>
-      <c r="E390" s="2" t="s">
+      <c r="H390" s="1" t="s">
         <v>2736</v>
       </c>
-      <c r="F390" s="1" t="s">
-        <v>2956</v>
-      </c>
-      <c r="G390" s="1" t="s">
-        <v>2737</v>
-      </c>
-      <c r="H390" s="1" t="s">
-        <v>2738</v>
-      </c>
       <c r="I390" s="2" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="391" spans="1:9">
       <c r="A391" s="2" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C391" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="B391" s="5" t="s">
+      <c r="D391" s="1" t="s">
         <v>2740</v>
       </c>
-      <c r="C391" s="1" t="s">
+      <c r="E391" s="2" t="s">
         <v>2741</v>
       </c>
-      <c r="D391" s="1" t="s">
+      <c r="F391" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="H391" s="1" t="s">
         <v>2742</v>
       </c>
-      <c r="E391" s="2" t="s">
-        <v>2743</v>
-      </c>
-      <c r="F391" s="1" t="s">
-        <v>2957</v>
-      </c>
-      <c r="H391" s="1" t="s">
-        <v>2744</v>
-      </c>
       <c r="I391" s="2" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="392" spans="1:9">
       <c r="A392" s="2" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D392" s="1" t="s">
         <v>2745</v>
       </c>
-      <c r="B392" s="5" t="s">
-        <v>3005</v>
-      </c>
-      <c r="C392" s="1" t="s">
+      <c r="E392" s="2" t="s">
         <v>2746</v>
       </c>
-      <c r="D392" s="1" t="s">
+      <c r="F392" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="G392" s="1" t="s">
         <v>2747</v>
       </c>
-      <c r="E392" s="2" t="s">
+      <c r="H392" s="1" t="s">
         <v>2748</v>
       </c>
-      <c r="F392" s="1" t="s">
-        <v>2958</v>
-      </c>
-      <c r="G392" s="1" t="s">
-        <v>2749</v>
-      </c>
-      <c r="H392" s="1" t="s">
-        <v>2750</v>
-      </c>
       <c r="I392" s="2" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="393" spans="1:9">
       <c r="A393" s="2" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C393" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="B393" s="5" t="s">
+      <c r="D393" s="6" t="s">
+        <v>3137</v>
+      </c>
+      <c r="E393" s="2" t="s">
         <v>2752</v>
       </c>
-      <c r="C393" s="1" t="s">
-        <v>2753</v>
-      </c>
-      <c r="D393" s="6" t="s">
-        <v>3139</v>
-      </c>
-      <c r="E393" s="2" t="s">
-        <v>2754</v>
-      </c>
       <c r="F393" s="1" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="H393" s="1" t="s">
         <v>1095</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="394" spans="1:9">
       <c r="A394" s="2" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D394" s="1" t="s">
         <v>2755</v>
       </c>
-      <c r="B394" s="5" t="s">
-        <v>2988</v>
-      </c>
-      <c r="C394" s="1" t="s">
+      <c r="E394" s="2" t="s">
         <v>2756</v>
       </c>
-      <c r="D394" s="1" t="s">
+      <c r="F394" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="H394" s="1" t="s">
         <v>2757</v>
       </c>
-      <c r="E394" s="2" t="s">
-        <v>2758</v>
-      </c>
-      <c r="F394" s="1" t="s">
-        <v>2960</v>
-      </c>
-      <c r="H394" s="1" t="s">
-        <v>2759</v>
-      </c>
       <c r="I394" s="2" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="395" spans="1:9">
       <c r="A395" s="2" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>2760</v>
       </c>
-      <c r="B395" s="5" t="s">
+      <c r="D395" s="1" t="s">
         <v>2761</v>
       </c>
-      <c r="C395" s="1" t="s">
+      <c r="E395" s="2" t="s">
         <v>2762</v>
       </c>
-      <c r="D395" s="1" t="s">
+      <c r="F395" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="H395" s="1" t="s">
         <v>2763</v>
       </c>
-      <c r="E395" s="2" t="s">
-        <v>2764</v>
-      </c>
-      <c r="F395" s="1" t="s">
-        <v>2961</v>
-      </c>
-      <c r="H395" s="1" t="s">
-        <v>2765</v>
-      </c>
       <c r="I395" s="2" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="396" spans="1:9">
       <c r="A396" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B396" s="10" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C396" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="B396" s="10" t="s">
+      <c r="F396" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="G396" s="1" t="s">
         <v>2767</v>
       </c>
-      <c r="C396" s="1" t="s">
+      <c r="H396" s="1" t="s">
         <v>2768</v>
       </c>
-      <c r="F396" s="1" t="s">
-        <v>2962</v>
-      </c>
-      <c r="G396" s="1" t="s">
-        <v>2769</v>
-      </c>
-      <c r="H396" s="1" t="s">
-        <v>2770</v>
-      </c>
       <c r="I396" s="1" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="397" spans="1:9">
       <c r="A397" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D397" s="1" t="s">
         <v>2771</v>
       </c>
-      <c r="B397" s="10" t="s">
-        <v>3144</v>
-      </c>
-      <c r="C397" s="1" t="s">
+      <c r="G397" s="1" t="s">
         <v>2772</v>
       </c>
-      <c r="D397" s="1" t="s">
+      <c r="H397" s="1" t="s">
         <v>2773</v>
       </c>
-      <c r="G397" s="1" t="s">
-        <v>2774</v>
-      </c>
-      <c r="H397" s="1" t="s">
-        <v>2775</v>
-      </c>
       <c r="I397" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="398" spans="1:9">
       <c r="A398" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B398" s="10" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D398" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="B398" s="10" t="s">
-        <v>3143</v>
-      </c>
-      <c r="C398" s="1" t="s">
+      <c r="H398" s="1" t="s">
         <v>2777</v>
       </c>
-      <c r="D398" s="1" t="s">
-        <v>2778</v>
-      </c>
-      <c r="H398" s="1" t="s">
-        <v>2779</v>
-      </c>
       <c r="I398" s="1" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="399" spans="1:9">
       <c r="A399" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B399" s="10" t="s">
+        <v>2779</v>
+      </c>
+      <c r="D399" s="6" t="s">
+        <v>3138</v>
+      </c>
+      <c r="E399" s="1" t="s">
         <v>2780</v>
       </c>
-      <c r="B399" s="10" t="s">
+      <c r="F399" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="G399" s="1" t="s">
         <v>2781</v>
       </c>
-      <c r="D399" s="6" t="s">
-        <v>3140</v>
-      </c>
-      <c r="E399" s="1" t="s">
+      <c r="H399" s="1" t="s">
         <v>2782</v>
       </c>
-      <c r="F399" s="1" t="s">
-        <v>2963</v>
-      </c>
-      <c r="G399" s="1" t="s">
-        <v>2783</v>
-      </c>
-      <c r="H399" s="1" t="s">
-        <v>2784</v>
-      </c>
       <c r="I399" s="1" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="400" spans="1:9">
       <c r="A400" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B400" s="10" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C400" s="1" t="s">
         <v>2785</v>
       </c>
-      <c r="B400" s="10" t="s">
+      <c r="D400" s="1" t="s">
         <v>2786</v>
       </c>
-      <c r="C400" s="1" t="s">
+      <c r="E400" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="D400" s="1" t="s">
+      <c r="F400" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="H400" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="E400" s="1" t="s">
-        <v>2789</v>
-      </c>
-      <c r="F400" s="1" t="s">
-        <v>2964</v>
-      </c>
-      <c r="H400" s="1" t="s">
-        <v>2790</v>
-      </c>
       <c r="I400" s="1" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="401" spans="1:10">
       <c r="A401" s="1" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="B401" s="10" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D401" s="1" t="s">
         <v>2791</v>
       </c>
-      <c r="C401" s="1" t="s">
+      <c r="F401" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="G401" s="1" t="s">
         <v>2792</v>
       </c>
-      <c r="D401" s="1" t="s">
+      <c r="H401" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="F401" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="G401" s="1" t="s">
-        <v>2794</v>
-      </c>
-      <c r="H401" s="1" t="s">
-        <v>2795</v>
-      </c>
       <c r="I401" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="402" spans="1:10">
       <c r="A402" s="1" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="H402" s="1" t="s">
         <v>480</v>
       </c>
       <c r="I402" s="1" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="403" spans="1:10">
       <c r="A403" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B403" s="10" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C403" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="B403" s="10" t="s">
+      <c r="D403" s="6" t="s">
+        <v>3139</v>
+      </c>
+      <c r="E403" s="6" t="s">
         <v>2799</v>
       </c>
-      <c r="C403" s="1" t="s">
+      <c r="F403" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="G403" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="D403" s="6" t="s">
-        <v>3141</v>
-      </c>
-      <c r="E403" s="6" t="s">
+      <c r="H403" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="F403" s="1" t="s">
-        <v>2967</v>
-      </c>
-      <c r="G403" s="1" t="s">
-        <v>2802</v>
-      </c>
-      <c r="H403" s="1" t="s">
-        <v>2803</v>
-      </c>
       <c r="I403" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="404" spans="1:10">
       <c r="A404" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B404" s="10" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C404" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="B404" s="10" t="s">
+      <c r="D404" s="1" t="s">
         <v>2805</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="E404" s="1" t="s">
         <v>2806</v>
       </c>
-      <c r="D404" s="1" t="s">
-        <v>2807</v>
-      </c>
-      <c r="E404" s="1" t="s">
-        <v>2808</v>
-      </c>
       <c r="F404" s="1" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="J404" s="2"/>
     </row>
     <row r="405" spans="1:10">
       <c r="A405" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B405" s="10" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E405" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="B405" s="10" t="s">
+      <c r="F405" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="H405" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="E405" s="1" t="s">
-        <v>2811</v>
-      </c>
-      <c r="F405" s="1" t="s">
-        <v>2969</v>
-      </c>
-      <c r="H405" s="1" t="s">
-        <v>2812</v>
-      </c>
       <c r="I405" s="1" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="J405" s="2"/>
     </row>
     <row r="406" spans="1:10">
       <c r="A406" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B406" s="10" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="E406" s="1" t="s">
         <v>2813</v>
       </c>
-      <c r="B406" s="10" t="s">
-        <v>3142</v>
-      </c>
-      <c r="C406" s="1" t="s">
+      <c r="F406" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G406" s="1" t="s">
         <v>2814</v>
-      </c>
-      <c r="E406" s="1" t="s">
-        <v>2815</v>
-      </c>
-      <c r="F406" s="1" t="s">
-        <v>2970</v>
-      </c>
-      <c r="G406" s="1" t="s">
-        <v>2816</v>
       </c>
       <c r="H406" s="1" t="s">
         <v>767</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="J406" s="2"/>
     </row>
@@ -21713,8 +21724,9 @@
     <hyperlink ref="D393" r:id="rId159" xr:uid="{D75B7B34-6101-40E6-BDE8-18070302EC84}"/>
     <hyperlink ref="D399" r:id="rId160" xr:uid="{B50724E4-3468-4004-9C37-EA41387B0666}"/>
     <hyperlink ref="D403" r:id="rId161" xr:uid="{A637B6DC-F341-4B39-B9B5-76FB9EC9B911}"/>
+    <hyperlink ref="E214" r:id="rId162" xr:uid="{EE8D6231-4E61-4427-B4A8-AC42D0781419}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId162"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId163"/>
 </worksheet>
 </file>
--- a/bookDB2.xlsx
+++ b/bookDB2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sme13\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sme13\OneDrive\바탕 화면\dev\real-dnb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE6378B-543A-45FF-AED2-0812BBCDFE58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1CC916-63B3-457F-96C1-29A071A95152}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{509E9B0D-9459-46C0-BD3F-1330B5019B57}"/>
   </bookViews>
@@ -8247,9 +8247,6 @@
     <t>제주도 제주시 구좌읍 종달로5길 11 (종달리)</t>
   </si>
   <si>
-    <t>010-2640-9636</t>
-  </si>
-  <si>
     <t>https://bookshopmap.s3.ap-northeast-2.amazonaws.com/venue/%E1%84%8E%E1%85%A2%E1%86%A8%E1%84%8B%E1%85%A3%E1%86%A8%E1%84%87%E1%85%A1%E1%86%BC.jpg</t>
   </si>
   <si>
@@ -10373,13 +10370,17 @@
   </si>
   <si>
     <t>https://s3.ap-northeast-2.amazonaws.com/bookstore.img/%EC%8B%9C%EC%98%B7%EC%84%9C%EC%A0%90.jpg</t>
+  </si>
+  <si>
+    <t>010-7361-2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10433,6 +10434,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -10462,7 +10471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10500,6 +10509,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10821,10 +10833,10 @@
   <dimension ref="A1:J406"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E208" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C352" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G214" sqref="G214"/>
+      <selection pane="bottomRight" activeCell="E360" sqref="E360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10955,7 +10967,7 @@
         <v>2005</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10963,7 +10975,7 @@
         <v>1733</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1734</v>
@@ -11008,7 +11020,7 @@
         <v>1748</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11016,7 +11028,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -11025,7 +11037,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
@@ -11071,7 +11083,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -11254,7 +11266,7 @@
         <v>78</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11317,7 +11329,7 @@
         <v>91</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>92</v>
@@ -11401,7 +11413,7 @@
         <v>108</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>109</v>
@@ -11410,7 +11422,7 @@
         <v>110</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -11418,7 +11430,7 @@
         <v>111</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>112</v>
@@ -11476,7 +11488,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>126</v>
@@ -11598,7 +11610,7 @@
         <v>150</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -11785,7 +11797,7 @@
         <v>179</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>180</v>
@@ -11834,7 +11846,7 @@
         <v>191</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>192</v>
@@ -11970,7 +11982,7 @@
         <v>223</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>224</v>
@@ -12104,7 +12116,7 @@
         <v>247</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>248</v>
@@ -12159,7 +12171,7 @@
         <v>253</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>254</v>
@@ -12179,7 +12191,7 @@
         <v>258</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>259</v>
@@ -12188,7 +12200,7 @@
         <v>260</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>261</v>
@@ -12385,7 +12397,7 @@
         <v>299</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>1953</v>
@@ -12428,10 +12440,10 @@
         <v>307</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>3186</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>3187</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>308</v>
@@ -12700,7 +12712,7 @@
         <v>363</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>364</v>
@@ -12729,7 +12741,7 @@
         <v>370</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>371</v>
@@ -12955,7 +12967,7 @@
         <v>423</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>424</v>
@@ -12964,7 +12976,7 @@
         <v>425</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>426</v>
@@ -13146,7 +13158,7 @@
         <v>444</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>445</v>
@@ -13207,7 +13219,7 @@
         <v>458</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>459</v>
@@ -13224,7 +13236,7 @@
         <v>461</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>462</v>
@@ -13259,7 +13271,7 @@
         <v>468</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>469</v>
@@ -13302,7 +13314,7 @@
         <v>476</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>477</v>
@@ -13661,7 +13673,7 @@
         <v>1041</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>1042</v>
@@ -13682,7 +13694,7 @@
         <v>1045</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>1046</v>
@@ -13757,7 +13769,7 @@
         <v>1056</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>1057</v>
@@ -13821,7 +13833,7 @@
         <v>1071</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>1072</v>
@@ -13894,7 +13906,7 @@
         <v>1081</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>1082</v>
@@ -13978,7 +13990,7 @@
         <v>1095</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -14015,7 +14027,7 @@
         <v>481</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>482</v>
@@ -14047,10 +14059,10 @@
         <v>2008</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>1725</v>
@@ -14119,7 +14131,7 @@
         <v>1114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1115</v>
@@ -14226,7 +14238,7 @@
         <v>1135</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>1136</v>
@@ -14455,7 +14467,7 @@
         <v>2018</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>1191</v>
@@ -14594,7 +14606,7 @@
         <v>1221</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1222</v>
@@ -14696,7 +14708,7 @@
         <v>289</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -15135,7 +15147,7 @@
         <v>1344</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>1345</v>
@@ -15300,7 +15312,7 @@
         <v>1423</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>1424</v>
@@ -15318,13 +15330,13 @@
         <v>672</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>673</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>2088</v>
@@ -15434,7 +15446,7 @@
         <v>1394</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>1395</v>
@@ -15449,7 +15461,7 @@
         <v>1397</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="J172" s="2"/>
     </row>
@@ -15539,7 +15551,7 @@
         <v>1418</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>1419</v>
@@ -15590,7 +15602,7 @@
         <v>1433</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>1434</v>
@@ -15611,7 +15623,7 @@
         <v>1439</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="J178" s="2"/>
     </row>
@@ -15620,7 +15632,7 @@
         <v>1440</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>1441</v>
@@ -15709,7 +15721,7 @@
         <v>1460</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>1461</v>
@@ -15778,7 +15790,7 @@
         <v>1475</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="J184" s="2"/>
     </row>
@@ -15787,7 +15799,7 @@
         <v>1476</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>1477</v>
@@ -15810,7 +15822,7 @@
         <v>1481</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>1482</v>
@@ -15864,7 +15876,7 @@
         <v>1493</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>1494</v>
@@ -16071,7 +16083,7 @@
         <v>14</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -16209,7 +16221,7 @@
         <v>1562</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>1563</v>
@@ -16338,7 +16350,7 @@
         <v>1594</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -16346,7 +16358,7 @@
         <v>1595</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>1596</v>
@@ -16569,7 +16581,7 @@
         <v>1637</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>1638</v>
@@ -16578,7 +16590,7 @@
         <v>1639</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>1640</v>
@@ -16615,7 +16627,7 @@
         <v>548</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>549</v>
@@ -16641,7 +16653,7 @@
         <v>554</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>555</v>
@@ -16650,7 +16662,7 @@
         <v>556</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>557</v>
@@ -16719,7 +16731,7 @@
         <v>563</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>564</v>
@@ -16760,7 +16772,7 @@
         <v>415</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -16861,7 +16873,7 @@
         <v>599</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -16887,7 +16899,7 @@
         <v>289</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -16950,7 +16962,7 @@
         <v>606</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>607</v>
@@ -16997,7 +17009,7 @@
         <v>2245</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -17005,7 +17017,7 @@
         <v>618</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>619</v>
@@ -17031,7 +17043,7 @@
         <v>623</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>624</v>
@@ -17129,7 +17141,7 @@
         <v>643</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>644</v>
@@ -17152,13 +17164,13 @@
         <v>648</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>649</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>650</v>
@@ -17187,7 +17199,7 @@
         <v>1032</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>654</v>
@@ -17349,7 +17361,7 @@
         <v>691</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>692</v>
@@ -17436,7 +17448,7 @@
         <v>2264</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -17496,7 +17508,7 @@
         <v>721</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>722</v>
@@ -17542,7 +17554,7 @@
         <v>731</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>732</v>
@@ -17588,7 +17600,7 @@
         <v>740</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>741</v>
@@ -17643,7 +17655,7 @@
         <v>753</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>754</v>
@@ -17741,7 +17753,7 @@
         <v>768</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>769</v>
@@ -17796,7 +17808,7 @@
         <v>781</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>782</v>
@@ -17984,7 +17996,7 @@
         <v>1035</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>815</v>
@@ -18048,7 +18060,7 @@
         <v>1662</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -18105,7 +18117,7 @@
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="1" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>1861</v>
@@ -18126,7 +18138,7 @@
         <v>833</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -18166,7 +18178,7 @@
         <v>840</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>841</v>
@@ -18478,7 +18490,7 @@
         <v>908</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>909</v>
@@ -18576,7 +18588,7 @@
         <v>928</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>929</v>
@@ -18634,7 +18646,7 @@
         <v>941</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>942</v>
@@ -18654,7 +18666,7 @@
         <v>945</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>946</v>
@@ -18680,7 +18692,7 @@
         <v>950</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>951</v>
@@ -18755,7 +18767,7 @@
         <v>962</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>963</v>
@@ -18891,7 +18903,7 @@
         <v>987</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>988</v>
@@ -18988,7 +19000,7 @@
         <v>1019</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -18996,7 +19008,7 @@
         <v>1004</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>1005</v>
@@ -19019,7 +19031,7 @@
         <v>2340</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>2341</v>
@@ -19028,16 +19040,16 @@
         <v>2342</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>526</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -19054,10 +19066,10 @@
         <v>2346</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="G310" s="1" t="s">
         <v>2347</v>
@@ -19066,7 +19078,7 @@
         <v>2348</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -19074,7 +19086,7 @@
         <v>2349</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>2350</v>
@@ -19083,10 +19095,10 @@
         <v>2351</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="G311" s="1" t="s">
         <v>2352</v>
@@ -19095,7 +19107,7 @@
         <v>289</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -19109,10 +19121,10 @@
         <v>2351</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="G312" s="1" t="s">
         <v>2355</v>
@@ -19121,15 +19133,15 @@
         <v>289</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" s="2" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>2356</v>
@@ -19138,16 +19150,16 @@
         <v>2357</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>2358</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -19167,13 +19179,13 @@
         <v>2363</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>289</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -19190,13 +19202,13 @@
         <v>2367</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>2368</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -19204,19 +19216,19 @@
         <v>2369</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>2370</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="E316" s="6" t="s">
         <v>2371</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="G316" s="1" t="s">
         <v>2372</v>
@@ -19225,7 +19237,7 @@
         <v>2373</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -19245,13 +19257,13 @@
         <v>2378</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -19259,16 +19271,16 @@
         <v>2379</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>2380</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="G318" s="1" t="s">
         <v>2381</v>
@@ -19277,15 +19289,15 @@
         <v>2382</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="2" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>2383</v>
@@ -19294,13 +19306,13 @@
         <v>2384</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>2385</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -19308,13 +19320,13 @@
         <v>2386</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="G320" s="1" t="s">
         <v>2387</v>
@@ -19323,7 +19335,7 @@
         <v>2388</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -19331,20 +19343,20 @@
         <v>2389</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>2390</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="F321" s="2"/>
       <c r="H321" s="1" t="s">
         <v>2391</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -19358,13 +19370,13 @@
         <v>2394</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="G322" s="1" t="s">
         <v>2395</v>
@@ -19373,7 +19385,7 @@
         <v>2396</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -19381,7 +19393,7 @@
         <v>2397</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>2398</v>
@@ -19390,16 +19402,16 @@
         <v>2399</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>2400</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -19413,22 +19425,22 @@
         <v>2403</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>2404</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="G324" s="1" t="s">
         <v>2405</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -19436,7 +19448,7 @@
         <v>2406</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>2407</v>
@@ -19445,10 +19457,10 @@
         <v>2408</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="G325" s="1" t="s">
         <v>2409</v>
@@ -19457,7 +19469,7 @@
         <v>2410</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -19477,7 +19489,7 @@
         <v>2415</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="G326" s="1" t="s">
         <v>2416</v>
@@ -19486,7 +19498,7 @@
         <v>2417</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -19503,13 +19515,13 @@
         <v>2421</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>2422</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -19526,10 +19538,10 @@
         <v>2426</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="G328" s="1" t="s">
         <v>2427</v>
@@ -19538,7 +19550,7 @@
         <v>2428</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -19558,7 +19570,7 @@
         <v>2433</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="G329" s="1" t="s">
         <v>2434</v>
@@ -19567,7 +19579,7 @@
         <v>2435</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -19587,16 +19599,16 @@
         <v>2440</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="G330" s="1" t="s">
         <v>2441</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -19610,7 +19622,7 @@
         <v>2444</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>2445</v>
@@ -19619,7 +19631,7 @@
         <v>2446</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -19627,20 +19639,20 @@
         <v>2447</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>2448</v>
       </c>
       <c r="E332" s="2"/>
       <c r="F332" s="1" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>2449</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -19660,7 +19672,7 @@
         <v>2454</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="G333" s="1" t="s">
         <v>2455</v>
@@ -19669,7 +19681,7 @@
         <v>2456</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -19677,7 +19689,7 @@
         <v>2457</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>2458</v>
@@ -19689,13 +19701,13 @@
         <v>2460</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="H334" s="1" t="s">
         <v>2461</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -19715,13 +19727,13 @@
         <v>2466</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>2467</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -19741,13 +19753,13 @@
         <v>2472</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>2473</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -19767,7 +19779,7 @@
         <v>2478</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="G337" s="1" t="s">
         <v>2479</v>
@@ -19776,7 +19788,7 @@
         <v>2480</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -19796,7 +19808,7 @@
         <v>2485</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="G338" s="1" t="s">
         <v>2486</v>
@@ -19805,7 +19817,7 @@
         <v>408</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -19813,7 +19825,7 @@
         <v>2487</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>2488</v>
@@ -19825,13 +19837,13 @@
         <v>2490</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="H339" s="1" t="s">
         <v>2491</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -19839,22 +19851,22 @@
         <v>2492</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>2493</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="H340" s="1" t="s">
         <v>2494</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -19874,7 +19886,7 @@
         <v>2499</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="G341" s="1" t="s">
         <v>2500</v>
@@ -19883,12 +19895,12 @@
         <v>2501</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="342" spans="1:9">
       <c r="A342" s="2" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="B342" s="10" t="s">
         <v>2502</v>
@@ -19900,7 +19912,7 @@
         <v>2504</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="G342" s="1" t="s">
         <v>2505</v>
@@ -19909,7 +19921,7 @@
         <v>2506</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -19926,10 +19938,10 @@
         <v>2510</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="G343" s="1" t="s">
         <v>2511</v>
@@ -19938,7 +19950,7 @@
         <v>2512</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -19958,13 +19970,13 @@
         <v>2517</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="H344" s="1" t="s">
         <v>2518</v>
       </c>
       <c r="I344" s="1" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -19972,7 +19984,7 @@
         <v>2519</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>2520</v>
@@ -19982,13 +19994,13 @@
       </c>
       <c r="E345" s="2"/>
       <c r="F345" s="1" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -20008,13 +20020,13 @@
         <v>2526</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="H346" s="1" t="s">
         <v>2527</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -20029,13 +20041,13 @@
       </c>
       <c r="E347" s="2"/>
       <c r="F347" s="1" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="H347" s="1" t="s">
         <v>2531</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -20043,7 +20055,7 @@
         <v>2532</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>2533</v>
@@ -20052,10 +20064,10 @@
         <v>2534</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="G348" s="1" t="s">
         <v>2535</v>
@@ -20064,7 +20076,7 @@
         <v>2536</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -20084,7 +20096,7 @@
         <v>2541</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="G349" s="1" t="s">
         <v>2542</v>
@@ -20093,7 +20105,7 @@
         <v>2543</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -20101,7 +20113,7 @@
         <v>2544</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>2545</v>
@@ -20110,7 +20122,7 @@
         <v>2546</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="G350" s="1" t="s">
         <v>2547</v>
@@ -20119,7 +20131,7 @@
         <v>2548</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -20139,13 +20151,13 @@
         <v>2553</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="H351" s="1" t="s">
         <v>2554</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -20153,7 +20165,7 @@
         <v>2555</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>2556</v>
@@ -20162,10 +20174,10 @@
         <v>2557</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="G352" s="1" t="s">
         <v>2558</v>
@@ -20174,7 +20186,7 @@
         <v>2559</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -20182,7 +20194,7 @@
         <v>2560</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>2561</v>
@@ -20194,13 +20206,13 @@
         <v>2563</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="H353" s="1" t="s">
         <v>2564</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -20208,7 +20220,7 @@
         <v>2565</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>2566</v>
@@ -20220,7 +20232,7 @@
         <v>2568</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="G354" s="1" t="s">
         <v>2569</v>
@@ -20229,7 +20241,7 @@
         <v>102</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -20239,1321 +20251,1321 @@
       <c r="B355" s="5" t="s">
         <v>2571</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="C355" s="13" t="s">
+        <v>3191</v>
+      </c>
+      <c r="E355" s="2" t="s">
         <v>2572</v>
       </c>
-      <c r="E355" s="2" t="s">
+      <c r="F355" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="H355" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="F355" s="1" t="s">
-        <v>2923</v>
-      </c>
-      <c r="H355" s="1" t="s">
-        <v>2574</v>
-      </c>
       <c r="I355" s="2" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="356" spans="1:9">
       <c r="A356" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B356" s="5" t="s">
         <v>2575</v>
       </c>
-      <c r="B356" s="5" t="s">
+      <c r="C356" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="D356" s="1" t="s">
         <v>2577</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="E356" s="2" t="s">
         <v>2578</v>
       </c>
-      <c r="E356" s="2" t="s">
+      <c r="F356" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="H356" s="1" t="s">
         <v>2579</v>
       </c>
-      <c r="F356" s="1" t="s">
-        <v>2924</v>
-      </c>
-      <c r="H356" s="1" t="s">
-        <v>2580</v>
-      </c>
       <c r="I356" s="2" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="357" spans="1:9">
       <c r="A357" s="2" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C357" s="1" t="s">
         <v>2581</v>
       </c>
-      <c r="B357" s="5" t="s">
-        <v>3157</v>
-      </c>
-      <c r="C357" s="1" t="s">
+      <c r="D357" s="1" t="s">
         <v>2582</v>
       </c>
-      <c r="D357" s="1" t="s">
+      <c r="E357" s="2" t="s">
         <v>2583</v>
       </c>
-      <c r="E357" s="2" t="s">
+      <c r="F357" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G357" s="1" t="s">
         <v>2584</v>
-      </c>
-      <c r="F357" s="1" t="s">
-        <v>2925</v>
-      </c>
-      <c r="G357" s="1" t="s">
-        <v>2585</v>
       </c>
       <c r="H357" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="358" spans="1:9">
       <c r="A358" s="2" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B358" s="5" t="s">
         <v>2586</v>
       </c>
-      <c r="B358" s="5" t="s">
+      <c r="C358" s="1" t="s">
         <v>2587</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="D358" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="E358" s="2" t="s">
         <v>2589</v>
       </c>
-      <c r="E358" s="2" t="s">
+      <c r="F358" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="G358" s="1" t="s">
         <v>2590</v>
       </c>
-      <c r="F358" s="1" t="s">
-        <v>2926</v>
-      </c>
-      <c r="G358" s="1" t="s">
+      <c r="H358" s="1" t="s">
         <v>2591</v>
       </c>
-      <c r="H358" s="1" t="s">
-        <v>2592</v>
-      </c>
       <c r="I358" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="359" spans="1:9">
       <c r="A359" s="2" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C359" s="1" t="s">
         <v>2593</v>
       </c>
-      <c r="B359" s="5" t="s">
-        <v>3156</v>
-      </c>
-      <c r="C359" s="1" t="s">
+      <c r="D359" s="1" t="s">
         <v>2594</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>2595</v>
       </c>
       <c r="E359" s="2"/>
       <c r="F359" s="1" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="G359" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="H359" s="1" t="s">
         <v>2596</v>
       </c>
-      <c r="H359" s="1" t="s">
-        <v>2597</v>
-      </c>
       <c r="I359" s="2" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="360" spans="1:9">
       <c r="A360" s="2" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B360" s="5" t="s">
         <v>2598</v>
       </c>
-      <c r="B360" s="5" t="s">
+      <c r="C360" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="C360" s="1" t="s">
+      <c r="D360" s="1" t="s">
         <v>2600</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>2601</v>
       </c>
       <c r="E360" s="2"/>
       <c r="F360" s="1" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="361" spans="1:9">
       <c r="A361" s="2" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B361" s="5" t="s">
         <v>2603</v>
       </c>
-      <c r="B361" s="5" t="s">
+      <c r="C361" s="1" t="s">
         <v>2604</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="D361" s="1" t="s">
         <v>2605</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>2606</v>
       </c>
       <c r="E361" s="2"/>
       <c r="F361" s="1" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>415</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="362" spans="1:9">
       <c r="A362" s="2" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B362" s="5" t="s">
         <v>2607</v>
       </c>
-      <c r="B362" s="5" t="s">
+      <c r="C362" s="1" t="s">
         <v>2608</v>
       </c>
-      <c r="C362" s="1" t="s">
+      <c r="D362" s="1" t="s">
         <v>2609</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>2610</v>
       </c>
       <c r="E362" s="2"/>
       <c r="F362" s="1" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="G362" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="H362" s="1" t="s">
         <v>2611</v>
       </c>
-      <c r="H362" s="1" t="s">
-        <v>2612</v>
-      </c>
       <c r="I362" s="2" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="363" spans="1:9">
       <c r="A363" s="2" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>3154</v>
+      </c>
+      <c r="C363" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="B363" s="5" t="s">
-        <v>3155</v>
-      </c>
-      <c r="C363" s="1" t="s">
+      <c r="D363" s="1" t="s">
         <v>2614</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>2615</v>
       </c>
       <c r="E363" s="2"/>
       <c r="F363" s="1" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="364" spans="1:9">
       <c r="A364" s="2" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>3153</v>
+      </c>
+      <c r="C364" s="1" t="s">
         <v>2617</v>
       </c>
-      <c r="B364" s="5" t="s">
-        <v>3154</v>
-      </c>
-      <c r="C364" s="1" t="s">
+      <c r="D364" s="1" t="s">
         <v>2618</v>
       </c>
-      <c r="D364" s="1" t="s">
+      <c r="E364" s="6" t="s">
         <v>2619</v>
       </c>
-      <c r="E364" s="6" t="s">
-        <v>2620</v>
-      </c>
       <c r="F364" s="1" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="G364" s="7"/>
       <c r="H364" s="1" t="s">
         <v>344</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="365" spans="1:9">
       <c r="A365" s="2" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B365" s="5" t="s">
         <v>2621</v>
       </c>
-      <c r="B365" s="5" t="s">
+      <c r="C365" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="C365" s="1" t="s">
+      <c r="D365" s="6" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E365" s="2" t="s">
         <v>2623</v>
       </c>
-      <c r="D365" s="6" t="s">
+      <c r="F365" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="G365" s="7" t="s">
         <v>3135</v>
-      </c>
-      <c r="E365" s="2" t="s">
-        <v>2624</v>
-      </c>
-      <c r="F365" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="G365" s="7" t="s">
-        <v>3136</v>
       </c>
       <c r="H365" s="1" t="s">
         <v>2512</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="366" spans="1:9">
       <c r="A366" s="2" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="B366" s="5" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C366" s="1" t="s">
         <v>2625</v>
       </c>
-      <c r="C366" s="1" t="s">
-        <v>2626</v>
-      </c>
       <c r="D366" s="6" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="E366" s="2"/>
       <c r="F366" s="1" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="G366" s="7" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="367" spans="1:9">
       <c r="A367" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B367" s="10" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C367" s="1" t="s">
         <v>2628</v>
       </c>
-      <c r="B367" s="10" t="s">
-        <v>3153</v>
-      </c>
-      <c r="C367" s="1" t="s">
+      <c r="D367" s="1" t="s">
         <v>2629</v>
       </c>
-      <c r="D367" s="1" t="s">
+      <c r="E367" s="1" t="s">
         <v>2630</v>
       </c>
-      <c r="E367" s="1" t="s">
+      <c r="F367" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="H367" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="F367" s="1" t="s">
-        <v>2935</v>
-      </c>
-      <c r="H367" s="1" t="s">
-        <v>2632</v>
-      </c>
       <c r="I367" s="1" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="368" spans="1:9">
       <c r="A368" s="2" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B368" s="5" t="s">
         <v>2633</v>
       </c>
-      <c r="B368" s="5" t="s">
+      <c r="C368" s="1" t="s">
         <v>2634</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="D368" s="1" t="s">
         <v>2635</v>
       </c>
-      <c r="D368" s="1" t="s">
+      <c r="E368" s="2" t="s">
         <v>2636</v>
       </c>
-      <c r="E368" s="2" t="s">
+      <c r="F368" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="H368" s="1" t="s">
         <v>2637</v>
       </c>
-      <c r="F368" s="1" t="s">
-        <v>2936</v>
-      </c>
-      <c r="H368" s="1" t="s">
-        <v>2638</v>
-      </c>
       <c r="I368" s="2" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="369" spans="1:9">
       <c r="A369" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B369" s="5" t="s">
         <v>2639</v>
       </c>
-      <c r="B369" s="5" t="s">
+      <c r="C369" s="1" t="s">
         <v>2640</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>2641</v>
       </c>
       <c r="E369" s="2"/>
       <c r="H369" s="1" t="s">
         <v>526</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="370" spans="1:9">
       <c r="A370" s="2" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C370" s="1" t="s">
         <v>2642</v>
-      </c>
-      <c r="B370" s="5" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>2643</v>
       </c>
       <c r="E370" s="2"/>
       <c r="F370" s="1" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="H370" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="371" spans="1:9">
       <c r="A371" s="1" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="C371" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="F371" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="F371" s="1" t="s">
+      <c r="H371" s="1" t="s">
         <v>2645</v>
       </c>
-      <c r="H371" s="1" t="s">
-        <v>2646</v>
-      </c>
       <c r="I371" s="2" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="372" spans="1:9">
       <c r="A372" s="2" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C372" s="1" t="s">
         <v>2647</v>
-      </c>
-      <c r="B372" s="5" t="s">
-        <v>3150</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>2648</v>
       </c>
       <c r="E372" s="2"/>
       <c r="F372" s="1" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="373" spans="1:9">
       <c r="A373" s="2" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B373" s="5" t="s">
         <v>2650</v>
       </c>
-      <c r="B373" s="5" t="s">
+      <c r="C373" s="1" t="s">
         <v>2651</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>2652</v>
       </c>
       <c r="E373" s="2"/>
       <c r="F373" s="1" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="H373" s="1" t="s">
         <v>744</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="374" spans="1:9">
       <c r="A374" s="2" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C374" s="1" t="s">
         <v>2653</v>
       </c>
-      <c r="B374" s="5" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C374" s="1" t="s">
+      <c r="D374" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="D374" s="1" t="s">
+      <c r="E374" s="2" t="s">
         <v>2655</v>
       </c>
-      <c r="E374" s="2" t="s">
+      <c r="F374" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="G374" s="1" t="s">
         <v>2656</v>
       </c>
-      <c r="F374" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="G374" s="1" t="s">
+      <c r="H374" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="H374" s="1" t="s">
-        <v>2658</v>
-      </c>
       <c r="I374" s="2" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="375" spans="1:9">
       <c r="A375" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B375" s="5" t="s">
         <v>2659</v>
       </c>
-      <c r="B375" s="5" t="s">
+      <c r="C375" s="1" t="s">
         <v>2660</v>
       </c>
-      <c r="C375" s="1" t="s">
+      <c r="D375" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="D375" s="1" t="s">
+      <c r="E375" s="2" t="s">
         <v>2662</v>
       </c>
-      <c r="E375" s="2" t="s">
-        <v>2663</v>
-      </c>
       <c r="F375" s="1" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="376" spans="1:9">
       <c r="A376" s="2" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C376" s="1" t="s">
         <v>2664</v>
-      </c>
-      <c r="B376" s="5" t="s">
-        <v>3148</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>2665</v>
       </c>
       <c r="E376" s="2"/>
       <c r="F376" s="1" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="H376" s="1" t="s">
         <v>408</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="377" spans="1:9">
       <c r="A377" s="2" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C377" s="1" t="s">
         <v>2666</v>
       </c>
-      <c r="B377" s="5" t="s">
-        <v>3147</v>
-      </c>
-      <c r="C377" s="1" t="s">
+      <c r="D377" s="1" t="s">
         <v>2667</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>2668</v>
       </c>
       <c r="E377" s="11"/>
       <c r="F377" s="1" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="378" spans="1:9">
       <c r="A378" s="2" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C378" s="1" t="s">
         <v>2670</v>
-      </c>
-      <c r="B378" s="5" t="s">
-        <v>3146</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>2671</v>
       </c>
       <c r="E378" s="2"/>
       <c r="F378" s="1" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="H378" s="1" t="s">
         <v>508</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="379" spans="1:9">
       <c r="A379" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B379" s="5" t="s">
         <v>2672</v>
       </c>
-      <c r="B379" s="5" t="s">
+      <c r="C379" s="1" t="s">
         <v>2673</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="D379" s="1" t="s">
         <v>2674</v>
       </c>
-      <c r="D379" s="1" t="s">
+      <c r="E379" s="2" t="s">
         <v>2675</v>
       </c>
-      <c r="E379" s="2" t="s">
+      <c r="F379" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="H379" s="1" t="s">
         <v>2676</v>
       </c>
-      <c r="F379" s="1" t="s">
-        <v>2945</v>
-      </c>
-      <c r="H379" s="1" t="s">
-        <v>2677</v>
-      </c>
       <c r="I379" s="2" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="380" spans="1:9">
       <c r="A380" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C380" s="1" t="s">
         <v>2678</v>
       </c>
-      <c r="B380" s="5" t="s">
-        <v>3145</v>
-      </c>
-      <c r="C380" s="1" t="s">
+      <c r="D380" s="1" t="s">
         <v>2679</v>
       </c>
-      <c r="D380" s="1" t="s">
+      <c r="E380" s="2" t="s">
         <v>2680</v>
       </c>
-      <c r="E380" s="2" t="s">
+      <c r="F380" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="G380" s="1" t="s">
         <v>2681</v>
       </c>
-      <c r="F380" s="1" t="s">
-        <v>2946</v>
-      </c>
-      <c r="G380" s="1" t="s">
+      <c r="H380" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="H380" s="1" t="s">
-        <v>2683</v>
-      </c>
       <c r="I380" s="2" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="381" spans="1:9">
       <c r="A381" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B381" s="10" t="s">
         <v>2684</v>
       </c>
-      <c r="B381" s="10" t="s">
+      <c r="C381" s="1" t="s">
         <v>2685</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="D381" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="D381" s="1" t="s">
+      <c r="F381" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="H381" s="1" t="s">
         <v>2687</v>
       </c>
-      <c r="F381" s="1" t="s">
-        <v>2947</v>
-      </c>
-      <c r="H381" s="1" t="s">
-        <v>2688</v>
-      </c>
       <c r="I381" s="1" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="382" spans="1:9">
       <c r="A382" s="2" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C382" s="1" t="s">
         <v>2689</v>
       </c>
-      <c r="B382" s="5" t="s">
-        <v>3006</v>
-      </c>
-      <c r="C382" s="1" t="s">
+      <c r="D382" s="1" t="s">
         <v>2690</v>
       </c>
-      <c r="D382" s="1" t="s">
+      <c r="E382" s="2" t="s">
         <v>2691</v>
       </c>
-      <c r="E382" s="2" t="s">
+      <c r="F382" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="G382" s="1" t="s">
         <v>2692</v>
       </c>
-      <c r="F382" s="1" t="s">
-        <v>2948</v>
-      </c>
-      <c r="G382" s="1" t="s">
+      <c r="H382" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="H382" s="1" t="s">
-        <v>2694</v>
-      </c>
       <c r="I382" s="2" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="383" spans="1:9">
       <c r="A383" s="2" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B383" s="5" t="s">
         <v>2695</v>
       </c>
-      <c r="B383" s="5" t="s">
+      <c r="C383" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="C383" s="1" t="s">
+      <c r="D383" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="D383" s="1" t="s">
+      <c r="E383" s="6" t="s">
         <v>2698</v>
       </c>
-      <c r="E383" s="6" t="s">
+      <c r="F383" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="G383" s="1" t="s">
         <v>2699</v>
       </c>
-      <c r="F383" s="1" t="s">
-        <v>2949</v>
-      </c>
-      <c r="G383" s="1" t="s">
+      <c r="H383" s="1" t="s">
         <v>2700</v>
       </c>
-      <c r="H383" s="1" t="s">
-        <v>2701</v>
-      </c>
       <c r="I383" s="2" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="384" spans="1:9">
       <c r="A384" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B384" s="10" t="s">
         <v>2702</v>
       </c>
-      <c r="B384" s="10" t="s">
+      <c r="C384" s="1" t="s">
         <v>2703</v>
       </c>
-      <c r="C384" s="1" t="s">
+      <c r="D384" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="D384" s="1" t="s">
+      <c r="E384" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="E384" s="1" t="s">
+      <c r="F384" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="G384" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="F384" s="1" t="s">
-        <v>2950</v>
-      </c>
-      <c r="G384" s="1" t="s">
+      <c r="H384" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="H384" s="1" t="s">
-        <v>2708</v>
-      </c>
       <c r="I384" s="1" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="385" spans="1:9">
       <c r="A385" s="2" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B385" s="5" t="s">
         <v>2709</v>
       </c>
-      <c r="B385" s="5" t="s">
+      <c r="C385" s="1" t="s">
         <v>2710</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="D385" s="1" t="s">
         <v>2711</v>
       </c>
-      <c r="D385" s="1" t="s">
+      <c r="E385" s="6" t="s">
+        <v>2984</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="H385" s="1" t="s">
         <v>2712</v>
       </c>
-      <c r="E385" s="6" t="s">
-        <v>2985</v>
-      </c>
-      <c r="F385" s="1" t="s">
-        <v>2951</v>
-      </c>
-      <c r="H385" s="1" t="s">
-        <v>2713</v>
-      </c>
       <c r="I385" s="2" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="386" spans="1:9">
       <c r="A386" s="2" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C386" s="1" t="s">
         <v>2714</v>
       </c>
-      <c r="B386" s="5" t="s">
-        <v>3144</v>
-      </c>
-      <c r="C386" s="1" t="s">
+      <c r="D386" s="1" t="s">
         <v>2715</v>
       </c>
-      <c r="D386" s="1" t="s">
+      <c r="E386" s="2" t="s">
         <v>2716</v>
       </c>
-      <c r="E386" s="2" t="s">
+      <c r="F386" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="G386" s="1" t="s">
         <v>2717</v>
       </c>
-      <c r="F386" s="1" t="s">
-        <v>2952</v>
-      </c>
-      <c r="G386" s="1" t="s">
+      <c r="H386" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="H386" s="1" t="s">
-        <v>2719</v>
-      </c>
       <c r="I386" s="2" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="387" spans="1:9">
       <c r="A387" s="2" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B387" s="5" t="s">
         <v>2720</v>
       </c>
-      <c r="B387" s="5" t="s">
+      <c r="C387" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="C387" s="1" t="s">
+      <c r="D387" s="1" t="s">
         <v>2722</v>
       </c>
-      <c r="D387" s="1" t="s">
+      <c r="E387" s="6" t="s">
         <v>2723</v>
       </c>
-      <c r="E387" s="6" t="s">
+      <c r="F387" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="G387" s="1" t="s">
         <v>2724</v>
-      </c>
-      <c r="F387" s="1" t="s">
-        <v>2953</v>
-      </c>
-      <c r="G387" s="1" t="s">
-        <v>2725</v>
       </c>
       <c r="H387" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I387" s="2" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="388" spans="1:9">
       <c r="A388" s="2" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>2726</v>
       </c>
-      <c r="B388" s="5" t="s">
-        <v>3005</v>
-      </c>
-      <c r="C388" s="1" t="s">
+      <c r="D388" s="1" t="s">
         <v>2727</v>
       </c>
-      <c r="D388" s="1" t="s">
+      <c r="E388" s="2" t="s">
         <v>2728</v>
       </c>
-      <c r="E388" s="2" t="s">
+      <c r="F388" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="H388" s="1" t="s">
         <v>2729</v>
       </c>
-      <c r="F388" s="1" t="s">
-        <v>2994</v>
-      </c>
-      <c r="H388" s="1" t="s">
-        <v>2730</v>
-      </c>
       <c r="I388" s="2" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="389" spans="1:9">
       <c r="A389" s="2" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>2995</v>
       </c>
-      <c r="B389" s="5" t="s">
-        <v>3004</v>
-      </c>
-      <c r="C389" s="1" t="s">
+      <c r="D389" s="6" t="s">
         <v>2996</v>
-      </c>
-      <c r="D389" s="6" t="s">
-        <v>2997</v>
       </c>
       <c r="E389" s="2"/>
       <c r="F389" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="G389" s="1" t="s">
         <v>2998</v>
       </c>
-      <c r="G389" s="1" t="s">
+      <c r="H389" s="1" t="s">
         <v>2999</v>
       </c>
-      <c r="H389" s="1" t="s">
+      <c r="I389" s="2" t="s">
         <v>3000</v>
-      </c>
-      <c r="I389" s="2" t="s">
-        <v>3001</v>
       </c>
     </row>
     <row r="390" spans="1:9">
       <c r="A390" s="2" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C390" s="1" t="s">
         <v>2731</v>
       </c>
-      <c r="B390" s="5" t="s">
-        <v>3143</v>
-      </c>
-      <c r="C390" s="1" t="s">
+      <c r="D390" s="1" t="s">
         <v>2732</v>
       </c>
-      <c r="D390" s="1" t="s">
+      <c r="E390" s="2" t="s">
         <v>2733</v>
       </c>
-      <c r="E390" s="2" t="s">
+      <c r="F390" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="G390" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="F390" s="1" t="s">
-        <v>2954</v>
-      </c>
-      <c r="G390" s="1" t="s">
+      <c r="H390" s="1" t="s">
         <v>2735</v>
       </c>
-      <c r="H390" s="1" t="s">
-        <v>2736</v>
-      </c>
       <c r="I390" s="2" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="391" spans="1:9">
       <c r="A391" s="2" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B391" s="5" t="s">
         <v>2737</v>
       </c>
-      <c r="B391" s="5" t="s">
+      <c r="C391" s="1" t="s">
         <v>2738</v>
       </c>
-      <c r="C391" s="1" t="s">
+      <c r="D391" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="D391" s="1" t="s">
+      <c r="E391" s="2" t="s">
         <v>2740</v>
       </c>
-      <c r="E391" s="2" t="s">
+      <c r="F391" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="H391" s="1" t="s">
         <v>2741</v>
       </c>
-      <c r="F391" s="1" t="s">
-        <v>2955</v>
-      </c>
-      <c r="H391" s="1" t="s">
-        <v>2742</v>
-      </c>
       <c r="I391" s="2" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="392" spans="1:9">
       <c r="A392" s="2" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C392" s="1" t="s">
         <v>2743</v>
       </c>
-      <c r="B392" s="5" t="s">
-        <v>3003</v>
-      </c>
-      <c r="C392" s="1" t="s">
+      <c r="D392" s="1" t="s">
         <v>2744</v>
       </c>
-      <c r="D392" s="1" t="s">
+      <c r="E392" s="2" t="s">
         <v>2745</v>
       </c>
-      <c r="E392" s="2" t="s">
+      <c r="F392" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="G392" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="F392" s="1" t="s">
-        <v>2956</v>
-      </c>
-      <c r="G392" s="1" t="s">
+      <c r="H392" s="1" t="s">
         <v>2747</v>
       </c>
-      <c r="H392" s="1" t="s">
-        <v>2748</v>
-      </c>
       <c r="I392" s="2" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="393" spans="1:9">
       <c r="A393" s="2" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B393" s="5" t="s">
         <v>2749</v>
       </c>
-      <c r="B393" s="5" t="s">
+      <c r="C393" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="C393" s="1" t="s">
+      <c r="D393" s="6" t="s">
+        <v>3136</v>
+      </c>
+      <c r="E393" s="2" t="s">
         <v>2751</v>
       </c>
-      <c r="D393" s="6" t="s">
-        <v>3137</v>
-      </c>
-      <c r="E393" s="2" t="s">
-        <v>2752</v>
-      </c>
       <c r="F393" s="1" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="H393" s="1" t="s">
         <v>1095</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="394" spans="1:9">
       <c r="A394" s="2" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C394" s="1" t="s">
         <v>2753</v>
       </c>
-      <c r="B394" s="5" t="s">
-        <v>2986</v>
-      </c>
-      <c r="C394" s="1" t="s">
+      <c r="D394" s="1" t="s">
         <v>2754</v>
       </c>
-      <c r="D394" s="1" t="s">
+      <c r="E394" s="2" t="s">
         <v>2755</v>
       </c>
-      <c r="E394" s="2" t="s">
+      <c r="F394" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="H394" s="1" t="s">
         <v>2756</v>
       </c>
-      <c r="F394" s="1" t="s">
-        <v>2958</v>
-      </c>
-      <c r="H394" s="1" t="s">
-        <v>2757</v>
-      </c>
       <c r="I394" s="2" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="395" spans="1:9">
       <c r="A395" s="2" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B395" s="5" t="s">
         <v>2758</v>
       </c>
-      <c r="B395" s="5" t="s">
+      <c r="C395" s="1" t="s">
         <v>2759</v>
       </c>
-      <c r="C395" s="1" t="s">
+      <c r="D395" s="1" t="s">
         <v>2760</v>
       </c>
-      <c r="D395" s="1" t="s">
+      <c r="E395" s="2" t="s">
         <v>2761</v>
       </c>
-      <c r="E395" s="2" t="s">
+      <c r="F395" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="H395" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="F395" s="1" t="s">
-        <v>2959</v>
-      </c>
-      <c r="H395" s="1" t="s">
-        <v>2763</v>
-      </c>
       <c r="I395" s="2" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="396" spans="1:9">
       <c r="A396" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B396" s="10" t="s">
         <v>2764</v>
       </c>
-      <c r="B396" s="10" t="s">
+      <c r="C396" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="C396" s="1" t="s">
+      <c r="F396" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="G396" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="F396" s="1" t="s">
-        <v>2960</v>
-      </c>
-      <c r="G396" s="1" t="s">
+      <c r="H396" s="1" t="s">
         <v>2767</v>
       </c>
-      <c r="H396" s="1" t="s">
-        <v>2768</v>
-      </c>
       <c r="I396" s="1" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="397" spans="1:9">
       <c r="A397" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C397" s="1" t="s">
         <v>2769</v>
       </c>
-      <c r="B397" s="10" t="s">
-        <v>3142</v>
-      </c>
-      <c r="C397" s="1" t="s">
+      <c r="D397" s="1" t="s">
         <v>2770</v>
       </c>
-      <c r="D397" s="1" t="s">
+      <c r="G397" s="1" t="s">
         <v>2771</v>
       </c>
-      <c r="G397" s="1" t="s">
+      <c r="H397" s="1" t="s">
         <v>2772</v>
       </c>
-      <c r="H397" s="1" t="s">
-        <v>2773</v>
-      </c>
       <c r="I397" s="1" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="398" spans="1:9">
       <c r="A398" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B398" s="10" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C398" s="1" t="s">
         <v>2774</v>
       </c>
-      <c r="B398" s="10" t="s">
-        <v>3141</v>
-      </c>
-      <c r="C398" s="1" t="s">
+      <c r="D398" s="1" t="s">
         <v>2775</v>
       </c>
-      <c r="D398" s="1" t="s">
+      <c r="H398" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="H398" s="1" t="s">
-        <v>2777</v>
-      </c>
       <c r="I398" s="1" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="399" spans="1:9">
       <c r="A399" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B399" s="10" t="s">
         <v>2778</v>
       </c>
-      <c r="B399" s="10" t="s">
+      <c r="D399" s="6" t="s">
+        <v>3137</v>
+      </c>
+      <c r="E399" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="D399" s="6" t="s">
-        <v>3138</v>
-      </c>
-      <c r="E399" s="1" t="s">
+      <c r="F399" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="G399" s="1" t="s">
         <v>2780</v>
       </c>
-      <c r="F399" s="1" t="s">
-        <v>2961</v>
-      </c>
-      <c r="G399" s="1" t="s">
+      <c r="H399" s="1" t="s">
         <v>2781</v>
       </c>
-      <c r="H399" s="1" t="s">
-        <v>2782</v>
-      </c>
       <c r="I399" s="1" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="400" spans="1:9">
       <c r="A400" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B400" s="10" t="s">
         <v>2783</v>
       </c>
-      <c r="B400" s="10" t="s">
+      <c r="C400" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="C400" s="1" t="s">
+      <c r="D400" s="1" t="s">
         <v>2785</v>
       </c>
-      <c r="D400" s="1" t="s">
+      <c r="E400" s="1" t="s">
         <v>2786</v>
       </c>
-      <c r="E400" s="1" t="s">
+      <c r="F400" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="H400" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="F400" s="1" t="s">
-        <v>2962</v>
-      </c>
-      <c r="H400" s="1" t="s">
-        <v>2788</v>
-      </c>
       <c r="I400" s="1" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="401" spans="1:10">
       <c r="A401" s="1" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="B401" s="10" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>2789</v>
       </c>
-      <c r="C401" s="1" t="s">
+      <c r="D401" s="1" t="s">
         <v>2790</v>
       </c>
-      <c r="D401" s="1" t="s">
+      <c r="F401" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G401" s="1" t="s">
         <v>2791</v>
       </c>
-      <c r="F401" s="1" t="s">
-        <v>2963</v>
-      </c>
-      <c r="G401" s="1" t="s">
+      <c r="H401" s="1" t="s">
         <v>2792</v>
       </c>
-      <c r="H401" s="1" t="s">
-        <v>2793</v>
-      </c>
       <c r="I401" s="1" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="402" spans="1:10">
       <c r="A402" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B402" s="10" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C402" s="1" t="s">
         <v>2794</v>
       </c>
-      <c r="B402" s="10" t="s">
-        <v>2987</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>2795</v>
-      </c>
       <c r="D402" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="G402" s="1" t="s">
         <v>2791</v>
-      </c>
-      <c r="F402" s="1" t="s">
-        <v>2964</v>
-      </c>
-      <c r="G402" s="1" t="s">
-        <v>2792</v>
       </c>
       <c r="H402" s="1" t="s">
         <v>480</v>
       </c>
       <c r="I402" s="1" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="403" spans="1:10">
       <c r="A403" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B403" s="10" t="s">
         <v>2796</v>
       </c>
-      <c r="B403" s="10" t="s">
+      <c r="C403" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="C403" s="1" t="s">
+      <c r="D403" s="6" t="s">
+        <v>3138</v>
+      </c>
+      <c r="E403" s="6" t="s">
         <v>2798</v>
       </c>
-      <c r="D403" s="6" t="s">
-        <v>3139</v>
-      </c>
-      <c r="E403" s="6" t="s">
+      <c r="F403" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="G403" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="F403" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="G403" s="1" t="s">
+      <c r="H403" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="H403" s="1" t="s">
-        <v>2801</v>
-      </c>
       <c r="I403" s="1" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="404" spans="1:10">
       <c r="A404" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B404" s="10" t="s">
         <v>2802</v>
       </c>
-      <c r="B404" s="10" t="s">
+      <c r="C404" s="1" t="s">
         <v>2803</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="D404" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="D404" s="1" t="s">
+      <c r="E404" s="1" t="s">
         <v>2805</v>
       </c>
-      <c r="E404" s="1" t="s">
-        <v>2806</v>
-      </c>
       <c r="F404" s="1" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="J404" s="2"/>
     </row>
     <row r="405" spans="1:10">
       <c r="A405" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B405" s="10" t="s">
         <v>2807</v>
       </c>
-      <c r="B405" s="10" t="s">
+      <c r="E405" s="1" t="s">
         <v>2808</v>
       </c>
-      <c r="E405" s="1" t="s">
+      <c r="F405" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="H405" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="F405" s="1" t="s">
-        <v>2967</v>
-      </c>
-      <c r="H405" s="1" t="s">
-        <v>2810</v>
-      </c>
       <c r="I405" s="1" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="J405" s="2"/>
     </row>
     <row r="406" spans="1:10">
       <c r="A406" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B406" s="10" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C406" s="1" t="s">
         <v>2811</v>
       </c>
-      <c r="B406" s="10" t="s">
-        <v>3140</v>
-      </c>
-      <c r="C406" s="1" t="s">
+      <c r="E406" s="1" t="s">
         <v>2812</v>
       </c>
-      <c r="E406" s="1" t="s">
+      <c r="F406" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="G406" s="1" t="s">
         <v>2813</v>
-      </c>
-      <c r="F406" s="1" t="s">
-        <v>2968</v>
-      </c>
-      <c r="G406" s="1" t="s">
-        <v>2814</v>
       </c>
       <c r="H406" s="1" t="s">
         <v>767</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="J406" s="2"/>
     </row>
